--- a/Test/WaterTableExample_simple.xlsx
+++ b/Test/WaterTableExample_simple.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="6920" yWindow="1960" windowWidth="32020" windowHeight="19300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>anal</t>
   </si>
@@ -32,18 +37,55 @@
   <si>
     <t>heter 2D</t>
   </si>
+  <si>
+    <t>x/l</t>
+  </si>
+  <si>
+    <t>homo 1D</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>qm</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,14 +108,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="71">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -107,10 +289,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6870441446075525E-2"/>
-          <c:y val="4.214129483814523E-2"/>
-          <c:w val="0.83235020245584879"/>
-          <c:h val="0.8326195683872849"/>
+          <c:x val="0.0968704414460755"/>
+          <c:y val="0.0421412948381452"/>
+          <c:w val="0.832350202455849"/>
+          <c:h val="0.832619568387285"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -140,34 +322,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7777777777777779</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888906</c:v>
+                  <c:v>0.888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -179,34 +361,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9374142800000005</c:v>
+                  <c:v>8.93741428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8112691400000003</c:v>
+                  <c:v>7.81126914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6086214300000004</c:v>
+                  <c:v>6.60862143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3113507100000001</c:v>
+                  <c:v>5.31135071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2744375999999997</c:v>
+                  <c:v>4.2744376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5306394000000001</c:v>
+                  <c:v>3.5306394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7433608700000001</c:v>
+                  <c:v>2.74336087</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.90385896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,34 +419,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7777777777777779</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888906</c:v>
+                  <c:v>0.888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -276,34 +458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2100448900000007</c:v>
+                  <c:v>9.21004489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3861184899999994</c:v>
+                  <c:v>8.38611849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5234094599999999</c:v>
+                  <c:v>7.52340946</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.61584722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6555841899999999</c:v>
+                  <c:v>5.65558419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6321657900000002</c:v>
+                  <c:v>4.63216579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5311201799999998</c:v>
+                  <c:v>3.53112018</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.33137375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,8 +506,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -334,34 +527,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7777777777777779</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888906</c:v>
+                  <c:v>0.888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,34 +566,671 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4339811320566032</c:v>
+                  <c:v>9.209372712298546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8317608663278477</c:v>
+                  <c:v>8.384776310850234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>7.521415467935231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4833147735478827</c:v>
+                  <c:v>6.61324772583615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7082039324993694</c:v>
+                  <c:v>5.652475842498529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.830951894845299</c:v>
+                  <c:v>4.628738838327793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7958315233127182</c:v>
+                  <c:v>3.527749258468681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4641016151377526</c:v>
+                  <c:v>2.32882800593795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999999999998579</c:v>
+                  <c:v>0.999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>homo 1D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0404040404040404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0505050505050505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0707070707070707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0808080808080808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.131313131313131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.141414141414141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.161616161616162</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.171717171717172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.191919191919192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.212121212121212</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.232323232323232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.252525252525253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.262626262626263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.282828282828283</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.292929292929293</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.313131313131313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.323232323232323</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.343434343434344</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.353535353535354</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.373737373737374</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.383838383838384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.404040404040404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.414141414141414</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.434343434343435</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.464646464646465</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.474747474747475</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.494949494949495</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.505050505050505</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.525252525252525</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.535353535353535</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.565656565656566</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.585858585858586</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.595959595959596</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.616161616161616</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.626262626262626</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.646464646464646</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.656565656565656</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.676767676767676</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.686868686868686</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.696969696969696</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.707070707070706</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.717171717171716</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.737373737373736</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.747474747474747</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.757575757575757</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.767676767676767</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.797979797979797</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.808080808080807</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.828282828282827</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.838383838383837</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.848484848484847</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.858585858585857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.868686868686867</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.878787878787877</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.888888888888887</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.898989898989897</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.919191919191918</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.929292929292928</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.949494949494948</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.959595959595958</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.969696969696968</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.979797979797978</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.989898989898988</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.92939580133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.85854776804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.787453147700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7161090673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.64451260061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.57266076687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.50055052936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.428178793980001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3555424078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.28263815748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.20946276774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.13601289971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.06228514926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.98827604523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.91398204768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.83939954596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.76452485689</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.68935422264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.61388380881</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.538109702170001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.46202790856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.38563435053</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.308924865030001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.23189520091</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.15454101642</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.07685787655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.99884125034</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.920486508</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.841788918</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.76274364403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.68334574181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.60359015586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.52347171602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.44298513396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3621249995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.28088577673</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.19926180012</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.1172472703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.03483624981</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.95202265857</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.86880026927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.78516270251</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.70110342167</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.61661572772</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.53169275369</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.44632745892</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.3605126231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.27424084003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.18750451109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.10029583844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.01260681792</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.92442923159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.83575463997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.74657437394</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.65687952618</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5666609423</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.47590921148</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.38461465674</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.29276732464</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.20035697455</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.10737306738</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.01380475374</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.91964086147</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.82486988264</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.72947995974</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.63345887125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.53679401648</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.43947239948</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.34148061222</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.24280481679</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.14343072663</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.04334358675</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.94252815281</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.84096866907</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.73864884497</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.63555183047</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.53166018991</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.42695587424</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.32142019175</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2150337768</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.10777655686</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9996277173</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.89056566409</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.78056798405</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.66961140255</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.55767173845</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.44472385598</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.33074161348</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.21569780857</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.09956411951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.98231104253</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.86390782458</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.74432239132</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6235212698</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.50146950533</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.37813057216</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.25346627728</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.12743665666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,13 +1245,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46942080"/>
-        <c:axId val="46940544"/>
+        <c:axId val="2098767352"/>
+        <c:axId val="2098770344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46942080"/>
+        <c:axId val="2098767352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -429,14 +1260,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46940544"/>
+        <c:crossAx val="2098770344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46940544"/>
+        <c:axId val="2098770344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -445,7 +1277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46942080"/>
+        <c:crossAx val="2098767352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -456,13 +1288,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.58945800524934389"/>
-          <c:y val="7.3498104403616218E-2"/>
-          <c:w val="0.22537728010129388"/>
-          <c:h val="0.25115157480314959"/>
+          <c:x val="0.107595490736912"/>
+          <c:y val="0.608654979521941"/>
+          <c:w val="0.125014388090498"/>
+          <c:h val="0.238833517298371"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="CCFFCC"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -480,16 +1317,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -798,15 +1635,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="B1">
         <v>10</v>
       </c>
@@ -838,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3">
         <v>10</v>
       </c>
@@ -870,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -886,8 +1723,35 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -898,15 +1762,57 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <f>SQRT(B$6^2-$A6*(B$6^2-B$15^2))</f>
+        <f>SQRT((B$6+10)^2-$A6*((B$6+10)^2-(B$15+10)^2))-10</f>
         <v>10</v>
       </c>
       <c r="E6" s="1">
         <f>(D6-C6)/D6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <f>SQRT(((Q$6+10)^2)-$P6*((Q$6+10)^2-(Q$105+10)^2))-10</f>
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <f>(Q6-R6)/R6</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>0.5*(Q6+Q7)+10</f>
+        <v>19.964697900665001</v>
+      </c>
+      <c r="U6">
+        <f>0.5*(R6+R7)+10</f>
+        <v>19.964710459689961</v>
+      </c>
+      <c r="V6">
+        <f>-10*((Q6-Q7)/50)*1*T6</f>
+        <v>-0.28191829939301988</v>
+      </c>
+      <c r="W6">
+        <f>-0.5*10*(((R6+10)^2-(R7+10)^2)/50)*1</f>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X6">
+        <f>V6/W6</f>
+        <v>1.0003552559107176</v>
+      </c>
+      <c r="Y6">
+        <f>Q7-Q6</f>
+        <v>-7.0604198670000784E-2</v>
+      </c>
+      <c r="Z6">
+        <f>Y6*3.9929271</f>
+        <v>-0.28191741824323008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <f>A6+1/9</f>
         <v>0.1111111111111111</v>
@@ -918,17 +1824,56 @@
         <v>9.2100448900000007</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D15" si="0">SQRT(B$6^2-$A7*(B$6^2-B$15^2))</f>
-        <v>9.4339811320566032</v>
+        <f>SQRT((B$6+10)^2-$A7*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>9.2093727122985456</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E15" si="1">(D7-C7)/D7</f>
-        <v>2.373719418365897E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E7:E15" si="0">(D7-C7)/D7</f>
+        <v>-7.2988434984009356E-5</v>
+      </c>
+      <c r="F7">
+        <f>C$6-A7*(10-1)</f>
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <f>P6+1/99</f>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="Q7">
+        <v>9.9293958013299992</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R70" si="1">SQRT(((Q$6+10)^2)-$P7*((Q$6+10)^2-(Q$105+10)^2))-10</f>
+        <v>9.9294209193799254</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S70" si="2">(Q7-R7)/R7</f>
+        <v>-2.5296590939352627E-6</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T70" si="3">0.5*(Q7+Q8)+10</f>
+        <v>19.893971784685</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U70" si="4">0.5*(R7+R8)+10</f>
+        <v>19.894005957906799</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V70" si="5">-10*((Q7-Q8)/50)*1*T7</f>
+        <v>-0.28188975505433628</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W70" si="6">-0.5*10*(((R7+10)^2-(R8+10)^2)/50)*1</f>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X7">
+        <f>V7/W7</f>
+        <v>1.0002539695476467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
-        <f t="shared" ref="A8:A15" si="2">A7+1/9</f>
+        <f t="shared" ref="A8:A15" si="7">A7+1/9</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="B8">
@@ -938,17 +1883,56 @@
         <v>8.3861184899999994</v>
       </c>
       <c r="D8">
+        <f>SQRT((B$6+10)^2-$A8*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>8.3847763108502349</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.8317608663278477</v>
-      </c>
-      <c r="E8" s="1">
+        <v>-1.6007334006366987E-4</v>
+      </c>
+      <c r="F8">
+        <f>C$6-A8*(10-1)</f>
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P71" si="8">P7+1/99</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="Q8">
+        <v>9.8585477680399993</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="1"/>
-        <v>5.0459062815764587E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.8585909964336693</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>-4.3848450235565679E-6</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>19.823000457870002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>19.823049266952118</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>-0.28186173831037675</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X8">
+        <f>V8/W8</f>
+        <v>1.0001545552948667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B9">
@@ -958,17 +1942,56 @@
         <v>7.5234094599999999</v>
       </c>
       <c r="D9">
+        <f>SQRT((B$6+10)^2-$A9*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>7.5214154679352312</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>8.1853527718724504</v>
-      </c>
-      <c r="E9" s="1">
+        <v>-2.6510861861963844E-4</v>
+      </c>
+      <c r="F9">
+        <f>C$6-A9*(10-1)</f>
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.7874531477000009</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="1"/>
-        <v>8.0869246606829731E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.7875075374705673</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>-5.5570604015640676E-6</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>19.751781107500001</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>19.751837668855945</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>-0.28183453187534085</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X9">
+        <f>V9/W9</f>
+        <v>1.0000580163318766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="B10">
@@ -978,17 +2001,56 @@
         <v>6.61584722</v>
       </c>
       <c r="D10">
+        <f>SQRT((B$6+10)^2-$A10*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>6.6132477258361497</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>7.4833147735478827</v>
-      </c>
-      <c r="E10" s="1">
+        <v>-3.9307376218416704E-4</v>
+      </c>
+      <c r="F10">
+        <f>C$6-A10*(10-1)</f>
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="Q10">
+        <v>9.7161090672999997</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="1"/>
-        <v>0.1159202278399698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.7161678002413225</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>-6.0448669197952728E-6</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>19.680310833954998</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>19.680368396472453</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>-0.28180814381442088</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X10">
+        <f>V10/W10</f>
+        <v>0.99996438127697918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="B11">
@@ -998,17 +2060,56 @@
         <v>5.6555841899999999</v>
       </c>
       <c r="D11">
+        <f>SQRT((B$6+10)^2-$A11*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>5.6524758424985286</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="E11" s="1">
+        <v>-5.4990902890746389E-4</v>
+      </c>
+      <c r="F11">
+        <f>C$6-A11*(10-1)</f>
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>5.0505050505050511E-2</v>
+      </c>
+      <c r="Q11">
+        <v>9.6445126006099997</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="1"/>
-        <v>0.15691528657912762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.6445689927035794</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>-5.8470309686542379E-6</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>19.60858668374</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>19.608638632225233</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>-0.28178258205529388</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819263</v>
+      </c>
+      <c r="X11">
+        <f>V11/W11</f>
+        <v>0.99987367826068185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="B12">
@@ -1018,17 +2119,56 @@
         <v>4.6321657900000002</v>
       </c>
       <c r="D12">
+        <f>SQRT((B$6+10)^2-$A12*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>4.6287388383277932</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>5.830951894845299</v>
-      </c>
-      <c r="E12" s="1">
+        <v>-7.4036401531891354E-4</v>
+      </c>
+      <c r="F12">
+        <f>C$6-A12*(10-1)</f>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>6.0606060606060615E-2</v>
+      </c>
+      <c r="Q12">
+        <v>9.5726607668699994</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="1"/>
-        <v>0.20559012086946804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.5727082717468868</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>-4.9625326019307955E-6</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>19.536605648115</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>19.536645506811126</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>-0.28175785468495429</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X12">
+        <f>V12/W12</f>
+        <v>0.99978593597889198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.7777777777777779</v>
       </c>
       <c r="B13">
@@ -1038,17 +2178,56 @@
         <v>3.5311201799999998</v>
       </c>
       <c r="D13">
+        <f>SQRT((B$6+10)^2-$A13*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>3.5277492584686811</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4.7958315233127182</v>
-      </c>
-      <c r="E13" s="1">
+        <v>-9.555445368534854E-4</v>
+      </c>
+      <c r="F13">
+        <f>C$6-A13*(10-1)</f>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>7.0707070707070718E-2</v>
+      </c>
+      <c r="Q13">
+        <v>9.5005505293599999</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="1"/>
-        <v>0.26371054470218747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.5005827418753626</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>-3.390583108201457E-6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>19.46436466167</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>19.464386097860842</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>-0.28173396972683734</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X13">
+        <f>V13/W13</f>
+        <v>0.99970118290168275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.88888888888888906</v>
       </c>
       <c r="B14">
@@ -1058,17 +2237,56 @@
         <v>2.33137375</v>
       </c>
       <c r="D14">
+        <f>SQRT((B$6+10)^2-$A14*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>2.3288280059379503</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>3.4641016151377526</v>
-      </c>
-      <c r="E14" s="1">
+        <v>-1.0931438713201391E-3</v>
+      </c>
+      <c r="F14">
+        <f>C$6-A14*(10-1)</f>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>8.0808080808080815E-2</v>
+      </c>
+      <c r="Q14">
+        <v>9.4281787939800008</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="1"/>
-        <v>0.32699036892793598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.428189453846322</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>-1.1306376874784392E-6</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>19.391860600889999</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>19.391857428554715</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>-0.28171093507099848</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X14">
+        <f>V14/W14</f>
+        <v>0.99961944702612548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="B15">
@@ -1078,30 +2296,4493 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <f>SQRT((B$6+10)^2-$A15*((B$6+10)^2-(B$15+10)^2))-10</f>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0.99999999999998579</v>
-      </c>
-      <c r="E15" s="1">
+        <v>-1.7763568394002536E-15</v>
+      </c>
+      <c r="F15">
+        <f>C$6-A15*(10-1)</f>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Q15">
+        <v>9.3555424077999998</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="1"/>
-        <v>-1.4210854715202206E-14</v>
+        <v>9.3555254032631119</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>1.8175929362533867E-6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>19.319090282639998</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>19.319056466191654</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>-0.28168875878405547</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X78" si="9">V15/W15</f>
+        <v>0.99954075697570266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>0.10101010101010101</v>
+      </c>
+      <c r="Q16">
+        <v>9.2826381574799992</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>9.2825875291201996</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>5.4541214549075282E-6</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>19.24605046261</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>19.245980120709373</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>-0.2816674487114364</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="9"/>
+        <v>0.99946514058894942</v>
+      </c>
+    </row>
+    <row r="17" spans="16:24">
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q17">
+        <v>9.2094627677399998</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>9.2093727122985456</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>9.7786726922210863E-6</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>19.172737833725002</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>19.17262524315386</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>-0.28164701273217779</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>0.99939262582385857</v>
+      </c>
+    </row>
+    <row r="18" spans="16:24">
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="Q18">
+        <v>9.1360128997099999</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>9.1358777740091703</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>1.479066425493792E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>19.099149024485001</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>19.098988624095938</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>-0.28162745861692079</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>0.99932324025361186</v>
+      </c>
+    </row>
+    <row r="19" spans="16:24">
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>0.1313131313131313</v>
+      </c>
+      <c r="Q19">
+        <v>9.0622851492599992</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>9.0620994741827019</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2.0489189930683445E-5</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>19.025280597245001</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>19.025066991992652</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>-0.28160879418428553</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="9"/>
+        <v>0.99925701162163993</v>
+      </c>
+    </row>
+    <row r="20" spans="16:24">
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>0.14141414141414141</v>
+      </c>
+      <c r="Q20">
+        <v>8.9882760452300001</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>8.9880345098026027</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>2.6872997331512287E-5</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>18.951129046455002</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>18.950857011491141</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>-0.28159102698941524</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>0.99919396673663652</v>
+      </c>
+    </row>
+    <row r="21" spans="16:24">
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="Q21">
+        <v>8.9139820476799994</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>8.9136795131796802</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>3.3940473165073505E-5</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>18.87669079682</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>18.876355281672474</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>-0.28157416476434766</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>0.99913413303478382</v>
+      </c>
+    </row>
+    <row r="22" spans="16:24">
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>0.16161616161616163</v>
+      </c>
+      <c r="Q22">
+        <v>8.8393995459599992</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>8.8390310501652642</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>4.1689614239795996E-5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>18.801962201424999</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>18.801558334232848</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>-0.28155821474751308</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>0.99907753620083439</v>
+      </c>
+    </row>
+    <row r="23" spans="16:24">
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>0.17171717171717174</v>
+      </c>
+      <c r="Q23">
+        <v>8.7645248568900005</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>8.764085618300431</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>5.0118016721827939E-5</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>18.726939539764999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>18.726462631599432</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>-0.28154318455310773</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>0.9990242032529647</v>
+      </c>
+    </row>
+    <row r="24" spans="16:24">
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>0.18181818181818185</v>
+      </c>
+      <c r="Q24">
+        <v>8.6893542226400005</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>8.6888396448984295</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>5.9222837870308877E-5</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>18.651619015725</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>18.651064564977876</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>-0.28152908114325498</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>0.99897415889544283</v>
+      </c>
+    </row>
+    <row r="25" spans="16:24">
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>0.19191919191919196</v>
+      </c>
+      <c r="Q25">
+        <v>8.6138838088099998</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>8.6132894850573223</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>6.9000786947727194E-5</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>18.575996755489999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>18.575360452328532</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>-0.28151591181895513</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="9"/>
+        <v>0.99892742903500387</v>
+      </c>
+    </row>
+    <row r="26" spans="16:24">
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>0.20202020202020207</v>
+      </c>
+      <c r="Q26">
+        <v>8.5381097021700008</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>8.5374314195997414</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>7.9448084198042028E-5</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>18.500068805365</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>18.499346536268096</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>-0.28150368332411996</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>0.99888403760171784</v>
+      </c>
+    </row>
+    <row r="27" spans="16:24">
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>0.21212121212121218</v>
+      </c>
+      <c r="Q27">
+        <v>8.4620279085599996</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>8.4612616529364502</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>9.0560445354335198E-5</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>18.423831129545</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>18.423018981893343</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>-0.28149240250596463</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>0.99884400889211411</v>
+      </c>
+    </row>
+    <row r="28" spans="16:24">
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>0.22222222222222229</v>
+      </c>
+      <c r="Q28">
+        <v>8.3856343505299993</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>8.3847763108502349</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>1.0233304359641067E-4</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>18.347279607779999</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>18.346373874523358</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>-0.2814820758074838</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>0.99880736576849272</v>
+      </c>
+    </row>
+    <row r="29" spans="16:24">
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>0.2323232323232324</v>
+      </c>
+      <c r="Q29">
+        <v>8.3089248650300007</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>8.307971438196482</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>1.1476048522931683E-4</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>18.270410032969998</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>18.269407217356516</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>-0.28147270963487592</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>0.9987741309624848</v>
+      </c>
+    </row>
+    <row r="30" spans="16:24">
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>0.24242424242424251</v>
+      </c>
+      <c r="Q30">
+        <v>8.2318952009099995</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>8.2308429965165466</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>1.27836771263672E-4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>18.193218108665</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>18.192114929038208</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>-0.28146431000889582</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819263</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>0.99874432583797912</v>
+      </c>
+    </row>
+    <row r="31" spans="16:24">
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0.2525252525252526</v>
+      </c>
+      <c r="Q31">
+        <v>8.1545410164199996</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>8.1533868615598699</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>1.4155526773433394E-4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>18.115699446484999</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>18.11449284113521</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="5"/>
+        <v>-0.28145688278883668</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>0.99871797118621652</v>
+      </c>
+    </row>
+    <row r="32" spans="16:24">
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>0.26262626262626271</v>
+      </c>
+      <c r="Q32">
+        <v>8.0768578765499992</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>8.0755988207105531</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>1.5590866601955541E-4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>18.037849563445</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>18.036536695512162</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>-0.28145043340469744</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819263</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="9"/>
+        <v>0.99869508627469461</v>
+      </c>
+    </row>
+    <row r="33" spans="16:24">
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>0.27272727272727282</v>
+      </c>
+      <c r="Q33">
+        <v>7.9988412503399999</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>7.99747457031377</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>1.7088894928194212E-4</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>17.959663879170002</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>17.958242141605552</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="5"/>
+        <v>-0.28144496715307471</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="9"/>
+        <v>0.99867568989800881</v>
+      </c>
+    </row>
+    <row r="34" spans="16:24">
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>0.28282828282828293</v>
+      </c>
+      <c r="Q34">
+        <v>7.9204865079999998</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>7.9190097128973349</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>1.8648734579270208E-4</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>17.881137713000001</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>17.879604733590281</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>-0.28144048889424228</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181816992</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="9"/>
+        <v>0.99865979930219217</v>
+      </c>
+    </row>
+    <row r="35" spans="16:24">
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>0.29292929292929304</v>
+      </c>
+      <c r="Q35">
+        <v>7.8417889179999998</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>7.8401997542832262</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>2.0269428925013657E-4</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>17.802266281015001</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>17.800619927433509</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>-0.28143700309394254</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="9"/>
+        <v>0.99864743033334635</v>
+      </c>
+    </row>
+    <row r="36" spans="16:24">
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>0.30303030303030315</v>
+      </c>
+      <c r="Q36">
+        <v>7.7627436440300004</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>7.7610401005837915</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>2.194993743275197E-4</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>17.723044692919999</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>17.72128307783035</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="5"/>
+        <v>-0.28143451391383112</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819263</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="9"/>
+        <v>0.99863859775871733</v>
+      </c>
+    </row>
+    <row r="37" spans="16:24">
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>0.31313131313131326</v>
+      </c>
+      <c r="Q37">
+        <v>7.6833457418100002</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>7.6815260550769082</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>2.3689130519700412E-4</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>17.643467948834999</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>17.641589435015504</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="5"/>
+        <v>-0.28143302488987637</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="9"/>
+        <v>0.99863331412534939</v>
+      </c>
+    </row>
+    <row r="38" spans="16:24">
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>0.32323232323232337</v>
+      </c>
+      <c r="Q38">
+        <v>7.6035901558600001</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>7.6016528149541038</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>2.5485785171418062E-4</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>17.563530935940001</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>17.561534141444668</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>-0.2814325393338164</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181816992</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="9"/>
+        <v>0.99863159118455191</v>
+      </c>
+    </row>
+    <row r="39" spans="16:24">
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="Q39">
+        <v>7.5234717160200004</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>7.5214154679352312</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>2.7338578669603905E-4</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>17.483228424989999</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>17.481112228339107</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>-0.28143305986033884</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="9"/>
+        <v>0.99863343821410744</v>
+      </c>
+    </row>
+    <row r="40" spans="16:24">
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>0.34343434343434359</v>
+      </c>
+      <c r="Q40">
+        <v>7.4429851339599997</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>7.4408089887429867</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>2.9246083595282078E-4</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>17.402555066729999</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>17.400318612086544</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="5"/>
+        <v>-0.28143458852866821</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819263</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="9"/>
+        <v>0.99863886252104239</v>
+      </c>
+    </row>
+    <row r="41" spans="16:24">
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>0.3535353535353537</v>
+      </c>
+      <c r="Q41">
+        <v>7.3621249994999998</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>7.3598282354301041</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>3.1206761848585858E-4</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>17.321505388115</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>17.319148090490856</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="5"/>
+        <v>-0.28143712698736539</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="9"/>
+        <v>0.99864786995518939</v>
+      </c>
+    </row>
+    <row r="42" spans="16:24">
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>0.36363636363636381</v>
+      </c>
+      <c r="Q42">
+        <v>7.2808857767299999</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>7.2784679455516113</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>3.3218957567387276E-4</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>17.240073788425001</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>17.237595338862846</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="5"/>
+        <v>-0.28144067593221372</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="9"/>
+        <v>0.99866046298525613</v>
+      </c>
+    </row>
+    <row r="43" spans="16:24">
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>0.37373737373737392</v>
+      </c>
+      <c r="Q43">
+        <v>7.1992618001200004</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>7.1967227321740772</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>3.5280891600448599E-4</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>17.158254535209998</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>17.15565490594371</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="5"/>
+        <v>-0.28144523564742735</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="9"/>
+        <v>0.99867664261992539</v>
+      </c>
+    </row>
+    <row r="44" spans="16:24">
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>0.38383838383838403</v>
+      </c>
+      <c r="Q44">
+        <v>7.1172472703</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>7.1145870797133419</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>3.739065327126899E-4</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>17.076041760054999</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>17.073321209652448</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="5"/>
+        <v>-0.28145080547519891</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="9"/>
+        <v>0.99869640652490121</v>
+      </c>
+    </row>
+    <row r="45" spans="16:24">
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>0.39393939393939414</v>
+      </c>
+      <c r="Q45">
+        <v>7.0348362498099997</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>7.032055339591551</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>3.954619359707917E-4</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>16.99342945419</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>16.990588532647713</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="5"/>
+        <v>-0.28145738411701293</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="9"/>
+        <v>0.99871975009262837</v>
+      </c>
+    </row>
+    <row r="46" spans="16:24">
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>0.40404040404040426</v>
+      </c>
+      <c r="Q46">
+        <v>6.9520226585699998</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>6.9491217257038791</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>4.1745316611601897E-4</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>16.910411463919999</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>16.90745101769425</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="5"/>
+        <v>-0.28146496921470487</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="9"/>
+        <v>0.9987466649554062</v>
+      </c>
+    </row>
+    <row r="47" spans="16:24">
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0.41414141414141437</v>
+      </c>
+      <c r="Q47">
+        <v>6.8688002692700003</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>6.8657803096846202</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>4.3985671681342678E-4</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>16.826981485890002</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>16.823902662823151</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="5"/>
+        <v>-0.28147355747908259</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="9"/>
+        <v>0.99877713944188751</v>
+      </c>
+    </row>
+    <row r="48" spans="16:24">
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>0.42424242424242448</v>
+      </c>
+      <c r="Q48">
+        <v>6.7851627025100001</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>6.7820250159616791</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>4.6264744540699834E-4</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>16.743133062089999</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>16.739937316274748</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="5"/>
+        <v>-0.28148314484154258</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="9"/>
+        <v>0.99881115911517293</v>
+      </c>
+    </row>
+    <row r="49" spans="16:24">
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>0.43434343434343459</v>
+      </c>
+      <c r="Q49">
+        <v>6.7011034216700001</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>6.6978496165878134</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>4.857984679333962E-4</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>16.658859574695001</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>16.655548671211982</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="5"/>
+        <v>-0.28149372586057131</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="9"/>
+        <v>0.99884870466654518</v>
+      </c>
+    </row>
+    <row r="50" spans="16:24">
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>0.4444444444444447</v>
+      </c>
+      <c r="Q50">
+        <v>6.6166157277200002</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>6.6132477258361497</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>5.092810708863339E-4</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>16.574154240704999</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>16.570730260191439</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="5"/>
+        <v>-0.28150529403052221</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="9"/>
+        <v>0.99888975301153227</v>
+      </c>
+    </row>
+    <row r="51" spans="16:24">
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>0.45454545454545481</v>
+      </c>
+      <c r="Q51">
+        <v>6.5316927536899998</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>6.5282127945467288</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>5.3306460018858219E-4</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>16.489010106304999</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>16.485475449378313</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="5"/>
+        <v>-0.28151784163804666</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181819834</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="9"/>
+        <v>0.99893427678010704</v>
+      </c>
+    </row>
+    <row r="52" spans="16:24">
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>0.46464646464646492</v>
+      </c>
+      <c r="Q52">
+        <v>6.4463274589199999</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>6.4427381042099015</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>5.5711634588298162E-4</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>16.403420041010001</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>16.399777432490687</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="5"/>
+        <v>-0.28153135954115399</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="9"/>
+        <v>0.99898224353314902</v>
+      </c>
+    </row>
+    <row r="53" spans="16:24">
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>0.47474747474747503</v>
+      </c>
+      <c r="Q53">
+        <v>6.3605126231</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>6.3568167607714692</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>5.81401425842307E-4</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>16.317376731564998</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>16.313629224457404</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="5"/>
+        <v>-0.28154583713140802</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="9"/>
+        <v>0.99903361562759874</v>
+      </c>
+    </row>
+    <row r="54" spans="16:24">
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>0.48484848484848514</v>
+      </c>
+      <c r="Q54">
+        <v>6.27424084003</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>6.2704416881433396</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>6.0588265956514878E-4</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>16.230872675560001</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>16.227023654772921</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="5"/>
+        <v>-0.28156126227412548</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="9"/>
+        <v>0.99908835000494289</v>
+      </c>
+    </row>
+    <row r="55" spans="16:24">
+      <c r="P55">
+        <f t="shared" si="8"/>
+        <v>0.49494949494949525</v>
+      </c>
+      <c r="Q55">
+        <v>6.1875045110900002</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>6.1836056214025064</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>6.3052043196272717E-4</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>16.143900174765001</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>16.139953360531148</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="5"/>
+        <v>-0.28157762112707208</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="9"/>
+        <v>0.99914639754765666</v>
+      </c>
+    </row>
+    <row r="56" spans="16:24">
+      <c r="P56">
+        <f t="shared" si="8"/>
+        <v>0.50505050505050531</v>
+      </c>
+      <c r="Q56">
+        <v>6.1002958384400001</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>6.0963010996597902</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>6.5527255214360724E-4</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>16.05645132818</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>16.052410779119157</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="5"/>
+        <v>-0.28159489799903165</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181816992</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="9"/>
+        <v>0.99920770257725122</v>
+      </c>
+    </row>
+    <row r="57" spans="16:24">
+      <c r="P57">
+        <f t="shared" si="8"/>
+        <v>0.51515151515151536</v>
+      </c>
+      <c r="Q57">
+        <v>6.0126068179200001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>6.008520458578527</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>6.8009410463749866E-4</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>15.968518024754999</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>15.964388140550259</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="5"/>
+        <v>-0.28161307533800062</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="9"/>
+        <v>0.99927220281225204</v>
+      </c>
+    </row>
+    <row r="58" spans="16:24">
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>0.52525252525252542</v>
+      </c>
+      <c r="Q58">
+        <v>5.9244292315899996</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>5.9202558225219928</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>7.0493728533320996E-4</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>15.880091935779999</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>15.875877459414404</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="5"/>
+        <v>-0.28163213345866728</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="9"/>
+        <v>0.99933982840171443</v>
+      </c>
+    </row>
+    <row r="59" spans="16:24">
+      <c r="P59">
+        <f t="shared" si="8"/>
+        <v>0.53535353535353547</v>
+      </c>
+      <c r="Q59">
+        <v>5.8357546399700002</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>5.8314990963068176</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>7.2975123427142382E-4</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>15.791164506954999</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>15.786870526422351</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="5"/>
+        <v>-0.28165205033074975</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="9"/>
+        <v>0.99941050117365005</v>
+      </c>
+    </row>
+    <row r="60" spans="16:24">
+      <c r="P60">
+        <f t="shared" si="8"/>
+        <v>0.54545454545454553</v>
+      </c>
+      <c r="Q60">
+        <v>5.7465743739399997</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>5.742241956537887</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>7.5448186177176613E-4</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>15.701726950059999</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>15.697358899518207</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="5"/>
+        <v>-0.28167280167094316</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="9"/>
+        <v>0.99948413496142308</v>
+      </c>
+    </row>
+    <row r="61" spans="16:24">
+      <c r="P61">
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q61">
+        <v>5.65687952618</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>5.6524758424985286</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>7.7907165004792629E-4</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>15.61177023424</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>15.607333894533141</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="5"/>
+        <v>-0.28169436047861246</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="9"/>
+        <v>0.99956063395636863</v>
+      </c>
+    </row>
+    <row r="62" spans="16:24">
+      <c r="P62">
+        <f t="shared" si="8"/>
+        <v>0.56565656565656564</v>
+      </c>
+      <c r="Q62">
+        <v>5.5666609423000004</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>5.5621919465677525</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>8.0345945900079491E-4</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>15.521285076890001</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>15.516786575350967</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="5"/>
+        <v>-0.2817166970556812</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="9"/>
+        <v>0.9996398927782052</v>
+      </c>
+    </row>
+    <row r="63" spans="16:24">
+      <c r="P63">
+        <f t="shared" si="8"/>
+        <v>0.57575757575757569</v>
+      </c>
+      <c r="Q63">
+        <v>5.4759092114800003</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>5.4713812041341789</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>8.2758030867964506E-4</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>15.43026193411</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>15.425707743554074</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="5"/>
+        <v>-0.28173977855922916</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="9"/>
+        <v>0.99972179488760926</v>
+      </c>
+    </row>
+    <row r="64" spans="16:24">
+      <c r="P64">
+        <f t="shared" si="8"/>
+        <v>0.58585858585858575</v>
+      </c>
+      <c r="Q64">
+        <v>5.3846146567400002</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>5.380034282973968</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="2"/>
+        <v>8.5136516332758765E-4</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>15.338690990690001</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>15.334087927515734</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="5"/>
+        <v>-0.28176356908023775</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="9"/>
+        <v>0.99980621286535154</v>
+      </c>
+    </row>
+    <row r="65" spans="16:24">
+      <c r="P65">
+        <f t="shared" si="8"/>
+        <v>0.5959595959595958</v>
+      </c>
+      <c r="Q65">
+        <v>5.2927673246399998</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>5.2881415720574996</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="2"/>
+        <v>8.7474068526127203E-4</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>15.246562149595</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>15.241917370902172</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="5"/>
+        <v>-0.28178802918260265</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="9"/>
+        <v>0.999893006776989</v>
+      </c>
+    </row>
+    <row r="66" spans="16:24">
+      <c r="P66">
+        <f t="shared" si="8"/>
+        <v>0.60606060606060586</v>
+      </c>
+      <c r="Q66">
+        <v>5.20035697455</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>5.1956931697468463</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="2"/>
+        <v>8.9762898823777105E-4</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="3"/>
+        <v>15.153865020965</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>15.149186020544905</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="5"/>
+        <v>-0.28181311567522338</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="9"/>
+        <v>0.99998202336369768</v>
+      </c>
+    </row>
+    <row r="67" spans="16:24">
+      <c r="P67">
+        <f t="shared" si="8"/>
+        <v>0.61616161616161591</v>
+      </c>
+      <c r="Q67">
+        <v>5.1073730673800002</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="1"/>
+        <v>5.1026788713429632</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="2"/>
+        <v>9.1994737575981699E-4</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="3"/>
+        <v>15.06058891056</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>15.055883513640632</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="5"/>
+        <v>-0.28183878135727836</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="9"/>
+        <v>1.0000730951387415</v>
+      </c>
+    </row>
+    <row r="68" spans="16:24">
+      <c r="P68">
+        <f t="shared" si="8"/>
+        <v>0.62626262626262597</v>
+      </c>
+      <c r="Q68">
+        <v>5.0138047537399997</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="1"/>
+        <v>5.0090881559383007</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="2"/>
+        <v>9.4160806415583291E-4</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>14.966722807604999</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>14.961999164232587</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="5"/>
+        <v>-0.28186497481805411</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="9"/>
+        <v>1.000166039676968</v>
+      </c>
+    </row>
+    <row r="69" spans="16:24">
+      <c r="P69">
+        <f t="shared" si="8"/>
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="Q69">
+        <v>4.9196408614699996</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="1"/>
+        <v>4.9149101725268718</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="2"/>
+        <v>9.6251788477664515E-4</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>14.872255372054999</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>14.867521948923375</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="5"/>
+        <v>-0.28189163980387488</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="6"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="9"/>
+        <v>1.0002606573685902</v>
+      </c>
+    </row>
+    <row r="70" spans="16:24">
+      <c r="P70">
+        <f t="shared" si="8"/>
+        <v>0.64646464646464608</v>
+      </c>
+      <c r="Q70">
+        <v>4.8248698826399998</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="1"/>
+        <v>4.8201337253198808</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="2"/>
+        <v>9.8257799264784879E-4</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>14.777174921189999</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>14.772440491765263</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="5"/>
+        <v>-0.28191871528242529</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="6"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="9"/>
+        <v>1.0003567316473274</v>
+      </c>
+    </row>
+    <row r="71" spans="16:24">
+      <c r="P71">
+        <f t="shared" si="8"/>
+        <v>0.65656565656565613</v>
+      </c>
+      <c r="Q71">
+        <v>4.7294799597399999</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ref="R71:R105" si="10">SQRT(((Q$6+10)^2)-$P71*((Q$6+10)^2-(Q$105+10)^2))-10</f>
+        <v>4.7247472582106465</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ref="S71:S105" si="11">(Q71-R71)/R71</f>
+        <v>1.0016835336808729E-3</v>
+      </c>
+      <c r="T71">
+        <f t="shared" ref="T71:T104" si="12">0.5*(Q71+Q72)+10</f>
+        <v>14.681469415495</v>
+      </c>
+      <c r="U71">
+        <f t="shared" ref="U71:U104" si="13">0.5*(R71+R72)+10</f>
+        <v>14.676743048269223</v>
+      </c>
+      <c r="V71">
+        <f t="shared" ref="V71:V104" si="14">-10*((Q71-Q72)/50)*1*T71</f>
+        <v>-0.28194613478169389</v>
+      </c>
+      <c r="W71">
+        <f t="shared" ref="W71:W104" si="15">-0.5*10*(((R71+10)^2-(R72+10)^2)/50)*1</f>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="9"/>
+        <v>1.0004540266447222</v>
+      </c>
+    </row>
+    <row r="72" spans="16:24">
+      <c r="P72">
+        <f t="shared" ref="P72:P105" si="16">P71+1/99</f>
+        <v>0.66666666666666619</v>
+      </c>
+      <c r="Q72">
+        <v>4.6334588712500002</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="10"/>
+        <v>4.6287388383277985</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="11"/>
+        <v>1.0197233170983722E-3</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="12"/>
+        <v>14.585126443865001</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="13"/>
+        <v>14.580417488469152</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="14"/>
+        <v>-0.28197382589965997</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="9"/>
+        <v>1.0005522854503981</v>
+      </c>
+    </row>
+    <row r="73" spans="16:24">
+      <c r="P73">
+        <f t="shared" si="16"/>
+        <v>0.67676767676767624</v>
+      </c>
+      <c r="Q73">
+        <v>4.53679401648</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="10"/>
+        <v>4.5320961386105036</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="11"/>
+        <v>1.0365794823886292E-3</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="12"/>
+        <v>14.488133207979999</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="13"/>
+        <v>14.483451278972087</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="14"/>
+        <v>-0.28200171022240339</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="9"/>
+        <v>1.0006512298214432</v>
+      </c>
+    </row>
+    <row r="74" spans="16:24">
+      <c r="P74">
+        <f t="shared" si="16"/>
+        <v>0.6868686868686863</v>
+      </c>
+      <c r="Q74">
+        <v>4.4394723994799996</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="10"/>
+        <v>4.43480641933367</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="11"/>
+        <v>1.0521271291545208E-3</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="12"/>
+        <v>14.39047650585</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="13"/>
+        <v>14.385831463919205</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="14"/>
+        <v>-0.28202970246625569</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="9"/>
+        <v>1.0007505571383284</v>
+      </c>
+    </row>
+    <row r="75" spans="16:24">
+      <c r="P75">
+        <f t="shared" si="16"/>
+        <v>0.69696969696969635</v>
+      </c>
+      <c r="Q75">
+        <v>4.3414806122199998</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="10"/>
+        <v>4.3368565085047397</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="11"/>
+        <v>1.0662339660516961E-3</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="12"/>
+        <v>14.292142714504999</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="13"/>
+        <v>14.287544644775721</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="14"/>
+        <v>-0.28205771015057252</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="9"/>
+        <v>1.0008499392439789</v>
+      </c>
+    </row>
+    <row r="76" spans="16:24">
+      <c r="P76">
+        <f t="shared" si="16"/>
+        <v>0.70707070707070641</v>
+      </c>
+      <c r="Q76">
+        <v>4.2428048167899997</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="10"/>
+        <v>4.2382327810467029</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="11"/>
+        <v>1.0787599406391374E-3</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="12"/>
+        <v>14.19311777171</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="13"/>
+        <v>14.188576958860427</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="14"/>
+        <v>-0.2820856330194802</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="9"/>
+        <v>1.0009490203917057</v>
+      </c>
+    </row>
+    <row r="77" spans="16:24">
+      <c r="P77">
+        <f t="shared" si="16"/>
+        <v>0.71717171717171646</v>
+      </c>
+      <c r="Q77">
+        <v>4.1434307266300001</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="10"/>
+        <v>4.1389211366741527</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="11"/>
+        <v>1.0895568692741706E-3</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="12"/>
+        <v>14.09338715669</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="13"/>
+        <v>14.088914056517428</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="14"/>
+        <v>-0.28211336234692636</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="9"/>
+        <v>1.001047414779408</v>
+      </c>
+    </row>
+    <row r="78" spans="16:24">
+      <c r="P78">
+        <f t="shared" si="16"/>
+        <v>0.72727272727272652</v>
+      </c>
+      <c r="Q78">
+        <v>4.0433435867499998</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="10"/>
+        <v>4.0389069763607051</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="11"/>
+        <v>1.0984680794239089E-3</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="12"/>
+        <v>13.99293586978</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="13"/>
+        <v>13.988541076823637</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="14"/>
+        <v>-0.28214078036129192</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="9"/>
+        <v>1.0011447045078319</v>
+      </c>
+    </row>
+    <row r="79" spans="16:24">
+      <c r="P79">
+        <f t="shared" si="16"/>
+        <v>0.73737373737373657</v>
+      </c>
+      <c r="Q79">
+        <v>3.94252815281</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="10"/>
+        <v>3.9381751772865705</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="11"/>
+        <v>1.1053280586743053E-3</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="12"/>
+        <v>13.89174841094</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="13"/>
+        <v>13.887442621715557</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="14"/>
+        <v>-0.28216775937220639</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X79">
+        <f t="shared" ref="X79:X104" si="17">V79/W79</f>
+        <v>1.0012404364820244</v>
+      </c>
+    </row>
+    <row r="80" spans="16:24">
+      <c r="P80">
+        <f t="shared" si="16"/>
+        <v>0.74747474747474663</v>
+      </c>
+      <c r="Q80">
+        <v>3.84096866907</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="10"/>
+        <v>3.8367100661445424</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="11"/>
+        <v>1.1099621425752057E-3</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="12"/>
+        <v>13.789808757020001</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="13"/>
+        <v>13.785602728407788</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="14"/>
+        <v>-0.28219416127818486</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="17"/>
+        <v>1.0013341206645288</v>
+      </c>
+    </row>
+    <row r="81" spans="16:24">
+      <c r="P81">
+        <f t="shared" si="16"/>
+        <v>0.75757575757575668</v>
+      </c>
+      <c r="Q81">
+        <v>3.7386488449700002</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="10"/>
+        <v>3.7344953906710341</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="11"/>
+        <v>1.1121862164675908E-3</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="12"/>
+        <v>13.68710033772</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="13"/>
+        <v>13.683004839963363</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="14"/>
+        <v>-0.28221983639617559</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="17"/>
+        <v>1.0014252259219152</v>
+      </c>
+    </row>
+    <row r="82" spans="16:24">
+      <c r="P82">
+        <f t="shared" si="16"/>
+        <v>0.76767676767676674</v>
+      </c>
+      <c r="Q82">
+        <v>3.6355518304699999</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="10"/>
+        <v>3.6315142892556906</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="11"/>
+        <v>1.1118065062430864E-3</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="12"/>
+        <v>13.58360601019</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="13"/>
+        <v>13.579631773862193</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="14"/>
+        <v>-0.28224462262386213</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="17"/>
+        <v>1.0015131770524259</v>
+      </c>
+    </row>
+    <row r="83" spans="16:24">
+      <c r="P83">
+        <f t="shared" si="16"/>
+        <v>0.77777777777777679</v>
+      </c>
+      <c r="Q83">
+        <v>3.5316601899100002</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="10"/>
+        <v>3.5277492584686936</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="11"/>
+        <v>1.1086194496159414E-3</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="12"/>
+        <v>13.479308032075</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="13"/>
+        <v>13.47546568839868</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="14"/>
+        <v>-0.28226834464071021</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="17"/>
+        <v>1.0015973519509089</v>
+      </c>
+    </row>
+    <row r="84" spans="16:24">
+      <c r="P84">
+        <f t="shared" si="16"/>
+        <v>0.78787878787878685</v>
+      </c>
+      <c r="Q84">
+        <v>3.4269558742399999</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="10"/>
+        <v>3.4231821183286666</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="11"/>
+        <v>1.102411668700767E-3</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="12"/>
+        <v>13.374188032995001</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="13"/>
+        <v>13.370488046722345</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="14"/>
+        <v>-0.28229081236234299</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="17"/>
+        <v>1.0016770761244447</v>
+      </c>
+    </row>
+    <row r="85" spans="16:24">
+      <c r="P85">
+        <f t="shared" si="16"/>
+        <v>0.7979797979797969</v>
+      </c>
+      <c r="Q85">
+        <v>3.3214201917500001</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="10"/>
+        <v>3.3177939751160235</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="11"/>
+        <v>1.0929601600261677E-3</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="12"/>
+        <v>13.268226984275</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="13"/>
+        <v>13.26467957831618</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="14"/>
+        <v>-0.28231182031997404</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="17"/>
+        <v>1.0017516204902324</v>
+      </c>
+    </row>
+    <row r="86" spans="16:24">
+      <c r="P86">
+        <f t="shared" si="16"/>
+        <v>0.80808080808080696</v>
+      </c>
+      <c r="Q86">
+        <v>3.2150337767999999</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="10"/>
+        <v>3.2115651815163382</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="11"/>
+        <v>1.0800326593477481E-3</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="12"/>
+        <v>13.161405166830001</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="13"/>
+        <v>13.158020237685992</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="14"/>
+        <v>-0.28233114573962681</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="17"/>
+        <v>1.0018201945599881</v>
+      </c>
+    </row>
+    <row r="87" spans="16:24">
+      <c r="P87">
+        <f t="shared" si="16"/>
+        <v>0.81818181818181701</v>
+      </c>
+      <c r="Q87">
+        <v>3.1077765568600002</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="10"/>
+        <v>3.1044752938556481</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="11"/>
+        <v>1.0633883963856647E-3</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="12"/>
+        <v>13.05370213708</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="13"/>
+        <v>13.050489160009848</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="14"/>
+        <v>-0.28234854761741907</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="17"/>
+        <v>1.0018819431585755</v>
+      </c>
+    </row>
+    <row r="88" spans="16:24">
+      <c r="P88">
+        <f t="shared" si="16"/>
+        <v>0.82828282828282707</v>
+      </c>
+      <c r="Q88">
+        <v>2.9996277173000001</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="10"/>
+        <v>2.9965030261640475</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="11"/>
+        <v>1.0427792358857207E-3</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="12"/>
+        <v>12.945096690694999</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="13"/>
+        <v>12.942064613469663</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="14"/>
+        <v>-0.28236376481783504</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="17"/>
+        <v>1.0019359396761907</v>
+      </c>
+    </row>
+    <row r="89" spans="16:24">
+      <c r="P89">
+        <f t="shared" si="16"/>
+        <v>0.83838383838383712</v>
+      </c>
+      <c r="Q89">
+        <v>2.8905656640899999</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="10"/>
+        <v>2.8876262007752782</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="11"/>
+        <v>1.0179514626694162E-3</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="12"/>
+        <v>12.83556682407</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="13"/>
+        <v>12.83272394795641</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="14"/>
+        <v>-0.28237651452921758</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="17"/>
+        <v>1.0019811805875583</v>
+      </c>
+    </row>
+    <row r="90" spans="16:24">
+      <c r="P90">
+        <f t="shared" si="16"/>
+        <v>0.84848484848484718</v>
+      </c>
+      <c r="Q90">
+        <v>2.7805679840500002</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="10"/>
+        <v>2.7778216951375416</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="11"/>
+        <v>9.886483777075399E-4</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="12"/>
+        <v>12.725089693299999</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="13"/>
+        <v>12.722443539805898</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="14"/>
+        <v>-0.28238649032989022</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="17"/>
+        <v>1.0020165785899349</v>
+      </c>
+    </row>
+    <row r="91" spans="16:24">
+      <c r="P91">
+        <f t="shared" si="16"/>
+        <v>0.85858585858585723</v>
+      </c>
+      <c r="Q91">
+        <v>2.6696114025500002</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="10"/>
+        <v>2.6670653844742525</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="11"/>
+        <v>9.546140452981848E-4</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="12"/>
+        <v>12.6136415705</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="13"/>
+        <v>12.611198732183103</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="14"/>
+        <v>-0.28239336009591415</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="17"/>
+        <v>1.0020409551790521</v>
+      </c>
+    </row>
+    <row r="92" spans="16:24">
+      <c r="P92">
+        <f t="shared" si="16"/>
+        <v>0.86868686868686729</v>
+      </c>
+      <c r="Q92">
+        <v>2.5576717384499998</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="10"/>
+        <v>2.5553320798919543</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="11"/>
+        <v>9.1559863254424745E-4</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="12"/>
+        <v>12.501197797214999</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="13"/>
+        <v>12.49896377068878</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="14"/>
+        <v>-0.28239676390681223</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="17"/>
+        <v>1.0020530332177227</v>
+      </c>
+    </row>
+    <row r="93" spans="16:24">
+      <c r="P93">
+        <f t="shared" si="16"/>
+        <v>0.87878787878787734</v>
+      </c>
+      <c r="Q93">
+        <v>2.44472385598</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="10"/>
+        <v>2.442595461485606</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="11"/>
+        <v>8.713659416608601E-4</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="12"/>
+        <v>12.387732734730001</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="13"/>
+        <v>12.385711733711787</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="14"/>
+        <v>-0.28239631131903686</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="17"/>
+        <v>1.0020514272611105</v>
+      </c>
+    </row>
+    <row r="94" spans="16:24">
+      <c r="P94">
+        <f t="shared" si="16"/>
+        <v>0.8888888888888874</v>
+      </c>
+      <c r="Q94">
+        <v>2.3307416134799999</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="10"/>
+        <v>2.3288280059379698</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="11"/>
+        <v>8.2170410917028526E-4</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="12"/>
+        <v>12.273219711025</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="13"/>
+        <v>12.271414456993419</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="14"/>
+        <v>-0.28239157881054533</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="17"/>
+        <v>1.0020346344890436</v>
+      </c>
+    </row>
+    <row r="95" spans="16:24">
+      <c r="P95">
+        <f t="shared" si="16"/>
+        <v>0.89898989898989745</v>
+      </c>
+      <c r="Q95">
+        <v>2.2156978085699999</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="10"/>
+        <v>2.2140009080488703</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="11"/>
+        <v>7.6644075210656102E-4</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="12"/>
+        <v>12.157630964039999</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="13"/>
+        <v>12.156042451804678</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="14"/>
+        <v>-0.28238210681680925</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818702</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="17"/>
+        <v>1.0020010241886594</v>
+      </c>
+    </row>
+    <row r="96" spans="16:24">
+      <c r="P96">
+        <f t="shared" si="16"/>
+        <v>0.90909090909090751</v>
+      </c>
+      <c r="Q96">
+        <v>2.0995641195100001</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="10"/>
+        <v>2.0980839955604864</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="11"/>
+        <v>7.0546458227869297E-4</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="12"/>
+        <v>12.04093758102</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="13"/>
+        <v>12.03956481606278</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="14"/>
+        <v>-0.28236739621974311</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="17"/>
+        <v>1.0019488252958846</v>
+      </c>
+    </row>
+    <row r="97" spans="16:24">
+      <c r="P97">
+        <f t="shared" si="16"/>
+        <v>0.91919191919191756</v>
+      </c>
+      <c r="Q97">
+        <v>1.9823110425299999</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="10"/>
+        <v>1.9810456365650744</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="11"/>
+        <v>6.387565947847658E-4</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="12"/>
+        <v>11.923109433555</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="13"/>
+        <v>11.921949137627514</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="14"/>
+        <v>-0.2823469049805824</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="17"/>
+        <v>1.0018761144472297</v>
+      </c>
+    </row>
+    <row r="98" spans="16:24">
+      <c r="P98">
+        <f t="shared" si="16"/>
+        <v>0.92929292929292762</v>
+      </c>
+      <c r="Q98">
+        <v>1.86390782458</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="10"/>
+        <v>1.8628526386899544</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="11"/>
+        <v>5.6643551300314507E-4</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="12"/>
+        <v>11.80411510795</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="13"/>
+        <v>11.80316138891963</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="14"/>
+        <v>-0.28232004388702231</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="17"/>
+        <v>1.0017808008894258</v>
+      </c>
+    </row>
+    <row r="99" spans="16:24">
+      <c r="P99">
+        <f t="shared" si="16"/>
+        <v>0.93939393939393767</v>
+      </c>
+      <c r="Q99">
+        <v>1.7443223913200001</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="10"/>
+        <v>1.7434701391493039</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="11"/>
+        <v>4.8882521791398094E-4</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="12"/>
+        <v>11.683921830559999</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="13"/>
+        <v>11.683165811889955</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="14"/>
+        <v>-0.28228617217673185</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="17"/>
+        <v>1.0016606109497055</v>
+      </c>
+    </row>
+    <row r="100" spans="16:24">
+      <c r="P100">
+        <f t="shared" si="16"/>
+        <v>0.94949494949494773</v>
+      </c>
+      <c r="Q100">
+        <v>1.6235212698000001</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="10"/>
+        <v>1.6228614846306062</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="11"/>
+        <v>4.0655667513367051E-4</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="12"/>
+        <v>11.562495387565001</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="13"/>
+        <v>11.561924792236749</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="14"/>
+        <v>-0.28224459274570918</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181818413</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="17"/>
+        <v>1.0015130710331535</v>
+      </c>
+    </row>
+    <row r="101" spans="16:24">
+      <c r="P101">
+        <f t="shared" si="16"/>
+        <v>0.95959595959595778</v>
+      </c>
+      <c r="Q101">
+        <v>1.50146950533</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="10"/>
+        <v>1.5009880998428891</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="11"/>
+        <v>3.2072571871911743E-4</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="12"/>
+        <v>11.439800038745</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="13"/>
+        <v>11.439398721616733</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="14"/>
+        <v>-0.28219454649138687</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817847</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="17"/>
+        <v>1.0013354875500944</v>
+      </c>
+    </row>
+    <row r="102" spans="16:24">
+      <c r="P102">
+        <f t="shared" si="16"/>
+        <v>0.96969696969696784</v>
+      </c>
+      <c r="Q102">
+        <v>1.3781305721599999</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="10"/>
+        <v>1.3778093433905791</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="11"/>
+        <v>2.3314457182461903E-4</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="12"/>
+        <v>11.315798424720001</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="13"/>
+        <v>11.315545846418541</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="14"/>
+        <v>-0.28213520632438643</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817564</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="17"/>
+        <v>1.0011249256671997</v>
+      </c>
+    </row>
+    <row r="103" spans="16:24">
+      <c r="P103">
+        <f t="shared" si="16"/>
+        <v>0.97979797979797789</v>
+      </c>
+      <c r="Q103">
+        <v>1.25346627728</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="10"/>
+        <v>1.2532823494465024</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="11"/>
+        <v>1.4675690085227963E-4</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="12"/>
+        <v>11.19045146697</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="13"/>
+        <v>11.190322101461017</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="14"/>
+        <v>-0.28206567058975029</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="15"/>
+        <v>-0.28181818181817986</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="17"/>
+        <v>1.0008781859636371</v>
+      </c>
+    </row>
+    <row r="104" spans="16:24">
+      <c r="P104">
+        <f t="shared" si="16"/>
+        <v>0.98989898989898795</v>
+      </c>
+      <c r="Q104">
+        <v>1.12743665666</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="10"/>
+        <v>1.1273618534755308</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="11"/>
+        <v>6.6352417583294567E-5</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="12"/>
+        <v>11.063718328329999</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="13"/>
+        <v>11.063680926737778</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="14"/>
+        <v>-0.28198465479806795</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="15"/>
+        <v>-0.2818181818181813</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="17"/>
+        <v>1.0005907105737912</v>
+      </c>
+    </row>
+    <row r="105" spans="16:24">
+      <c r="P105">
+        <f t="shared" si="16"/>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000266</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="11"/>
+        <v>-2.6645352591003047E-14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>9.9294218300000008</v>
+      </c>
+      <c r="E2">
+        <v>9.8585927800000004</v>
+      </c>
+      <c r="F2">
+        <v>9.7875101600000001</v>
+      </c>
+      <c r="G2">
+        <v>9.7161712100000006</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="D3">
+        <v>9.6445731499999994</v>
+      </c>
+      <c r="E3">
+        <v>9.5727131399999994</v>
+      </c>
+      <c r="F3">
+        <v>9.5005882699999997</v>
+      </c>
+      <c r="G3">
+        <v>9.4281955899999996</v>
+      </c>
+      <c r="H3">
+        <v>9.3555321100000004</v>
+      </c>
+      <c r="J3">
+        <v>9.9294218331100002</v>
+      </c>
+      <c r="K3">
+        <v>9.9293958013299992</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="D4">
+        <v>9.2825947600000003</v>
+      </c>
+      <c r="E4">
+        <v>9.2093804200000005</v>
+      </c>
+      <c r="F4">
+        <v>9.1358859199999998</v>
+      </c>
+      <c r="G4">
+        <v>9.0621080000000003</v>
+      </c>
+      <c r="H4">
+        <v>8.9880433699999998</v>
+      </c>
+      <c r="J4">
+        <v>9.8585927840299998</v>
+      </c>
+      <c r="K4">
+        <v>9.8585477680399993</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="D5">
+        <v>8.91368866</v>
+      </c>
+      <c r="E5">
+        <v>8.8390404399999998</v>
+      </c>
+      <c r="F5">
+        <v>8.7640951999999999</v>
+      </c>
+      <c r="G5">
+        <v>8.6888493699999998</v>
+      </c>
+      <c r="H5">
+        <v>8.6132993100000004</v>
+      </c>
+      <c r="J5">
+        <v>9.7875101580399999</v>
+      </c>
+      <c r="K5">
+        <v>9.7874531477000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="D6">
+        <v>8.5374412900000003</v>
+      </c>
+      <c r="E6">
+        <v>8.4612715299999994</v>
+      </c>
+      <c r="F6">
+        <v>8.3847861399999992</v>
+      </c>
+      <c r="G6">
+        <v>8.3079811800000005</v>
+      </c>
+      <c r="H6">
+        <v>8.2308526000000004</v>
+      </c>
+      <c r="J6">
+        <v>9.7161712119600008</v>
+      </c>
+      <c r="K6">
+        <v>9.7161090672999997</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="D7">
+        <v>8.1533962899999999</v>
+      </c>
+      <c r="E7">
+        <v>8.0756080299999997</v>
+      </c>
+      <c r="F7">
+        <v>7.9974835200000003</v>
+      </c>
+      <c r="G7">
+        <v>7.91901835</v>
+      </c>
+      <c r="H7">
+        <v>7.8402080500000002</v>
+      </c>
+      <c r="J7">
+        <v>9.6445731528399996</v>
+      </c>
+      <c r="K7">
+        <v>9.6445126006099997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="D8">
+        <v>7.7610480099999997</v>
+      </c>
+      <c r="E8">
+        <v>7.6815335500000002</v>
+      </c>
+      <c r="F8">
+        <v>7.6016598499999999</v>
+      </c>
+      <c r="G8">
+        <v>7.5214220200000002</v>
+      </c>
+      <c r="H8">
+        <v>7.4408150199999996</v>
+      </c>
+      <c r="J8">
+        <v>9.5727131367399991</v>
+      </c>
+      <c r="K8">
+        <v>9.5726607668699994</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="D9">
+        <v>7.3598337100000002</v>
+      </c>
+      <c r="E9">
+        <v>7.2784728400000001</v>
+      </c>
+      <c r="F9">
+        <v>7.1967270299999999</v>
+      </c>
+      <c r="G9">
+        <v>7.1145907499999996</v>
+      </c>
+      <c r="H9">
+        <v>7.0320583599999997</v>
+      </c>
+      <c r="J9">
+        <v>9.5005882674100004</v>
+      </c>
+      <c r="K9">
+        <v>9.5005505293599999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="D10">
+        <v>6.9491240699999999</v>
+      </c>
+      <c r="E10">
+        <v>6.8657819699999996</v>
+      </c>
+      <c r="F10">
+        <v>6.7820259800000002</v>
+      </c>
+      <c r="G10">
+        <v>6.6978498699999998</v>
+      </c>
+      <c r="H10">
+        <v>6.6132472699999996</v>
+      </c>
+      <c r="J10">
+        <v>9.42819559492</v>
+      </c>
+      <c r="K10">
+        <v>9.4281787939800008</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="D11">
+        <v>6.5282116099999996</v>
+      </c>
+      <c r="E11">
+        <v>6.4427361999999997</v>
+      </c>
+      <c r="F11">
+        <v>6.35681414</v>
+      </c>
+      <c r="G11">
+        <v>6.27043835</v>
+      </c>
+      <c r="H11">
+        <v>6.1836015700000004</v>
+      </c>
+      <c r="J11">
+        <v>9.3555321142600008</v>
+      </c>
+      <c r="K11">
+        <v>9.3555424077999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="D12">
+        <v>6.0962963600000002</v>
+      </c>
+      <c r="E12">
+        <v>6.0085150399999998</v>
+      </c>
+      <c r="F12">
+        <v>5.92024974</v>
+      </c>
+      <c r="G12">
+        <v>5.8314923700000003</v>
+      </c>
+      <c r="H12">
+        <v>5.7422346199999996</v>
+      </c>
+      <c r="J12">
+        <v>9.2825947638699997</v>
+      </c>
+      <c r="K12">
+        <v>9.2826381574799992</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="D13">
+        <v>5.6524679300000003</v>
+      </c>
+      <c r="E13">
+        <v>5.5621834799999998</v>
+      </c>
+      <c r="F13">
+        <v>5.4713722300000001</v>
+      </c>
+      <c r="G13">
+        <v>5.3800248399999999</v>
+      </c>
+      <c r="H13">
+        <v>5.2881317000000001</v>
+      </c>
+      <c r="J13">
+        <v>9.2093804241600008</v>
+      </c>
+      <c r="K13">
+        <v>9.2094627677399998</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="D14">
+        <v>5.1956829200000003</v>
+      </c>
+      <c r="E14">
+        <v>5.1026683000000004</v>
+      </c>
+      <c r="F14">
+        <v>5.0090773200000003</v>
+      </c>
+      <c r="G14">
+        <v>4.9148991200000003</v>
+      </c>
+      <c r="H14">
+        <v>4.82012252</v>
+      </c>
+      <c r="J14">
+        <v>9.1358859159599994</v>
+      </c>
+      <c r="K14">
+        <v>9.1360128997099999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="D15">
+        <v>4.7247359700000002</v>
+      </c>
+      <c r="E15">
+        <v>4.6287275299999999</v>
+      </c>
+      <c r="F15">
+        <v>4.5320848800000002</v>
+      </c>
+      <c r="G15">
+        <v>4.4347952900000003</v>
+      </c>
+      <c r="H15">
+        <v>4.3368455700000004</v>
+      </c>
+      <c r="J15">
+        <v>9.0621079988800002</v>
+      </c>
+      <c r="K15">
+        <v>9.0622851492599992</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="D16">
+        <v>4.2382221099999997</v>
+      </c>
+      <c r="E16">
+        <v>4.1389108099999996</v>
+      </c>
+      <c r="F16">
+        <v>4.03889707</v>
+      </c>
+      <c r="G16">
+        <v>3.93816576</v>
+      </c>
+      <c r="H16">
+        <v>3.8367012100000002</v>
+      </c>
+      <c r="J16">
+        <v>8.9880433696799997</v>
+      </c>
+      <c r="K16">
+        <v>8.9882760452300001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17">
+        <v>3.73448717</v>
+      </c>
+      <c r="E17">
+        <v>3.6315067700000001</v>
+      </c>
+      <c r="F17">
+        <v>3.5277425099999999</v>
+      </c>
+      <c r="G17">
+        <v>3.4231761999999999</v>
+      </c>
+      <c r="H17">
+        <v>3.3177889399999998</v>
+      </c>
+      <c r="J17">
+        <v>8.9136886605200001</v>
+      </c>
+      <c r="K17">
+        <v>8.9139820476799994</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="D18">
+        <v>3.2115610700000001</v>
+      </c>
+      <c r="E18">
+        <v>3.1044721499999999</v>
+      </c>
+      <c r="F18">
+        <v>2.9965008800000001</v>
+      </c>
+      <c r="G18">
+        <v>2.88762506</v>
+      </c>
+      <c r="H18">
+        <v>2.77782157</v>
+      </c>
+      <c r="J18">
+        <v>8.8390404371900004</v>
+      </c>
+      <c r="K18">
+        <v>8.8393995459599992</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="D19">
+        <v>2.6670662599999999</v>
+      </c>
+      <c r="E19">
+        <v>2.5553339300000002</v>
+      </c>
+      <c r="F19">
+        <v>2.4425982400000001</v>
+      </c>
+      <c r="G19">
+        <v>2.3288316500000001</v>
+      </c>
+      <c r="H19">
+        <v>2.2140053100000001</v>
+      </c>
+      <c r="J19">
+        <v>8.7640951972700005</v>
+      </c>
+      <c r="K19">
+        <v>8.7645248568900005</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20">
+        <v>2.09808905</v>
+      </c>
+      <c r="E20">
+        <v>1.9810511900000001</v>
+      </c>
+      <c r="F20">
+        <v>1.8628585200000001</v>
+      </c>
+      <c r="G20">
+        <v>1.7434761299999999</v>
+      </c>
+      <c r="H20">
+        <v>1.6228673300000001</v>
+      </c>
+      <c r="J20">
+        <v>8.6888493681700005</v>
+      </c>
+      <c r="K20">
+        <v>8.6893542226400005</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21">
+        <v>1.50099352</v>
+      </c>
+      <c r="E21">
+        <v>1.37781401</v>
+      </c>
+      <c r="F21">
+        <v>1.2532858899999999</v>
+      </c>
+      <c r="G21">
+        <v>1.12736386</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>8.6132993052100009</v>
+      </c>
+      <c r="K21">
+        <v>8.6138838088099998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="J22">
+        <v>8.5374412895200003</v>
+      </c>
+      <c r="K22">
+        <v>8.5381097021700008</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="J23">
+        <v>8.4612715259000009</v>
+      </c>
+      <c r="K23">
+        <v>8.4620279085599996</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="J24">
+        <v>8.3847861406399993</v>
+      </c>
+      <c r="K24">
+        <v>8.3856343505299993</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="J25">
+        <v>8.3079811791899996</v>
+      </c>
+      <c r="K25">
+        <v>8.3089248650300007</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="J26">
+        <v>8.2308526037800007</v>
+      </c>
+      <c r="K26">
+        <v>8.2318952009099995</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="J27">
+        <v>8.15339629098</v>
+      </c>
+      <c r="K27">
+        <v>8.1545410164199996</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="J28">
+        <v>8.0756080290599996</v>
+      </c>
+      <c r="K28">
+        <v>8.0768578765499992</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="J29">
+        <v>7.9974835153999999</v>
+      </c>
+      <c r="K29">
+        <v>7.9988412503399999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="J30">
+        <v>7.9190183536400003</v>
+      </c>
+      <c r="K30">
+        <v>7.9204865079999998</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="J31">
+        <v>7.8402080508400003</v>
+      </c>
+      <c r="K31">
+        <v>7.8417889179999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="J32">
+        <v>7.76104801446</v>
+      </c>
+      <c r="K32">
+        <v>7.7627436440300004</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <v>7.6815335492300001</v>
+      </c>
+      <c r="K33">
+        <v>7.6833457418100002</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34">
+        <v>7.6016598539200002</v>
+      </c>
+      <c r="K34">
+        <v>7.6035901558600001</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35">
+        <v>7.52142201792</v>
+      </c>
+      <c r="K35">
+        <v>7.5234717160200004</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36">
+        <v>7.4408150177700003</v>
+      </c>
+      <c r="K36">
+        <v>7.4429851339599997</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37">
+        <v>7.3598337134399996</v>
+      </c>
+      <c r="K37">
+        <v>7.3621249994999998</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38">
+        <v>7.2784728445000004</v>
+      </c>
+      <c r="K38">
+        <v>7.2808857767299999</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39">
+        <v>7.1967270261899996</v>
+      </c>
+      <c r="K39">
+        <v>7.1992618001200004</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40">
+        <v>7.1145907451700001</v>
+      </c>
+      <c r="K40">
+        <v>7.1172472703</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41">
+        <v>7.0320583552500002</v>
+      </c>
+      <c r="K41">
+        <v>7.0348362498099997</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42">
+        <v>6.9491240728200001</v>
+      </c>
+      <c r="K42">
+        <v>6.9520226585699998</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43">
+        <v>6.8657819721099997</v>
+      </c>
+      <c r="K43">
+        <v>6.8688002692700003</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44">
+        <v>6.7820259802800003</v>
+      </c>
+      <c r="K44">
+        <v>6.7851627025100001</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45">
+        <v>6.6978498721999999</v>
+      </c>
+      <c r="K45">
+        <v>6.7011034216700001</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46">
+        <v>6.61324726507</v>
+      </c>
+      <c r="K46">
+        <v>6.6166157277200002</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47">
+        <v>6.5282116127799998</v>
+      </c>
+      <c r="K47">
+        <v>6.5316927536899998</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48">
+        <v>6.4427361999299997</v>
+      </c>
+      <c r="K48">
+        <v>6.4463274589199999</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49">
+        <v>6.3568141356999996</v>
+      </c>
+      <c r="K49">
+        <v>6.3605126231</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50">
+        <v>6.2704383473199998</v>
+      </c>
+      <c r="K50">
+        <v>6.27424084003</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51">
+        <v>6.1836015732499998</v>
+      </c>
+      <c r="K51">
+        <v>6.1875045110900002</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52">
+        <v>6.0962963560899999</v>
+      </c>
+      <c r="K52">
+        <v>6.1002958384400001</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53">
+        <v>6.0085150350300003</v>
+      </c>
+      <c r="K53">
+        <v>6.0126068179200001</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54">
+        <v>5.9202497380199999</v>
+      </c>
+      <c r="K54">
+        <v>5.9244292315899996</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55">
+        <v>5.8314923735299997</v>
+      </c>
+      <c r="K55">
+        <v>5.8357546399700002</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56">
+        <v>5.7422346218299998</v>
+      </c>
+      <c r="K56">
+        <v>5.7465743739399997</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57">
+        <v>5.6524679259199999</v>
+      </c>
+      <c r="K57">
+        <v>5.65687952618</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58">
+        <v>5.56218348187</v>
+      </c>
+      <c r="K58">
+        <v>5.5666609423000004</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59">
+        <v>5.47137222878</v>
+      </c>
+      <c r="K59">
+        <v>5.4759092114800003</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60">
+        <v>5.3800248381099998</v>
+      </c>
+      <c r="K60">
+        <v>5.3846146567400002</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61">
+        <v>5.2881317024400003</v>
+      </c>
+      <c r="K61">
+        <v>5.2927673246399998</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62">
+        <v>5.1956829237199997</v>
+      </c>
+      <c r="K62">
+        <v>5.20035697455</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63">
+        <v>5.1026683007100004</v>
+      </c>
+      <c r="K63">
+        <v>5.1073730673800002</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64">
+        <v>5.0090773158799999</v>
+      </c>
+      <c r="K64">
+        <v>5.0138047537399997</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65">
+        <v>4.9148991214200004</v>
+      </c>
+      <c r="K65">
+        <v>4.9196408614699996</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66">
+        <v>4.8201225246000003</v>
+      </c>
+      <c r="K66">
+        <v>4.8248698826399998</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67">
+        <v>4.7247359721200004</v>
+      </c>
+      <c r="K67">
+        <v>4.7294799597399999</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68">
+        <v>4.6287275337200002</v>
+      </c>
+      <c r="K68">
+        <v>4.6334588712500002</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69">
+        <v>4.5320848846099997</v>
+      </c>
+      <c r="K69">
+        <v>4.53679401648</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70">
+        <v>4.43479528705</v>
+      </c>
+      <c r="K70">
+        <v>4.4394723994799996</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71">
+        <v>4.3368455706100004</v>
+      </c>
+      <c r="K71">
+        <v>4.3414806122199998</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72">
+        <v>4.2382221113699998</v>
+      </c>
+      <c r="K72">
+        <v>4.2428048167899997</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73">
+        <v>4.1389108097199996</v>
+      </c>
+      <c r="K73">
+        <v>4.1434307266300001</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74">
+        <v>4.0388970667299997</v>
+      </c>
+      <c r="K74">
+        <v>4.0433435867499998</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75">
+        <v>3.9381657590799999</v>
+      </c>
+      <c r="K75">
+        <v>3.94252815281</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76">
+        <v>3.8367012122799999</v>
+      </c>
+      <c r="K76">
+        <v>3.84096866907</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77">
+        <v>3.7344871720900001</v>
+      </c>
+      <c r="K77">
+        <v>3.7386488449700002</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78">
+        <v>3.63150677412</v>
+      </c>
+      <c r="K78">
+        <v>3.6355518304699999</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79">
+        <v>3.5277425112</v>
+      </c>
+      <c r="K79">
+        <v>3.5316601899100002</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80">
+        <v>3.4231761985800002</v>
+      </c>
+      <c r="K80">
+        <v>3.4269558742399999</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81">
+        <v>3.31778893667</v>
+      </c>
+      <c r="K81">
+        <v>3.3214201917500001</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82">
+        <v>3.2115610710200002</v>
+      </c>
+      <c r="K82">
+        <v>3.2150337767999999</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83">
+        <v>3.1044721495099998</v>
+      </c>
+      <c r="K83">
+        <v>3.1077765568600002</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84">
+        <v>2.9965008762499998</v>
+      </c>
+      <c r="K84">
+        <v>2.9996277173000001</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85">
+        <v>2.8876250620800001</v>
+      </c>
+      <c r="K85">
+        <v>2.8905656640899999</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11">
+      <c r="J86">
+        <v>2.7778215712400001</v>
+      </c>
+      <c r="K86">
+        <v>2.7805679840500002</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11">
+      <c r="J87">
+        <v>2.6670662639299998</v>
+      </c>
+      <c r="K87">
+        <v>2.6696114025500002</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11">
+      <c r="J88">
+        <v>2.5553339342600001</v>
+      </c>
+      <c r="K88">
+        <v>2.5576717384499998</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11">
+      <c r="J89">
+        <v>2.44259824326</v>
+      </c>
+      <c r="K89">
+        <v>2.44472385598</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11">
+      <c r="J90">
+        <v>2.3288316463099998</v>
+      </c>
+      <c r="K90">
+        <v>2.3307416134799999</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11">
+      <c r="J91">
+        <v>2.2140053145800001</v>
+      </c>
+      <c r="K91">
+        <v>2.2156978085699999</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11">
+      <c r="J92">
+        <v>2.09808904977</v>
+      </c>
+      <c r="K92">
+        <v>2.0995641195100001</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11">
+      <c r="J93">
+        <v>1.98105119139</v>
+      </c>
+      <c r="K93">
+        <v>1.9823110425299999</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11">
+      <c r="J94">
+        <v>1.86285851589</v>
+      </c>
+      <c r="K94">
+        <v>1.86390782458</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11">
+      <c r="J95">
+        <v>1.7434761267100001</v>
+      </c>
+      <c r="K95">
+        <v>1.7443223913200001</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11">
+      <c r="J96">
+        <v>1.6228673342</v>
+      </c>
+      <c r="K96">
+        <v>1.6235212698000001</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97">
+        <v>1.5009935241900001</v>
+      </c>
+      <c r="K97">
+        <v>1.50146950533</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98">
+        <v>1.3778140141299999</v>
+      </c>
+      <c r="K98">
+        <v>1.3781305721599999</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11">
+      <c r="J99">
+        <v>1.2532858949600001</v>
+      </c>
+      <c r="K99">
+        <v>1.25346627728</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11">
+      <c r="J100">
+        <v>1.12736385734</v>
+      </c>
+      <c r="K100">
+        <v>1.12743665666</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1111,8 +6792,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Test/WaterTableExample_simple.xlsx
+++ b/Test/WaterTableExample_simple.xlsx
@@ -763,76 +763,76 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.76668388981824</c:v>
+                  <c:v>10.19054035928707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.526565699067514</c:v>
+                  <c:v>10.3407885786171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.27939127669751</c:v>
+                  <c:v>10.45163269766011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.024885597553538</c:v>
+                  <c:v>10.52371116538137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.76275033144128</c:v>
+                  <c:v>10.55743174620799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.492661030798135</c:v>
+                  <c:v>10.55298323844984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.214263861051318</c:v>
+                  <c:v>10.51034080652976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.927171779173648</c:v>
+                  <c:v>10.42926528292195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.630960041926247</c:v>
+                  <c:v>10.30929639352383</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325160893913797</c:v>
+                  <c:v>10.1497394524098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.009257244218514</c:v>
+                  <c:v>9.949644608363328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.682675085249368</c:v>
+                  <c:v>9.707777145076509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.344774333101082</c:v>
+                  <c:v>9.42257655410322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.994837667197501</c:v>
+                  <c:v>9.092100984438566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.632056806447448</c:v>
+                  <c:v>8.713952014473051</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.255515461628951</c:v>
+                  <c:v>8.285172134820061</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.864167921548786</c:v>
+                  <c:v>7.802103246526798</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.456811820038332</c:v>
+                  <c:v>7.260187716244573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.032053021564593</c:v>
+                  <c:v>6.653681875189044</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.588259638379007</c:v>
+                  <c:v>5.975230827753318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.123500752466927</c:v>
+                  <c:v>5.215213439186451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.635463109834953</c:v>
+                  <c:v>4.360685220420368</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.121335239980782</c:v>
+                  <c:v>3.393568605864532</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.577641901527272</c:v>
+                  <c:v>2.287307272140631</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.0</c:v>
@@ -1178,298 +1178,298 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.94165025705</c:v>
+                  <c:v>10.0520215111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.88288216732</c:v>
+                  <c:v>10.1014213691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.82369203639</c:v>
+                  <c:v>10.1482188156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.764076061020001</c:v>
+                  <c:v>10.1924319074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.70403036159</c:v>
+                  <c:v>10.2340775538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.64355098001</c:v>
+                  <c:v>10.2731715498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.58263387753</c:v>
+                  <c:v>10.3097286077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.521274932520001</c:v>
+                  <c:v>10.3437623851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.45946993819</c:v>
+                  <c:v>10.3752855109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.39721460012</c:v>
+                  <c:v>10.4043096091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.33450453385</c:v>
+                  <c:v>10.4308453204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.27133526222</c:v>
+                  <c:v>10.4549023214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.20770221278</c:v>
+                  <c:v>10.4764893419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.143600714970001</c:v>
+                  <c:v>10.4956141808</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.07902599727</c:v>
+                  <c:v>10.5122837196</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.013973184179999</c:v>
+                  <c:v>10.5265039343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9484372932</c:v>
+                  <c:v>10.5382799058</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.88241323153</c:v>
+                  <c:v>10.5476158283</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8158957928</c:v>
+                  <c:v>10.5545150167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.748879653579999</c:v>
+                  <c:v>10.5589799115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.68135936978</c:v>
+                  <c:v>10.561012083</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6133293729</c:v>
+                  <c:v>10.5606122337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.544783966180001</c:v>
+                  <c:v>10.5577801989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.47571732048</c:v>
+                  <c:v>10.5525149462</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.406123470160001</c:v>
+                  <c:v>10.5448145733</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3359963086</c:v>
+                  <c:v>10.5346763043</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.26532958374</c:v>
+                  <c:v>10.5220964843</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.19411689325</c:v>
+                  <c:v>10.5070705729</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.12235167962</c:v>
+                  <c:v>10.4895931357</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.050027225</c:v>
+                  <c:v>10.4696578342</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.97713664582</c:v>
+                  <c:v>10.4472574147</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.90367288718</c:v>
+                  <c:v>10.4223836943</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.829628717</c:v>
+                  <c:v>10.3950275464</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.75499671994</c:v>
+                  <c:v>10.3651788836</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.67976929099</c:v>
+                  <c:v>10.332826639</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.60393862883</c:v>
+                  <c:v>10.2979587453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.52749672889</c:v>
+                  <c:v>10.2605621124</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.45043537605</c:v>
+                  <c:v>10.220622602</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.37274613708</c:v>
+                  <c:v>10.1781250006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.29442035264</c:v>
+                  <c:v>10.13305299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.21544912899</c:v>
+                  <c:v>10.0853891148</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.13582332927</c:v>
+                  <c:v>10.0351147478</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.05553356435</c:v>
+                  <c:v>9.98221005192</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.97457018331</c:v>
+                  <c:v>9.92665393985</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.89292326335</c:v>
+                  <c:v>9.8684240296</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.81058259934</c:v>
+                  <c:v>9.80749659704</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.72753769273</c:v>
+                  <c:v>9.7438465246</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.64377773995</c:v>
+                  <c:v>9.67744724586</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.5592916203</c:v>
+                  <c:v>9.608270685840001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.47406788309</c:v>
+                  <c:v>9.5362871966</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.38809473421</c:v>
+                  <c:v>9.461465487770001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.30136002199</c:v>
+                  <c:v>9.38377255157</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.21385122228</c:v>
+                  <c:v>9.30317358186</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.12555542277</c:v>
+                  <c:v>9.21963188679</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.03645930642</c:v>
+                  <c:v>9.133108794250001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.9465491341</c:v>
+                  <c:v>9.04356354976</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.85581072612</c:v>
+                  <c:v>8.95095320583</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.76422944286</c:v>
+                  <c:v>8.85523250216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.67179016425</c:v>
+                  <c:v>8.7563537357</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.57847726809</c:v>
+                  <c:v>8.65426661953</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.48427460712</c:v>
+                  <c:v>8.54891812957</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.38916548479</c:v>
+                  <c:v>8.44025233767</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.29313262955</c:v>
+                  <c:v>8.32821022976</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.19615816762</c:v>
+                  <c:v>8.21272950735</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.09822359417</c:v>
+                  <c:v>8.09374437069</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.99930974262</c:v>
+                  <c:v>7.97118528123</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.89939675216</c:v>
+                  <c:v>7.84497870128</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.79846403317</c:v>
+                  <c:v>7.71504680798</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.69649023043</c:v>
+                  <c:v>7.58130717849</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.59345318404</c:v>
+                  <c:v>7.44367244283</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.48932988766</c:v>
+                  <c:v>7.30204990027</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.38409644413</c:v>
+                  <c:v>7.15634109445</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.27772801799</c:v>
+                  <c:v>7.00644134177</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.17019878491</c:v>
+                  <c:v>6.85223920658</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.06148187747</c:v>
+                  <c:v>6.69361591569</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.95154932732</c:v>
+                  <c:v>6.53044470343</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.84037200309</c:v>
+                  <c:v>6.36259007683</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.72791954396</c:v>
+                  <c:v>6.18990698894</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.61416028828</c:v>
+                  <c:v>6.01223990544</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.499061197</c:v>
+                  <c:v>5.82942174772</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.38258777122</c:v>
+                  <c:v>5.64127269127</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.26470396355</c:v>
+                  <c:v>5.44759879495</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.14537208256</c:v>
+                  <c:v>5.24819043058</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.02455268963</c:v>
+                  <c:v>5.0428204765</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.90220448767</c:v>
+                  <c:v>4.83124222987</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.77828420064</c:v>
+                  <c:v>4.61318698252</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.65274644316</c:v>
+                  <c:v>4.38836119133</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.52554357918</c:v>
+                  <c:v>4.15644315725</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.39662556844</c:v>
+                  <c:v>3.91707910437</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.2659397996</c:v>
+                  <c:v>3.66987852112</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.13343090861</c:v>
+                  <c:v>3.41440858659</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.99904058054</c:v>
+                  <c:v>3.15018745271</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.86270733324</c:v>
+                  <c:v>2.87667608194</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.72436628077</c:v>
+                  <c:v>2.59326824266</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.58394887403</c:v>
+                  <c:v>2.29927812861</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.44138261627</c:v>
+                  <c:v>1.99392487673</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.29659075025</c:v>
+                  <c:v>1.67631298155</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.14949191354</c:v>
+                  <c:v>1.34540720003</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1.0</c:v>
@@ -1510,7 +1510,8 @@
         <c:axId val="2124782488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="11.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1879,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1936,11 +1937,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D6">
-        <f>Rech*width*Length</f>
-        <v>9.9000000000000005E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2038,27 +2035,27 @@
       </c>
       <c r="V10">
         <f>0.5*(S10+S11)-Datum</f>
-        <v>19.970825128525</v>
+        <v>20.026010755550001</v>
       </c>
       <c r="W10">
         <f>0.5*(T10+T11)-Datum</f>
-        <v>19.970855256468951</v>
+        <v>20.025988955981077</v>
       </c>
       <c r="X10">
         <f>-K*((S10-S11)/dx)*width*V10</f>
-        <v>-0.23305850254976668</v>
+        <v>0.20835666816171086</v>
       </c>
       <c r="Y10">
         <f>-K*((T10-T11)/dx)*width*W10</f>
-        <v>-0.2328181818181799</v>
+        <v>0.20818181818181306</v>
       </c>
       <c r="Z10">
         <f t="shared" ref="Z10:Z18" si="0">X10/Y10</f>
-        <v>1.0010322249306733</v>
+        <v>1.0008398907331335</v>
       </c>
       <c r="AB10">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q10+Q11)/2)-(Length/2)))</f>
-        <v>-0.23281818181818181</v>
+        <v>0.20818181818181825</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2076,11 +2073,11 @@
       </c>
       <c r="D11" s="1">
         <f>E11-Datum</f>
-        <v>19.766683889818243</v>
+        <v>20.19054035928707</v>
       </c>
       <c r="E11">
         <f>SQRT(D$10^2-C11*(D$10^2-D$35^2)+(Rech*B11/K)*(Length-B11))+Datum</f>
-        <v>9.7666838898182426</v>
+        <v>10.19054035928707</v>
       </c>
       <c r="G11" s="1"/>
       <c r="Q11">
@@ -2092,39 +2089,39 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="S11">
-        <v>9.9416502570500001</v>
+        <v>10.0520215111</v>
       </c>
       <c r="T11">
         <f>SQRT(((S$10-Datum)^2)-$R11*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q11/K)*(Length-Q11))+Datum</f>
-        <v>9.941710512937906</v>
+        <v>10.051977911962155</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11:U74" si="1">(S11-T11)/T11</f>
-        <v>-6.0609175682101108E-6</v>
+        <v>4.3373690458494889E-6</v>
       </c>
       <c r="V11">
         <f>0.5*(S11+S12)-Datum</f>
-        <v>19.912266212184999</v>
+        <v>20.076721440100002</v>
       </c>
       <c r="W11">
         <f>0.5*(T11+T12)-Datum</f>
-        <v>19.9123545946427</v>
+        <v>20.07665605279157</v>
       </c>
       <c r="X11">
         <f>-K*((S11-S12)/dx)*width*V11</f>
-        <v>-0.23404116949706716</v>
+        <v>0.19835743764930322</v>
       </c>
       <c r="Y11">
         <f>-K*((T11-T12)/dx)*width*W11</f>
-        <v>-0.23381818181818539</v>
+        <v>0.19818181818182479</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>1.0009536798085923</v>
+        <v>1.0008861532762674</v>
       </c>
       <c r="AB11">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q11+Q12)/2)-(Length/2)))</f>
-        <v>-0.23381818181818181</v>
+        <v>0.19818181818181824</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2142,11 +2139,11 @@
       </c>
       <c r="D12" s="1">
         <f>E12-Datum</f>
-        <v>19.526565699067515</v>
+        <v>20.340788578617104</v>
       </c>
       <c r="E12">
         <f>SQRT(D$10^2-C12*(D$10^2-D$35^2)+(Rech*B12/K)*(Length-B12))+Datum</f>
-        <v>9.5265656990675147</v>
+        <v>10.340788578617104</v>
       </c>
       <c r="G12" s="1"/>
       <c r="Q12">
@@ -2158,39 +2155,39 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="S12">
-        <v>9.88288216732</v>
+        <v>10.101421369100001</v>
       </c>
       <c r="T12">
         <f>SQRT(((S$10-Datum)^2)-$R12*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q12/K)*(Length-Q12))+Datum</f>
-        <v>9.8829986763474977</v>
+        <v>10.101334193620989</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>-1.178883366407289E-5</v>
+        <v>8.6300955240688409E-6</v>
       </c>
       <c r="V12">
         <f>0.5*(S12+S13)-Datum</f>
-        <v>19.853287101854999</v>
+        <v>20.124820092349999</v>
       </c>
       <c r="W12">
         <f>0.5*(T12+T13)-Datum</f>
-        <v>19.853429706995136</v>
+        <v>20.124711152519385</v>
       </c>
       <c r="X12">
         <f>-K*((S12-S13)/dx)*width*V12</f>
-        <v>-0.23502373258993653</v>
+        <v>0.18835803831877238</v>
       </c>
       <c r="Y12">
         <f>-K*((T12-T13)/dx)*width*W12</f>
-        <v>-0.23481818181817363</v>
+        <v>0.18818181818181556</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>1.0008753613973642</v>
+        <v>1.0009364355103985</v>
       </c>
       <c r="AB12">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q12+Q13)/2)-(Length/2)))</f>
-        <v>-0.23481818181818179</v>
+        <v>0.18818181818181823</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2208,11 +2205,11 @@
       </c>
       <c r="D13" s="1">
         <f>E13-Datum</f>
-        <v>19.27939127669751</v>
+        <v>20.451632697660106</v>
       </c>
       <c r="E13">
         <f>SQRT(D$10^2-C13*(D$10^2-D$35^2)+(Rech*B13/K)*(Length-B13))+Datum</f>
-        <v>9.2793912766975097</v>
+        <v>10.451632697660106</v>
       </c>
       <c r="G13" s="1"/>
       <c r="Q13">
@@ -2224,39 +2221,39 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="S13">
-        <v>9.8236920363899998</v>
+        <v>10.1482188156</v>
       </c>
       <c r="T13">
         <f>SQRT(((S$10-Datum)^2)-$R13*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q13/K)*(Length-Q13))+Datum</f>
-        <v>9.8238607376427716</v>
+        <v>10.148088111417781</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>-1.7172602226065E-5</v>
+        <v>1.287968539331701E-5</v>
       </c>
       <c r="V13">
         <f>0.5*(S13+S14)-Datum</f>
-        <v>19.793884048704999</v>
+        <v>20.170325361499998</v>
       </c>
       <c r="W13">
         <f>0.5*(T13+T14)-Datum</f>
-        <v>19.794076804784485</v>
+        <v>20.17017292680687</v>
       </c>
       <c r="X13">
         <f>-K*((S13-S14)/dx)*width*V13</f>
-        <v>-0.23600634078484253</v>
+        <v>0.17835848936877216</v>
       </c>
       <c r="Y13">
         <f>-K*((T13-T14)/dx)*width*W13</f>
-        <v>-0.23581818181818875</v>
+        <v>0.17818181818182768</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>1.0007978984707755</v>
+        <v>1.0009915219675454</v>
       </c>
       <c r="AB13">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q13+Q14)/2)-(Length/2)))</f>
-        <v>-0.23581818181818179</v>
+        <v>0.17818181818181822</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2274,11 +2271,11 @@
       </c>
       <c r="D14" s="1">
         <f>E14-Datum</f>
-        <v>19.024885597553538</v>
+        <v>20.523711165381371</v>
       </c>
       <c r="E14">
         <f>SQRT(D$10^2-C14*(D$10^2-D$35^2)+(Rech*B14/K)*(Length-B14))+Datum</f>
-        <v>9.0248855975535385</v>
+        <v>10.523711165381371</v>
       </c>
       <c r="G14" s="1"/>
       <c r="Q14">
@@ -2290,39 +2287,39 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="S14">
-        <v>9.7640760610200008</v>
+        <v>10.1924319074</v>
       </c>
       <c r="T14">
         <f>SQRT(((S$10-Datum)^2)-$R14*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q14/K)*(Length-Q14))+Datum</f>
-        <v>9.7642928719261981</v>
+        <v>10.192257742195963</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>-2.2204465703876967E-5</v>
+        <v>1.7087990555372743E-5</v>
       </c>
       <c r="V14">
         <f>0.5*(S14+S15)-Datum</f>
-        <v>19.734053211305</v>
+        <v>20.213254730599999</v>
       </c>
       <c r="W14">
         <f>0.5*(T14+T15)-Datum</f>
-        <v>19.734292025999451</v>
+        <v>20.213058876157458</v>
       </c>
       <c r="X14">
         <f>-K*((S14-S15)/dx)*width*V14</f>
-        <v>-0.23698900553233204</v>
+        <v>0.16835881182074305</v>
       </c>
       <c r="Y14">
         <f>-K*((T14-T15)/dx)*width*W14</f>
-        <v>-0.23681818181817402</v>
+        <v>0.16818181818181355</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>1.0007213285434695</v>
+        <v>1.0010523946098511</v>
       </c>
       <c r="AB14">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q14+Q15)/2)-(Length/2)))</f>
-        <v>-0.23681818181818179</v>
+        <v>0.16818181818181821</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2340,11 +2337,11 @@
       </c>
       <c r="D15" s="1">
         <f>E15-Datum</f>
-        <v>18.762750331441282</v>
+        <v>20.557431746207989</v>
       </c>
       <c r="E15">
         <f>SQRT(D$10^2-C15*(D$10^2-D$35^2)+(Rech*B15/K)*(Length-B15))+Datum</f>
-        <v>8.762750331441282</v>
+        <v>10.557431746207989</v>
       </c>
       <c r="G15" s="1"/>
       <c r="Q15">
@@ -2356,39 +2353,39 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="S15">
-        <v>9.7040303615900001</v>
+        <v>10.234077553800001</v>
       </c>
       <c r="T15">
         <f>SQRT(((S$10-Datum)^2)-$R15*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q15/K)*(Length-Q15))+Datum</f>
-        <v>9.7042911800727047</v>
+        <v>10.233860010118953</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>-2.6876613434706929E-5</v>
+        <v>2.1257246125388699E-5</v>
       </c>
       <c r="V15">
         <f>0.5*(S15+S16)-Datum</f>
-        <v>19.673790670799999</v>
+        <v>20.253624551800002</v>
       </c>
       <c r="W15">
         <f>0.5*(T15+T16)-Datum</f>
-        <v>19.674071433409804</v>
+        <v>20.253385365427185</v>
       </c>
       <c r="X15">
         <f>-K*((S15-S16)/dx)*width*V15</f>
-        <v>-0.23797173862087315</v>
+        <v>0.15835902344271449</v>
       </c>
       <c r="Y15">
         <f>-K*((T15-T16)/dx)*width*W15</f>
-        <v>-0.23781818181818518</v>
+        <v>0.15818181818180807</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>1.0006456899195595</v>
+        <v>1.0011202631436613</v>
       </c>
       <c r="AB15">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q15+Q16)/2)-(Length/2)))</f>
-        <v>-0.23781818181818179</v>
+        <v>0.1581818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2406,11 +2403,11 @@
       </c>
       <c r="D16" s="1">
         <f>E16-Datum</f>
-        <v>18.492661030798136</v>
+        <v>20.552983238449837</v>
       </c>
       <c r="E16">
         <f>SQRT(D$10^2-C16*(D$10^2-D$35^2)+(Rech*B16/K)*(Length-B16))+Datum</f>
-        <v>8.4926610307981356</v>
+        <v>10.552983238449837</v>
       </c>
       <c r="G16" s="1"/>
       <c r="Q16">
@@ -2422,39 +2419,39 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="S16">
-        <v>9.6435509800099997</v>
+        <v>10.273171549800001</v>
       </c>
       <c r="T16">
         <f>SQRT(((S$10-Datum)^2)-$R16*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q16/K)*(Length-Q16))+Datum</f>
-        <v>9.6438516867469026</v>
+        <v>10.272910720735418</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>-3.1181186383881695E-5</v>
+        <v>2.5389986506615174E-5</v>
       </c>
       <c r="V16">
         <f>0.5*(S16+S17)-Datum</f>
-        <v>19.613092428769999</v>
+        <v>20.29145007875</v>
       </c>
       <c r="W16">
         <f>0.5*(T16+T17)-Datum</f>
-        <v>19.613411012548852</v>
+        <v>20.291167656547341</v>
       </c>
       <c r="X16">
         <f>-K*((S16-S17)/dx)*width*V16</f>
-        <v>-0.23895455228661683</v>
+        <v>0.14835914308076317</v>
       </c>
       <c r="Y16">
         <f>-K*((T16-T17)/dx)*width*W16</f>
-        <v>-0.23881818181818407</v>
+        <v>0.14818181818182208</v>
       </c>
       <c r="Z16">
         <f t="shared" si="0"/>
-        <v>1.0005710221365665</v>
+        <v>1.0011966710971485</v>
       </c>
       <c r="AB16">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q16+Q17)/2)-(Length/2)))</f>
-        <v>-0.23881818181818179</v>
+        <v>0.14818181818181819</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2472,11 +2469,11 @@
       </c>
       <c r="D17" s="1">
         <f>E17-Datum</f>
-        <v>18.214263861051318</v>
+        <v>20.510340806529765</v>
       </c>
       <c r="E17">
         <f>SQRT(D$10^2-C17*(D$10^2-D$35^2)+(Rech*B17/K)*(Length-B17))+Datum</f>
-        <v>8.2142638610513181</v>
+        <v>10.510340806529765</v>
       </c>
       <c r="G17" s="1"/>
       <c r="Q17">
@@ -2488,39 +2485,39 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="S17">
-        <v>9.5826338775300002</v>
+        <v>10.3097286077</v>
       </c>
       <c r="T17">
         <f>SQRT(((S$10-Datum)^2)-$R17*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q17/K)*(Length-Q17))+Datum</f>
-        <v>9.5829703383508011</v>
+        <v>10.309424592359264</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>-3.511028511217008E-5</v>
+        <v>2.9489069735459254E-5</v>
       </c>
       <c r="V17">
         <f>0.5*(S17+S18)-Datum</f>
-        <v>19.551954405025</v>
+        <v>20.326745496400001</v>
       </c>
       <c r="W17">
         <f>0.5*(T17+T18)-Datum</f>
-        <v>19.552306669624855</v>
+        <v>20.326419938637528</v>
       </c>
       <c r="X17">
         <f>-K*((S17-S18)/dx)*width*V17</f>
-        <v>-0.23993745903518887</v>
+        <v>0.13835918629818386</v>
       </c>
       <c r="Y17">
         <f>-K*((T17-T18)/dx)*width*W17</f>
-        <v>-0.23981818181818071</v>
+        <v>0.13818181818181044</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
-        <v>1.0004973651960158</v>
+        <v>1.0012835850527024</v>
       </c>
       <c r="AB17">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q17+Q18)/2)-(Length/2)))</f>
-        <v>-0.23981818181818179</v>
+        <v>0.13818181818181824</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2538,11 +2535,11 @@
       </c>
       <c r="D18" s="1">
         <f>E18-Datum</f>
-        <v>17.927171779173648</v>
+        <v>20.42926528292195</v>
       </c>
       <c r="E18">
         <f>SQRT(D$10^2-C18*(D$10^2-D$35^2)+(Rech*B18/K)*(Length-B18))+Datum</f>
-        <v>7.9271717791736478</v>
+        <v>10.42926528292195</v>
       </c>
       <c r="G18" s="1"/>
       <c r="Q18">
@@ -2554,39 +2551,39 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="S18">
-        <v>9.5212749325200008</v>
+        <v>10.3437623851</v>
       </c>
       <c r="T18">
         <f>SQRT(((S$10-Datum)^2)-$R18*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q18/K)*(Length-Q18))+Datum</f>
-        <v>9.5216430008989121</v>
+        <v>10.343415284915789</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>-3.8655973436159874E-5</v>
+        <v>3.3557599172972614E-5</v>
       </c>
       <c r="V18">
         <f>0.5*(S18+S19)-Datum</f>
-        <v>19.490372435354999</v>
+        <v>20.359523948</v>
       </c>
       <c r="W18">
         <f>0.5*(T18+T19)-Datum</f>
-        <v>19.49075422935827</v>
+        <v>20.359155355653328</v>
       </c>
       <c r="X18">
         <f>-K*((S18-S19)/dx)*width*V18</f>
-        <v>-0.24092047157134114</v>
+        <v>0.12835916692818219</v>
       </c>
       <c r="Y18">
         <f>-K*((T18-T19)/dx)*width*W18</f>
-        <v>-0.24081818181818029</v>
+        <v>0.12818181818183003</v>
       </c>
       <c r="Z18">
         <f t="shared" si="0"/>
-        <v>1.0004247592618987</v>
+        <v>1.0013835717800523</v>
       </c>
       <c r="AB18">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q18+Q19)/2)-(Length/2)))</f>
-        <v>-0.24081818181818179</v>
+        <v>0.12818181818181823</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2604,11 +2601,11 @@
       </c>
       <c r="D19" s="1">
         <f>E19-Datum</f>
-        <v>17.630960041926247</v>
+        <v>20.309296393523827</v>
       </c>
       <c r="E19">
         <f>SQRT(D$10^2-C19*(D$10^2-D$35^2)+(Rech*B19/K)*(Length-B19))+Datum</f>
-        <v>7.6309600419262473</v>
+        <v>10.309296393523827</v>
       </c>
       <c r="G19" s="1"/>
       <c r="Q19">
@@ -2620,39 +2617,39 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="S19">
-        <v>9.4594699381900007</v>
+        <v>10.3752855109</v>
       </c>
       <c r="T19">
         <f>SQRT(((S$10-Datum)^2)-$R19*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q19/K)*(Length-Q19))+Datum</f>
-        <v>9.459865457817628</v>
+        <v>10.374895426390871</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>-4.1810280430620404E-5</v>
+        <v>3.7598885877515727E-5</v>
       </c>
       <c r="V19">
         <f>0.5*(S19+S20)-Datum</f>
-        <v>19.428342269154999</v>
+        <v>20.389797559999998</v>
       </c>
       <c r="W19">
         <f>0.5*(T19+T20)-Datum</f>
-        <v>19.428749432741579</v>
+        <v>20.389386031698713</v>
       </c>
       <c r="X19">
         <f>-K*((S19-S20)/dx)*width*V19</f>
-        <v>-0.24190360322118631</v>
+        <v>0.11835909733191506</v>
       </c>
       <c r="Y19">
         <f>-K*((T19-T20)/dx)*width*W19</f>
-        <v>-0.24181818181818165</v>
+        <v>0.11818181818181075</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19:Z82" si="3">X19/Y19</f>
-        <v>1.0003532464034026</v>
+        <v>1.0015000543470365</v>
       </c>
       <c r="AB19">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q19+Q20)/2)-(Length/2)))</f>
-        <v>-0.24181818181818179</v>
+        <v>0.11818181818181822</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2670,11 +2667,11 @@
       </c>
       <c r="D20" s="1">
         <f>E20-Datum</f>
-        <v>17.325160893913797</v>
+        <v>20.149739452409801</v>
       </c>
       <c r="E20">
         <f>SQRT(D$10^2-C20*(D$10^2-D$35^2)+(Rech*B20/K)*(Length-B20))+Datum</f>
-        <v>7.3251608939137967</v>
+        <v>10.149739452409801</v>
       </c>
       <c r="Q20">
         <f>Q19+dx</f>
@@ -2685,39 +2682,39 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="S20">
-        <v>9.3972146001199999</v>
+        <v>10.4043096091</v>
       </c>
       <c r="T20">
         <f>SQRT(((S$10-Datum)^2)-$R20*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q20/K)*(Length-Q20))+Datum</f>
-        <v>9.3976334076655306</v>
+        <v>10.403876637006551</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>-4.4565214172866248E-5</v>
+        <v>4.1616419394017002E-5</v>
       </c>
       <c r="V20">
         <f>0.5*(S20+S21)-Datum</f>
-        <v>19.365859566985002</v>
+        <v>20.41757746475</v>
       </c>
       <c r="W20">
         <f>0.5*(T20+T21)-Datum</f>
-        <v>19.366287934718329</v>
+        <v>20.417123094120406</v>
       </c>
       <c r="X20">
         <f>-K*((S20-S21)/dx)*width*V20</f>
-        <v>-0.24288686736422935</v>
+        <v>0.10835898820999559</v>
       </c>
       <c r="Y20">
         <f>-K*((T20-T21)/dx)*width*W20</f>
-        <v>-0.24281818181818393</v>
+        <v>0.10818181818182462</v>
       </c>
       <c r="Z20">
         <f t="shared" si="3"/>
-        <v>1.0002828682165854</v>
+        <v>1.0016377061427568</v>
       </c>
       <c r="AB20">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q20+Q21)/2)-(Length/2)))</f>
-        <v>-0.24281818181818179</v>
+        <v>0.10818181818181821</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2735,11 +2732,11 @@
       </c>
       <c r="D21" s="1">
         <f>E21-Datum</f>
-        <v>17.009257244218514</v>
+        <v>19.949644608363329</v>
       </c>
       <c r="E21">
         <f>SQRT(D$10^2-C21*(D$10^2-D$35^2)+(Rech*B21/K)*(Length-B21))+Datum</f>
-        <v>7.0092572442185137</v>
+        <v>9.9496446083633288</v>
       </c>
       <c r="Q21">
         <f>Q20+dx</f>
@@ -2750,39 +2747,39 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="S21">
-        <v>9.3345045338499997</v>
+        <v>10.4308453204</v>
       </c>
       <c r="T21">
         <f>SQRT(((S$10-Datum)^2)-$R21*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q21/K)*(Length-Q21))+Datum</f>
-        <v>9.3349424617711243</v>
+        <v>10.430369551234261</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>-4.6912760621508677E-5</v>
+        <v>4.5613835962560167E-5</v>
       </c>
       <c r="V21">
         <f>0.5*(S21+S22)-Datum</f>
-        <v>19.302919898035</v>
+        <v>20.442873820900001</v>
       </c>
       <c r="W21">
         <f>0.5*(T21+T22)-Datum</f>
-        <v>19.303365301777717</v>
+        <v>20.442376694489806</v>
       </c>
       <c r="X21">
         <f>-K*((S21-S22)/dx)*width*V21</f>
-        <v>-0.24387027805822298</v>
+        <v>9.8358847190456997E-2</v>
       </c>
       <c r="Y21">
         <f>-K*((T21-T22)/dx)*width*W21</f>
-        <v>-0.24381818181818313</v>
+        <v>9.8181818181820285E-2</v>
       </c>
       <c r="Z21">
         <f t="shared" si="3"/>
-        <v>1.0002136683968823</v>
+        <v>1.0018030732361145</v>
       </c>
       <c r="AB21">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q21+Q22)/2)-(Length/2)))</f>
-        <v>-0.2438181818181818</v>
+        <v>9.8181818181818203E-2</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2800,11 +2797,11 @@
       </c>
       <c r="D22" s="1">
         <f>E22-Datum</f>
-        <v>16.682675085249368</v>
+        <v>19.707777145076509</v>
       </c>
       <c r="E22">
         <f>SQRT(D$10^2-C22*(D$10^2-D$35^2)+(Rech*B22/K)*(Length-B22))+Datum</f>
-        <v>6.6826750852493682</v>
+        <v>9.7077771450765091</v>
       </c>
       <c r="Q22">
         <f>Q21+dx</f>
@@ -2815,39 +2812,39 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="S22">
-        <v>9.2713352622199992</v>
+        <v>10.454902321400001</v>
       </c>
       <c r="T22">
         <f>SQRT(((S$10-Datum)^2)-$R22*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q22/K)*(Length-Q22))+Datum</f>
-        <v>9.271788141784306</v>
+        <v>10.45438383774535</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>-4.8844899967665395E-5</v>
+        <v>4.9594855392447975E-5</v>
       </c>
       <c r="V22">
         <f>0.5*(S22+S23)-Datum</f>
-        <v>19.239518737499999</v>
+        <v>20.465695831650002</v>
       </c>
       <c r="W22">
         <f>0.5*(T22+T23)-Datum</f>
-        <v>19.239977009460993</v>
+        <v>20.465156027566799</v>
       </c>
       <c r="X22">
         <f>-K*((S22-S23)/dx)*width*V22</f>
-        <v>-0.24485384940502847</v>
+        <v>8.8358679092919307E-2</v>
       </c>
       <c r="Y22">
         <f>-K*((T22-T23)/dx)*width*W22</f>
-        <v>-0.24481818181818207</v>
+        <v>8.8181818181819249E-2</v>
       </c>
       <c r="Z22">
         <f t="shared" si="3"/>
-        <v>1.0001456901059451</v>
+        <v>1.0020056391980419</v>
       </c>
       <c r="AB22">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q22+Q23)/2)-(Length/2)))</f>
-        <v>-0.2448181818181818</v>
+        <v>8.8181818181818195E-2</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2865,11 +2862,11 @@
       </c>
       <c r="D23" s="1">
         <f>E23-Datum</f>
-        <v>16.344774333101082</v>
+        <v>19.42257655410322</v>
       </c>
       <c r="E23">
         <f>SQRT(D$10^2-C23*(D$10^2-D$35^2)+(Rech*B23/K)*(Length-B23))+Datum</f>
-        <v>6.344774333101082</v>
+        <v>9.4225765541032196</v>
       </c>
       <c r="Q23">
         <f>Q22+dx</f>
@@ -2880,39 +2877,39 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="S23">
-        <v>9.2077022127799992</v>
+        <v>10.476489341900001</v>
       </c>
       <c r="T23">
         <f>SQRT(((S$10-Datum)^2)-$R23*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q23/K)*(Length-Q23))+Datum</f>
-        <v>9.2081658771376809</v>
+        <v>10.475928217388251</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>-5.0353606121805108E-5</v>
+        <v>5.3563226103271714E-5</v>
       </c>
       <c r="V23">
         <f>0.5*(S23+S24)-Datum</f>
-        <v>19.175651463874999</v>
+        <v>20.486051761350001</v>
       </c>
       <c r="W23">
         <f>0.5*(T23+T24)-Datum</f>
-        <v>19.176118439775657</v>
+        <v>20.48546934832995</v>
       </c>
       <c r="X23">
         <f>-K*((S23-S24)/dx)*width*V23</f>
-        <v>-0.24583759606337563</v>
+        <v>7.8358487926575307E-2</v>
       </c>
       <c r="Y23">
         <f>-K*((T23-T24)/dx)*width*W23</f>
-        <v>-0.24581818181818788</v>
+        <v>7.8181818181815063E-2</v>
       </c>
       <c r="Z23">
         <f t="shared" si="3"/>
-        <v>1.0000789780684414</v>
+        <v>1.002259729293445</v>
       </c>
       <c r="AB23">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q23+Q24)/2)-(Length/2)))</f>
-        <v>-0.2458181818181818</v>
+        <v>7.8181818181818241E-2</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2930,11 +2927,11 @@
       </c>
       <c r="D24" s="1">
         <f>E24-Datum</f>
-        <v>15.994837667197501</v>
+        <v>19.092100984438567</v>
       </c>
       <c r="E24">
         <f>SQRT(D$10^2-C24*(D$10^2-D$35^2)+(Rech*B24/K)*(Length-B24))+Datum</f>
-        <v>5.9948376671975012</v>
+        <v>9.0921009844385665</v>
       </c>
       <c r="Q24">
         <f>Q23+dx</f>
@@ -2945,39 +2942,39 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="S24">
-        <v>9.1436007149700007</v>
+        <v>10.495614180800001</v>
       </c>
       <c r="T24">
         <f>SQRT(((S$10-Datum)^2)-$R24*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q24/K)*(Length-Q24))+Datum</f>
-        <v>9.1440710024136322</v>
+        <v>10.495010479271645</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>-5.1430860883232303E-5</v>
+        <v>5.7522718014209445E-5</v>
       </c>
       <c r="V24">
         <f>0.5*(S24+S25)-Datum</f>
-        <v>19.11131335612</v>
+        <v>20.503948950199998</v>
       </c>
       <c r="W24">
         <f>0.5*(T24+T25)-Datum</f>
-        <v>19.111784878513234</v>
+        <v>20.503323987147802</v>
       </c>
       <c r="X24">
         <f>-K*((S24-S25)/dx)*width*V24</f>
-        <v>-0.24682153296954198</v>
+        <v>6.8358274515710138E-2</v>
       </c>
       <c r="Y24">
         <f>-K*((T24-T25)/dx)*width*W24</f>
-        <v>-0.24681818181817569</v>
+        <v>6.8181818181816525E-2</v>
       </c>
       <c r="Z24">
         <f t="shared" si="3"/>
-        <v>1.0000135774088506</v>
+        <v>1.0025880262304396</v>
       </c>
       <c r="AB24">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q24+Q25)/2)-(Length/2)))</f>
-        <v>-0.2468181818181818</v>
+        <v>6.8181818181818232E-2</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2995,11 +2992,11 @@
       </c>
       <c r="D25" s="1">
         <f>E25-Datum</f>
-        <v>15.632056806447448</v>
+        <v>18.713952014473051</v>
       </c>
       <c r="E25">
         <f>SQRT(D$10^2-C25*(D$10^2-D$35^2)+(Rech*B25/K)*(Length-B25))+Datum</f>
-        <v>5.6320568064474479</v>
+        <v>8.7139520144730511</v>
       </c>
       <c r="Q25">
         <f>Q24+dx</f>
@@ -3010,39 +3007,39 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="S25">
-        <v>9.0790259972699996</v>
+        <v>10.512283719599999</v>
       </c>
       <c r="T25">
         <f>SQRT(((S$10-Datum)^2)-$R25*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q25/K)*(Length-Q25))+Datum</f>
-        <v>9.0794987546128354</v>
+        <v>10.511637495023958</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>-5.2068661014532488E-5</v>
+        <v>6.1477060671749154E-5</v>
       </c>
       <c r="V25">
         <f>0.5*(S25+S26)-Datum</f>
-        <v>19.046499590724999</v>
+        <v>20.519393826950001</v>
       </c>
       <c r="W25">
         <f>0.5*(T25+T26)-Datum</f>
-        <v>19.046971512466229</v>
+        <v>20.518726363157398</v>
       </c>
       <c r="X25">
         <f>-K*((S25-S26)/dx)*width*V25</f>
-        <v>-0.2478056755788402</v>
+        <v>5.8358037146623618E-2</v>
       </c>
       <c r="Y25">
         <f>-K*((T25-T26)/dx)*width*W25</f>
-        <v>-0.24781818181819024</v>
+        <v>5.8181818181811985E-2</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.99994953461744296</v>
+        <v>1.0030287634577002</v>
       </c>
       <c r="AB25">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q25+Q26)/2)-(Length/2)))</f>
-        <v>-0.2478181818181818</v>
+        <v>5.8181818181818223E-2</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3060,11 +3057,11 @@
       </c>
       <c r="D26" s="1">
         <f>E26-Datum</f>
-        <v>15.255515461628951</v>
+        <v>18.285172134820062</v>
       </c>
       <c r="E26">
         <f>SQRT(D$10^2-C26*(D$10^2-D$35^2)+(Rech*B26/K)*(Length-B26))+Datum</f>
-        <v>5.255515461628951</v>
+        <v>8.285172134820062</v>
       </c>
       <c r="Q26">
         <f>Q25+dx</f>
@@ -3075,39 +3072,39 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="S26">
-        <v>9.0139731841799993</v>
+        <v>10.526503934300001</v>
       </c>
       <c r="T26">
         <f>SQRT(((S$10-Datum)^2)-$R26*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q26/K)*(Length-Q26))+Datum</f>
-        <v>9.0144442703196255</v>
+        <v>10.525815231290835</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>-5.2259032892052657E-5</v>
+        <v>6.5429897260445521E-5</v>
       </c>
       <c r="V26">
         <f>0.5*(S26+S27)-Datum</f>
-        <v>18.981205238689999</v>
+        <v>20.532391920049999</v>
       </c>
       <c r="W26">
         <f>0.5*(T26+T27)-Datum</f>
-        <v>18.981673426539558</v>
+        <v>20.531681995907519</v>
       </c>
       <c r="X26">
         <f>-K*((S26-S27)/dx)*width*V26</f>
-        <v>-0.24879003943835731</v>
+        <v>4.8357772415462727E-2</v>
       </c>
       <c r="Y26">
         <f>-K*((T26-T27)/dx)*width*W26</f>
-        <v>-0.24881818181816687</v>
+        <v>4.8181818181823814E-2</v>
       </c>
       <c r="Z26">
         <f t="shared" si="3"/>
-        <v>0.99988689580639201</v>
+        <v>1.0036518803208072</v>
       </c>
       <c r="AB26">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q26+Q27)/2)-(Length/2)))</f>
-        <v>-0.2488181818181818</v>
+        <v>4.8181818181818215E-2</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3125,11 +3122,11 @@
       </c>
       <c r="D27" s="1">
         <f>E27-Datum</f>
-        <v>14.864167921548786</v>
+        <v>17.802103246526798</v>
       </c>
       <c r="E27">
         <f>SQRT(D$10^2-C27*(D$10^2-D$35^2)+(Rech*B27/K)*(Length-B27))+Datum</f>
-        <v>4.8641679215487859</v>
+        <v>7.8021032465267979</v>
       </c>
       <c r="Q27">
         <f>Q26+dx</f>
@@ -3140,39 +3137,39 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="S27">
-        <v>8.9484372931999996</v>
+        <v>10.5382799058</v>
       </c>
       <c r="T27">
         <f>SQRT(((S$10-Datum)^2)-$R27*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q27/K)*(Length-Q27))+Datum</f>
-        <v>8.9489025827594872</v>
+        <v>10.537548760524199</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
-        <v>-5.199403560209294E-5</v>
+        <v>6.9384758487603358E-5</v>
       </c>
       <c r="V27">
         <f>0.5*(S27+S28)-Datum</f>
-        <v>18.915425262364998</v>
+        <v>20.54294786705</v>
       </c>
       <c r="W27">
         <f>0.5*(T27+T28)-Datum</f>
-        <v>18.915885600751484</v>
+        <v>20.542195515316472</v>
       </c>
       <c r="X27">
         <f>-K*((S27-S28)/dx)*width*V27</f>
-        <v>-0.24977464080733031</v>
+        <v>3.8357473841663978E-2</v>
       </c>
       <c r="Y27">
         <f>-K*((T27-T28)/dx)*width*W27</f>
-        <v>-0.24981818181818746</v>
+        <v>3.8181818181822681E-2</v>
       </c>
       <c r="Z27">
         <f t="shared" si="3"/>
-        <v>0.99982570919962566</v>
+        <v>1.0046005053767952</v>
       </c>
       <c r="AB27">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q27+Q28)/2)-(Length/2)))</f>
-        <v>-0.2498181818181818</v>
+        <v>3.8181818181818206E-2</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3190,11 +3187,11 @@
       </c>
       <c r="D28" s="1">
         <f>E28-Datum</f>
-        <v>14.456811820038332</v>
+        <v>17.260187716244573</v>
       </c>
       <c r="E28">
         <f>SQRT(D$10^2-C28*(D$10^2-D$35^2)+(Rech*B28/K)*(Length-B28))+Datum</f>
-        <v>4.4568118200383324</v>
+        <v>7.2601877162445732</v>
       </c>
       <c r="Q28">
         <f>Q27+dx</f>
@@ -3205,39 +3202,39 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="S28">
-        <v>8.8824132315300002</v>
+        <v>10.5476158283</v>
       </c>
       <c r="T28">
         <f>SQRT(((S$10-Datum)^2)-$R28*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q28/K)*(Length-Q28))+Datum</f>
-        <v>8.8828686187434798</v>
+        <v>10.546842270108741</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>-5.126578282591026E-5</v>
+        <v>7.334500426269783E-5</v>
       </c>
       <c r="V28">
         <f>0.5*(S28+S29)-Datum</f>
-        <v>18.849154512165001</v>
+        <v>20.551065422499999</v>
       </c>
       <c r="W28">
         <f>0.5*(T28+T29)-Datum</f>
-        <v>18.849602907118932</v>
+        <v>20.550270669986581</v>
       </c>
       <c r="X28">
         <f>-K*((S28-S29)/dx)*width*V28</f>
-        <v>-0.25075949607505121</v>
+        <v>2.8357134434111669E-2</v>
       </c>
       <c r="Y28">
         <f>-K*((T28-T29)/dx)*width*W28</f>
-        <v>-0.25081818181818277</v>
+        <v>2.8181818181814738E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="3"/>
-        <v>0.99976602277113191</v>
+        <v>1.0062208992750532</v>
       </c>
       <c r="AB28">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q28+Q29)/2)-(Length/2)))</f>
-        <v>-0.25081818181818177</v>
+        <v>2.8181818181818197E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3255,11 +3252,11 @@
       </c>
       <c r="D29" s="1">
         <f>E29-Datum</f>
-        <v>14.032053021564593</v>
+        <v>16.653681875189044</v>
       </c>
       <c r="E29">
         <f>SQRT(D$10^2-C29*(D$10^2-D$35^2)+(Rech*B29/K)*(Length-B29))+Datum</f>
-        <v>4.0320530215645931</v>
+        <v>6.6536818751890436</v>
       </c>
       <c r="Q29">
         <f>Q28+dx</f>
@@ -3270,39 +3267,39 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="S29">
-        <v>8.8158957927999992</v>
+        <v>10.5545150167</v>
       </c>
       <c r="T29">
         <f>SQRT(((S$10-Datum)^2)-$R29*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q29/K)*(Length-Q29))+Datum</f>
-        <v>8.8163371954943841</v>
+        <v>10.553699069864418</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
-        <v>-5.006644875271363E-5</v>
+        <v>7.7313824298024935E-5</v>
       </c>
       <c r="V29">
         <f>0.5*(S29+S30)-Datum</f>
-        <v>18.782387723189998</v>
+        <v>20.556747464099999</v>
       </c>
       <c r="W29">
         <f>0.5*(T29+T30)-Datum</f>
-        <v>18.782820106421575</v>
+        <v>20.555910333910436</v>
       </c>
       <c r="X29">
         <f>-K*((S29-S30)/dx)*width*V29</f>
-        <v>-0.25174462210826287</v>
+        <v>1.835674297147423E-2</v>
       </c>
       <c r="Y29">
         <f>-K*((T29-T30)/dx)*width*W29</f>
-        <v>-0.25181818181818133</v>
+        <v>1.8181818181817602E-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="3"/>
-        <v>0.99970788562848267</v>
+        <v>1.0096208634311148</v>
       </c>
       <c r="AB29">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q29+Q30)/2)-(Length/2)))</f>
-        <v>-0.25181818181818177</v>
+        <v>1.8181818181818188E-2</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3320,11 +3317,11 @@
       </c>
       <c r="D30" s="1">
         <f>E30-Datum</f>
-        <v>13.588259638379007</v>
+        <v>15.975230827753318</v>
       </c>
       <c r="E30">
         <f>SQRT(D$10^2-C30*(D$10^2-D$35^2)+(Rech*B30/K)*(Length-B30))+Datum</f>
-        <v>3.5882596383790073</v>
+        <v>5.9752308277533182</v>
       </c>
       <c r="Q30">
         <f>Q29+dx</f>
@@ -3335,39 +3332,39 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="S30">
-        <v>8.7488796535799995</v>
+        <v>10.5589799115</v>
       </c>
       <c r="T30">
         <f>SQRT(((S$10-Datum)^2)-$R30*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q30/K)*(Length-Q30))+Datum</f>
-        <v>8.7493030173487689</v>
+        <v>10.558121597956454</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
-        <v>-4.8388285093099903E-5</v>
+        <v>8.1294152144634061E-5</v>
       </c>
       <c r="V30">
         <f>0.5*(S30+S31)-Datum</f>
-        <v>18.715119511680001</v>
+        <v>20.559995997249999</v>
       </c>
       <c r="W30">
         <f>0.5*(T30+T31)-Datum</f>
-        <v>18.715531844838928</v>
+        <v>20.559116511596979</v>
       </c>
       <c r="X30">
         <f>-K*((S30-S31)/dx)*width*V30</f>
-        <v>-0.25273003615591177</v>
+        <v>8.356287581144246E-3</v>
       </c>
       <c r="Y30">
         <f>-K*((T30-T31)/dx)*width*W30</f>
-        <v>-0.25281818181819021</v>
+        <v>8.1818181818154971E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" si="3"/>
-        <v>0.99965134761414498</v>
+        <v>1.0213240376957429</v>
       </c>
       <c r="AB30">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q30+Q31)/2)-(Length/2)))</f>
-        <v>-0.25281818181818178</v>
+        <v>8.1818181818182345E-3</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3385,11 +3382,11 @@
       </c>
       <c r="D31" s="1">
         <f>E31-Datum</f>
-        <v>13.123500752466928</v>
+        <v>15.215213439186451</v>
       </c>
       <c r="E31">
         <f>SQRT(D$10^2-C31*(D$10^2-D$35^2)+(Rech*B31/K)*(Length-B31))+Datum</f>
-        <v>3.1235007524669278</v>
+        <v>5.2152134391864511</v>
       </c>
       <c r="Q31">
         <f>Q30+dx</f>
@@ -3400,39 +3397,39 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="S31">
-        <v>8.6813593697799991</v>
+        <v>10.561012083</v>
       </c>
       <c r="T31">
         <f>SQRT(((S$10-Datum)^2)-$R31*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q31/K)*(Length-Q31))+Datum</f>
-        <v>8.6817606723290872</v>
+        <v>10.560111425237505</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
-        <v>-4.6223636452816625E-5</v>
+        <v>8.5288660907719544E-5</v>
       </c>
       <c r="V31">
         <f>0.5*(S31+S32)-Datum</f>
-        <v>18.647344371339997</v>
+        <v>20.56081215835</v>
       </c>
       <c r="W31">
         <f>0.5*(T31+T32)-Datum</f>
-        <v>18.647732650454266</v>
+        <v>20.559890341638813</v>
       </c>
       <c r="X31">
         <f>-K*((S31-S32)/dx)*width*V31</f>
-        <v>-0.2537157558805091</v>
+        <v>-1.644245269785572E-3</v>
       </c>
       <c r="Y31">
         <f>-K*((T31-T32)/dx)*width*W31</f>
-        <v>-0.25381818181817711</v>
+        <v>-1.8181818181787512E-3</v>
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>0.99959645941463171</v>
+        <v>0.90433489838359005</v>
       </c>
       <c r="AB31">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q31+Q32)/2)-(Length/2)))</f>
-        <v>-0.25381818181818178</v>
+        <v>-1.8181818181817744E-3</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3450,11 +3447,11 @@
       </c>
       <c r="D32" s="1">
         <f>E32-Datum</f>
-        <v>12.635463109834953</v>
+        <v>14.360685220420368</v>
       </c>
       <c r="E32">
         <f>SQRT(D$10^2-C32*(D$10^2-D$35^2)+(Rech*B32/K)*(Length-B32))+Datum</f>
-        <v>2.6354631098349532</v>
+        <v>4.3606852204203683</v>
       </c>
       <c r="Q32">
         <f>Q31+dx</f>
@@ -3465,39 +3462,39 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="S32">
-        <v>8.6133293728999991</v>
+        <v>10.560612233700001</v>
       </c>
       <c r="T32">
         <f>SQRT(((S$10-Datum)^2)-$R32*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q32/K)*(Length-Q32))+Datum</f>
-        <v>8.6137046285794483</v>
+        <v>10.55966925804012</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
-        <v>-4.3564957893276246E-5</v>
+        <v>8.9299734379676523E-5</v>
       </c>
       <c r="V32">
         <f>0.5*(S32+S33)-Datum</f>
-        <v>18.579056669540002</v>
+        <v>20.559196216300002</v>
       </c>
       <c r="W32">
         <f>0.5*(T32+T33)-Datum</f>
-        <v>18.579416929618894</v>
+        <v>20.558232098735587</v>
       </c>
       <c r="X32">
         <f>-K*((S32-S33)/dx)*width*V32</f>
-        <v>-0.25470179917750374</v>
+        <v>-1.1644871828921384E-2</v>
       </c>
       <c r="Y32">
         <f>-K*((T32-T33)/dx)*width*W32</f>
-        <v>-0.25481818181817251</v>
+        <v>-1.1818181818180815E-2</v>
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
-        <v>0.99954327183469271</v>
+        <v>0.98533530860112384</v>
       </c>
       <c r="AB32">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q32+Q33)/2)-(Length/2)))</f>
-        <v>-0.25481818181818178</v>
+        <v>-1.1818181818181783E-2</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3515,11 +3512,11 @@
       </c>
       <c r="D33" s="1">
         <f>E33-Datum</f>
-        <v>12.121335239980782</v>
+        <v>13.393568605864532</v>
       </c>
       <c r="E33">
         <f>SQRT(D$10^2-C33*(D$10^2-D$35^2)+(Rech*B33/K)*(Length-B33))+Datum</f>
-        <v>2.1213352399807821</v>
+        <v>3.393568605864532</v>
       </c>
       <c r="Q33">
         <f>Q32+dx</f>
@@ -3530,39 +3527,39 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="S33">
-        <v>8.5447839661800007</v>
+        <v>10.5577801989</v>
       </c>
       <c r="T33">
         <f>SQRT(((S$10-Datum)^2)-$R33*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q33/K)*(Length-Q33))+Datum</f>
-        <v>8.5451292306583362</v>
+        <v>10.556794939431054</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
-        <v>-4.040482817939714E-5</v>
+        <v>9.3329412439927304E-5</v>
       </c>
       <c r="V33">
         <f>0.5*(S33+S34)-Datum</f>
-        <v>18.51025064333</v>
+        <v>20.555147572549998</v>
       </c>
       <c r="W33">
         <f>0.5*(T33+T34)-Datum</f>
-        <v>18.510578963169785</v>
+        <v>20.554141194181852</v>
       </c>
       <c r="X33">
         <f>-K*((S33-S34)/dx)*width*V33</f>
-        <v>-0.25568818460021892</v>
+        <v>-2.1645609251050271E-2</v>
       </c>
       <c r="Y33">
         <f>-K*((T33-T34)/dx)*width*W33</f>
-        <v>-0.25581818181818894</v>
+        <v>-2.1818181818175991E-2</v>
       </c>
       <c r="Z33">
         <f t="shared" si="3"/>
-        <v>0.99949183745640713</v>
+        <v>0.99209042400673564</v>
       </c>
       <c r="AB33">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q33+Q34)/2)-(Length/2)))</f>
-        <v>-0.25581818181818178</v>
+        <v>-2.1818181818181792E-2</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3580,11 +3577,11 @@
       </c>
       <c r="D34" s="1">
         <f>E34-Datum</f>
-        <v>11.577641901527272</v>
+        <v>12.287307272140632</v>
       </c>
       <c r="E34">
         <f>SQRT(D$10^2-C34*(D$10^2-D$35^2)+(Rech*B34/K)*(Length-B34))+Datum</f>
-        <v>1.5776419015272722</v>
+        <v>2.287307272140632</v>
       </c>
       <c r="Q34">
         <f>Q33+dx</f>
@@ -3595,39 +3592,39 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="S34">
-        <v>8.4757173204799994</v>
+        <v>10.552514946200001</v>
       </c>
       <c r="T34">
         <f>SQRT(((S$10-Datum)^2)-$R34*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q34/K)*(Length-Q34))+Datum</f>
-        <v>8.476028695681233</v>
+        <v>10.551487448932654</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
-        <v>-3.6735977709967179E-5</v>
+        <v>9.7379376350394605E-5</v>
       </c>
       <c r="V34">
         <f>0.5*(S34+S35)-Datum</f>
-        <v>18.440920395319999</v>
+        <v>20.54866475975</v>
       </c>
       <c r="W34">
         <f>0.5*(T34+T35)-Datum</f>
-        <v>18.441212902493429</v>
+        <v>20.547616174821407</v>
       </c>
       <c r="X34">
         <f>-K*((S34-S35)/dx)*width*V34</f>
-        <v>-0.25667493075098208</v>
+        <v>-3.164647624943473E-2</v>
       </c>
       <c r="Y34">
         <f>-K*((T34-T35)/dx)*width*W34</f>
-        <v>-0.25681818181818572</v>
+        <v>-3.1818181818190495E-2</v>
       </c>
       <c r="Z34">
         <f t="shared" si="3"/>
-        <v>0.99944220823389729</v>
+        <v>0.99460353926767742</v>
       </c>
       <c r="AB34">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q34+Q35)/2)-(Length/2)))</f>
-        <v>-0.25681818181818178</v>
+        <v>-3.1818181818181801E-2</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3659,39 +3656,39 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="S35">
-        <v>8.4061234701600007</v>
+        <v>10.5448145733</v>
       </c>
       <c r="T35">
         <f>SQRT(((S$10-Datum)^2)-$R35*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q35/K)*(Length-Q35))+Datum</f>
-        <v>8.406397109305626</v>
+        <v>10.543744900710156</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
-        <v>-3.2551298977105376E-5</v>
+        <v>1.0145091709990315E-4</v>
       </c>
       <c r="V35">
         <f>0.5*(S35+S36)-Datum</f>
-        <v>18.37105988938</v>
+        <v>20.539745438800001</v>
       </c>
       <c r="W35">
         <f>0.5*(T35+T36)-Datum</f>
-        <v>18.371312765428016</v>
+        <v>20.538654720463768</v>
       </c>
       <c r="X35">
         <f>-K*((S35-S36)/dx)*width*V35</f>
-        <v>-0.25766205697819855</v>
+        <v>-4.164749289001745E-2</v>
       </c>
       <c r="Y35">
         <f>-K*((T35-T36)/dx)*width*W35</f>
-        <v>-0.25781818181817623</v>
+        <v>-4.1818181818177716E-2</v>
       </c>
       <c r="Z35">
         <f t="shared" si="3"/>
-        <v>0.99939443820883123</v>
+        <v>0.99591830823964544</v>
       </c>
       <c r="AB35">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q35+Q36)/2)-(Length/2)))</f>
-        <v>-0.25781818181818178</v>
+        <v>-4.1818181818181782E-2</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3704,39 +3701,39 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="S36">
-        <v>8.3359963086000004</v>
+        <v>10.5346763043</v>
       </c>
       <c r="T36">
         <f>SQRT(((S$10-Datum)^2)-$R36*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q36/K)*(Length-Q36))+Datum</f>
-        <v>8.3362284215504019</v>
+        <v>10.533564540217384</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
-        <v>-2.7843880789235507E-5</v>
+        <v>1.0554490632026481E-4</v>
       </c>
       <c r="V36">
         <f>0.5*(S36+S37)-Datum</f>
-        <v>18.30066294617</v>
+        <v>20.5283863943</v>
       </c>
       <c r="W36">
         <f>0.5*(T36+T37)-Datum</f>
-        <v>18.300872431995817</v>
+        <v>20.527253639752132</v>
       </c>
       <c r="X36">
         <f>-K*((S36-S37)/dx)*width*V36</f>
-        <v>-0.25864958263452059</v>
+        <v>-5.1648681146145035E-2</v>
       </c>
       <c r="Y36">
         <f>-K*((T36-T37)/dx)*width*W36</f>
-        <v>-0.2588181818181744</v>
+        <v>-5.1818181818180833E-2</v>
       </c>
       <c r="Z36">
         <f t="shared" si="3"/>
-        <v>0.99934858060407727</v>
+        <v>0.9967289343993091</v>
       </c>
       <c r="AB36">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q36+Q37)/2)-(Length/2)))</f>
-        <v>-0.25881818181818178</v>
+        <v>-5.1818181818181791E-2</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3749,39 +3746,39 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="S37">
-        <v>8.2653295837399998</v>
+        <v>10.5220964843</v>
       </c>
       <c r="T37">
         <f>SQRT(((S$10-Datum)^2)-$R37*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q37/K)*(Length-Q37))+Datum</f>
-        <v>8.265516442441232</v>
+        <v>10.52094273928688</v>
       </c>
       <c r="U37">
         <f t="shared" si="1"/>
-        <v>-2.2607020690524559E-5</v>
+        <v>1.0966175196560821E-4</v>
       </c>
       <c r="V37">
         <f>0.5*(S37+S38)-Datum</f>
-        <v>18.229723238494998</v>
+        <v>20.514583528599999</v>
       </c>
       <c r="W37">
         <f>0.5*(T37+T38)-Datum</f>
-        <v>18.229885639957111</v>
+        <v>20.513408864465461</v>
       </c>
       <c r="X37">
         <f>-K*((S37-S38)/dx)*width*V37</f>
-        <v>-0.25963752774026222</v>
+        <v>-6.1650062901730328E-2</v>
       </c>
       <c r="Y37">
         <f>-K*((T37-T38)/dx)*width*W37</f>
-        <v>-0.25981818181818467</v>
+        <v>-6.1818181818175888E-2</v>
       </c>
       <c r="Z37">
         <f t="shared" si="3"/>
-        <v>0.99930469039288072</v>
+        <v>0.99728042929279215</v>
       </c>
       <c r="AB37">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q37+Q38)/2)-(Length/2)))</f>
-        <v>-0.25981818181818178</v>
+        <v>-6.18181818181818E-2</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3794,39 +3791,39 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="S38">
-        <v>8.1941168932499995</v>
+        <v>10.5070705729</v>
       </c>
       <c r="T38">
         <f>SQRT(((S$10-Datum)^2)-$R38*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q38/K)*(Length-Q38))+Datum</f>
-        <v>8.194254837472986</v>
+        <v>10.505874989644045</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
-        <v>-1.6834260798881807E-5</v>
+        <v>1.1380139751645856E-4</v>
       </c>
       <c r="V38">
         <f>0.5*(S38+S39)-Datum</f>
-        <v>18.158234286435</v>
+        <v>20.498331854299998</v>
       </c>
       <c r="W38">
         <f>0.5*(T38+T39)-Datum</f>
-        <v>18.158345980176328</v>
+        <v>20.49711544223107</v>
       </c>
       <c r="X38">
         <f>-K*((S38-S39)/dx)*width*V38</f>
-        <v>-0.26062591254191964</v>
+        <v>-7.1651661537658243E-2</v>
       </c>
       <c r="Y38">
         <f>-K*((T38-T39)/dx)*width*W38</f>
-        <v>-0.26081818181819605</v>
+        <v>-7.1818181818191856E-2</v>
       </c>
       <c r="Z38">
         <f t="shared" si="3"/>
-        <v>0.9992628225726593</v>
+        <v>0.99768136318244371</v>
       </c>
       <c r="AB38">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q38+Q39)/2)-(Length/2)))</f>
-        <v>-0.26081818181818178</v>
+        <v>-7.1818181818181781E-2</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3839,39 +3836,39 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="S39">
-        <v>8.1223516796199995</v>
+        <v>10.4895931357</v>
       </c>
       <c r="T39">
         <f>SQRT(((S$10-Datum)^2)-$R39*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q39/K)*(Length-Q39))+Datum</f>
-        <v>8.1224371228796706</v>
+        <v>10.488355894818092</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
-        <v>-1.0519411646831973E-5</v>
+        <v>1.1796328178749E-4</v>
       </c>
       <c r="V39">
         <f>0.5*(S39+S40)-Datum</f>
-        <v>18.086189452309998</v>
+        <v>20.479625484949999</v>
       </c>
       <c r="W39">
         <f>0.5*(T39+T40)-Datum</f>
-        <v>18.086246891790736</v>
+        <v>20.478367527616967</v>
       </c>
       <c r="X39">
         <f>-K*((S39-S40)/dx)*width*V39</f>
-        <v>-0.26161475765846476</v>
+        <v>-8.1653501729913758E-2</v>
       </c>
       <c r="Y39">
         <f>-K*((T39-T40)/dx)*width*W39</f>
-        <v>-0.26181818181816952</v>
+        <v>-8.1818181818183525E-2</v>
       </c>
       <c r="Z39">
         <f t="shared" si="3"/>
-        <v>0.99922303272334989</v>
+        <v>0.99798724336559175</v>
       </c>
       <c r="AB39">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q39+Q40)/2)-(Length/2)))</f>
-        <v>-0.26181818181818178</v>
+        <v>-8.181818181818179E-2</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3884,39 +3881,39 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="S40">
-        <v>8.0500272249999991</v>
+        <v>10.4696578342</v>
       </c>
       <c r="T40">
         <f>SQRT(((S$10-Datum)^2)-$R40*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q40/K)*(Length-Q40))+Datum</f>
-        <v>8.0500566607018023</v>
+        <v>10.468379160415839</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
-        <v>-3.6565831824308556E-6</v>
+        <v>1.2214630025966124E-4</v>
       </c>
       <c r="V40">
         <f>0.5*(S40+S41)-Datum</f>
-        <v>18.013581935409999</v>
+        <v>20.458457624449998</v>
       </c>
       <c r="W40">
         <f>0.5*(T40+T41)-Datum</f>
-        <v>18.013581657171123</v>
+        <v>20.457158371566472</v>
       </c>
       <c r="X40">
         <f>-K*((S40-S41)/dx)*width*V40</f>
-        <v>-0.26260408407568114</v>
+        <v>-9.1655606622131763E-2</v>
       </c>
       <c r="Y40">
         <f>-K*((T40-T41)/dx)*width*W40</f>
-        <v>-0.2628181818181845</v>
+        <v>-9.1818181818184519E-2</v>
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
-        <v>0.99918537697421761</v>
+        <v>0.99822937905289089</v>
       </c>
       <c r="AB40">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q40+Q41)/2)-(Length/2)))</f>
-        <v>-0.26281818181818178</v>
+        <v>-9.1818181818181799E-2</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3929,39 +3926,39 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="S41">
-        <v>7.9771366458199999</v>
+        <v>10.447257414699999</v>
       </c>
       <c r="T41">
         <f>SQRT(((S$10-Datum)^2)-$R41*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q41/K)*(Length-Q41))+Datum</f>
-        <v>7.9771066536404476</v>
+        <v>10.4459375827171</v>
       </c>
       <c r="U41">
         <f t="shared" si="1"/>
-        <v>3.7597816921081759E-6</v>
+        <v>1.2634882914509877E-4</v>
       </c>
       <c r="V41">
         <f>0.5*(S41+S42)-Datum</f>
-        <v>17.940404766500002</v>
+        <v>20.4348205545</v>
       </c>
       <c r="W41">
         <f>0.5*(T41+T42)-Datum</f>
-        <v>17.940343396663543</v>
+        <v>20.433480309130097</v>
       </c>
       <c r="X41">
         <f>-K*((S41-S42)/dx)*width*V41</f>
-        <v>-0.26359391313401231</v>
+        <v>-0.10165800257935582</v>
       </c>
       <c r="Y41">
         <f>-K*((T41-T42)/dx)*width*W41</f>
-        <v>-0.26381818181818001</v>
+        <v>-0.10181818181817612</v>
       </c>
       <c r="Z41">
         <f t="shared" si="3"/>
-        <v>0.999149911948365</v>
+        <v>0.99842681104730058</v>
       </c>
       <c r="AB41">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q41+Q42)/2)-(Length/2)))</f>
-        <v>-0.26381818181818179</v>
+        <v>-0.10181818181818178</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -3974,39 +3971,39 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="S42">
-        <v>7.9036728871799999</v>
+        <v>10.422383694300001</v>
       </c>
       <c r="T42">
         <f>SQRT(((S$10-Datum)^2)-$R42*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q42/K)*(Length-Q42))+Datum</f>
-        <v>7.903580139686639</v>
+        <v>10.421023035543097</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
-        <v>1.1734870997922795E-5</v>
+        <v>1.3056863536933593E-4</v>
       </c>
       <c r="V42">
         <f>0.5*(S42+S43)-Datum</f>
-        <v>17.86665080209</v>
+        <v>20.408705620349998</v>
       </c>
       <c r="W42">
         <f>0.5*(T42+T43)-Datum</f>
-        <v>17.866525063100269</v>
+        <v>20.407324745442239</v>
       </c>
       <c r="X42">
         <f>-K*((S42-S43)/dx)*width*V42</f>
-        <v>-0.26458426650731581</v>
+        <v>-0.11166071387957464</v>
       </c>
       <c r="Y42">
         <f>-K*((T42-T43)/dx)*width*W42</f>
-        <v>-0.26481818181819006</v>
+        <v>-0.11181818181818522</v>
       </c>
       <c r="Z42">
         <f t="shared" si="3"/>
-        <v>0.99911669467229092</v>
+        <v>0.99859175014250712</v>
       </c>
       <c r="AB42">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q42+Q43)/2)-(Length/2)))</f>
-        <v>-0.26481818181818179</v>
+        <v>-0.11181818181818179</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4019,39 +4016,39 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="S43">
-        <v>7.8296287170000003</v>
+        <v>10.3950275464</v>
       </c>
       <c r="T43">
         <f>SQRT(((S$10-Datum)^2)-$R43*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q43/K)*(Length-Q43))+Datum</f>
-        <v>7.8294699865138995</v>
+        <v>10.393626455341384</v>
       </c>
       <c r="U43">
         <f t="shared" si="1"/>
-        <v>2.0273465046067238E-5</v>
+        <v>1.3480290682335946E-4</v>
       </c>
       <c r="V43">
         <f>0.5*(S43+S44)-Datum</f>
-        <v>17.792312718470001</v>
+        <v>20.380103214999998</v>
       </c>
       <c r="W43">
         <f>0.5*(T43+T44)-Datum</f>
-        <v>17.792119436067487</v>
+        <v>20.378682139881974</v>
       </c>
       <c r="X43">
         <f>-K*((S43-S44)/dx)*width*V43</f>
-        <v>-0.26557516609909076</v>
+        <v>-0.12166376573874293</v>
       </c>
       <c r="Y43">
         <f>-K*((T43-T44)/dx)*width*W43</f>
-        <v>-0.26581818181817041</v>
+        <v>-0.12181818181817261</v>
       </c>
       <c r="Z43">
         <f t="shared" si="3"/>
-        <v>0.99908578217856492</v>
+        <v>0.99873240531811447</v>
       </c>
       <c r="AB43">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q43+Q44)/2)-(Length/2)))</f>
-        <v>-0.26581818181818179</v>
+        <v>-0.1218181818181818</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4064,39 +4061,39 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="S44">
-        <v>7.7549967199400003</v>
+        <v>10.365178883600001</v>
       </c>
       <c r="T44">
         <f>SQRT(((S$10-Datum)^2)-$R44*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q44/K)*(Length-Q44))+Datum</f>
-        <v>7.7547688856210755</v>
+        <v>10.363737824422564</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
-        <v>2.9379898006665893E-5</v>
+        <v>1.3904820846009577E-4</v>
       </c>
       <c r="V44">
         <f>0.5*(S44+S45)-Datum</f>
-        <v>17.717383005465003</v>
+        <v>20.3490027613</v>
       </c>
       <c r="W44">
         <f>0.5*(T44+T45)-Datum</f>
-        <v>17.717119115916347</v>
+        <v>20.347541988348894</v>
       </c>
       <c r="X44">
         <f>-K*((S44-S45)/dx)*width*V44</f>
-        <v>-0.26656663424471083</v>
+        <v>-0.13166718293993138</v>
       </c>
       <c r="Y44">
         <f>-K*((T44-T45)/dx)*width*W44</f>
-        <v>-0.2668181818181844</v>
+        <v>-0.13181818181818475</v>
       </c>
       <c r="Z44">
         <f t="shared" si="3"/>
-        <v>0.99905723226296106</v>
+        <v>0.99885449126842274</v>
       </c>
       <c r="AB44">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q44+Q45)/2)-(Length/2)))</f>
-        <v>-0.26681818181818179</v>
+        <v>-0.13181818181818181</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4109,39 +4106,39 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="S45">
-        <v>7.6797692909900004</v>
+        <v>10.332826639</v>
       </c>
       <c r="T45">
         <f>SQRT(((S$10-Datum)^2)-$R45*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q45/K)*(Length-Q45))+Datum</f>
-        <v>7.6794693462116221</v>
+        <v>10.33134615227522</v>
       </c>
       <c r="U45">
         <f t="shared" si="1"/>
-        <v>3.9058008419060057E-5</v>
+        <v>1.433004666535508E-4</v>
       </c>
       <c r="V45">
         <f>0.5*(S45+S46)-Datum</f>
-        <v>17.641853959910001</v>
+        <v>20.315392692149999</v>
       </c>
       <c r="W45">
         <f>0.5*(T45+T46)-Datum</f>
-        <v>17.641516517503206</v>
+        <v>20.313892803575701</v>
       </c>
       <c r="X45">
         <f>-K*((S45-S46)/dx)*width*V45</f>
-        <v>-0.26755869350200029</v>
+        <v>-0.14167099057272675</v>
       </c>
       <c r="Y45">
         <f>-K*((T45-T46)/dx)*width*W45</f>
-        <v>-0.26781818181818601</v>
+        <v>-0.14181818181818054</v>
       </c>
       <c r="Z45">
         <f t="shared" si="3"/>
-        <v>0.99903110268905537</v>
+        <v>0.99896211301282589</v>
       </c>
       <c r="AB45">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q45+Q46)/2)-(Length/2)))</f>
-        <v>-0.26781818181818179</v>
+        <v>-0.14181818181818179</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4154,39 +4151,39 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="S46">
-        <v>7.6039386288299999</v>
+        <v>10.297958745300001</v>
       </c>
       <c r="T46">
         <f>SQRT(((S$10-Datum)^2)-$R46*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q46/K)*(Length-Q46))+Datum</f>
-        <v>7.6035636887947931</v>
+        <v>10.296439454876182</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
-        <v>4.9311092870757989E-5</v>
+        <v>1.4755493202058998E-4</v>
       </c>
       <c r="V46">
         <f>0.5*(S46+S47)-Datum</f>
-        <v>17.56571767886</v>
+        <v>20.279260428850002</v>
       </c>
       <c r="W46">
         <f>0.5*(T46+T47)-Datum</f>
-        <v>17.565303863643891</v>
+        <v>20.277722093389649</v>
       </c>
       <c r="X46">
         <f>-K*((S46-S47)/dx)*width*V46</f>
-        <v>-0.26855136663634044</v>
+        <v>-0.15167521154824071</v>
       </c>
       <c r="Y46">
         <f>-K*((T46-T47)/dx)*width*W46</f>
-        <v>-0.26881818181818118</v>
+        <v>-0.15181818181817788</v>
       </c>
       <c r="Z46">
         <f t="shared" si="3"/>
-        <v>0.99900745113282108</v>
+        <v>0.99905827965909644</v>
       </c>
       <c r="AB46">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q46+Q47)/2)-(Length/2)))</f>
-        <v>-0.26881818181818179</v>
+        <v>-0.1518181818181818</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4199,39 +4196,39 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="S47">
-        <v>7.5274967288900001</v>
+        <v>10.260562112400001</v>
       </c>
       <c r="T47">
         <f>SQRT(((S$10-Datum)^2)-$R47*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q47/K)*(Length-Q47))+Datum</f>
-        <v>7.527044038492992</v>
+        <v>10.259004731903115</v>
       </c>
       <c r="U47">
         <f t="shared" si="1"/>
-        <v>6.0141855779385167E-5</v>
+        <v>1.5180619734412391E-4</v>
       </c>
       <c r="V47">
         <f>0.5*(S47+S48)-Datum</f>
-        <v>17.488966052469998</v>
+        <v>20.240592357200001</v>
       </c>
       <c r="W47">
         <f>0.5*(T47+T48)-Datum</f>
-        <v>17.488473178265824</v>
+        <v>20.239016336824378</v>
       </c>
       <c r="X47">
         <f>-K*((S47-S48)/dx)*width*V47</f>
-        <v>-0.2695446767552358</v>
+        <v>-0.16167986979050994</v>
       </c>
       <c r="Y47">
         <f>-K*((T47-T48)/dx)*width*W47</f>
-        <v>-0.26981818181818507</v>
+        <v>-0.16181818181818647</v>
       </c>
       <c r="Z47">
         <f t="shared" si="3"/>
-        <v>0.99898633568313955</v>
+        <v>0.99914526275031357</v>
       </c>
       <c r="AB47">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q47+Q48)/2)-(Length/2)))</f>
-        <v>-0.26981818181818179</v>
+        <v>-0.16181818181818181</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4244,39 +4241,39 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="S48">
-        <v>7.4504353760499997</v>
+        <v>10.220622602000001</v>
       </c>
       <c r="T48">
         <f>SQRT(((S$10-Datum)^2)-$R48*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q48/K)*(Length-Q48))+Datum</f>
-        <v>7.4499023180386565</v>
+        <v>10.21902794174564</v>
       </c>
       <c r="U48">
         <f t="shared" si="1"/>
-        <v>7.1552349089527124E-5</v>
+        <v>1.560481352483696E-4</v>
       </c>
       <c r="V48">
         <f>0.5*(S48+S49)-Datum</f>
-        <v>17.411590756564998</v>
+        <v>20.199373801299998</v>
       </c>
       <c r="W48">
         <f>0.5*(T48+T49)-Datum</f>
-        <v>17.411016279240755</v>
+        <v>20.197760957972577</v>
       </c>
       <c r="X48">
         <f>-K*((S48-S49)/dx)*width*V48</f>
-        <v>-0.2705386470269231</v>
+        <v>-0.17168498726745376</v>
       </c>
       <c r="Y48">
         <f>-K*((T48-T49)/dx)*width*W48</f>
-        <v>-0.27081818181818046</v>
+        <v>-0.17181818181818315</v>
       </c>
       <c r="Z48">
         <f t="shared" si="3"/>
-        <v>0.99896781379528998</v>
+        <v>0.99922479362009353</v>
       </c>
       <c r="AB48">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q48+Q49)/2)-(Length/2)))</f>
-        <v>-0.27081818181818179</v>
+        <v>-0.17181818181818181</v>
       </c>
     </row>
     <row r="49" spans="17:28">
@@ -4289,39 +4286,39 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="S49">
-        <v>7.37274613708</v>
+        <v>10.1781250006</v>
       </c>
       <c r="T49">
         <f>SQRT(((S$10-Datum)^2)-$R49*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q49/K)*(Length-Q49))+Datum</f>
-        <v>7.3721302404428535</v>
+        <v>10.176493974199509</v>
       </c>
       <c r="U49">
         <f t="shared" si="1"/>
-        <v>8.3543917030630844E-5</v>
+        <v>1.6027390225214537E-4</v>
       </c>
       <c r="V49">
         <f>0.5*(S49+S50)-Datum</f>
-        <v>17.333583244860002</v>
+        <v>20.1555889953</v>
       </c>
       <c r="W49">
         <f>0.5*(T49+T50)-Datum</f>
-        <v>17.332924770879682</v>
+        <v>20.153940297457559</v>
       </c>
       <c r="X49">
         <f>-K*((S49-S50)/dx)*width*V49</f>
-        <v>-0.27153330096193867</v>
+        <v>-0.18169058416908185</v>
       </c>
       <c r="Y49">
         <f>-K*((T49-T50)/dx)*width*W49</f>
-        <v>-0.27181818181818518</v>
+        <v>-0.18181818181818016</v>
       </c>
       <c r="Z49">
         <f t="shared" si="3"/>
-        <v>0.99895194333822357</v>
+        <v>0.99929821292995924</v>
       </c>
       <c r="AB49">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q49+Q50)/2)-(Length/2)))</f>
-        <v>-0.27181818181818179</v>
+        <v>-0.1818181818181818</v>
       </c>
     </row>
     <row r="50" spans="17:28">
@@ -4334,39 +4331,39 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="S50">
-        <v>7.2944203526400004</v>
+        <v>10.133052989999999</v>
       </c>
       <c r="T50">
         <f>SQRT(((S$10-Datum)^2)-$R50*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q50/K)*(Length-Q50))+Datum</f>
-        <v>7.2937193013165107</v>
+        <v>10.131386620715606</v>
       </c>
       <c r="U50">
         <f t="shared" si="1"/>
-        <v>9.6117124134898339E-5</v>
+        <v>1.6447593471423106E-4</v>
       </c>
       <c r="V50">
         <f>0.5*(S50+S51)-Datum</f>
-        <v>17.254934740814999</v>
+        <v>20.109221052399999</v>
       </c>
       <c r="W50">
         <f>0.5*(T50+T51)-Datum</f>
-        <v>17.254190036070234</v>
+        <v>20.107537581388716</v>
       </c>
       <c r="X50">
         <f>-K*((S50-S51)/dx)*width*V50</f>
-        <v>-0.27252866209661419</v>
+        <v>-0.1916966805221596</v>
       </c>
       <c r="Y50">
         <f>-K*((T50-T51)/dx)*width*W50</f>
-        <v>-0.27281818181817974</v>
+        <v>-0.19181818181818663</v>
       </c>
       <c r="Z50">
         <f t="shared" si="3"/>
-        <v>0.99893878142711734</v>
+        <v>0.99936658092118613</v>
       </c>
       <c r="AB50">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q50+Q51)/2)-(Length/2)))</f>
-        <v>-0.27281818181818179</v>
+        <v>-0.19181818181818178</v>
       </c>
     </row>
     <row r="51" spans="17:28">
@@ -4379,39 +4376,39 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="S51">
-        <v>7.2154491289899996</v>
+        <v>10.0853891148</v>
       </c>
       <c r="T51">
         <f>SQRT(((S$10-Datum)^2)-$R51*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q51/K)*(Length-Q51))+Datum</f>
-        <v>7.2146607708239614</v>
+        <v>10.083688542061825</v>
       </c>
       <c r="U51">
         <f t="shared" si="1"/>
-        <v>1.0927168872946698E-4</v>
+        <v>1.6864590086069646E-4</v>
       </c>
       <c r="V51">
         <f>0.5*(S51+S52)-Datum</f>
-        <v>17.175636229129999</v>
+        <v>20.060251931300002</v>
       </c>
       <c r="W51">
         <f>0.5*(T51+T52)-Datum</f>
-        <v>17.174803228035465</v>
+        <v>20.058534887651298</v>
       </c>
       <c r="X51">
         <f>-K*((S51-S52)/dx)*width*V51</f>
-        <v>-0.27352475408885496</v>
+        <v>-0.20170329354132738</v>
       </c>
       <c r="Y51">
         <f>-K*((T51-T52)/dx)*width*W51</f>
-        <v>-0.27381818181817191</v>
+        <v>-0.20181818181817834</v>
       </c>
       <c r="Z51">
         <f t="shared" si="3"/>
-        <v>0.99892838478669099</v>
+        <v>0.99943073376335101</v>
       </c>
       <c r="AB51">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q51+Q52)/2)-(Length/2)))</f>
-        <v>-0.27381818181818179</v>
+        <v>-0.20181818181818179</v>
       </c>
     </row>
     <row r="52" spans="17:28">
@@ -4424,39 +4421,39 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="S52">
-        <v>7.13582332927</v>
+        <v>10.0351147478</v>
       </c>
       <c r="T52">
         <f>SQRT(((S$10-Datum)^2)-$R52*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q52/K)*(Length-Q52))+Datum</f>
-        <v>7.1349456852469686</v>
+        <v>10.033381233240775</v>
       </c>
       <c r="U52">
         <f t="shared" si="1"/>
-        <v>1.2300640561932835E-4</v>
+        <v>1.7277471262449871E-4</v>
       </c>
       <c r="V52">
         <f>0.5*(S52+S53)-Datum</f>
-        <v>17.095678446809998</v>
+        <v>20.00866239986</v>
       </c>
       <c r="W52">
         <f>0.5*(T52+T53)-Datum</f>
-        <v>17.094755261691439</v>
+        <v>20.006913109365254</v>
       </c>
       <c r="X52">
         <f>-K*((S52-S53)/dx)*width*V52</f>
-        <v>-0.27452160072845649</v>
+        <v>-0.21171043984603916</v>
       </c>
       <c r="Y52">
         <f>-K*((T52-T53)/dx)*width*W52</f>
-        <v>-0.27481818181818446</v>
+        <v>-0.2118181818181849</v>
       </c>
       <c r="Z52">
         <f t="shared" si="3"/>
-        <v>0.99892080979589559</v>
+        <v>0.99949134691261665</v>
       </c>
       <c r="AB52">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q52+Q53)/2)-(Length/2)))</f>
-        <v>-0.27481818181818179</v>
+        <v>-0.21181818181818179</v>
       </c>
     </row>
     <row r="53" spans="17:28">
@@ -4469,39 +4466,39 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="S53">
-        <v>7.0555335643500001</v>
+        <v>9.9822100519199992</v>
       </c>
       <c r="T53">
         <f>SQRT(((S$10-Datum)^2)-$R53*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q53/K)*(Length-Q53))+Datum</f>
-        <v>7.0545648381359136</v>
+        <v>9.9804449854897328</v>
       </c>
       <c r="U53">
         <f t="shared" si="1"/>
-        <v>1.3731906025580965E-4</v>
+        <v>1.7685247830458381E-4</v>
       </c>
       <c r="V53">
         <f>0.5*(S53+S54)-Datum</f>
-        <v>17.01505187383</v>
+        <v>19.954431995884999</v>
       </c>
       <c r="W53">
         <f>0.5*(T53+T54)-Datum</f>
-        <v>17.014036804579533</v>
+        <v>19.952651915330506</v>
       </c>
       <c r="X53">
         <f>-K*((S53-S54)/dx)*width*V53</f>
-        <v>-0.27551922565525327</v>
+        <v>-0.22171813205131127</v>
       </c>
       <c r="Y53">
         <f>-K*((T53-T54)/dx)*width*W53</f>
-        <v>-0.27581818181818751</v>
+        <v>-0.22181818181817911</v>
       </c>
       <c r="Z53">
         <f t="shared" si="3"/>
-        <v>0.99891611147255222</v>
+        <v>0.99954895596903848</v>
       </c>
       <c r="AB53">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q53+Q54)/2)-(Length/2)))</f>
-        <v>-0.2758181818181818</v>
+        <v>-0.2218181818181818</v>
       </c>
     </row>
     <row r="54" spans="17:28">
@@ -4514,39 +4511,39 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="S54">
-        <v>6.97457018331</v>
+        <v>9.9266539398500004</v>
       </c>
       <c r="T54">
         <f>SQRT(((S$10-Datum)^2)-$R54*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q54/K)*(Length-Q54))+Datum</f>
-        <v>6.9735087710231554</v>
+        <v>9.9248588451712756</v>
       </c>
       <c r="U54">
         <f t="shared" si="1"/>
-        <v>1.522063457143845E-4</v>
+        <v>1.8086853493117592E-4</v>
       </c>
       <c r="V54">
         <f>0.5*(S54+S55)-Datum</f>
-        <v>16.93374672333</v>
+        <v>19.897538984724999</v>
       </c>
       <c r="W54">
         <f>0.5*(T54+T55)-Datum</f>
-        <v>16.932638267347421</v>
+        <v>19.895729707257118</v>
       </c>
       <c r="X54">
         <f>-K*((S54-S55)/dx)*width*V54</f>
-        <v>-0.27651765266852679</v>
+        <v>-0.23172638185528485</v>
       </c>
       <c r="Y54">
         <f>-K*((T54-T55)/dx)*width*W54</f>
-        <v>-0.27681818181818657</v>
+        <v>-0.23181818181818395</v>
       </c>
       <c r="Z54">
         <f t="shared" si="3"/>
-        <v>0.99891434461535056</v>
+        <v>0.99960400016004314</v>
       </c>
       <c r="AB54">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q54+Q55)/2)-(Length/2)))</f>
-        <v>-0.2768181818181818</v>
+        <v>-0.23181818181818181</v>
       </c>
     </row>
     <row r="55" spans="17:28">
@@ -4559,39 +4556,39 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="S55">
-        <v>6.8929232633500002</v>
+        <v>9.8684240295999999</v>
       </c>
       <c r="T55">
         <f>SQRT(((S$10-Datum)^2)-$R55*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q55/K)*(Length-Q55))+Datum</f>
-        <v>6.891767763671691</v>
+        <v>9.8666005693429639</v>
       </c>
       <c r="U55">
         <f t="shared" si="1"/>
-        <v>1.6766375738894333E-4</v>
+        <v>1.8481139924744869E-4</v>
       </c>
       <c r="V55">
         <f>0.5*(S55+S56)-Datum</f>
-        <v>16.851752931345001</v>
+        <v>19.83796031332</v>
       </c>
       <c r="W55">
         <f>0.5*(T55+T56)-Datum</f>
-        <v>16.850549793751028</v>
+        <v>19.836123573557792</v>
       </c>
       <c r="X55">
         <f>-K*((S55-S56)/dx)*width*V55</f>
-        <v>-0.27751690521988281</v>
+        <v>-0.24173519782355127</v>
       </c>
       <c r="Y55">
         <f>-K*((T55-T56)/dx)*width*W55</f>
-        <v>-0.27781818181817036</v>
+        <v>-0.24181818181818729</v>
       </c>
       <c r="Z55">
         <f t="shared" si="3"/>
-        <v>0.99891556198260367</v>
+        <v>0.99965683310488862</v>
       </c>
       <c r="AB55">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q55+Q56)/2)-(Length/2)))</f>
-        <v>-0.2778181818181818</v>
+        <v>-0.24181818181818179</v>
       </c>
     </row>
     <row r="56" spans="17:28">
@@ -4604,39 +4601,39 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="S56">
-        <v>6.81058259934</v>
+        <v>9.8074965970400001</v>
       </c>
       <c r="T56">
         <f>SQRT(((S$10-Datum)^2)-$R56*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q56/K)*(Length-Q56))+Datum</f>
-        <v>6.8093318238303695</v>
+        <v>9.8056465777726203</v>
       </c>
       <c r="U56">
         <f t="shared" si="1"/>
-        <v>1.8368549837051456E-4</v>
+        <v>1.8866876882687507E-4</v>
       </c>
       <c r="V56">
         <f>0.5*(S56+S57)-Datum</f>
-        <v>16.769060146035002</v>
+        <v>19.775671560820001</v>
       </c>
       <c r="W56">
         <f>0.5*(T56+T57)-Datum</f>
-        <v>16.767761250147533</v>
+        <v>19.773809239456984</v>
       </c>
       <c r="X56">
         <f>-K*((S56-S57)/dx)*width*V56</f>
-        <v>-0.27851700675298874</v>
+        <v>-0.25174458547916723</v>
       </c>
       <c r="Y56">
         <f>-K*((T56-T57)/dx)*width*W56</f>
-        <v>-0.27881818181818718</v>
+        <v>-0.25181818181817867</v>
       </c>
       <c r="Z56">
         <f t="shared" si="3"/>
-        <v>0.99891981554705478</v>
+        <v>0.99970774016999064</v>
       </c>
       <c r="AB56">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q56+Q57)/2)-(Length/2)))</f>
-        <v>-0.2788181818181818</v>
+        <v>-0.25181818181818177</v>
       </c>
     </row>
     <row r="57" spans="17:28">
@@ -4649,39 +4646,39 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="S57">
-        <v>6.7275376927300004</v>
+        <v>9.7438465246000003</v>
       </c>
       <c r="T57">
         <f>SQRT(((S$10-Datum)^2)-$R57*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q57/K)*(Length-Q57))+Datum</f>
-        <v>6.7261906764646966</v>
+        <v>9.7419719011413477</v>
       </c>
       <c r="U57">
         <f t="shared" si="1"/>
-        <v>2.002643591441795E-4</v>
+        <v>1.9242751649006592E-4</v>
       </c>
       <c r="V57">
         <f>0.5*(S57+S58)-Datum</f>
-        <v>16.68565771634</v>
+        <v>19.710646885229998</v>
       </c>
       <c r="W57">
         <f>0.5*(T57+T58)-Datum</f>
-        <v>16.684262214447379</v>
+        <v>19.708761013145452</v>
       </c>
       <c r="X57">
         <f>-K*((S57-S58)/dx)*width*V57</f>
-        <v>-0.27951798048477744</v>
+        <v>-0.26175454733562187</v>
       </c>
       <c r="Y57">
         <f>-K*((T57-T58)/dx)*width*W57</f>
-        <v>-0.27981818181817919</v>
+        <v>-0.26181818181818128</v>
       </c>
       <c r="Z57">
         <f t="shared" si="3"/>
-        <v>0.9989271557285837</v>
+        <v>0.99975695162911338</v>
       </c>
       <c r="AB57">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q57+Q58)/2)-(Length/2)))</f>
-        <v>-0.2798181818181818</v>
+        <v>-0.26181818181818178</v>
       </c>
     </row>
     <row r="58" spans="17:28">
@@ -4694,39 +4691,39 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="S58">
-        <v>6.64377773995</v>
+        <v>9.6774472458599998</v>
       </c>
       <c r="T58">
         <f>SQRT(((S$10-Datum)^2)-$R58*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q58/K)*(Length-Q58))+Datum</f>
-        <v>6.6423337524300585</v>
+        <v>9.6755501251495559</v>
       </c>
       <c r="U58">
         <f t="shared" si="1"/>
-        <v>2.173915936417956E-4</v>
+        <v>1.9607367910923581E-4</v>
       </c>
       <c r="V58">
         <f>0.5*(S58+S59)-Datum</f>
-        <v>16.601534680124999</v>
+        <v>19.642858965849999</v>
       </c>
       <c r="W58">
         <f>0.5*(T58+T59)-Datum</f>
-        <v>16.600041964490774</v>
+        <v>19.640951727680466</v>
       </c>
       <c r="X58">
         <f>-K*((S58-S59)/dx)*width*V58</f>
-        <v>-0.28051984907173366</v>
+        <v>-0.27176508244309938</v>
       </c>
       <c r="Y58">
         <f>-K*((T58-T59)/dx)*width*W58</f>
-        <v>-0.28081818181818446</v>
+        <v>-0.27181818181818196</v>
       </c>
       <c r="Z58">
         <f t="shared" si="3"/>
-        <v>0.99893763023277471</v>
+        <v>0.99980465112845873</v>
       </c>
       <c r="AB58">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q58+Q59)/2)-(Length/2)))</f>
-        <v>-0.2808181818181818</v>
+        <v>-0.27181818181818179</v>
       </c>
     </row>
     <row r="59" spans="17:28">
@@ -4739,35 +4736,35 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="S59">
-        <v>6.5592916202999998</v>
+        <v>9.6082706858400009</v>
       </c>
       <c r="T59">
         <f>SQRT(((S$10-Datum)^2)-$R59*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q59/K)*(Length-Q59))+Datum</f>
-        <v>6.5577501765514903</v>
+        <v>9.6063533302113804</v>
       </c>
       <c r="U59">
         <f t="shared" si="1"/>
-        <v>2.3505679646370785E-4</v>
+        <v>1.9959245331842363E-4</v>
       </c>
       <c r="V59">
         <f>0.5*(S59+S60)-Datum</f>
-        <v>16.516679751695001</v>
+        <v>19.572278941219999</v>
       </c>
       <c r="W59">
         <f>0.5*(T59+T60)-Datum</f>
-        <v>16.515089465811535</v>
+        <v>19.570352678300459</v>
       </c>
       <c r="X59">
         <f>-K*((S59-S60)/dx)*width*V59</f>
-        <v>-0.28152263494803575</v>
+        <v>-0.28177618611352107</v>
       </c>
       <c r="Y59">
         <f>-K*((T59-T60)/dx)*width*W59</f>
-        <v>-0.28181818181817692</v>
+        <v>-0.28181818181817042</v>
       </c>
       <c r="Z59">
         <f t="shared" si="3"/>
-        <v>0.99895128529949906</v>
+        <v>0.99985098298350228</v>
       </c>
       <c r="AB59">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q59+Q60)/2)-(Length/2)))</f>
@@ -4784,39 +4781,39 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="S60">
-        <v>6.47406788309</v>
+        <v>9.5362871966</v>
       </c>
       <c r="T60">
         <f>SQRT(((S$10-Datum)^2)-$R60*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q60/K)*(Length-Q60))+Datum</f>
-        <v>6.4724287550715829</v>
+        <v>9.5343520263895414</v>
       </c>
       <c r="U60">
         <f t="shared" si="1"/>
-        <v>2.5324774987021362E-4</v>
+        <v>2.0296819386387234E-4</v>
       </c>
       <c r="V60">
         <f>0.5*(S60+S61)-Datum</f>
-        <v>16.43108130865</v>
+        <v>19.498876342185</v>
       </c>
       <c r="W60">
         <f>0.5*(T60+T61)-Datum</f>
-        <v>16.429393358748264</v>
+        <v>19.49693355478756</v>
       </c>
       <c r="X60">
         <f>-K*((S60-S61)/dx)*width*V60</f>
-        <v>-0.28252635992159025</v>
+        <v>-0.29178784963742505</v>
       </c>
       <c r="Y60">
         <f>-K*((T60-T61)/dx)*width*W60</f>
-        <v>-0.2828181818181848</v>
+        <v>-0.29181818181819918</v>
       </c>
       <c r="Z60">
         <f t="shared" si="3"/>
-        <v>0.99896816430005142</v>
+        <v>0.99989605794750291</v>
       </c>
       <c r="AB60">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q60+Q61)/2)-(Length/2)))</f>
-        <v>-0.2828181818181818</v>
+        <v>-0.29181818181818181</v>
       </c>
     </row>
     <row r="61" spans="17:28">
@@ -4829,39 +4826,39 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="S61">
-        <v>6.3880947342100001</v>
+        <v>9.4614654877700008</v>
       </c>
       <c r="T61">
         <f>SQRT(((S$10-Datum)^2)-$R61*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q61/K)*(Length-Q61))+Datum</f>
-        <v>6.3863579624249418</v>
+        <v>9.4595150831855825</v>
       </c>
       <c r="U61">
         <f t="shared" si="1"/>
-        <v>2.7195027201369133E-4</v>
+        <v>2.0618441508541796E-4</v>
       </c>
       <c r="V61">
         <f>0.5*(S61+S62)-Datum</f>
-        <v>16.3447273781</v>
+        <v>19.422619019670002</v>
       </c>
       <c r="W61">
         <f>0.5*(T61+T62)-Datum</f>
-        <v>16.342941944859717</v>
+        <v>19.420662368472289</v>
       </c>
       <c r="X61">
         <f>-K*((S61-S62)/dx)*width*V61</f>
-        <v>-0.28353104509077232</v>
+        <v>-0.30180006006642585</v>
       </c>
       <c r="Y61">
         <f>-K*((T61-T62)/dx)*width*W61</f>
-        <v>-0.28381818181817792</v>
+        <v>-0.3018181818181781</v>
       </c>
       <c r="Z61">
         <f t="shared" si="3"/>
-        <v>0.99898830749472722</v>
+        <v>0.99993995805142322</v>
       </c>
       <c r="AB61">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q61+Q62)/2)-(Length/2)))</f>
-        <v>-0.2838181818181818</v>
+        <v>-0.30181818181818182</v>
       </c>
     </row>
     <row r="62" spans="17:28">
@@ -4874,39 +4871,39 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="S62">
-        <v>6.3013600219899999</v>
+        <v>9.3837725515700008</v>
       </c>
       <c r="T62">
         <f>SQRT(((S$10-Datum)^2)-$R62*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q62/K)*(Length-Q62))+Datum</f>
-        <v>6.2995259272944963</v>
+        <v>9.3818096537589959</v>
       </c>
       <c r="U62">
         <f t="shared" si="1"/>
-        <v>2.911480509282155E-4</v>
+        <v>2.0922379407030731E-4</v>
       </c>
       <c r="V62">
         <f>0.5*(S62+S63)-Datum</f>
-        <v>16.257605622134999</v>
+        <v>19.343473066714999</v>
       </c>
       <c r="W62">
         <f>0.5*(T62+T63)-Datum</f>
-        <v>16.255723172597875</v>
+        <v>19.341505373430522</v>
       </c>
       <c r="X62">
         <f>-K*((S62-S63)/dx)*width*V62</f>
-        <v>-0.28453671083031679</v>
+        <v>-0.31181279995807781</v>
       </c>
       <c r="Y62">
         <f>-K*((T62-T63)/dx)*width*W62</f>
-        <v>-0.28481818181819357</v>
+        <v>-0.31181818181818655</v>
       </c>
       <c r="Z62">
         <f t="shared" si="3"/>
-        <v>0.99901175203745785</v>
+        <v>0.99998274039032187</v>
       </c>
       <c r="AB62">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q62+Q63)/2)-(Length/2)))</f>
-        <v>-0.2848181818181818</v>
+        <v>-0.31181818181818183</v>
       </c>
     </row>
     <row r="63" spans="17:28">
@@ -4919,39 +4916,39 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="S63">
-        <v>6.2138512222799998</v>
+        <v>9.3031735818599994</v>
       </c>
       <c r="T63">
         <f>SQRT(((S$10-Datum)^2)-$R63*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q63/K)*(Length-Q63))+Datum</f>
-        <v>6.2119204179012542</v>
+        <v>9.3012010931020441</v>
       </c>
       <c r="U63">
         <f t="shared" si="1"/>
-        <v>3.1082245889394957E-4</v>
+        <v>2.1206817680978225E-4</v>
       </c>
       <c r="V63">
         <f>0.5*(S63+S64)-Datum</f>
-        <v>16.169703322524999</v>
+        <v>19.261402734324999</v>
       </c>
       <c r="W63">
         <f>0.5*(T63+T64)-Datum</f>
-        <v>16.167724622188306</v>
+        <v>19.259426981373615</v>
       </c>
       <c r="X63">
         <f>-K*((S63-S64)/dx)*width*V63</f>
-        <v>-0.28554337654036965</v>
+        <v>-0.32182604677028903</v>
       </c>
       <c r="Y63">
         <f>-K*((T63-T64)/dx)*width*W63</f>
-        <v>-0.2858181818181747</v>
+        <v>-0.3218181818181714</v>
       </c>
       <c r="Z63">
         <f t="shared" si="3"/>
-        <v>0.99903853115271768</v>
+        <v>1.0000244391167497</v>
       </c>
       <c r="AB63">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q63+Q64)/2)-(Length/2)))</f>
-        <v>-0.2858181818181818</v>
+        <v>-0.32181818181818178</v>
       </c>
     </row>
     <row r="64" spans="17:28">
@@ -4964,39 +4961,39 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="S64">
-        <v>6.1255554227699998</v>
+        <v>9.2196318867899993</v>
       </c>
       <c r="T64">
         <f>SQRT(((S$10-Datum)^2)-$R64*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q64/K)*(Length-Q64))+Datum</f>
-        <v>6.1235288264753578</v>
+        <v>9.2176528696451854</v>
       </c>
       <c r="U64">
         <f t="shared" si="1"/>
-        <v>3.3095235640598065E-4</v>
+        <v>2.1469859765831518E-4</v>
       </c>
       <c r="V64">
         <f>0.5*(S64+S65)-Datum</f>
-        <v>16.081007364594999</v>
+        <v>19.176370340520002</v>
       </c>
       <c r="W64">
         <f>0.5*(T64+T65)-Datum</f>
-        <v>16.078933489663598</v>
+        <v>19.17438966967709</v>
       </c>
       <c r="X64">
         <f>-K*((S64-S65)/dx)*width*V64</f>
-        <v>-0.28655106063623093</v>
+        <v>-0.33183977311081875</v>
       </c>
       <c r="Y64">
         <f>-K*((T64-T65)/dx)*width*W64</f>
-        <v>-0.28681818181818564</v>
+        <v>-0.33181818181817985</v>
       </c>
       <c r="Z64">
         <f t="shared" si="3"/>
-        <v>0.99906867416751133</v>
+        <v>1.0000650696490487</v>
       </c>
       <c r="AB64">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q64+Q65)/2)-(Length/2)))</f>
-        <v>-0.28681818181818181</v>
+        <v>-0.33181818181818179</v>
       </c>
     </row>
     <row r="65" spans="17:28">
@@ -5009,39 +5006,39 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="S65">
-        <v>6.0364593064200003</v>
+        <v>9.1331087942500009</v>
       </c>
       <c r="T65">
         <f>SQRT(((S$10-Datum)^2)-$R65*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q65/K)*(Length-Q65))+Datum</f>
-        <v>6.0343381528518343</v>
+        <v>9.1311264697089918</v>
       </c>
       <c r="U65">
         <f t="shared" si="1"/>
-        <v>3.5151387185080799E-4</v>
+        <v>2.1709528912836125E-4</v>
       </c>
       <c r="V65">
         <f>0.5*(S65+S66)-Datum</f>
-        <v>15.99150422026</v>
+        <v>19.088336172005</v>
       </c>
       <c r="W65">
         <f>0.5*(T65+T66)-Datum</f>
-        <v>15.989336569990922</v>
+        <v>19.086353881930744</v>
       </c>
       <c r="X65">
         <f>-K*((S65-S66)/dx)*width*V65</f>
-        <v>-0.28755978001991883</v>
+        <v>-0.34185394588590318</v>
       </c>
       <c r="Y65">
         <f>-K*((T65-T66)/dx)*width*W65</f>
-        <v>-0.28781818181818025</v>
+        <v>-0.34181818181817525</v>
       </c>
       <c r="Z65">
         <f t="shared" si="3"/>
-        <v>0.99910220474388012</v>
+        <v>1.0001046289215445</v>
       </c>
       <c r="AB65">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q65+Q66)/2)-(Length/2)))</f>
-        <v>-0.28781818181818181</v>
+        <v>-0.3418181818181818</v>
       </c>
     </row>
     <row r="66" spans="17:28">
@@ -5054,39 +5051,39 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="S66">
-        <v>5.9465491340999996</v>
+        <v>9.04356354976</v>
       </c>
       <c r="T66">
         <f>SQRT(((S$10-Datum)^2)-$R66*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q66/K)*(Length-Q66))+Datum</f>
-        <v>5.9443349871300111</v>
+        <v>9.0415812941524969</v>
       </c>
       <c r="U66">
         <f t="shared" si="1"/>
-        <v>3.7248018067325908E-4</v>
+        <v>2.1923771329524901E-4</v>
       </c>
       <c r="V66">
         <f>0.5*(S66+S67)-Datum</f>
-        <v>15.901179930110001</v>
+        <v>18.997258377794999</v>
       </c>
       <c r="W66">
         <f>0.5*(T66+T67)-Datum</f>
-        <v>15.898920239230097</v>
+        <v>18.995277920322707</v>
       </c>
       <c r="X66">
         <f>-K*((S66-S67)/dx)*width*V66</f>
-        <v>-0.28856955037234178</v>
+        <v>-0.35186852641893251</v>
       </c>
       <c r="Y66">
         <f>-K*((T66-T67)/dx)*width*W66</f>
-        <v>-0.28881818181818203</v>
+        <v>-0.35181818181818497</v>
       </c>
       <c r="Z66">
         <f t="shared" si="3"/>
-        <v>0.99913914198796261</v>
+        <v>1.0001430983483781</v>
       </c>
       <c r="AB66">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q66+Q67)/2)-(Length/2)))</f>
-        <v>-0.28881818181818181</v>
+        <v>-0.35181818181818181</v>
       </c>
     </row>
     <row r="67" spans="17:28">
@@ -5099,39 +5096,39 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="S67">
-        <v>5.8558107261199996</v>
+        <v>8.9509532058300003</v>
       </c>
       <c r="T67">
         <f>SQRT(((S$10-Datum)^2)-$R67*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q67/K)*(Length-Q67))+Datum</f>
-        <v>5.8535054913301856</v>
+        <v>8.9489745464929165</v>
       </c>
       <c r="U67">
         <f t="shared" si="1"/>
-        <v>3.9382123980722218E-4</v>
+        <v>2.2110458877763674E-4</v>
       </c>
       <c r="V67">
         <f>0.5*(S67+S68)-Datum</f>
-        <v>15.810020084489999</v>
+        <v>18.903092853994998</v>
       </c>
       <c r="W67">
         <f>0.5*(T67+T68)-Datum</f>
-        <v>15.807670435652955</v>
+        <v>18.901117829090026</v>
       </c>
       <c r="X67">
         <f>-K*((S67-S68)/dx)*width*V67</f>
-        <v>-0.28958038554079363</v>
+        <v>-0.36188346990475195</v>
       </c>
       <c r="Y67">
         <f>-K*((T67-T68)/dx)*width*W67</f>
-        <v>-0.2898181818181782</v>
+        <v>-0.36181818181818387</v>
       </c>
       <c r="Z67">
         <f t="shared" si="3"/>
-        <v>0.99917949841554887</v>
+        <v>1.0001804444603641</v>
       </c>
       <c r="AB67">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q67+Q68)/2)-(Length/2)))</f>
-        <v>-0.28981818181818181</v>
+        <v>-0.36181818181818182</v>
       </c>
     </row>
     <row r="68" spans="17:28">
@@ -5144,39 +5141,39 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="S68">
-        <v>5.7642294428599996</v>
+        <v>8.8552325021599998</v>
       </c>
       <c r="T68">
         <f>SQRT(((S$10-Datum)^2)-$R68*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q68/K)*(Length-Q68))+Datum</f>
-        <v>5.7618353799757269</v>
+        <v>8.8532611116871394</v>
       </c>
       <c r="U68">
         <f t="shared" si="1"/>
-        <v>4.1550352038741703E-4</v>
+        <v>2.2267393314063825E-4</v>
       </c>
       <c r="V68">
         <f>0.5*(S68+S69)-Datum</f>
-        <v>15.718009803554999</v>
+        <v>18.805793118929998</v>
       </c>
       <c r="W68">
         <f>0.5*(T68+T69)-Datum</f>
-        <v>15.715572639749096</v>
+        <v>18.803827268178136</v>
       </c>
       <c r="X68">
         <f>-K*((S68-S69)/dx)*width*V68</f>
-        <v>-0.2905922974851054</v>
+        <v>-0.37189872518035227</v>
       </c>
       <c r="Y68">
         <f>-K*((T68-T69)/dx)*width*W68</f>
-        <v>-0.29081818181818281</v>
+        <v>-0.37181818181818099</v>
       </c>
       <c r="Z68">
         <f t="shared" si="3"/>
-        <v>0.99922327988000892</v>
+        <v>1.0002166202894582</v>
       </c>
       <c r="AB68">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q68+Q69)/2)-(Length/2)))</f>
-        <v>-0.29081818181818181</v>
+        <v>-0.37181818181818183</v>
       </c>
     </row>
     <row r="69" spans="17:28">
@@ -5189,39 +5186,39 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="S69">
-        <v>5.6717901642499999</v>
+        <v>8.7563537356999994</v>
       </c>
       <c r="T69">
         <f>SQRT(((S$10-Datum)^2)-$R69*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q69/K)*(Length-Q69))+Datum</f>
-        <v>5.6693098995224656</v>
+        <v>8.7543934246691322</v>
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>4.3748970712348823E-4</v>
+        <v>2.239231133185375E-4</v>
       </c>
       <c r="V69">
         <f>0.5*(S69+S70)-Datum</f>
-        <v>15.62513371617</v>
+        <v>18.705310177615001</v>
       </c>
       <c r="W69">
         <f>0.5*(T69+T70)-Datum</f>
-        <v>15.622611853036489</v>
+        <v>18.703357376148627</v>
       </c>
       <c r="X69">
         <f>-K*((S69-S70)/dx)*width*V69</f>
-        <v>-0.29160529598861601</v>
+        <v>-0.38191423461960944</v>
       </c>
       <c r="Y69">
         <f>-K*((T69-T70)/dx)*width*W69</f>
-        <v>-0.29181818181818359</v>
+        <v>-0.38181818181818516</v>
       </c>
       <c r="Z69">
         <f t="shared" si="3"/>
-        <v>0.99927048469618585</v>
+        <v>1.0002515668608731</v>
       </c>
       <c r="AB69">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q69+Q70)/2)-(Length/2)))</f>
-        <v>-0.29181818181818181</v>
+        <v>-0.38181818181818183</v>
       </c>
     </row>
     <row r="70" spans="17:28">
@@ -5234,39 +5231,39 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="S70">
-        <v>5.5784772680900003</v>
+        <v>8.6542666195300004</v>
       </c>
       <c r="T70">
         <f>SQRT(((S$10-Datum)^2)-$R70*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q70/K)*(Length-Q70))+Datum</f>
-        <v>5.5759138065505134</v>
+        <v>8.6523213276281226</v>
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>4.5973837265479641E-4</v>
+        <v>2.2482890177301498E-4</v>
       </c>
       <c r="V70">
         <f>0.5*(S70+S71)-Datum</f>
-        <v>15.531375937605</v>
+        <v>18.601592374550002</v>
       </c>
       <c r="W70">
         <f>0.5*(T70+T71)-Datum</f>
-        <v>15.528772575588302</v>
+        <v>18.599656621257903</v>
       </c>
       <c r="X70">
         <f>-K*((S70-S71)/dx)*width*V70</f>
-        <v>-0.29261938836956591</v>
+        <v>-0.39192993350206162</v>
       </c>
       <c r="Y70">
         <f>-K*((T70-T71)/dx)*width*W70</f>
-        <v>-0.29281818181818259</v>
+        <v>-0.39181818181818073</v>
       </c>
       <c r="Z70">
         <f t="shared" si="3"/>
-        <v>0.99932110278336439</v>
+        <v>1.0002852131143132</v>
       </c>
       <c r="AB70">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q70+Q71)/2)-(Length/2)))</f>
-        <v>-0.29281818181818181</v>
+        <v>-0.39181818181818179</v>
       </c>
     </row>
     <row r="71" spans="17:28">
@@ -5279,39 +5276,39 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="S71">
-        <v>5.4842746071199997</v>
+        <v>8.5489181295699996</v>
       </c>
       <c r="T71">
         <f>SQRT(((S$10-Datum)^2)-$R71*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q71/K)*(Length-Q71))+Datum</f>
-        <v>5.4816313446260914</v>
+        <v>8.5469919148876841</v>
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>4.8220362292324831E-4</v>
+        <v>2.2536755638675329E-4</v>
       </c>
       <c r="V71">
         <f>0.5*(S71+S72)-Datum</f>
-        <v>15.436720045954999</v>
+        <v>18.494585233620001</v>
       </c>
       <c r="W71">
         <f>0.5*(T71+T72)-Datum</f>
-        <v>15.434038782179405</v>
+        <v>18.492670639495472</v>
       </c>
       <c r="X71">
         <f>-K*((S71-S72)/dx)*width*V71</f>
-        <v>-0.29363457904493745</v>
+        <v>-0.40194575005467287</v>
       </c>
       <c r="Y71">
         <f>-K*((T71-T72)/dx)*width*W71</f>
-        <v>-0.29381818181818131</v>
+        <v>-0.40181818181818946</v>
       </c>
       <c r="Z71">
         <f t="shared" si="3"/>
-        <v>0.99937511432373682</v>
+        <v>1.0003174775116104</v>
       </c>
       <c r="AB71">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q71+Q72)/2)-(Length/2)))</f>
-        <v>-0.29381818181818181</v>
+        <v>-0.4018181818181818</v>
       </c>
     </row>
     <row r="72" spans="17:28">
@@ -5324,39 +5321,39 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="S72">
-        <v>5.3891654847900003</v>
+        <v>8.4402523376699996</v>
       </c>
       <c r="T72">
         <f>SQRT(((S$10-Datum)^2)-$R72*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q72/K)*(Length-Q72))+Datum</f>
-        <v>5.3864462197327185</v>
+        <v>8.4383493641032636</v>
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>5.0483471779966076E-4</v>
+        <v>2.2551490636678486E-4</v>
       </c>
       <c r="V72">
         <f>0.5*(S72+S73)-Datum</f>
-        <v>15.34114905717</v>
+        <v>18.384231283715</v>
       </c>
       <c r="W72">
         <f>0.5*(T72+T73)-Datum</f>
-        <v>15.338393896947338</v>
+        <v>18.382342058217823</v>
       </c>
       <c r="X72">
         <f>-K*((S72-S73)/dx)*width*V72</f>
-        <v>-0.29465086932449602</v>
+        <v>-0.41196160506647805</v>
       </c>
       <c r="Y72">
         <f>-K*((T72-T73)/dx)*width*W72</f>
-        <v>-0.29481818181817709</v>
+        <v>-0.4118181818181757</v>
       </c>
       <c r="Z72">
         <f t="shared" si="3"/>
-        <v>0.99943248922895722</v>
+        <v>1.0003482683733611</v>
       </c>
       <c r="AB72">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q72+Q73)/2)-(Length/2)))</f>
-        <v>-0.29481818181818181</v>
+        <v>-0.41181818181818181</v>
       </c>
     </row>
     <row r="73" spans="17:28">
@@ -5369,39 +5366,39 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="S73">
-        <v>5.2931326295499996</v>
+        <v>8.3282102297599998</v>
       </c>
       <c r="T73">
         <f>SQRT(((S$10-Datum)^2)-$R73*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q73/K)*(Length-Q73))+Datum</f>
-        <v>5.2903415741619551</v>
+        <v>8.3263347523323787</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>5.2757564873998053E-4</v>
+        <v>2.2524645998597449E-4</v>
       </c>
       <c r="V73">
         <f>0.5*(S73+S74)-Datum</f>
-        <v>15.244645398585</v>
+        <v>18.270469868555001</v>
       </c>
       <c r="W73">
         <f>0.5*(T73+T74)-Datum</f>
-        <v>15.241820766452864</v>
+        <v>18.268610303838127</v>
       </c>
       <c r="X73">
         <f>-K*((S73-S74)/dx)*width*V73</f>
-        <v>-0.29566825696828458</v>
+        <v>-0.42197741183817405</v>
       </c>
       <c r="Y73">
         <f>-K*((T73-T74)/dx)*width*W73</f>
-        <v>-0.29581818181818803</v>
+        <v>-0.42181818181818498</v>
       </c>
       <c r="Z73">
         <f t="shared" si="3"/>
-        <v>0.99949318581778179</v>
+        <v>1.0003774849611811</v>
       </c>
       <c r="AB73">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q73+Q74)/2)-(Length/2)))</f>
-        <v>-0.29581818181818181</v>
+        <v>-0.42181818181818181</v>
       </c>
     </row>
     <row r="74" spans="17:28">
@@ -5414,39 +5411,39 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="S74">
-        <v>5.1961581676200002</v>
+        <v>8.2127295073499997</v>
       </c>
       <c r="T74">
         <f>SQRT(((S$10-Datum)^2)-$R74*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q74/K)*(Length-Q74))+Datum</f>
-        <v>5.1932999587437756</v>
+        <v>8.2108858553438751</v>
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>5.503646812105087E-4</v>
+        <v>2.2453752720539706E-4</v>
       </c>
       <c r="V74">
         <f>0.5*(S74+S75)-Datum</f>
-        <v>15.147190880895</v>
+        <v>18.153236939020001</v>
       </c>
       <c r="W74">
         <f>0.5*(T74+T75)-Datum</f>
-        <v>15.144301631014633</v>
+        <v>18.15141139183018</v>
       </c>
       <c r="X74">
         <f>-K*((S74-S75)/dx)*width*V74</f>
-        <v>-0.29668673557723596</v>
+        <v>-0.43199307560212813</v>
       </c>
       <c r="Y74">
         <f>-K*((T74-T75)/dx)*width*W74</f>
-        <v>-0.29681818181817743</v>
+        <v>-0.43181818181817422</v>
       </c>
       <c r="Z74">
         <f t="shared" si="3"/>
-        <v>0.99955714895854331</v>
+        <v>1.0004050171838932</v>
       </c>
       <c r="AB74">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q74+Q75)/2)-(Length/2)))</f>
-        <v>-0.29681818181818181</v>
+        <v>-0.43181818181818177</v>
       </c>
     </row>
     <row r="75" spans="17:28">
@@ -5459,39 +5456,39 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="S75">
-        <v>5.0982235941700003</v>
+        <v>8.0937443706900005</v>
       </c>
       <c r="T75">
         <f>SQRT(((S$10-Datum)^2)-$R75*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q75/K)*(Length-Q75))+Datum</f>
-        <v>5.0953033032854904</v>
+        <v>8.091936928316489</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75:U109" si="4">(S75-T75)/T75</f>
-        <v>5.7313386675663064E-4</v>
+        <v>2.2336337882054237E-4</v>
       </c>
       <c r="V75">
         <f>0.5*(S75+S76)-Datum</f>
-        <v>15.048766668395</v>
+        <v>18.032464825959998</v>
       </c>
       <c r="W75">
         <f>0.5*(T75+T76)-Datum</f>
-        <v>15.045818094180547</v>
+        <v>18.030677697071681</v>
       </c>
       <c r="X75">
         <f>-K*((S75-S76)/dx)*width*V75</f>
-        <v>-0.29770629444964186</v>
+        <v>-0.4420084939578276</v>
       </c>
       <c r="Y75">
         <f>-K*((T75-T76)/dx)*width*W75</f>
-        <v>-0.29781818181818326</v>
+        <v>-0.44181818181819316</v>
       </c>
       <c r="Z75">
         <f t="shared" si="3"/>
-        <v>0.99962430981258998</v>
+        <v>1.0004307476411478</v>
       </c>
       <c r="AB75">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q75+Q76)/2)-(Length/2)))</f>
-        <v>-0.29781818181818182</v>
+        <v>-0.44181818181818178</v>
       </c>
     </row>
     <row r="76" spans="17:28">
@@ -5504,39 +5501,39 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="S76">
-        <v>4.9993097426200004</v>
+        <v>7.9711852812300004</v>
       </c>
       <c r="T76">
         <f>SQRT(((S$10-Datum)^2)-$R76*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q76/K)*(Length-Q76))+Datum</f>
-        <v>4.9963328850756046</v>
+        <v>7.9694184658268767</v>
       </c>
       <c r="U76">
         <f t="shared" si="4"/>
-        <v>5.9580848851922721E-4</v>
+        <v>2.2169941391580629E-4</v>
       </c>
       <c r="V76">
         <f>0.5*(S76+S77)-Datum</f>
-        <v>14.94935324739</v>
+        <v>17.908081991254999</v>
       </c>
       <c r="W76">
         <f>0.5*(T76+T77)-Datum</f>
-        <v>14.946351090185479</v>
+        <v>17.906337702282386</v>
       </c>
       <c r="X76">
         <f>-K*((S76-S77)/dx)*width*V76</f>
-        <v>-0.29872691767792953</v>
+        <v>-0.45202355631609853</v>
       </c>
       <c r="Y76">
         <f>-K*((T76-T77)/dx)*width*W76</f>
-        <v>-0.29881818181818465</v>
+        <v>-0.45181818181817901</v>
       </c>
       <c r="Z76">
         <f t="shared" si="3"/>
-        <v>0.99969458304143399</v>
+        <v>1.0004545512026388</v>
       </c>
       <c r="AB76">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q76+Q77)/2)-(Length/2)))</f>
-        <v>-0.29881818181818182</v>
+        <v>-0.45181818181818179</v>
       </c>
     </row>
     <row r="77" spans="17:28">
@@ -5549,39 +5546,39 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="S77">
-        <v>4.8993967521600004</v>
+        <v>7.8449787012799996</v>
       </c>
       <c r="T77">
         <f>SQRT(((S$10-Datum)^2)-$R77*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q77/K)*(Length-Q77))+Datum</f>
-        <v>4.8963692952953526</v>
+        <v>7.8432569387378983</v>
       </c>
       <c r="U77">
         <f t="shared" si="4"/>
-        <v>6.183064801825091E-4</v>
+        <v>2.1952137429000025E-4</v>
       </c>
       <c r="V77">
         <f>0.5*(S77+S78)-Datum</f>
-        <v>14.848930392665</v>
+        <v>17.78001275463</v>
       </c>
       <c r="W77">
         <f>0.5*(T77+T78)-Datum</f>
-        <v>14.845880849230241</v>
+        <v>17.778315721999533</v>
       </c>
       <c r="X77">
         <f>-K*((S77-S78)/dx)*width*V77</f>
-        <v>-0.29974858372498597</v>
+        <v>-0.46203814402144244</v>
       </c>
       <c r="Y77">
         <f>-K*((T77-T78)/dx)*width*W77</f>
-        <v>-0.29981818181817899</v>
+        <v>-0.46181818181818263</v>
       </c>
       <c r="Z77">
         <f t="shared" si="3"/>
-        <v>0.99976786566854969</v>
+        <v>1.0004762961094209</v>
       </c>
       <c r="AB77">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q77+Q78)/2)-(Length/2)))</f>
-        <v>-0.29981818181818182</v>
+        <v>-0.46181818181818179</v>
       </c>
     </row>
     <row r="78" spans="17:28">
@@ -5594,39 +5591,39 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="S78">
-        <v>4.7984640331700001</v>
+        <v>7.7150468079800003</v>
       </c>
       <c r="T78">
         <f>SQRT(((S$10-Datum)^2)-$R78*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q78/K)*(Length-Q78))+Datum</f>
-        <v>4.7953924031651276</v>
+        <v>7.713374505261168</v>
       </c>
       <c r="U78">
         <f t="shared" si="4"/>
-        <v>6.4053778015020306E-4</v>
+        <v>2.1680559107971364E-4</v>
       </c>
       <c r="V78">
         <f>0.5*(S78+S79)-Datum</f>
-        <v>14.7474771318</v>
+        <v>17.648176993235001</v>
       </c>
       <c r="W78">
         <f>0.5*(T78+T79)-Datum</f>
-        <v>14.744386860400562</v>
+        <v>17.646531599168448</v>
       </c>
       <c r="X78">
         <f>-K*((S78-S79)/dx)*width*V78</f>
-        <v>-0.30077126479016653</v>
+        <v>-0.47205213044983813</v>
       </c>
       <c r="Y78">
         <f>-K*((T78-T79)/dx)*width*W78</f>
-        <v>-0.30081818181818454</v>
+        <v>-0.47181818181817481</v>
       </c>
       <c r="Z78">
         <f t="shared" si="3"/>
-        <v>0.9998440352649749</v>
+        <v>1.0004958448840648</v>
       </c>
       <c r="AB78">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q78+Q79)/2)-(Length/2)))</f>
-        <v>-0.30081818181818182</v>
+        <v>-0.4718181818181818</v>
       </c>
     </row>
     <row r="79" spans="17:28">
@@ -5639,39 +5636,39 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="S79">
-        <v>4.6964902304300002</v>
+        <v>7.5813071784900004</v>
       </c>
       <c r="T79">
         <f>SQRT(((S$10-Datum)^2)-$R79*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q79/K)*(Length-Q79))+Datum</f>
-        <v>4.6933813176359962</v>
+        <v>7.5796886930757275</v>
       </c>
       <c r="U79">
         <f t="shared" si="4"/>
-        <v>6.624036240826844E-4</v>
+        <v>2.1352927274591522E-4</v>
       </c>
       <c r="V79">
         <f>0.5*(S79+S80)-Datum</f>
-        <v>14.644971707235001</v>
+        <v>17.51248981066</v>
       </c>
       <c r="W79">
         <f>0.5*(T79+T80)-Datum</f>
-        <v>14.641847832026688</v>
+        <v>17.510900371000623</v>
       </c>
       <c r="X79">
         <f>-K*((S79-S80)/dx)*width*V79</f>
-        <v>-0.30179492583572171</v>
+        <v>-0.48206538116772907</v>
       </c>
       <c r="Y79">
         <f>-K*((T79-T80)/dx)*width*W79</f>
-        <v>-0.30181818181817727</v>
+        <v>-0.48181818181817954</v>
       </c>
       <c r="Z79">
         <f t="shared" si="3"/>
-        <v>0.99992294704608098</v>
+        <v>1.000513055253782</v>
       </c>
       <c r="AB79">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q79+Q80)/2)-(Length/2)))</f>
-        <v>-0.30181818181818182</v>
+        <v>-0.48181818181818181</v>
       </c>
     </row>
     <row r="80" spans="17:28">
@@ -5684,39 +5681,39 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="S80">
-        <v>4.5934531840400004</v>
+        <v>7.4436724428299996</v>
       </c>
       <c r="T80">
         <f>SQRT(((S$10-Datum)^2)-$R80*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q80/K)*(Length-Q80))+Datum</f>
-        <v>4.5903143464173777</v>
+        <v>7.4421120489255195</v>
       </c>
       <c r="U80">
         <f t="shared" si="4"/>
-        <v>6.8379578951329617E-4</v>
+        <v>2.0967084266158527E-4</v>
       </c>
       <c r="V80">
         <f>0.5*(S80+S81)-Datum</f>
-        <v>14.54139153585</v>
+        <v>17.372861171549999</v>
       </c>
       <c r="W80">
         <f>0.5*(T80+T81)-Datum</f>
-        <v>14.538241649263952</v>
+        <v>17.371331900252663</v>
       </c>
       <c r="X80">
         <f>-K*((S80-S81)/dx)*width*V80</f>
-        <v>-0.30281952413298674</v>
+        <v>-0.49207775413136051</v>
       </c>
       <c r="Y80">
         <f>-K*((T80-T81)/dx)*width*W80</f>
-        <v>-0.3028181818181811</v>
+        <v>-0.49181818181817843</v>
       </c>
       <c r="Z80">
         <f t="shared" si="3"/>
-        <v>1.0000044327417779</v>
+        <v>1.0005277810434385</v>
       </c>
       <c r="AB80">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q80+Q81)/2)-(Length/2)))</f>
-        <v>-0.30281818181818182</v>
+        <v>-0.49181818181818182</v>
       </c>
     </row>
     <row r="81" spans="17:28">
@@ -5729,39 +5726,39 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="S81">
-        <v>4.4893298876600003</v>
+        <v>7.3020499002700001</v>
       </c>
       <c r="T81">
         <f>SQRT(((S$10-Datum)^2)-$R81*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q81/K)*(Length-Q81))+Datum</f>
-        <v>4.4861689521105248</v>
+        <v>7.3005517515798033</v>
       </c>
       <c r="U81">
         <f t="shared" si="4"/>
-        <v>7.0459574376672326E-4</v>
+        <v>2.0521033768065942E-4</v>
       </c>
       <c r="V81">
         <f>0.5*(S81+S82)-Datum</f>
-        <v>14.436713165895</v>
+        <v>17.229195497359999</v>
       </c>
       <c r="W81">
         <f>0.5*(T81+T82)-Datum</f>
-        <v>14.433545328652073</v>
+        <v>17.227730467492925</v>
       </c>
       <c r="X81">
         <f>-K*((S81-S82)/dx)*width*V81</f>
-        <v>-0.30384500794040503</v>
+        <v>-0.50208910023192932</v>
       </c>
       <c r="Y81">
         <f>-K*((T81-T82)/dx)*width*W81</f>
-        <v>-0.30381818181818693</v>
+        <v>-0.50181818181818516</v>
       </c>
       <c r="Z81">
         <f t="shared" si="3"/>
-        <v>1.0000882966320763</v>
+        <v>1.0005398736505771</v>
       </c>
       <c r="AB81">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q81+Q82)/2)-(Length/2)))</f>
-        <v>-0.30381818181818182</v>
+        <v>-0.50181818181818183</v>
       </c>
     </row>
     <row r="82" spans="17:28">
@@ -5774,39 +5771,39 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="S82">
-        <v>4.3840964441299999</v>
+        <v>7.1563410944500001</v>
       </c>
       <c r="T82">
         <f>SQRT(((S$10-Datum)^2)-$R82*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q82/K)*(Length-Q82))+Datum</f>
-        <v>4.3809217051936233</v>
+        <v>7.1549091834060476</v>
       </c>
       <c r="U82">
         <f t="shared" si="4"/>
-        <v>7.2467374448003936E-4</v>
+        <v>2.001298698903693E-4</v>
       </c>
       <c r="V82">
         <f>0.5*(S82+S83)-Datum</f>
-        <v>14.330912231060001</v>
+        <v>17.081391218109999</v>
       </c>
       <c r="W82">
         <f>0.5*(T82+T83)-Datum</f>
-        <v>14.327734969385505</v>
+        <v>17.07999431923043</v>
       </c>
       <c r="X82">
         <f>-K*((S82-S83)/dx)*width*V82</f>
-        <v>-0.30487131583366428</v>
+        <v>-0.51209926380500137</v>
       </c>
       <c r="Y82">
         <f>-K*((T82-T83)/dx)*width*W82</f>
-        <v>-0.30481818181817971</v>
+        <v>-0.51181818181818906</v>
       </c>
       <c r="Z82">
         <f t="shared" si="3"/>
-        <v>1.000174313799681</v>
+        <v>1.0005491832779636</v>
       </c>
       <c r="AB82">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q82+Q83)/2)-(Length/2)))</f>
-        <v>-0.30481818181818182</v>
+        <v>-0.51181818181818184</v>
       </c>
     </row>
     <row r="83" spans="17:28">
@@ -5819,39 +5816,39 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="S83">
-        <v>4.2777280179900004</v>
+        <v>7.0064413417700004</v>
       </c>
       <c r="T83">
         <f>SQRT(((S$10-Datum)^2)-$R83*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q83/K)*(Length-Q83))+Datum</f>
-        <v>4.2745482335773861</v>
+        <v>7.0050794550548119</v>
       </c>
       <c r="U83">
         <f t="shared" si="4"/>
-        <v>7.4388783068031158E-4</v>
+        <v>1.9441417102069081E-4</v>
       </c>
       <c r="V83">
         <f>0.5*(S83+S84)-Datum</f>
-        <v>14.22396340145</v>
+        <v>16.929340274175001</v>
       </c>
       <c r="W83">
         <f>0.5*(T83+T84)-Datum</f>
-        <v>14.220785700998629</v>
+        <v>16.928015165960325</v>
       </c>
       <c r="X83">
         <f>-K*((S83-S84)/dx)*width*V83</f>
-        <v>-0.30589837518318186</v>
+        <v>-0.52210808352716986</v>
       </c>
       <c r="Y83">
         <f>-K*((T83-T84)/dx)*width*W83</f>
-        <v>-0.30581818181818393</v>
+        <v>-0.52181818181818307</v>
       </c>
       <c r="Z83">
         <f t="shared" ref="Z83:Z108" si="5">X83/Y83</f>
-        <v>1.000262225628709</v>
+        <v>1.000555560766351</v>
       </c>
       <c r="AB83">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q83+Q84)/2)-(Length/2)))</f>
-        <v>-0.30581818181818182</v>
+        <v>-0.52181818181818185</v>
       </c>
     </row>
     <row r="84" spans="17:28">
@@ -5864,39 +5861,39 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="S84">
-        <v>4.1701987849100002</v>
+        <v>6.8522392065800002</v>
       </c>
       <c r="T84">
         <f>SQRT(((S$10-Datum)^2)-$R84*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q84/K)*(Length-Q84))+Datum</f>
-        <v>4.1670231684198722</v>
+        <v>6.8509508768658343</v>
       </c>
       <c r="U84">
         <f t="shared" si="4"/>
-        <v>7.6208275350966533E-4</v>
+        <v>1.8805122636572009E-4</v>
       </c>
       <c r="V84">
         <f>0.5*(S84+S85)-Datum</f>
-        <v>14.11584033119</v>
+        <v>16.772927561134999</v>
       </c>
       <c r="W84">
         <f>0.5*(T84+T85)-Datum</f>
-        <v>14.112671627137605</v>
+        <v>16.771677623204795</v>
       </c>
       <c r="X84">
         <f>-K*((S84-S85)/dx)*width*V84</f>
-        <v>-0.30692610134475995</v>
+        <v>-0.53211539352136461</v>
       </c>
       <c r="Y84">
         <f>-K*((T84-T85)/dx)*width*W84</f>
-        <v>-0.30681818181818182</v>
+        <v>-0.53181818181818519</v>
       </c>
       <c r="Z84">
         <f t="shared" si="5"/>
-        <v>1.0003517377162547</v>
+        <v>1.0005588596128161</v>
       </c>
       <c r="AB84">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q84+Q85)/2)-(Length/2)))</f>
-        <v>-0.30681818181818182</v>
+        <v>-0.53181818181818175</v>
       </c>
     </row>
     <row r="85" spans="17:28">
@@ -5909,39 +5906,39 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="S85">
-        <v>4.0614818774700003</v>
+        <v>6.6936159156899997</v>
       </c>
       <c r="T85">
         <f>SQRT(((S$10-Datum)^2)-$R85*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q85/K)*(Length-Q85))+Datum</f>
-        <v>4.0583200858553372</v>
+        <v>6.6924043695437589</v>
       </c>
       <c r="U85">
         <f t="shared" si="4"/>
-        <v>7.7908877263847939E-4</v>
+        <v>1.8103301584021652E-4</v>
       </c>
       <c r="V85">
         <f>0.5*(S85+S86)-Datum</f>
-        <v>14.006515602395</v>
+        <v>16.612030309559998</v>
       </c>
       <c r="W85">
         <f>0.5*(T85+T86)-Datum</f>
-        <v>14.003365765054415</v>
+        <v>16.610858587463127</v>
       </c>
       <c r="X85">
         <f>-K*((S85-S86)/dx)*width*V85</f>
-        <v>-0.30795439577741018</v>
+        <v>-0.54212102474215351</v>
       </c>
       <c r="Y85">
         <f>-K*((T85-T86)/dx)*width*W85</f>
-        <v>-0.30781818181817577</v>
+        <v>-0.54181818181817043</v>
       </c>
       <c r="Z85">
         <f t="shared" si="5"/>
-        <v>1.0004425143389186</v>
+        <v>1.0005589382825191</v>
       </c>
       <c r="AB85">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q85+Q86)/2)-(Length/2)))</f>
-        <v>-0.30781818181818182</v>
+        <v>-0.54181818181818175</v>
       </c>
     </row>
     <row r="86" spans="17:28">
@@ -5954,39 +5951,39 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="S86">
-        <v>3.95154932732</v>
+        <v>6.5304447034299997</v>
       </c>
       <c r="T86">
         <f>SQRT(((S$10-Datum)^2)-$R86*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q86/K)*(Length-Q86))+Datum</f>
-        <v>3.9484114442534946</v>
+        <v>6.5293128053824994</v>
       </c>
       <c r="U86">
         <f t="shared" si="4"/>
-        <v>7.9472038585854201E-4</v>
+        <v>1.733563824001917E-4</v>
       </c>
       <c r="V86">
         <f>0.5*(S86+S87)-Datum</f>
-        <v>13.895960665204999</v>
+        <v>16.446517390129998</v>
       </c>
       <c r="W86">
         <f>0.5*(T86+T87)-Datum</f>
-        <v>13.892839980417902</v>
+        <v>16.445426537586862</v>
       </c>
       <c r="X86">
         <f>-K*((S86-S87)/dx)*width*V86</f>
-        <v>-0.30898314487256401</v>
+        <v>-0.55212480707813416</v>
       </c>
       <c r="Y86">
         <f>-K*((T86-T87)/dx)*width*W86</f>
-        <v>-0.3088181818181876</v>
+        <v>-0.5518181818181882</v>
       </c>
       <c r="Z86">
         <f t="shared" si="5"/>
-        <v>1.0005341753306272</v>
+        <v>1.0005556635682711</v>
       </c>
       <c r="AB86">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q86+Q87)/2)-(Length/2)))</f>
-        <v>-0.30881818181818183</v>
+        <v>-0.55181818181818176</v>
       </c>
     </row>
     <row r="87" spans="17:28">
@@ -5999,39 +5996,39 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="S87">
-        <v>3.8403720030900002</v>
+        <v>6.3625900768300001</v>
       </c>
       <c r="T87">
         <f>SQRT(((S$10-Datum)^2)-$R87*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q87/K)*(Length-Q87))+Datum</f>
-        <v>3.8372685165823093</v>
+        <v>6.3615402697912273</v>
       </c>
       <c r="U87">
         <f t="shared" si="4"/>
-        <v>8.0877491222715379E-4</v>
+        <v>1.6502403415693994E-4</v>
       </c>
       <c r="V87">
         <f>0.5*(S87+S88)-Datum</f>
-        <v>13.784145773525001</v>
+        <v>16.276248532884999</v>
       </c>
       <c r="W87">
         <f>0.5*(T87+T88)-Datum</f>
-        <v>13.781064916990342</v>
+        <v>16.275240750411776</v>
       </c>
       <c r="X87">
         <f>-K*((S87-S88)/dx)*width*V87</f>
-        <v>-0.31001221784785654</v>
+        <v>-0.56212657118473375</v>
       </c>
       <c r="Y87">
         <f>-K*((T87-T88)/dx)*width*W87</f>
-        <v>-0.30981818181817761</v>
+        <v>-0.56181818181817345</v>
       </c>
       <c r="Z87">
         <f t="shared" si="5"/>
-        <v>1.0006262900018981</v>
+        <v>1.0005489131120004</v>
       </c>
       <c r="AB87">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q87+Q88)/2)-(Length/2)))</f>
-        <v>-0.30981818181818183</v>
+        <v>-0.56181818181818177</v>
       </c>
     </row>
     <row r="88" spans="17:28">
@@ -6044,39 +6041,39 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="S88">
-        <v>3.7279195439600001</v>
+        <v>6.1899069889399998</v>
       </c>
       <c r="T88">
         <f>SQRT(((S$10-Datum)^2)-$R88*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q88/K)*(Length-Q88))+Datum</f>
-        <v>3.7248613173983731</v>
+        <v>6.1889412310323202</v>
       </c>
       <c r="U88">
         <f t="shared" si="4"/>
-        <v>8.2103098640006183E-4</v>
+        <v>1.5604573894435259E-4</v>
       </c>
       <c r="V88">
         <f>0.5*(S88+S89)-Datum</f>
-        <v>13.67103991612</v>
+        <v>16.10107344719</v>
       </c>
       <c r="W88">
         <f>0.5*(T88+T89)-Datum</f>
-        <v>13.668009920665732</v>
+        <v>16.100150417438613</v>
       </c>
       <c r="X88">
         <f>-K*((S88-S89)/dx)*width*V88</f>
-        <v>-0.31104146504587682</v>
+        <v>-0.57212615211630569</v>
       </c>
       <c r="Y88">
         <f>-K*((T88-T89)/dx)*width*W88</f>
-        <v>-0.31081818181818321</v>
+        <v>-0.57181818181818866</v>
       </c>
       <c r="Z88">
         <f t="shared" si="5"/>
-        <v>1.0007183724786866</v>
+        <v>1.0005385808075178</v>
       </c>
       <c r="AB88">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q88+Q89)/2)-(Length/2)))</f>
-        <v>-0.31081818181818183</v>
+        <v>-0.57181818181818178</v>
       </c>
     </row>
     <row r="89" spans="17:28">
@@ -6089,39 +6086,39 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="S89">
-        <v>3.6141602882799999</v>
+        <v>6.0122399054400004</v>
       </c>
       <c r="T89">
         <f>SQRT(((S$10-Datum)^2)-$R89*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q89/K)*(Length-Q89))+Datum</f>
-        <v>3.6111585239330886</v>
+        <v>6.0113596038449018</v>
       </c>
       <c r="U89">
         <f t="shared" si="4"/>
-        <v>8.3124690511841143E-4</v>
+        <v>1.4643968305200352E-4</v>
       </c>
       <c r="V89">
         <f>0.5*(S89+S90)-Datum</f>
-        <v>13.55661074264</v>
+        <v>15.92083082658</v>
       </c>
       <c r="W89">
         <f>0.5*(T89+T90)-Datum</f>
-        <v>13.553642957306389</v>
+        <v>15.919993646872221</v>
       </c>
       <c r="X89">
         <f>-K*((S89-S90)/dx)*width*V89</f>
-        <v>-0.31207071546290954</v>
+        <v>-0.58212339221743048</v>
       </c>
       <c r="Y89">
         <f>-K*((T89-T90)/dx)*width*W89</f>
-        <v>-0.31181818181818227</v>
+        <v>-0.58181818181818312</v>
       </c>
       <c r="Z89">
         <f t="shared" si="5"/>
-        <v>1.0008098746623906</v>
+        <v>1.0005245803737064</v>
       </c>
       <c r="AB89">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q89+Q90)/2)-(Length/2)))</f>
-        <v>-0.31181818181818183</v>
+        <v>-0.58181818181818179</v>
       </c>
     </row>
     <row r="90" spans="17:28">
@@ -6134,39 +6131,39 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="S90">
-        <v>3.4990611970000001</v>
+        <v>5.8294217477199997</v>
       </c>
       <c r="T90">
         <f>SQRT(((S$10-Datum)^2)-$R90*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q90/K)*(Length-Q90))+Datum</f>
-        <v>3.496127390679689</v>
+        <v>5.8286276898995428</v>
       </c>
       <c r="U90">
         <f t="shared" si="4"/>
-        <v>8.3915887279515625E-4</v>
+        <v>1.3623409534852516E-4</v>
       </c>
       <c r="V90">
         <f>0.5*(S90+S91)-Datum</f>
-        <v>13.440824484109999</v>
+        <v>15.735347219495001</v>
       </c>
       <c r="W90">
         <f>0.5*(T90+T91)-Datum</f>
-        <v>13.437930523746683</v>
+        <v>15.734596332291144</v>
       </c>
       <c r="X90">
         <f>-K*((S90-S91)/dx)*width*V90</f>
-        <v>-0.31309977459439914</v>
+        <v>-0.59211814645222138</v>
       </c>
       <c r="Y90">
         <f>-K*((T90-T91)/dx)*width*W90</f>
-        <v>-0.31281818181818594</v>
+        <v>-0.5918181818181838</v>
       </c>
       <c r="Z90">
         <f t="shared" si="5"/>
-        <v>1.0009001803366304</v>
+        <v>1.0005068526842418</v>
       </c>
       <c r="AB90">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q90+Q91)/2)-(Length/2)))</f>
-        <v>-0.31281818181818183</v>
+        <v>-0.5918181818181818</v>
       </c>
     </row>
     <row r="91" spans="17:28">
@@ -6179,39 +6176,39 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="S91">
-        <v>3.3825877712199999</v>
+        <v>5.6412726912700002</v>
       </c>
       <c r="T91">
         <f>SQRT(((S$10-Datum)^2)-$R91*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q91/K)*(Length-Q91))+Datum</f>
-        <v>3.3797336568136771</v>
+        <v>5.6405649746827464</v>
       </c>
       <c r="U91">
         <f t="shared" si="4"/>
-        <v>8.4447909099841765E-4</v>
+        <v>1.2546909581403698E-4</v>
       </c>
       <c r="V91">
         <f>0.5*(S91+S92)-Datum</f>
-        <v>13.323645867385</v>
+        <v>15.54443574311</v>
       </c>
       <c r="W91">
         <f>0.5*(T91+T92)-Datum</f>
-        <v>13.320837551255245</v>
+        <v>15.54377086548196</v>
       </c>
       <c r="X91">
         <f>-K*((S91-S92)/dx)*width*V91</f>
-        <v>-0.31412842137879998</v>
+        <v>-0.6021102872927977</v>
       </c>
       <c r="Y91">
         <f>-K*((T91-T92)/dx)*width*W91</f>
-        <v>-0.31381818181817711</v>
+        <v>-0.6018181818181787</v>
       </c>
       <c r="Z91">
         <f t="shared" si="5"/>
-        <v>1.0009885965141516</v>
+        <v>1.0004853716345632</v>
       </c>
       <c r="AB91">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q91+Q92)/2)-(Length/2)))</f>
-        <v>-0.31381818181818177</v>
+        <v>-0.60181818181818181</v>
       </c>
     </row>
     <row r="92" spans="17:28">
@@ -6224,39 +6221,39 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="S92">
-        <v>3.2647039635500001</v>
+        <v>5.4475987949500002</v>
       </c>
       <c r="T92">
         <f>SQRT(((S$10-Datum)^2)-$R92*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q92/K)*(Length-Q92))+Datum</f>
-        <v>3.2619414456968148</v>
+        <v>5.4469767562811757</v>
       </c>
       <c r="U92">
         <f t="shared" si="4"/>
-        <v>8.4689375918433978E-4</v>
+        <v>1.1419888438245748E-4</v>
       </c>
       <c r="V92">
         <f>0.5*(S92+S93)-Datum</f>
-        <v>13.205038023055</v>
+        <v>15.347894612765</v>
       </c>
       <c r="W92">
         <f>0.5*(T92+T93)-Datum</f>
-        <v>13.202327300658446</v>
+        <v>15.347314666345696</v>
       </c>
       <c r="X92">
         <f>-K*((S92-S93)/dx)*width*V92</f>
-        <v>-0.31515640516712579</v>
+        <v>-0.61209971225092064</v>
       </c>
       <c r="Y92">
         <f>-K*((T92-T93)/dx)*width*W92</f>
-        <v>-0.31481818181818227</v>
+        <v>-0.61181818181818159</v>
       </c>
       <c r="Z92">
         <f t="shared" si="5"/>
-        <v>1.0010743450298523</v>
+        <v>1.0004601537533624</v>
       </c>
       <c r="AB92">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q92+Q93)/2)-(Length/2)))</f>
-        <v>-0.31481818181818177</v>
+        <v>-0.61181818181818182</v>
       </c>
     </row>
     <row r="93" spans="17:28">
@@ -6269,39 +6266,39 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="S93">
-        <v>3.1453720825599998</v>
+        <v>5.2481904305800002</v>
       </c>
       <c r="T93">
         <f>SQRT(((S$10-Datum)^2)-$R93*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q93/K)*(Length-Q93))+Datum</f>
-        <v>3.1427131556200791</v>
+        <v>5.247652576410216</v>
       </c>
       <c r="U93">
         <f t="shared" si="4"/>
-        <v>8.4606096969611034E-4</v>
+        <v>1.024942413684289E-4</v>
       </c>
       <c r="V93">
         <f>0.5*(S93+S94)-Datum</f>
-        <v>13.084962386095</v>
+        <v>15.14550545354</v>
       </c>
       <c r="W93">
         <f>0.5*(T93+T94)-Datum</f>
-        <v>13.08236124822626</v>
+        <v>15.145008497019212</v>
       </c>
       <c r="X93">
         <f>-K*((S93-S94)/dx)*width*V93</f>
-        <v>-0.31618344239997553</v>
+        <v>-0.62208635190238004</v>
       </c>
       <c r="Y93">
         <f>-K*((T93-T94)/dx)*width*W93</f>
-        <v>-0.31581818181818211</v>
+        <v>-0.62181818181818649</v>
       </c>
       <c r="Z93">
         <f t="shared" si="5"/>
-        <v>1.0011565533677973</v>
+        <v>1.0004312676792586</v>
       </c>
       <c r="AB93">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q93+Q94)/2)-(Length/2)))</f>
-        <v>-0.31581818181818178</v>
+        <v>-0.62181818181818183</v>
       </c>
     </row>
     <row r="94" spans="17:28">
@@ -6314,39 +6311,39 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="S94">
-        <v>3.0245526896300001</v>
+        <v>5.0428204765000002</v>
       </c>
       <c r="T94">
         <f>SQRT(((S$10-Datum)^2)-$R94*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q94/K)*(Length-Q94))+Datum</f>
-        <v>3.0220093408324384</v>
+        <v>5.0423644176282085</v>
       </c>
       <c r="U94">
         <f t="shared" si="4"/>
-        <v>8.4160851629303598E-4</v>
+        <v>9.0445440674078356E-5</v>
       </c>
       <c r="V94">
         <f>0.5*(S94+S95)-Datum</f>
-        <v>12.96337858865</v>
+        <v>14.937031353185001</v>
       </c>
       <c r="W94">
         <f>0.5*(T94+T95)-Datum</f>
-        <v>12.960898961304743</v>
+        <v>14.936614520125183</v>
       </c>
       <c r="X94">
         <f>-K*((S94-S95)/dx)*width*V94</f>
-        <v>-0.31720921232961785</v>
+        <v>-0.63207018071284449</v>
       </c>
       <c r="Y94">
         <f>-K*((T94-T95)/dx)*width*W94</f>
-        <v>-0.31681818181818</v>
+        <v>-0.63181818181817917</v>
       </c>
       <c r="Z94">
         <f t="shared" si="5"/>
-        <v>1.0012342426472931</v>
+        <v>1.0003988471714127</v>
       </c>
       <c r="AB94">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q94+Q95)/2)-(Length/2)))</f>
-        <v>-0.31681818181818178</v>
+        <v>-0.63181818181818183</v>
       </c>
     </row>
     <row r="95" spans="17:28">
@@ -6359,39 +6356,39 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="S95">
-        <v>2.9022044876700002</v>
+        <v>4.83124222987</v>
       </c>
       <c r="T95">
         <f>SQRT(((S$10-Datum)^2)-$R95*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q95/K)*(Length-Q95))+Datum</f>
-        <v>2.899788581777047</v>
+        <v>4.8308646226221565</v>
       </c>
       <c r="U95">
         <f t="shared" si="4"/>
-        <v>8.3313173523589699E-4</v>
+        <v>7.8165561931738033E-5</v>
       </c>
       <c r="V95">
         <f>0.5*(S95+S96)-Datum</f>
-        <v>12.840244344155</v>
+        <v>14.722214606194999</v>
       </c>
       <c r="W95">
         <f>0.5*(T95+T96)-Datum</f>
-        <v>12.837897962544552</v>
+        <v>14.721874051932222</v>
       </c>
       <c r="X95">
         <f>-K*((S95-S96)/dx)*width*V95</f>
-        <v>-0.31823335293260496</v>
+        <v>-0.64205122949872584</v>
       </c>
       <c r="Y95">
         <f>-K*((T95-T96)/dx)*width*W95</f>
-        <v>-0.31781818181818533</v>
+        <v>-0.6418181818181794</v>
       </c>
       <c r="Z95">
         <f t="shared" si="5"/>
-        <v>1.0013063164355309</v>
+        <v>1.0003631054512763</v>
       </c>
       <c r="AB95">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q95+Q96)/2)-(Length/2)))</f>
-        <v>-0.31781818181818178</v>
+        <v>-0.64181818181818184</v>
       </c>
     </row>
     <row r="96" spans="17:28">
@@ -6404,39 +6401,39 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="S96">
-        <v>2.7782842006399999</v>
+        <v>4.6131869825200003</v>
       </c>
       <c r="T96">
         <f>SQRT(((S$10-Datum)^2)-$R96*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q96/K)*(Length-Q96))+Datum</f>
-        <v>2.7760073433120578</v>
+        <v>4.6128834812422852</v>
       </c>
       <c r="U96">
         <f t="shared" si="4"/>
-        <v>8.2019139229855839E-4</v>
+        <v>6.5794264899429392E-5</v>
       </c>
       <c r="V96">
         <f>0.5*(S96+S97)-Datum</f>
-        <v>12.7155153219</v>
+        <v>14.500774086925</v>
       </c>
       <c r="W96">
         <f>0.5*(T96+T97)-Datum</f>
-        <v>12.713313581418983</v>
+        <v>14.500504949583478</v>
       </c>
       <c r="X96">
         <f>-K*((S96-S97)/dx)*width*V96</f>
-        <v>-0.31925545574278141</v>
+        <v>-0.65202960139207466</v>
       </c>
       <c r="Y96">
         <f>-K*((T96-T97)/dx)*width*W96</f>
-        <v>-0.31881818181818322</v>
+        <v>-0.65181818181818352</v>
       </c>
       <c r="Z96">
         <f t="shared" si="5"/>
-        <v>1.0013715463845396</v>
+        <v>1.0003243536001118</v>
       </c>
       <c r="AB96">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q96+Q97)/2)-(Length/2)))</f>
-        <v>-0.31881818181818178</v>
+        <v>-0.65181818181818185</v>
       </c>
     </row>
     <row r="97" spans="17:28">
@@ -6449,39 +6446,39 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="S97">
-        <v>2.6527464431599999</v>
+        <v>4.3883611913299996</v>
       </c>
       <c r="T97">
         <f>SQRT(((S$10-Datum)^2)-$R97*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q97/K)*(Length-Q97))+Datum</f>
-        <v>2.650619819525911</v>
+        <v>4.3881264179246706</v>
       </c>
       <c r="U97">
         <f t="shared" si="4"/>
-        <v>8.0231182851007803E-4</v>
+        <v>5.3501969398591925E-5</v>
       </c>
       <c r="V97">
         <f>0.5*(S97+S98)-Datum</f>
-        <v>12.58914501117</v>
+        <v>14.272402174290001</v>
       </c>
       <c r="W97">
         <f>0.5*(T97+T98)-Datum</f>
-        <v>12.587098791544264</v>
+        <v>14.272198556636891</v>
       </c>
       <c r="X97">
         <f>-K*((S97-S98)/dx)*width*V97</f>
-        <v>-0.32027506009607065</v>
+        <v>-0.6620054907720897</v>
       </c>
       <c r="Y97">
         <f>-K*((T97-T98)/dx)*width*W97</f>
-        <v>-0.3198181818181795</v>
+        <v>-0.66181818181818142</v>
       </c>
       <c r="Z97">
         <f t="shared" si="5"/>
-        <v>1.0014285562981247</v>
+        <v>1.0002830217710152</v>
       </c>
       <c r="AB97">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q97+Q98)/2)-(Length/2)))</f>
-        <v>-0.31981818181818178</v>
+        <v>-0.66181818181818186</v>
       </c>
     </row>
     <row r="98" spans="17:28">
@@ -6494,39 +6491,39 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="S98">
-        <v>2.5255435791799998</v>
+        <v>4.15644315725</v>
       </c>
       <c r="T98">
         <f>SQRT(((S$10-Datum)^2)-$R98*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q98/K)*(Length-Q98))+Datum</f>
-        <v>2.5235777635626153</v>
+        <v>4.1562706953491109</v>
       </c>
       <c r="U98">
         <f t="shared" si="4"/>
-        <v>7.7897960814542503E-4</v>
+        <v>4.1494386080805441E-5</v>
       </c>
       <c r="V98">
         <f>0.5*(S98+S99)-Datum</f>
-        <v>12.46108457381</v>
+        <v>14.03676113081</v>
       </c>
       <c r="W98">
         <f>0.5*(T98+T99)-Datum</f>
-        <v>12.459204032104427</v>
+        <v>14.036616111853942</v>
       </c>
       <c r="X98">
         <f>-K*((S98-S99)/dx)*width*V98</f>
-        <v>-0.32129164698369628</v>
+        <v>-0.67197920671582689</v>
       </c>
       <c r="Y98">
         <f>-K*((T98-T99)/dx)*width*W98</f>
-        <v>-0.32081818181818117</v>
+        <v>-0.67181818181818109</v>
       </c>
       <c r="Z98">
         <f t="shared" si="5"/>
-        <v>1.001475805276471</v>
+        <v>1.0002396852333022</v>
       </c>
       <c r="AB98">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q98+Q99)/2)-(Length/2)))</f>
-        <v>-0.32081818181818178</v>
+        <v>-0.67181818181818187</v>
       </c>
     </row>
     <row r="99" spans="17:28">
@@ -6539,39 +6536,39 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="S99">
-        <v>2.3966255684400002</v>
+        <v>3.91707910437</v>
       </c>
       <c r="T99">
         <f>SQRT(((S$10-Datum)^2)-$R99*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q99/K)*(Length-Q99))+Datum</f>
-        <v>2.394830300646241</v>
+        <v>3.9169615283587742</v>
       </c>
       <c r="U99">
         <f t="shared" si="4"/>
-        <v>7.496430094753306E-4</v>
+        <v>3.0017147315464085E-5</v>
       </c>
       <c r="V99">
         <f>0.5*(S99+S100)-Datum</f>
-        <v>12.33128268402</v>
+        <v>13.793478812745001</v>
       </c>
       <c r="W99">
         <f>0.5*(T99+T100)-Datum</f>
-        <v>12.32957701143777</v>
+        <v>13.793384500949138</v>
       </c>
       <c r="X99">
         <f>-K*((S99-S100)/dx)*width*V99</f>
-        <v>-0.3223046316689071</v>
+        <v>-0.68195120151141675</v>
       </c>
       <c r="Y99">
         <f>-K*((T99-T100)/dx)*width*W99</f>
-        <v>-0.32181818181818006</v>
+        <v>-0.68181818181818299</v>
       </c>
       <c r="Z99">
         <f t="shared" si="5"/>
-        <v>1.0015115673327677</v>
+        <v>1.0001950955500762</v>
       </c>
       <c r="AB99">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q99+Q100)/2)-(Length/2)))</f>
-        <v>-0.32181818181818178</v>
+        <v>-0.68181818181818188</v>
       </c>
     </row>
     <row r="100" spans="17:28">
@@ -6584,39 +6581,39 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="S100">
-        <v>2.2659397995999999</v>
+        <v>3.6698785211199998</v>
       </c>
       <c r="T100">
         <f>SQRT(((S$10-Datum)^2)-$R100*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q100/K)*(Length-Q100))+Datum</f>
-        <v>2.2643237222293013</v>
+        <v>3.6698074735394997</v>
       </c>
       <c r="U100">
         <f t="shared" si="4"/>
-        <v>7.1371304148485227E-4</v>
+        <v>1.936002937822073E-5</v>
       </c>
       <c r="V100">
         <f>0.5*(S100+S101)-Datum</f>
-        <v>12.199685354105</v>
+        <v>13.542143553855</v>
       </c>
       <c r="W100">
         <f>0.5*(T100+T101)-Datum</f>
-        <v>12.198162490554417</v>
+        <v>13.542091197722637</v>
       </c>
       <c r="X100">
         <f>-K*((S100-S101)/dx)*width*V100</f>
-        <v>-0.32331335533987998</v>
+        <v>-0.69192210541983912</v>
       </c>
       <c r="Y100">
         <f>-K*((T100-T101)/dx)*width*W100</f>
-        <v>-0.32281818181818395</v>
+        <v>-0.69181818181817833</v>
       </c>
       <c r="Z100">
         <f t="shared" si="5"/>
-        <v>1.0015339084028883</v>
+        <v>1.0001502180838724</v>
       </c>
       <c r="AB100">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q100+Q101)/2)-(Length/2)))</f>
-        <v>-0.32281818181818178</v>
+        <v>-0.69181818181818189</v>
       </c>
     </row>
     <row r="101" spans="17:28">
@@ -6629,39 +6626,39 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="S101">
-        <v>2.1334309086099998</v>
+        <v>3.41440858659</v>
       </c>
       <c r="T101">
         <f>SQRT(((S$10-Datum)^2)-$R101*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q101/K)*(Length-Q101))+Datum</f>
-        <v>2.1320012588795318</v>
+        <v>3.4143749219057753</v>
       </c>
       <c r="U101">
         <f t="shared" si="4"/>
-        <v>6.7056701984282395E-4</v>
+        <v>9.8596917429123118E-6</v>
       </c>
       <c r="V101">
         <f>0.5*(S101+S102)-Datum</f>
-        <v>12.066235744575</v>
+        <v>13.28229801965</v>
       </c>
       <c r="W101">
         <f>0.5*(T101+T102)-Datum</f>
-        <v>12.064902044017121</v>
+        <v>13.282278196586745</v>
       </c>
       <c r="X101">
         <f>-K*((S101-S102)/dx)*width*V101</f>
-        <v>-0.32431707605667859</v>
+        <v>-0.70189276865680028</v>
       </c>
       <c r="Y101">
         <f>-K*((T101-T102)/dx)*width*W101</f>
-        <v>-0.32381818181817962</v>
+        <v>-0.70181818181818156</v>
       </c>
       <c r="Z101">
         <f t="shared" si="5"/>
-        <v>1.0015406616012039</v>
+        <v>1.000106276583524</v>
       </c>
       <c r="AB101">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q101+Q102)/2)-(Length/2)))</f>
-        <v>-0.32381818181818178</v>
+        <v>-0.7018181818181819</v>
       </c>
     </row>
     <row r="102" spans="17:28">
@@ -6674,39 +6671,39 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="S102">
-        <v>1.99904058054</v>
+        <v>3.15018745271</v>
       </c>
       <c r="T102">
         <f>SQRT(((S$10-Datum)^2)-$R102*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q102/K)*(Length-Q102))+Datum</f>
-        <v>1.9978028291547094</v>
+        <v>3.1501814712677163</v>
       </c>
       <c r="U102">
         <f t="shared" si="4"/>
-        <v>6.195563281959569E-4</v>
+        <v>1.8987611787618099E-6</v>
       </c>
       <c r="V102">
         <f>0.5*(S102+S103)-Datum</f>
-        <v>11.93087395689</v>
+        <v>13.013431767324999</v>
       </c>
       <c r="W102">
         <f>0.5*(T102+T103)-Datum</f>
-        <v>11.929733795219445</v>
+        <v>13.013434678549048</v>
       </c>
       <c r="X102">
         <f>-K*((S102-S103)/dx)*width*V102</f>
-        <v>-0.32531495793396298</v>
+        <v>-0.71186431222058499</v>
       </c>
       <c r="Y102">
         <f>-K*((T102-T103)/dx)*width*W102</f>
-        <v>-0.32481818181818684</v>
+        <v>-0.71181818181818945</v>
       </c>
       <c r="Z102">
         <f t="shared" si="5"/>
-        <v>1.0015293975016897</v>
+        <v>1.0000648064401469</v>
       </c>
       <c r="AB102">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q102+Q103)/2)-(Length/2)))</f>
-        <v>-0.32481818181818178</v>
+        <v>-0.71181818181818179</v>
       </c>
     </row>
     <row r="103" spans="17:28">
@@ -6719,39 +6716,39 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="S103">
-        <v>1.8627073332399999</v>
+        <v>2.8766760819399999</v>
       </c>
       <c r="T103">
         <f>SQRT(((S$10-Datum)^2)-$R103*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q103/K)*(Length-Q103))+Datum</f>
-        <v>1.8616647612841799</v>
+        <v>2.8766878858303802</v>
       </c>
       <c r="U103">
         <f t="shared" si="4"/>
-        <v>5.6002131935980689E-4</v>
+        <v>-4.1032919971570491E-6</v>
       </c>
       <c r="V103">
         <f>0.5*(S103+S104)-Datum</f>
-        <v>11.793536807004999</v>
+        <v>12.7349721623</v>
       </c>
       <c r="W103">
         <f>0.5*(T103+T104)-Datum</f>
-        <v>11.792592122624633</v>
+        <v>12.734988070760377</v>
       </c>
       <c r="X103">
         <f>-K*((S103-S104)/dx)*width*V103</f>
-        <v>-0.32630605884495084</v>
+        <v>-0.72183818876167882</v>
       </c>
       <c r="Y103">
         <f>-K*((T103-T104)/dx)*width*W103</f>
-        <v>-0.32581818181818362</v>
+        <v>-0.72181818181817847</v>
       </c>
       <c r="Z103">
         <f t="shared" si="5"/>
-        <v>1.0014973904281359</v>
+        <v>1.0000277174280232</v>
       </c>
       <c r="AB103">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q103+Q104)/2)-(Length/2)))</f>
-        <v>-0.32581818181818178</v>
+        <v>-0.7218181818181818</v>
       </c>
     </row>
     <row r="104" spans="17:28">
@@ -6764,39 +6761,39 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="S104">
-        <v>1.72436628077</v>
+        <v>2.5932682426599998</v>
       </c>
       <c r="T104">
         <f>SQRT(((S$10-Datum)^2)-$R104*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q104/K)*(Length-Q104))+Datum</f>
-        <v>1.723519483965088</v>
+        <v>2.5932882556903731</v>
       </c>
       <c r="U104">
         <f t="shared" si="4"/>
-        <v>4.9131838240890253E-4</v>
+        <v>-7.7172409698157963E-6</v>
       </c>
       <c r="V104">
         <f>0.5*(S104+S105)-Datum</f>
-        <v>11.654157577399999</v>
+        <v>12.446273185635</v>
       </c>
       <c r="W104">
         <f>0.5*(T104+T105)-Datum</f>
-        <v>11.653407332969225</v>
+        <v>12.446293046131647</v>
       </c>
       <c r="X104">
         <f>-K*((S104-S105)/dx)*width*V104</f>
-        <v>-0.32728931695156555</v>
+        <v>-0.73181625466845734</v>
       </c>
       <c r="Y104">
         <f>-K*((T104-T105)/dx)*width*W104</f>
-        <v>-0.32681818181817363</v>
+        <v>-0.73181818181817604</v>
       </c>
       <c r="Z104">
         <f t="shared" si="5"/>
-        <v>1.0014415817711575</v>
+        <v>0.99999736662771355</v>
       </c>
       <c r="AB104">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q104+Q105)/2)-(Length/2)))</f>
-        <v>-0.32681818181818179</v>
+        <v>-0.73181818181818181</v>
       </c>
     </row>
     <row r="105" spans="17:28">
@@ -6809,39 +6806,39 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="S105">
-        <v>1.5839488740300001</v>
+        <v>2.2992781286100001</v>
       </c>
       <c r="T105">
         <f>SQRT(((S$10-Datum)^2)-$R105*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q105/K)*(Length-Q105))+Datum</f>
-        <v>1.5832951819733623</v>
+        <v>2.2992978365729204</v>
       </c>
       <c r="U105">
         <f t="shared" si="4"/>
-        <v>4.1286808933698057E-4</v>
+        <v>-8.5712962482726916E-6</v>
       </c>
       <c r="V105">
         <f>0.5*(S105+S106)-Datum</f>
-        <v>11.512665745150001</v>
+        <v>12.14660150267</v>
       </c>
       <c r="W105">
         <f>0.5*(T105+T106)-Datum</f>
-        <v>11.512105296768304</v>
+        <v>12.146617849641396</v>
       </c>
       <c r="X105">
         <f>-K*((S105-S106)/dx)*width*V105</f>
-        <v>-0.32826353442555545</v>
+        <v>-0.74180085362615633</v>
       </c>
       <c r="Y105">
         <f>-K*((T105-T106)/dx)*width*W105</f>
-        <v>-0.32781818181818662</v>
+        <v>-0.74181818181818626</v>
       </c>
       <c r="Z105">
         <f t="shared" si="5"/>
-        <v>1.0013585354079471</v>
+        <v>0.99997664091760674</v>
       </c>
       <c r="AB105">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q105+Q106)/2)-(Length/2)))</f>
-        <v>-0.32781818181818179</v>
+        <v>-0.74181818181818182</v>
       </c>
     </row>
     <row r="106" spans="17:28">
@@ -6854,39 +6851,39 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="S106">
-        <v>1.4413826162700001</v>
+        <v>1.99392487673</v>
       </c>
       <c r="T106">
         <f>SQRT(((S$10-Datum)^2)-$R106*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q106/K)*(Length-Q106))+Datum</f>
-        <v>1.4409154115632479</v>
+        <v>1.9939378627098723</v>
       </c>
       <c r="U106">
         <f t="shared" si="4"/>
-        <v>3.2424159184010754E-4</v>
+        <v>-6.512730469276833E-6</v>
       </c>
       <c r="V106">
         <f>0.5*(S106+S107)-Datum</f>
-        <v>11.368986683260001</v>
+        <v>11.83511892914</v>
       </c>
       <c r="W106">
         <f>0.5*(T106+T107)-Datum</f>
-        <v>11.368607040660342</v>
+        <v>11.835127109161608</v>
       </c>
       <c r="X106">
         <f>-K*((S106-S107)/dx)*width*V106</f>
-        <v>-0.32922735932514935</v>
+        <v>-0.75179491055296954</v>
       </c>
       <c r="Y106">
         <f>-K*((T106-T107)/dx)*width*W106</f>
-        <v>-0.32881818181818356</v>
+        <v>-0.75181818181818372</v>
       </c>
       <c r="Z106">
         <f t="shared" si="5"/>
-        <v>1.0012443883264097</v>
+        <v>0.9999690466847212</v>
       </c>
       <c r="AB106">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q106+Q107)/2)-(Length/2)))</f>
-        <v>-0.32881818181818179</v>
+        <v>-0.75181818181818183</v>
       </c>
     </row>
     <row r="107" spans="17:28">
@@ -6899,39 +6896,39 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="S107">
-        <v>1.29659075025</v>
+        <v>1.67631298155</v>
       </c>
       <c r="T107">
         <f>SQRT(((S$10-Datum)^2)-$R107*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q107/K)*(Length-Q107))+Datum</f>
-        <v>1.2962986697574355</v>
+        <v>1.6763163556133414</v>
       </c>
       <c r="U107">
         <f t="shared" si="4"/>
-        <v>2.2531882457244744E-4</v>
+        <v>-2.01278435904397E-6</v>
       </c>
       <c r="V107">
         <f>0.5*(S107+S108)-Datum</f>
-        <v>11.223041331895001</v>
+        <v>11.51086009079</v>
       </c>
       <c r="W107">
         <f>0.5*(T107+T108)-Datum</f>
-        <v>11.222828290168021</v>
+        <v>11.510859955138656</v>
       </c>
       <c r="X107">
         <f>-K*((S107-S108)/dx)*width*V107</f>
-        <v>-0.33017926485400101</v>
+        <v>-0.76180203086204878</v>
       </c>
       <c r="Y107">
         <f>-K*((T107-T108)/dx)*width*W107</f>
-        <v>-0.32981818181818162</v>
+        <v>-0.76181818181817962</v>
       </c>
       <c r="Z107">
         <f t="shared" si="5"/>
-        <v>1.0010947942100368</v>
+        <v>0.99997879946092616</v>
       </c>
       <c r="AB107">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q107+Q108)/2)-(Length/2)))</f>
-        <v>-0.32981818181818179</v>
+        <v>-0.76181818181818184</v>
       </c>
     </row>
     <row r="108" spans="17:28">
@@ -6944,39 +6941,39 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="S108">
-        <v>1.1494919135399999</v>
+        <v>1.3454072000299999</v>
       </c>
       <c r="T108">
         <f>SQRT(((S$10-Datum)^2)-$R108*((S$10-Datum)^2-(S$109-Datum)^2)+(Rech*Q108/K)*(Length-Q108))+Datum</f>
-        <v>1.1493579105786083</v>
+        <v>1.3454035546639691</v>
       </c>
       <c r="U108">
         <f t="shared" si="4"/>
-        <v>1.1658941062509876E-4</v>
+        <v>2.7094963575622553E-6</v>
       </c>
       <c r="V108">
         <f>0.5*(S108+S109)-Datum</f>
-        <v>11.07474595677</v>
+        <v>11.172703600015</v>
       </c>
       <c r="W108">
         <f>0.5*(T108+T109)-Datum</f>
-        <v>11.074678955289304</v>
+        <v>11.172701777331984</v>
       </c>
       <c r="X108">
         <f>-K*((S108-S109)/dx)*width*V108</f>
-        <v>-0.33111699300938491</v>
+        <v>-0.77182645344925627</v>
       </c>
       <c r="Y108">
         <f>-K*((T108-T109)/dx)*width*W108</f>
-        <v>-0.3308181818181789</v>
+        <v>-0.77181818181818262</v>
       </c>
       <c r="Z108">
         <f t="shared" si="5"/>
-        <v>1.0009032489978746</v>
+        <v>1.0000107170720625</v>
       </c>
       <c r="AB108">
         <f>-1*((K/(2*Length))*((T$10-Datum)^2-(T$109-Datum)^2)+Rech*(((Q108+Q109)/2)-(Length/2)))</f>
-        <v>-0.33081818181818179</v>
+        <v>-0.77181818181818185</v>
       </c>
     </row>
     <row r="109" spans="17:28">

--- a/Test/WaterTableExample_simple.xlsx
+++ b/Test/WaterTableExample_simple.xlsx
@@ -21,7 +21,7 @@
     <definedName name="Rech">Sheet1!$C$6</definedName>
     <definedName name="width">Sheet1!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1188,298 +1188,298 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.051521018900001</c:v>
+                  <c:v>10.0519821258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.100422836</c:v>
+                  <c:v>10.1013425878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.146725162599999</c:v>
+                  <c:v>10.1481006554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.190446314400001</c:v>
+                  <c:v>10.192274408399999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.231603440400001</c:v>
+                  <c:v>10.233880773899999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.270212558700001</c:v>
+                  <c:v>10.272935559900001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.306288588499999</c:v>
+                  <c:v>10.309453487300001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.3398453802</c:v>
+                  <c:v>10.343448218400001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.3708957426</c:v>
+                  <c:v>10.374932383399999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.399451468200001</c:v>
+                  <c:v>10.4039176047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.425523355699999</c:v>
+                  <c:v>10.430414518799999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.449121230999999</c:v>
+                  <c:v>10.454432796300001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.4702539657</c:v>
+                  <c:v>10.47598116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.488929493900001</c:v>
+                  <c:v>10.4950674007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.505154827</c:v>
+                  <c:v>10.5116983918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.518936067</c:v>
+                  <c:v>10.5258801016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.5302784174</c:v>
+                  <c:v>10.537617604099999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.539186193600001</c:v>
+                  <c:v>10.5469150883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.545662830099999</c:v>
+                  <c:v>10.5537758654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.5497108874</c:v>
+                  <c:v>10.5582023751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.5513320566</c:v>
+                  <c:v>10.560196189599999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.5505271625</c:v>
+                  <c:v>10.5597580164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.547296165600001</c:v>
+                  <c:v>10.556887700100001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.541638162</c:v>
+                  <c:v>10.551584221300001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.533551382100001</c:v>
+                  <c:v>10.5438456954</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.523033187299999</c:v>
+                  <c:v>10.5336693692</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.5100800658</c:v>
+                  <c:v>10.521051615399999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.494687626599999</c:v>
+                  <c:v>10.505987927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.4768505911</c:v>
+                  <c:v>10.4884729086</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.456562784400001</c:v>
+                  <c:v>10.4685002668</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.433817124100001</c:v>
+                  <c:v>10.4460627989</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.408605607</c:v>
+                  <c:v>10.421152379600001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.3809192954</c:v>
+                  <c:v>10.393759946499999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.350748299799999</c:v>
+                  <c:v>10.363875482599999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.3180817611</c:v>
+                  <c:v>10.3314879984</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.282907830199999</c:v>
+                  <c:v>10.2965855106</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.2452136455</c:v>
+                  <c:v>10.2591550198</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.204985308099999</c:v>
+                  <c:v>10.219182485099999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.1622078552</c:v>
+                  <c:v>10.176652796899999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.1168652303</c:v>
+                  <c:v>10.131549747399999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.068940251900001</c:v>
+                  <c:v>10.083855997900001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.0184145781</c:v>
+                  <c:v>10.0335530441</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9652686696200004</c:v>
+                  <c:v>9.9806211775700007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9094817486399993</c:v>
+                  <c:v>9.9250394451599995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.8510317552100002</c:v>
+                  <c:v>9.8667856042699995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.7898952995700004</c:v>
+                  <c:v>9.8058360749000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.7260476108800002</c:v>
+                  <c:v>9.7421658879099997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.6594624819000003</c:v>
+                  <c:v>9.6757486290300001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.59011220917</c:v>
+                  <c:v>9.6065563786099997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.5179675286199998</c:v>
+                  <c:v>9.53455964652</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.44299754593</c:v>
+                  <c:v>9.4597273018999992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3651696614599995</c:v>
+                  <c:v>9.3820264973899992</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.2844494891</c:v>
+                  <c:v>9.3014225872599994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.2008007686400006</c:v>
+                  <c:v>9.2178790390100005</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.1141852710499993</c:v>
+                  <c:v>9.1313573377899999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.0245626959600003</c:v>
+                  <c:v>9.0418168829900001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.9318905606999994</c:v>
+                  <c:v>8.9492148763700001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.8361240800900003</c:v>
+                  <c:v>8.8535062007600001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.7372160360300004</c:v>
+                  <c:v>8.7546432885600005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6351166358999993</c:v>
+                  <c:v>8.6525759789599999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.52977335868</c:v>
+                  <c:v>8.54725136279</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4211307874500001</c:v>
+                  <c:v>8.4386136135700003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.3091304268700004</c:v>
+                  <c:v>8.3266038035799994</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.1937105040699993</c:v>
+                  <c:v>8.2111597029900008</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.0748057509399995</c:v>
+                  <c:v>8.0922155605199997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.95234716595</c:v>
+                  <c:v>7.9697018632400001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8262617529899998</c:v>
+                  <c:v>7.8435450733399996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.6964722344899998</c:v>
+                  <c:v>7.7136673389699997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5628967358599999</c:v>
+                  <c:v>7.5799861762100003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.4254484375400001</c:v>
+                  <c:v>7.4424141183800003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.28403519067</c:v>
+                  <c:v>7.3008583287000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1385590915900003</c:v>
+                  <c:v>7.1552201715599999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.9889160096799996</c:v>
+                  <c:v>7.0053947367799996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.83499506228</c:v>
+                  <c:v>6.8512703105500004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.6766780290899996</c:v>
+                  <c:v>6.6927277854999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.5138386975499998</c:v>
+                  <c:v>6.5296400012899998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.3463421287899999</c:v>
+                  <c:v>6.3618710052800003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.1740438322299998</c:v>
+                  <c:v>6.1892752213</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.9967888344900002</c:v>
+                  <c:v>6.0116965120800003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.8144106255599999</c:v>
+                  <c:v>5.8289671182099996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.6267299618299997</c:v>
+                  <c:v>5.6409064533300004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4335535015099996</c:v>
+                  <c:v>5.4473197306200003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.2346722427400003</c:v>
+                  <c:v>5.2479963912200001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.0298597283599999</c:v>
+                  <c:v>5.04270829803</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.818869973</c:v>
+                  <c:v>4.8312076508099997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6014350582499999</c:v>
+                  <c:v>4.6132245679299997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3772623281399996</c:v>
+                  <c:v>4.3884642670599998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.1460311005500001</c:v>
+                  <c:v>4.1566037602200003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.90738878796</c:v>
+                  <c:v>3.9172879566400001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.6609462921199998</c:v>
+                  <c:v>3.6701250378900001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4062724987099999</c:v>
+                  <c:v>3.41468093161</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1428876466400002</c:v>
+                  <c:v>3.15047265865</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.87025527639</c:v>
+                  <c:v>2.8769602588100001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.5877723653100002</c:v>
+                  <c:v>2.59353690417</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.2947571227400001</c:v>
+                  <c:v>2.29951667518</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.99043372637</c:v>
+                  <c:v>1.99411928425</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6739130038200001</c:v>
+                  <c:v>1.67645075713</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3441676554499999</c:v>
+                  <c:v>1.3454786784899999</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1</c:v>
@@ -1497,11 +1497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148945536"/>
-        <c:axId val="148951424"/>
+        <c:axId val="41226240"/>
+        <c:axId val="41234432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148945536"/>
+        <c:axId val="41226240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1512,12 +1512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148951424"/>
+        <c:crossAx val="41234432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148951424"/>
+        <c:axId val="41234432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1530,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148945536"/>
+        <c:crossAx val="41226240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="L20">
         <f t="shared" ref="L20:L51" si="5">0.5*(I20+I21)-Datum</f>
-        <v>20.025760509450002</v>
+        <v>20.025991062900001</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:M51" si="6">0.5*(J20+J21)-Datum</f>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="N20">
         <f t="shared" ref="N20:N51" si="7">-K*((I20-I21)/dx)*width*L20</f>
-        <v>0.20634951713885274</v>
+        <v>0.20819871734027029</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20:O51" si="8">-K*((J20-J21)/dx)*width*M20</f>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="P20" s="5">
         <f>(N20-O20)/O20</f>
-        <v>-8.8014460578881709E-3</v>
+        <v>8.1174996956148907E-5</v>
       </c>
       <c r="R20">
         <f t="shared" ref="R20:R51" si="9">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G20+G21)/2)-(Length/2)))</f>
@@ -2105,7 +2105,7 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="I21">
-        <v>10.051521018900001</v>
+        <v>10.0519821258</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -2113,11 +2113,11 @@
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K84" si="12">(I21-J21)/J21</f>
-        <v>-4.5453050748358634E-5</v>
+        <v>4.1920484532236236E-7</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>20.075971927449999</v>
+        <v>20.0766623568</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.19635030146017518</v>
+        <v>0.19819866586992821</v>
       </c>
       <c r="O21">
         <f t="shared" si="8"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ref="P21:P84" si="13">(N21-O21)/O21</f>
-        <v>-9.2415981367637619E-3</v>
+        <v>8.50112702466212E-5</v>
       </c>
       <c r="R21">
         <f t="shared" si="9"/>
@@ -2170,7 +2170,7 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="I22">
-        <v>10.100422836</v>
+        <v>10.1013425878</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>-9.0221509705586659E-5</v>
+        <v>8.3099705936392272E-7</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>20.1235739993</v>
+        <v>20.124721621599999</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.18635365913496865</v>
+        <v>0.18819861880279404</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="P22" s="5">
         <f t="shared" si="13"/>
-        <v>-9.7148548383170549E-3</v>
+        <v>8.9278662204454284E-5</v>
       </c>
       <c r="R22">
         <f t="shared" si="9"/>
@@ -2235,7 +2235,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="I23">
-        <v>10.146725162599999</v>
+        <v>10.1481006554</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="12"/>
-        <v>-1.3430597003276978E-4</v>
+        <v>1.2360931518772898E-6</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>20.168585738499999</v>
+        <v>20.170187531899998</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.17635875973286108</v>
+        <v>0.17819857639956213</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" si="13"/>
-        <v>-1.0231450478893652E-2</v>
+        <v>9.405122197903533E-5</v>
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
@@ -2300,7 +2300,7 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="I24">
-        <v>10.190446314400001</v>
+        <v>10.192274408399999</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -2308,11 +2308,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>-1.777258622947596E-4</v>
+        <v>1.6351827492940344E-6</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>20.2110248774</v>
+        <v>20.21307759115</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>0.16636553949365676</v>
+        <v>0.1681985388274487</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="P24" s="5">
         <f t="shared" si="13"/>
-        <v>-1.0799494902554161E-2</v>
+        <v>9.9420055127947204E-5</v>
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
@@ -2365,7 +2365,7 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="I25">
-        <v>10.231603440400001</v>
+        <v>10.233880773899999</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -2373,11 +2373,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>-2.2050035047585349E-4</v>
+        <v>2.0289295560042185E-6</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>20.250907999550002</v>
+        <v>20.253408166900002</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>0.15637394052740902</v>
+        <v>0.15819850434579136</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="P25" s="5">
         <f t="shared" si="13"/>
-        <v>-1.1429111608270575E-2</v>
+        <v>1.0548724357251172E-4</v>
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
@@ -2430,7 +2430,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="I26">
-        <v>10.270212558700001</v>
+        <v>10.272935559900001</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>-2.6264825118849794E-4</v>
+        <v>2.4179285947477708E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>20.288250573599999</v>
+        <v>20.291194523600002</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>0.1463839064566059</v>
+        <v>0.14819847369442155</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="P26" s="5">
         <f t="shared" si="13"/>
-        <v>-1.2133146611888E-2</v>
+        <v>1.1239916478167742E-4</v>
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
@@ -2495,7 +2495,7 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="I27">
-        <v>10.306288588499999</v>
+        <v>10.309453487300001</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="12"/>
-        <v>-3.0418805930145822E-4</v>
+        <v>2.8027694929167103E-6</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>20.32306698435</v>
+        <v>20.326450852850002</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>0.1363953850997984</v>
+        <v>0.13819844619200011</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P27" s="5">
         <f t="shared" si="13"/>
-        <v>-1.2928134146140488E-2</v>
+        <v>1.2033428426737853E-4</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
@@ -2560,7 +2560,7 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="I28">
-        <v>10.3398453802</v>
+        <v>10.343448218400001</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="12"/>
-        <v>-3.451379082685813E-4</v>
+        <v>3.1840048286340419E-6</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>20.355370561400001</v>
+        <v>20.3591903009</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.12640832654355333</v>
+        <v>0.12819842133998052</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P28" s="5">
         <f t="shared" si="13"/>
-        <v>-1.383575036953324E-2</v>
+        <v>1.2952818415279854E-4</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
@@ -2625,7 +2625,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I29">
-        <v>10.3708957426</v>
+        <v>10.374932383399999</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="12"/>
-        <v>-3.8551557644593239E-4</v>
+        <v>3.562157266051933E-6</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>20.385173605399999</v>
+        <v>20.38942499405</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>0.11642268475683472</v>
+        <v>0.11819839912646229</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="P29" s="5">
         <f t="shared" si="13"/>
-        <v>-1.4884975134413551E-2</v>
+        <v>1.4030030089765241E-4</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
@@ -2690,7 +2690,7 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="I30">
-        <v>10.399451468200001</v>
+        <v>10.4039176047</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="12"/>
-        <v>-4.2533845420755063E-4</v>
+        <v>3.9377334890215716E-6</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>20.41248741195</v>
+        <v>20.417166061749999</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>0.10643841507990033</v>
+        <v>0.10819837906072134</v>
       </c>
       <c r="O30">
         <f t="shared" si="8"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="P30" s="5">
         <f t="shared" si="13"/>
-        <v>-1.6115490858122757E-2</v>
+        <v>1.5308375450746902E-4</v>
       </c>
       <c r="R30">
         <f t="shared" si="9"/>
@@ -2755,7 +2755,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I31">
-        <v>10.425523355699999</v>
+        <v>10.430414518799999</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="12"/>
-        <v>-4.646235697073541E-4</v>
+        <v>4.3112150070706555E-6</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>20.43732229335</v>
+        <v>20.442423657550002</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>9.6455476588877181E-2</v>
+        <v>9.8198360835926396E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="8"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="P31" s="5">
         <f t="shared" si="13"/>
-        <v>-1.7583108817012714E-2</v>
+        <v>1.6848999552519987E-4</v>
       </c>
       <c r="R31">
         <f t="shared" si="9"/>
@@ -2820,7 +2820,7 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="I32">
-        <v>10.449121230999999</v>
+        <v>10.454432796300001</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="12"/>
-        <v>-5.0338755750964598E-4</v>
+        <v>4.683064579435577E-6</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>20.459687598350001</v>
+        <v>20.46520697815</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>8.647383001216255E-2</v>
+        <v>8.8198344632187273E-2</v>
       </c>
       <c r="O32">
         <f t="shared" si="8"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="P32" s="5">
         <f t="shared" si="13"/>
-        <v>-1.9368938006415939E-2</v>
+        <v>1.874133546889237E-4</v>
       </c>
       <c r="R32">
         <f t="shared" si="9"/>
@@ -2885,7 +2885,7 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="I33">
-        <v>10.4702539657</v>
+        <v>10.47598116</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>-5.4164667516843441E-4</v>
+        <v>5.0537394539362004E-6</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>20.479591729799999</v>
+        <v>20.485524280349999</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>7.6493438574877698E-2</v>
+        <v>7.8198329456091245E-2</v>
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="P33" s="5">
         <f t="shared" si="13"/>
-        <v>-2.1595553111990417E-2</v>
+        <v>2.1119071748605637E-4</v>
       </c>
       <c r="R33">
         <f t="shared" si="9"/>
@@ -2950,7 +2950,7 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="I34">
-        <v>10.488929493900001</v>
+        <v>10.4950674007</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="12"/>
-        <v>-5.7941679845436493E-4</v>
+        <v>5.4236656997348702E-6</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>20.49704216045</v>
+        <v>20.503382896249999</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>6.6514267323607004E-2</v>
+        <v>6.8198315693483336E-2</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="P34" s="5">
         <f t="shared" si="13"/>
-        <v>-2.4457412587073572E-2</v>
+        <v>2.4196350444655767E-4</v>
       </c>
       <c r="R34">
         <f t="shared" si="9"/>
@@ -3015,7 +3015,7 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="I35">
-        <v>10.505154827</v>
+        <v>10.5116983918</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="12"/>
-        <v>-6.1671343090235174E-4</v>
+        <v>5.7932720825087757E-6</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>20.512045446999998</v>
+        <v>20.518789246699999</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="7"/>
-        <v>5.6536284239203427E-2</v>
+        <v>5.8198302908815176E-2</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P35" s="5">
         <f t="shared" si="13"/>
-        <v>-2.8282614638587607E-2</v>
+        <v>2.8333124536737421E-4</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
@@ -3080,7 +3080,7 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="I36">
-        <v>10.518936067</v>
+        <v>10.5258801016</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -3088,11 +3088,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="12"/>
-        <v>-6.5355168599051747E-4</v>
+        <v>6.1629724386952051E-6</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>20.524607242199998</v>
+        <v>20.531748852850001</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="7"/>
-        <v>4.6559457432680557E-2</v>
+        <v>4.8198290697935908E-2</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="P36" s="5">
         <f t="shared" si="13"/>
-        <v>-3.3671638189761786E-2</v>
+        <v>3.418824098736101E-4</v>
       </c>
       <c r="R36">
         <f t="shared" si="9"/>
@@ -3145,7 +3145,7 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="I37">
-        <v>10.5302784174</v>
+        <v>10.537617604099999</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="12"/>
-        <v>-6.899463328165626E-4</v>
+        <v>6.5331679467962634E-6</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>20.5347323055</v>
+        <v>20.542266346200002</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="7"/>
-        <v>3.6583759940864657E-2</v>
+        <v>3.8198279357201742E-2</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="P37" s="5">
         <f t="shared" si="13"/>
-        <v>-4.1853906310800451E-2</v>
+        <v>4.3112602183249484E-4</v>
       </c>
       <c r="R37">
         <f t="shared" si="9"/>
@@ -3210,7 +3210,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="I38">
-        <v>10.539186193600001</v>
+        <v>10.5469150883</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="12"/>
-        <v>-7.2591172909052492E-4</v>
+        <v>6.9042647453166154E-6</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>20.542424511850001</v>
+        <v>20.550345476850001</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>2.660916327838287E-2</v>
+        <v>2.8198267928932187E-2</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" si="13"/>
-        <v>-5.5803883670169849E-2</v>
+        <v>5.8370070416763353E-4</v>
       </c>
       <c r="R38">
         <f t="shared" si="9"/>
@@ -3275,7 +3275,7 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="I39">
-        <v>10.545662830099999</v>
+        <v>10.5537758654</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="12"/>
-        <v>-7.6146190176729534E-4</v>
+        <v>7.2766463278784942E-6</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>20.547686858749998</v>
+        <v>20.55598912025</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
-        <v>1.6635642757336845E-2</v>
+        <v>1.8198257046776321E-2</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="13"/>
-        <v>-8.5039648346444313E-2</v>
+        <v>9.0413757272961759E-4</v>
       </c>
       <c r="R39">
         <f t="shared" si="9"/>
@@ -3340,7 +3340,7 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="I40">
-        <v>10.5497108874</v>
+        <v>10.5582023751</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="12"/>
-        <v>-7.9661050295935776E-4</v>
+        <v>7.6507116154183078E-6</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>20.550521472</v>
+        <v>20.559199282350001</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
-        <v>6.6631744908685333E-3</v>
+        <v>8.1982459275024254E-3</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="13"/>
-        <v>-0.18561200667135647</v>
+        <v>2.0078355839585602E-3</v>
       </c>
       <c r="R40">
         <f t="shared" si="9"/>
@@ -3405,7 +3405,7 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="I41">
-        <v>10.5513320566</v>
+        <v>10.560196189599999</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="12"/>
-        <v>-8.3137083350496969E-4</v>
+        <v>8.0268435702113231E-6</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>20.55092960955</v>
+        <v>20.559977103000001</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>-3.3082643984477713E-3</v>
+        <v>-1.8017661918262352E-3</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="13"/>
-        <v>0.81954541914934353</v>
+        <v>-9.0285944938990042E-3</v>
       </c>
       <c r="R41">
         <f t="shared" si="9"/>
@@ -3470,7 +3470,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I42">
-        <v>10.5505271625</v>
+        <v>10.5597580164</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="12"/>
-        <v>-8.6575586002939282E-4</v>
+        <v>8.4054109755443031E-6</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>20.548911664049999</v>
+        <v>20.558322858250001</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>-1.3278693976980931E-2</v>
+        <v>-1.1801777840136354E-2</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="13"/>
-        <v>0.123581798052328</v>
+        <v>-1.388028911454535E-3</v>
       </c>
       <c r="R42">
         <f t="shared" si="9"/>
@@ -3535,7 +3535,7 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="I43">
-        <v>10.547296165600001</v>
+        <v>10.556887700100001</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="12"/>
-        <v>-8.997781888870494E-4</v>
+        <v>8.7868211402354043E-6</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>20.5444671638</v>
+        <v>20.554235960700002</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>-2.3248133834575243E-2</v>
+        <v>-2.1801790933554638E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="13"/>
-        <v>6.5539467418316538E-2</v>
+        <v>-7.512488784788985E-4</v>
       </c>
       <c r="R43">
         <f t="shared" si="9"/>
@@ -3600,7 +3600,7 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="I44">
-        <v>10.541638162</v>
+        <v>10.551584221300001</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="12"/>
-        <v>-9.3345009225697707E-4</v>
+        <v>9.1714431557197492E-6</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>20.537594772049999</v>
+        <v>20.547714958349999</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
-        <v>-3.3216601719388873E-2</v>
+        <v>-3.1801804878204575E-2</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="13"/>
-        <v>4.3950339751937031E-2</v>
+        <v>-5.1470382812880331E-4</v>
       </c>
       <c r="R44">
         <f t="shared" si="9"/>
@@ -3664,7 +3664,7 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="I45">
-        <v>10.533551382100001</v>
+        <v>10.5438456954</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="12"/>
-        <v>-9.6678350113235125E-4</v>
+        <v>9.5596669678127945E-6</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>20.528292284700001</v>
+        <v>20.5387575323</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>-4.3184115432367547E-2</v>
+        <v>-4.1801819278277808E-2</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P45" s="5">
         <f t="shared" si="13"/>
-        <v>3.2663629904542635E-2</v>
+        <v>-3.9127812804132706E-4</v>
       </c>
       <c r="R45">
         <f t="shared" si="9"/>
@@ -3709,7 +3709,7 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="I46">
-        <v>10.523033187299999</v>
+        <v>10.5336693692</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -3717,11 +3717,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="12"/>
-        <v>-9.9979004041562155E-4</v>
+        <v>9.9519001583910636E-6</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>20.516556626549999</v>
+        <v>20.527360492299998</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>-5.3150690149062117E-2</v>
+        <v>-5.1801836171140675E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>2.5715073052095441E-2</v>
+        <v>-3.154423113013105E-4</v>
       </c>
       <c r="R46">
         <f t="shared" si="9"/>
@@ -3754,7 +3754,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="I47">
-        <v>10.5100800658</v>
+        <v>10.521051615399999</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="12"/>
-        <v>-1.032481000615754E-3</v>
+        <v>1.0348513038891262E-5</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>20.502383846200001</v>
+        <v>20.513519771199999</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>-6.3116339361543664E-2</v>
+        <v>-6.1801853964118067E-2</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P47" s="5">
         <f t="shared" si="13"/>
-        <v>2.0999607319186618E-2</v>
+        <v>-2.6412705093536504E-4</v>
       </c>
       <c r="R47">
         <f t="shared" si="9"/>
@@ -3799,7 +3799,7 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="I48">
-        <v>10.494687626599999</v>
+        <v>10.505987927</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -3807,11 +3807,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="12"/>
-        <v>-1.0648673294774316E-3</v>
+        <v>1.0749923834580836E-5</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>20.48576910885</v>
+        <v>20.497230417800001</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>-7.3081078167870073E-2</v>
+        <v>-7.1801873583358267E-2</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="P48" s="5">
         <f t="shared" si="13"/>
-        <v>1.7584632717035999E-2</v>
+        <v>-2.2707668755628019E-4</v>
       </c>
       <c r="R48">
         <f t="shared" si="9"/>
@@ -3844,7 +3844,7 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="I49">
-        <v>10.4768505911</v>
+        <v>10.4884729086</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="12"/>
-        <v>-1.0969596983047127E-3</v>
+        <v>1.1156541891016323E-5</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>20.466706687750001</v>
+        <v>20.478486587700001</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>-8.3044917813329622E-2</v>
+        <v>-8.1801895444450573E-2</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="P49" s="5">
         <f t="shared" si="13"/>
-        <v>1.4993439940674208E-2</v>
+        <v>-1.990556789582933E-4</v>
       </c>
       <c r="R49">
         <f t="shared" si="9"/>
@@ -3889,7 +3889,7 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="I50">
-        <v>10.456562784400001</v>
+        <v>10.4685002668</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -3897,11 +3897,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="12"/>
-        <v>-1.1287684401535497E-3</v>
+        <v>1.1568780830763761E-5</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>20.445189954250001</v>
+        <v>20.457281532850001</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>-9.3007869093668719E-2</v>
+        <v>-9.1801919542915597E-2</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="P50" s="5">
         <f t="shared" si="13"/>
-        <v>1.2956990129035457E-2</v>
+        <v>-1.7711388906745958E-4</v>
       </c>
       <c r="R50">
         <f t="shared" si="9"/>
@@ -3934,7 +3934,7 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="I51">
-        <v>10.433817124100001</v>
+        <v>10.4460627989</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
@@ -3942,11 +3942,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="12"/>
-        <v>-1.1603035650100692E-3</v>
+        <v>1.1987069797057354E-5</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>20.42121136555</v>
+        <v>20.433607589250002</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>-0.10296994390905846</v>
+        <v>-0.10180194657197339</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="P51" s="5">
         <f t="shared" si="13"/>
-        <v>1.1311949106880798E-2</v>
+        <v>-1.5945331091966094E-4</v>
       </c>
       <c r="R51">
         <f t="shared" si="9"/>
@@ -3979,7 +3979,7 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="I52">
-        <v>10.408605607</v>
+        <v>10.421152379600001</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J83" si="16">SQRT(((I$20-Datum)^2)-$H52*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G52/K)*(Length-G52))+Datum</f>
@@ -3987,11 +3987,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="12"/>
-        <v>-1.1915748099533866E-3</v>
+        <v>1.2411838690124797E-5</v>
       </c>
       <c r="L52">
         <f t="shared" ref="L52:L83" si="17">0.5*(I52+I53)-Datum</f>
-        <v>20.394762451200002</v>
+        <v>20.40745616305</v>
       </c>
       <c r="M52">
         <f t="shared" ref="M52:M83" si="18">0.5*(J52+J53)-Datum</f>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="N52">
         <f t="shared" ref="N52:N83" si="19">-K*((I52-I53)/dx)*width*L52</f>
-        <v>-0.11293114964638112</v>
+        <v>-0.11180197553751028</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O83" si="20">-K*((J52-J53)/dx)*width*M52</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="P52" s="5">
         <f t="shared" si="13"/>
-        <v>9.9533708212639072E-3</v>
+        <v>-1.4493421741809077E-4</v>
       </c>
       <c r="R52">
         <f t="shared" ref="R52:R83" si="21">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G52+G53)/2)-(Length/2)))</f>
@@ -4024,7 +4024,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I53">
-        <v>10.3809192954</v>
+        <v>10.393759946499999</v>
       </c>
       <c r="J53">
         <f t="shared" si="16"/>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="12"/>
-        <v>-1.2225915560832152E-3</v>
+        <v>1.2843559386082894E-5</v>
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
-        <v>20.365833797600001</v>
+        <v>20.378817714549999</v>
       </c>
       <c r="M53">
         <f t="shared" si="18"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="19"/>
-        <v>-0.12289149637954701</v>
+        <v>-0.12180200846303087</v>
       </c>
       <c r="O53">
         <f t="shared" si="20"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P53" s="5">
         <f t="shared" si="13"/>
-        <v>8.8107911754621345E-3</v>
+        <v>-1.3276634817850288E-4</v>
       </c>
       <c r="R53">
         <f t="shared" si="21"/>
@@ -4069,7 +4069,7 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="I54">
-        <v>10.350748299799999</v>
+        <v>10.363875482599999</v>
       </c>
       <c r="J54">
         <f t="shared" si="16"/>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="12"/>
-        <v>-1.2533629123610932E-3</v>
+        <v>1.3282676556177688E-5</v>
       </c>
       <c r="L54">
         <f t="shared" si="17"/>
-        <v>20.33441503045</v>
+        <v>20.347681740500001</v>
       </c>
       <c r="M54">
         <f t="shared" si="18"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="19"/>
-        <v>-0.13285099110680781</v>
+        <v>-0.131802044175411</v>
       </c>
       <c r="O54">
         <f t="shared" si="20"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="P54" s="5">
         <f t="shared" si="13"/>
-        <v>7.835104948174805E-3</v>
+        <v>-1.2242349690430986E-4</v>
       </c>
       <c r="R54">
         <f t="shared" si="21"/>
@@ -4114,7 +4114,7 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="I55">
-        <v>10.3180817611</v>
+        <v>10.3314879984</v>
       </c>
       <c r="J55">
         <f t="shared" si="16"/>
@@ -4122,11 +4122,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="12"/>
-        <v>-1.2838976624840476E-3</v>
+        <v>1.3729684659626777E-5</v>
       </c>
       <c r="L55">
         <f t="shared" si="17"/>
-        <v>20.30049479565</v>
+        <v>20.314036754500002</v>
       </c>
       <c r="M55">
         <f t="shared" si="18"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="19"/>
-        <v>-0.14280964023560452</v>
+        <v>-0.14180208399853822</v>
       </c>
       <c r="O55">
         <f t="shared" si="20"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="P55" s="5">
         <f t="shared" si="13"/>
-        <v>6.9910529433743155E-3</v>
+        <v>-1.1351026670866016E-4</v>
       </c>
       <c r="R55">
         <f t="shared" si="21"/>
@@ -4159,7 +4159,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="I56">
-        <v>10.282907830199999</v>
+        <v>10.2965855106</v>
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="12"/>
-        <v>-1.3142042679399125E-3</v>
+        <v>1.4185070912874716E-5</v>
       </c>
       <c r="L56">
         <f t="shared" si="17"/>
-        <v>20.264060737849999</v>
+        <v>20.277870265200001</v>
       </c>
       <c r="M56">
         <f t="shared" si="18"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="19"/>
-        <v>-0.15276744964490482</v>
+        <v>-0.15180212728103354</v>
       </c>
       <c r="O56">
         <f t="shared" si="20"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="P56" s="5">
         <f t="shared" si="13"/>
-        <v>6.252662331734501E-3</v>
+        <v>-1.0574844825616312E-4</v>
       </c>
       <c r="R56">
         <f t="shared" si="21"/>
@@ -4204,7 +4204,7 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="I57">
-        <v>10.2452136455</v>
+        <v>10.2591550198</v>
       </c>
       <c r="J57">
         <f t="shared" si="16"/>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="12"/>
-        <v>-1.3442908706561125E-3</v>
+        <v>1.4649364223148127E-5</v>
       </c>
       <c r="L57">
         <f t="shared" si="17"/>
-        <v>20.225099476800001</v>
+        <v>20.239168752449999</v>
       </c>
       <c r="M57">
         <f t="shared" si="18"/>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="19"/>
-        <v>-0.16272442514025606</v>
+        <v>-0.16180217505129427</v>
       </c>
       <c r="O57">
         <f t="shared" si="20"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="P57" s="5">
         <f t="shared" si="13"/>
-        <v>5.6003800802051969E-3</v>
+        <v>-9.8918222367534424E-5</v>
       </c>
       <c r="R57">
         <f t="shared" si="21"/>
@@ -4249,7 +4249,7 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="I58">
-        <v>10.204985308099999</v>
+        <v>10.219182485099999</v>
       </c>
       <c r="J58">
         <f t="shared" si="16"/>
@@ -4257,11 +4257,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="12"/>
-        <v>-1.3741653047326862E-3</v>
+        <v>1.5123097347422421E-5</v>
       </c>
       <c r="L58">
         <f t="shared" si="17"/>
-        <v>20.183596581650001</v>
+        <v>20.197917641</v>
       </c>
       <c r="M58">
         <f t="shared" si="18"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="19"/>
-        <v>-0.17268057042482415</v>
+        <v>-0.17180222791220245</v>
       </c>
       <c r="O58">
         <f t="shared" si="20"/>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="P58" s="5">
         <f t="shared" si="13"/>
-        <v>5.0191929487042345E-3</v>
+        <v>-9.285342105164788E-5</v>
       </c>
       <c r="R58">
         <f t="shared" si="21"/>
@@ -4294,7 +4294,7 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="I59">
-        <v>10.1622078552</v>
+        <v>10.176652796899999</v>
       </c>
       <c r="J59">
         <f t="shared" si="16"/>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="12"/>
-        <v>-1.403835057115819E-3</v>
+        <v>1.5606819096291837E-5</v>
       </c>
       <c r="L59">
         <f t="shared" si="17"/>
-        <v>20.139536542750001</v>
+        <v>20.154101272150001</v>
       </c>
       <c r="M59">
         <f t="shared" si="18"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="19"/>
-        <v>-0.18263589022355106</v>
+        <v>-0.18180228546115795</v>
       </c>
       <c r="O59">
         <f t="shared" si="20"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="P59" s="5">
         <f t="shared" si="13"/>
-        <v>4.4973962295400119E-3</v>
+        <v>-8.7429963622127316E-5</v>
       </c>
       <c r="R59">
         <f t="shared" si="21"/>
@@ -4339,7 +4339,7 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="I60">
-        <v>10.1168652303</v>
+        <v>10.131549747399999</v>
       </c>
       <c r="J60">
         <f t="shared" si="16"/>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="12"/>
-        <v>-1.43330730128431E-3</v>
+        <v>1.6101121248278962E-5</v>
       </c>
       <c r="L60">
         <f t="shared" si="17"/>
-        <v>20.092902741100001</v>
+        <v>20.107702872650002</v>
       </c>
       <c r="M60">
         <f t="shared" si="18"/>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="19"/>
-        <v>-0.19259038597210096</v>
+        <v>-0.19180234876571478</v>
       </c>
       <c r="O60">
         <f t="shared" si="20"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="P60" s="5">
         <f t="shared" si="13"/>
-        <v>4.0257088592688881E-3</v>
+        <v>-8.2541979711080283E-5</v>
       </c>
       <c r="R60">
         <f t="shared" si="21"/>
@@ -4384,7 +4384,7 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="I61">
-        <v>10.068940251900001</v>
+        <v>10.083855997900001</v>
       </c>
       <c r="J61">
         <f t="shared" si="16"/>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="12"/>
-        <v>-1.4625888235545131E-3</v>
+        <v>1.6606605556781368E-5</v>
       </c>
       <c r="L61">
         <f t="shared" si="17"/>
-        <v>20.043677415000001</v>
+        <v>20.058704520999999</v>
       </c>
       <c r="M61">
         <f t="shared" si="18"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="19"/>
-        <v>-0.20254406136454767</v>
+        <v>-0.20180241736154703</v>
       </c>
       <c r="O61">
         <f t="shared" si="20"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="P61" s="5">
         <f t="shared" si="13"/>
-        <v>3.5967004549831965E-3</v>
+        <v>-7.8112172497520662E-5</v>
       </c>
       <c r="R61">
         <f t="shared" si="21"/>
@@ -4429,7 +4429,7 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="I62">
-        <v>10.0184145781</v>
+        <v>10.0335530441</v>
       </c>
       <c r="J62">
         <f t="shared" si="16"/>
@@ -4437,11 +4437,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="12"/>
-        <v>-1.4916860819750349E-3</v>
+        <v>1.7123924151890734E-5</v>
       </c>
       <c r="L62">
         <f t="shared" si="17"/>
-        <v>19.991841623860001</v>
+        <v>20.007087110835002</v>
       </c>
       <c r="M62">
         <f t="shared" si="18"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="19"/>
-        <v>-0.21249691705766144</v>
+        <v>-0.21180249292095601</v>
       </c>
       <c r="O62">
         <f t="shared" si="20"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P62" s="5">
         <f t="shared" si="13"/>
-        <v>3.20432945675613E-3</v>
+        <v>-7.4067755157840307E-5</v>
       </c>
       <c r="R62">
         <f t="shared" si="21"/>
@@ -4474,7 +4474,7 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="I63">
-        <v>9.9652686696200004</v>
+        <v>9.9806211775700007</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="12"/>
-        <v>-1.5206051325163193E-3</v>
+        <v>1.76537299212638E-5</v>
       </c>
       <c r="L63">
         <f t="shared" si="17"/>
-        <v>19.93737520913</v>
+        <v>19.952830311364998</v>
       </c>
       <c r="M63">
         <f t="shared" si="18"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="19"/>
-        <v>-0.22244895506807341</v>
+        <v>-0.22180257503768999</v>
       </c>
       <c r="O63">
         <f t="shared" si="20"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="P63" s="5">
         <f t="shared" si="13"/>
-        <v>2.8436498970645058E-3</v>
+        <v>-7.0358436631275589E-5</v>
       </c>
       <c r="R63">
         <f t="shared" si="21"/>
@@ -4519,7 +4519,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="I64">
-        <v>9.9094817486399993</v>
+        <v>9.9250394451599995</v>
       </c>
       <c r="J64">
         <f t="shared" si="16"/>
@@ -4527,11 +4527,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="12"/>
-        <v>-1.5493516604276616E-3</v>
+        <v>1.8196731212127119E-5</v>
       </c>
       <c r="L64">
         <f t="shared" si="17"/>
-        <v>19.880256751925</v>
+        <v>19.895912524715001</v>
       </c>
       <c r="M64">
         <f t="shared" si="18"/>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="19"/>
-        <v>-0.23240017530734239</v>
+        <v>-0.23180266451522102</v>
       </c>
       <c r="O64">
         <f t="shared" si="20"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="P64" s="5">
         <f t="shared" si="13"/>
-        <v>2.5105601493108894E-3</v>
+        <v>-6.6937385330264929E-5</v>
       </c>
       <c r="R64">
         <f t="shared" si="21"/>
@@ -4564,7 +4564,7 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="I65">
-        <v>9.8510317552100002</v>
+        <v>9.8667856042699995</v>
       </c>
       <c r="J65">
         <f t="shared" si="16"/>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="12"/>
-        <v>-1.5779309219568919E-3</v>
+        <v>1.8753665534056337E-5</v>
       </c>
       <c r="L65">
         <f t="shared" si="17"/>
-        <v>19.82046352739</v>
+        <v>19.836310839585</v>
       </c>
       <c r="M65">
         <f t="shared" si="18"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="19"/>
-        <v>-0.24235057784130259</v>
+        <v>-0.24180276202194431</v>
       </c>
       <c r="O65">
         <f t="shared" si="20"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="P65" s="5">
         <f t="shared" si="13"/>
-        <v>2.2016376895745227E-3</v>
+        <v>-6.3766074689001009E-5</v>
       </c>
       <c r="R65">
         <f t="shared" si="21"/>
@@ -4609,7 +4609,7 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="I66">
-        <v>9.7898952995700004</v>
+        <v>9.8058360749000002</v>
       </c>
       <c r="J66">
         <f t="shared" si="16"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="12"/>
-        <v>-1.6063477382842659E-3</v>
+        <v>1.9325306687013766E-5</v>
       </c>
       <c r="L66">
         <f t="shared" si="17"/>
-        <v>19.757971455225</v>
+        <v>19.774000981404999</v>
       </c>
       <c r="M66">
         <f t="shared" si="18"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="19"/>
-        <v>-0.25230016212382289</v>
+        <v>-0.25180286800530188</v>
       </c>
       <c r="O66">
         <f t="shared" si="20"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="P66" s="5">
         <f t="shared" si="13"/>
-        <v>1.9140012137496543E-3</v>
+        <v>-6.0812975322964488E-5</v>
       </c>
       <c r="R66">
         <f t="shared" si="21"/>
@@ -4654,7 +4654,7 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="I67">
-        <v>9.7260476108800002</v>
+        <v>9.7421658879099997</v>
       </c>
       <c r="J67">
         <f t="shared" si="16"/>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="12"/>
-        <v>-1.6346064660155504E-3</v>
+        <v>1.9912474663295138E-5</v>
       </c>
       <c r="L67">
         <f t="shared" si="17"/>
-        <v>19.692755046390001</v>
+        <v>19.708957258470001</v>
       </c>
       <c r="M67">
         <f t="shared" si="18"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="19"/>
-        <v>-0.26224892694708446</v>
+        <v>-0.26180298329812984</v>
       </c>
       <c r="O67">
         <f t="shared" si="20"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="P67" s="5">
         <f t="shared" si="13"/>
-        <v>1.6452070895607452E-3</v>
+        <v>-5.8049902974251651E-5</v>
       </c>
       <c r="R67">
         <f t="shared" si="21"/>
@@ -4699,7 +4699,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="I68">
-        <v>9.6594624819000003</v>
+        <v>9.6757486290300001</v>
       </c>
       <c r="J68">
         <f t="shared" si="16"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>-1.6627109612857196E-3</v>
+        <v>2.0516030393787067E-5</v>
       </c>
       <c r="L68">
         <f t="shared" si="17"/>
-        <v>19.624787345535001</v>
+        <v>19.641152503819999</v>
       </c>
       <c r="M68">
         <f t="shared" si="18"/>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="19"/>
-        <v>-0.27219687093622252</v>
+        <v>-0.27180310851634637</v>
       </c>
       <c r="O68">
         <f t="shared" si="20"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="P68" s="5">
         <f t="shared" si="13"/>
-        <v>1.3931706683766596E-3</v>
+        <v>-5.5453618793135424E-5</v>
       </c>
       <c r="R68">
         <f t="shared" si="21"/>
@@ -4744,7 +4744,7 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="I69">
-        <v>9.59011220917</v>
+        <v>9.6065563786099997</v>
       </c>
       <c r="J69">
         <f t="shared" si="16"/>
@@ -4752,11 +4752,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>-1.6906645511677271E-3</v>
+        <v>2.1136886354233213E-5</v>
       </c>
       <c r="L69">
         <f t="shared" si="17"/>
-        <v>19.554039868895</v>
+        <v>19.570558012565002</v>
       </c>
       <c r="M69">
         <f t="shared" si="18"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="19"/>
-        <v>-0.28214399196067919</v>
+        <v>-0.2818032444164878</v>
       </c>
       <c r="O69">
         <f t="shared" si="20"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="P69" s="5">
         <f t="shared" si="13"/>
-        <v>1.1561005056763079E-3</v>
+        <v>-5.3003683389959165E-5</v>
       </c>
       <c r="R69">
         <f t="shared" si="21"/>
@@ -4789,7 +4789,7 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="I70">
-        <v>9.5179675286199998</v>
+        <v>9.53455964652</v>
       </c>
       <c r="J70">
         <f t="shared" si="16"/>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>-1.7184699835072069E-3</v>
+        <v>2.1776008467481476E-5</v>
       </c>
       <c r="L70">
         <f t="shared" si="17"/>
-        <v>19.480482537275002</v>
+        <v>19.497143474209999</v>
       </c>
       <c r="M70">
         <f t="shared" si="18"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="19"/>
-        <v>-0.29209028772247037</v>
+        <v>-0.29180339191353633</v>
       </c>
       <c r="O70">
         <f t="shared" si="20"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="P70" s="5">
         <f t="shared" si="13"/>
-        <v>9.3245013924698019E-4</v>
+        <v>-5.068191629017033E-5</v>
       </c>
       <c r="R70">
         <f t="shared" si="21"/>
@@ -4834,7 +4834,7 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="I71">
-        <v>9.44299754593</v>
+        <v>9.4597273018999992</v>
       </c>
       <c r="J71">
         <f t="shared" si="16"/>
@@ -4842,11 +4842,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>-1.7461293851037598E-3</v>
+        <v>2.2434417890394867E-5</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
-        <v>19.404083603695</v>
+        <v>19.420876899644998</v>
       </c>
       <c r="M71">
         <f t="shared" si="18"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="19"/>
-        <v>-0.30203575539092081</v>
+        <v>-0.3018035518784184</v>
       </c>
       <c r="O71">
         <f t="shared" si="20"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="P71" s="5">
         <f t="shared" si="13"/>
-        <v>7.2087629523188946E-4</v>
+        <v>-4.8472691974919265E-5</v>
       </c>
       <c r="R71">
         <f t="shared" si="21"/>
@@ -4879,7 +4879,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="I72">
-        <v>9.3651696614599995</v>
+        <v>9.3820264973899992</v>
       </c>
       <c r="J72">
         <f t="shared" si="16"/>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>-1.7736442022493234E-3</v>
+        <v>2.3113198733081238E-5</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
-        <v>19.32480957528</v>
+        <v>19.341724542325</v>
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="19"/>
-        <v>-0.31198039194815402</v>
+        <v>-0.31180372535375517</v>
       </c>
       <c r="O72">
         <f t="shared" si="20"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="P72" s="5">
         <f t="shared" si="13"/>
-        <v>5.202074138898606E-4</v>
+        <v>-4.6361839284302781E-5</v>
       </c>
       <c r="R72">
         <f t="shared" si="21"/>
@@ -4924,7 +4924,7 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="I73">
-        <v>9.2844494891</v>
+        <v>9.3014225872599994</v>
       </c>
       <c r="J73">
         <f t="shared" si="16"/>
@@ -4932,11 +4932,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>-1.801015141417321E-3</v>
+        <v>2.3813500615475696E-5</v>
       </c>
       <c r="L73">
         <f t="shared" si="17"/>
-        <v>19.242625128869999</v>
+        <v>19.259650813135</v>
       </c>
       <c r="M73">
         <f t="shared" si="18"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="19"/>
-        <v>-0.32192419406428124</v>
+        <v>-0.32180391339705477</v>
       </c>
       <c r="O73">
         <f t="shared" si="20"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P73" s="5">
         <f t="shared" si="13"/>
-        <v>3.2941658395715115E-4</v>
+        <v>-4.4336901774826494E-5</v>
       </c>
       <c r="R73">
         <f t="shared" si="21"/>
@@ -4969,7 +4969,7 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="I74">
-        <v>9.2008007686400006</v>
+        <v>9.2178790390100005</v>
       </c>
       <c r="J74">
         <f t="shared" si="16"/>
@@ -4977,11 +4977,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>-1.8282420962803558E-3</v>
+        <v>2.453654612660921E-5</v>
       </c>
       <c r="L74">
         <f t="shared" si="17"/>
-        <v>19.157493019844999</v>
+        <v>19.1746181884</v>
       </c>
       <c r="M74">
         <f t="shared" si="18"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="19"/>
-        <v>-0.3318671580981703</v>
+        <v>-0.33180411718086672</v>
       </c>
       <c r="O74">
         <f t="shared" si="20"/>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="P74" s="5">
         <f t="shared" si="13"/>
-        <v>1.4759974791643643E-4</v>
+        <v>-4.2386578203944681E-5</v>
       </c>
       <c r="R74">
         <f t="shared" si="21"/>
@@ -5014,7 +5014,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="I75">
-        <v>9.1141852710499993</v>
+        <v>9.1313573377899999</v>
       </c>
       <c r="J75">
         <f t="shared" si="16"/>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>-1.8553240627202021E-3</v>
+        <v>2.5283636337094517E-5</v>
       </c>
       <c r="L75">
         <f t="shared" si="17"/>
-        <v>19.069373983504999</v>
+        <v>19.086587110389999</v>
       </c>
       <c r="M75">
         <f t="shared" si="18"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="19"/>
-        <v>-0.34180928035119018</v>
+        <v>-0.34180433808882704</v>
       </c>
       <c r="O75">
         <f t="shared" si="20"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="P75" s="5">
         <f t="shared" si="13"/>
-        <v>-2.604152575418684E-5</v>
+        <v>-4.050027202932779E-5</v>
       </c>
       <c r="R75">
         <f t="shared" si="21"/>
@@ -5059,7 +5059,7 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="I76">
-        <v>9.0245626959600003</v>
+        <v>9.0418168829900001</v>
       </c>
       <c r="J76">
         <f t="shared" si="16"/>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>-1.8822590472645688E-3</v>
+        <v>2.6056154320655188E-5</v>
       </c>
       <c r="L76">
         <f t="shared" si="17"/>
-        <v>18.978226628329999</v>
+        <v>18.995515879679999</v>
       </c>
       <c r="M76">
         <f t="shared" si="18"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="19"/>
-        <v>-0.35175055701910951</v>
+        <v>-0.35180457744808835</v>
       </c>
       <c r="O76">
         <f t="shared" si="20"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="P76" s="5">
         <f t="shared" si="13"/>
-        <v>-1.9221519117055874E-4</v>
+        <v>-3.8668752212615807E-5</v>
       </c>
       <c r="R76">
         <f t="shared" si="21"/>
@@ -5104,7 +5104,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="I77">
-        <v>8.9318905606999994</v>
+        <v>8.9492148763700001</v>
       </c>
       <c r="J77">
         <f t="shared" si="16"/>
@@ -5112,11 +5112,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>-1.9090439585183769E-3</v>
+        <v>2.6855577232349128E-5</v>
       </c>
       <c r="L77">
         <f t="shared" si="17"/>
-        <v>18.884007320395</v>
+        <v>18.901360538565001</v>
       </c>
       <c r="M77">
         <f t="shared" si="18"/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="19"/>
-        <v>-0.36169098417753792</v>
+        <v>-0.36180483687463477</v>
       </c>
       <c r="O77">
         <f t="shared" si="20"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="P77" s="5">
         <f t="shared" si="13"/>
-        <v>-3.5155126811694116E-4</v>
+        <v>-3.688300980906581E-5</v>
       </c>
       <c r="R77">
         <f t="shared" si="21"/>
@@ -5149,7 +5149,7 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="I78">
-        <v>8.8361240800900003</v>
+        <v>8.8535062007600001</v>
       </c>
       <c r="J78">
         <f t="shared" si="16"/>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>-1.9356744798271666E-3</v>
+        <v>2.7683479541471212E-5</v>
       </c>
       <c r="L78">
         <f t="shared" si="17"/>
-        <v>18.78667005806</v>
+        <v>18.804074744659999</v>
       </c>
       <c r="M78">
         <f t="shared" si="18"/>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="19"/>
-        <v>-0.37163055796865574</v>
+        <v>-0.37180511809671007</v>
       </c>
       <c r="O78">
         <f t="shared" si="20"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="P78" s="5">
         <f t="shared" si="13"/>
-        <v>-5.0461182023906945E-4</v>
+        <v>-3.5134703222518973E-5</v>
       </c>
       <c r="R78">
         <f t="shared" si="21"/>
@@ -5194,7 +5194,7 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="I79">
-        <v>8.7372160360300004</v>
+        <v>8.7546432885600005</v>
       </c>
       <c r="J79">
         <f t="shared" si="16"/>
@@ -5202,11 +5202,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>-1.9621449260810407E-3</v>
+        <v>2.8541542371655963E-5</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
-        <v>18.686166335964998</v>
+        <v>18.703609633759999</v>
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="19"/>
-        <v>-0.38156927472628932</v>
+        <v>-0.38180542302530729</v>
       </c>
       <c r="O79">
         <f t="shared" si="20"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="P79" s="5">
         <f t="shared" si="13"/>
-        <v>-6.5189952639387332E-4</v>
+        <v>-3.3415886108722745E-5</v>
       </c>
       <c r="R79">
         <f t="shared" si="21"/>
@@ -5239,7 +5239,7 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="I80">
-        <v>8.6351166358999993</v>
+        <v>8.6525759789599999</v>
       </c>
       <c r="J80">
         <f t="shared" si="16"/>
@@ -5247,11 +5247,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>-1.9884480796137491E-3</v>
+        <v>2.9431562032279044E-5</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
-        <v>18.582444997290001</v>
+        <v>18.599913670875001</v>
       </c>
       <c r="M80">
         <f t="shared" si="18"/>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="19"/>
-        <v>-0.39150713095498213</v>
+        <v>-0.39180575363600856</v>
       </c>
       <c r="O80">
         <f t="shared" si="20"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>-7.938653121078059E-4</v>
+        <v>-3.171925844406623E-5</v>
       </c>
       <c r="R80">
         <f t="shared" si="21"/>
@@ -5284,7 +5284,7 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="I81">
-        <v>8.52977335868</v>
+        <v>8.54725136279</v>
       </c>
       <c r="J81">
         <f t="shared" si="16"/>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>-2.0145749965776536E-3</v>
+        <v>3.0355463641423349E-5</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>18.475452073065</v>
+        <v>18.492932488179999</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="19"/>
-        <v>-0.40144412357088261</v>
+        <v>-0.40180611239865671</v>
       </c>
       <c r="O81">
         <f t="shared" si="20"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>-9.3091419013015719E-4</v>
+        <v>-3.0037016936695922E-5</v>
       </c>
       <c r="R81">
         <f t="shared" si="21"/>
@@ -5329,7 +5329,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="I82">
-        <v>8.4211307874500001</v>
+        <v>8.4386136135700003</v>
       </c>
       <c r="J82">
         <f t="shared" si="16"/>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>-2.0405147867557324E-3</v>
+        <v>3.131530295021449E-5</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>18.365130607160001</v>
+        <v>18.382608708574999</v>
       </c>
       <c r="M82">
         <f t="shared" si="18"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="19"/>
-        <v>-0.41138025002014195</v>
+        <v>-0.41180650171360417</v>
       </c>
       <c r="O82">
         <f t="shared" si="20"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>-1.0634105471018435E-3</v>
+        <v>-2.8362284831535111E-5</v>
       </c>
       <c r="R82">
         <f t="shared" si="21"/>
@@ -5374,7 +5374,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="I83">
-        <v>8.3091304268700004</v>
+        <v>8.3266038035799994</v>
       </c>
       <c r="J83">
         <f t="shared" si="16"/>
@@ -5382,11 +5382,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>-2.0662543573039855E-3</v>
+        <v>3.231328737357089E-5</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>18.251420465469998</v>
+        <v>18.268881753285001</v>
       </c>
       <c r="M83">
         <f t="shared" si="18"/>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="19"/>
-        <v>-0.42131550822298119</v>
+        <v>-0.42180692455860491</v>
       </c>
       <c r="O83">
         <f t="shared" si="20"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>-1.1916830920779278E-3</v>
+        <v>-2.6687468832053773E-5</v>
       </c>
       <c r="R83">
         <f t="shared" si="21"/>
@@ -5419,7 +5419,7 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="I84">
-        <v>8.1937105040699993</v>
+        <v>8.2111597029900008</v>
       </c>
       <c r="J84">
         <f t="shared" ref="J84:J115" si="24">SQRT(((I$20-Datum)^2)-$H84*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G84/K)*(Length-G84))+Datum</f>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>-2.0917781073156077E-3</v>
+        <v>3.3351778474362114E-5</v>
       </c>
       <c r="L84">
         <f t="shared" ref="L84:L118" si="25">0.5*(I84+I85)-Datum</f>
-        <v>18.134258127504999</v>
+        <v>18.151687631754999</v>
       </c>
       <c r="M84">
         <f t="shared" ref="M84:M118" si="26">0.5*(J84+J85)-Datum</f>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="N84">
         <f t="shared" ref="N84:N118" si="27">-K*((I84-I85)/dx)*width*L84</f>
-        <v>-0.43124989716933498</v>
+        <v>-0.43180738394848461</v>
       </c>
       <c r="O84">
         <f t="shared" ref="O84:O118" si="28">-K*((J84-J85)/dx)*width*M84</f>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>-1.3160276078382506E-3</v>
+        <v>-2.5005592965401365E-5</v>
       </c>
       <c r="R84">
         <f t="shared" ref="R84:R118" si="29">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G84+G85)/2)-(Length/2)))</f>
@@ -5464,7 +5464,7 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="I85">
-        <v>8.0748057509399995</v>
+        <v>8.0922155605199997</v>
       </c>
       <c r="J85">
         <f t="shared" si="24"/>
@@ -5472,11 +5472,11 @@
       </c>
       <c r="K85">
         <f t="shared" ref="K85:K119" si="31">(I85-J85)/J85</f>
-        <v>-2.1170675857026988E-3</v>
+        <v>3.4433313801003947E-5</v>
       </c>
       <c r="L85">
         <f t="shared" si="25"/>
-        <v>18.013576458445002</v>
+        <v>18.03095871188</v>
       </c>
       <c r="M85">
         <f t="shared" si="26"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="27"/>
-        <v>-0.44118341674206829</v>
+        <v>-0.44180788345908761</v>
       </c>
       <c r="O85">
         <f t="shared" si="28"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="P85" s="5">
         <f t="shared" ref="P85:P118" si="32">(N85-O85)/O85</f>
-        <v>-1.4367110776488362E-3</v>
+        <v>-2.3309043242997453E-5</v>
       </c>
       <c r="R85">
         <f t="shared" si="29"/>
@@ -5509,7 +5509,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I86">
-        <v>7.95234716595</v>
+        <v>7.9697018632400001</v>
       </c>
       <c r="J86">
         <f t="shared" si="24"/>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="31"/>
-        <v>-2.1421010767697802E-3</v>
+        <v>3.5560613906591698E-5</v>
       </c>
       <c r="L86">
         <f t="shared" si="25"/>
-        <v>17.889304459470001</v>
+        <v>17.90662346829</v>
       </c>
       <c r="M86">
         <f t="shared" si="26"/>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
-        <v>-0.45111606806788968</v>
+        <v>-0.45180842694149581</v>
       </c>
       <c r="O86">
         <f t="shared" si="28"/>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="P86" s="5">
         <f t="shared" si="32"/>
-        <v>-1.5539740952077931E-3</v>
+        <v>-2.1590270324987785E-5</v>
       </c>
       <c r="R86">
         <f t="shared" si="29"/>
@@ -5554,7 +5554,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="I87">
-        <v>7.8262617529899998</v>
+        <v>7.8435450733399996</v>
       </c>
       <c r="J87">
         <f t="shared" si="24"/>
@@ -5562,11 +5562,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="31"/>
-        <v>-2.1668531173522003E-3</v>
+        <v>3.6736601178804941E-5</v>
       </c>
       <c r="L87">
         <f t="shared" si="25"/>
-        <v>17.761366993739998</v>
+        <v>17.778606206155001</v>
       </c>
       <c r="M87">
         <f t="shared" si="26"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
-        <v>-0.46104785400386128</v>
+        <v>-0.46180901886236625</v>
       </c>
       <c r="O87">
         <f t="shared" si="28"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="P87" s="5">
         <f t="shared" si="32"/>
-        <v>-1.6680326688060648E-3</v>
+        <v>-1.9841046059085089E-5</v>
       </c>
       <c r="R87">
         <f t="shared" si="29"/>
@@ -5599,7 +5599,7 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="I88">
-        <v>7.6964722344899998</v>
+        <v>7.7136673389699997</v>
       </c>
       <c r="J88">
         <f t="shared" si="24"/>
@@ -5607,11 +5607,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="31"/>
-        <v>-2.1912939349229524E-3</v>
+        <v>3.7964409563151735E-5</v>
       </c>
       <c r="L88">
         <f t="shared" si="25"/>
-        <v>17.629684485174998</v>
+        <v>17.646826757589999</v>
       </c>
       <c r="M88">
         <f t="shared" si="26"/>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
-        <v>-0.47097877915936492</v>
+        <v>-0.47180966399578023</v>
       </c>
       <c r="O88">
         <f t="shared" si="28"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P88" s="5">
         <f t="shared" si="32"/>
-        <v>-1.7790807797512271E-3</v>
+        <v>-1.8053188119539374E-5</v>
       </c>
       <c r="R88">
         <f t="shared" si="29"/>
@@ -5644,7 +5644,7 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="I89">
-        <v>7.5628967358599999</v>
+        <v>7.5799861762100003</v>
       </c>
       <c r="J89">
         <f t="shared" si="24"/>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="31"/>
-        <v>-2.215388770658553E-3</v>
+        <v>3.9247407950218608E-5</v>
       </c>
       <c r="L89">
         <f t="shared" si="25"/>
-        <v>17.4941725867</v>
+        <v>17.511200147295</v>
       </c>
       <c r="M89">
         <f t="shared" si="26"/>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
-        <v>-0.48090885051166093</v>
+        <v>-0.48181036786727421</v>
       </c>
       <c r="O89">
         <f t="shared" si="28"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="P89" s="5">
         <f t="shared" si="32"/>
-        <v>-1.8872913908876724E-3</v>
+        <v>-1.6217633954442189E-5</v>
       </c>
       <c r="R89">
         <f t="shared" si="29"/>
@@ -5689,7 +5689,7 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="I90">
-        <v>7.4254484375400001</v>
+        <v>7.4424141183800003</v>
       </c>
       <c r="J90">
         <f t="shared" si="24"/>
@@ -5697,11 +5697,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="31"/>
-        <v>-2.2390970837270962E-3</v>
+        <v>4.0589210763693093E-5</v>
       </c>
       <c r="L90">
         <f t="shared" si="25"/>
-        <v>17.354741814105001</v>
+        <v>17.371636223540001</v>
       </c>
       <c r="M90">
         <f t="shared" si="26"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="27"/>
-        <v>-0.49083807770462845</v>
+        <v>-0.49181113673137933</v>
       </c>
       <c r="O90">
         <f t="shared" si="28"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="P90" s="5">
         <f t="shared" si="32"/>
-        <v>-1.9928179757948065E-3</v>
+        <v>-1.4324575746797575E-5</v>
       </c>
       <c r="R90">
         <f t="shared" si="29"/>
@@ -5734,7 +5734,7 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="I91">
-        <v>7.28403519067</v>
+        <v>7.3008583287000004</v>
       </c>
       <c r="J91">
         <f t="shared" si="24"/>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="31"/>
-        <v>-2.2623715948906389E-3</v>
+        <v>4.1993691796070457E-5</v>
       </c>
       <c r="L91">
         <f t="shared" si="25"/>
-        <v>17.21129714113</v>
+        <v>17.228039250129999</v>
       </c>
       <c r="M91">
         <f t="shared" si="26"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="27"/>
-        <v>-0.50076647363966864</v>
+        <v>-0.50181197750490592</v>
       </c>
       <c r="O91">
         <f t="shared" si="28"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="P91" s="5">
         <f t="shared" si="32"/>
-        <v>-2.0957952832756587E-3</v>
+        <v>-1.2363667766612391E-5</v>
       </c>
       <c r="R91">
         <f t="shared" si="29"/>
@@ -5779,7 +5779,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="I92">
-        <v>7.1385590915900003</v>
+        <v>7.1552201715599999</v>
       </c>
       <c r="J92">
         <f t="shared" si="24"/>
@@ -5787,11 +5787,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="31"/>
-        <v>-2.2851571413327067E-3</v>
+        <v>4.3465003675170064E-5</v>
       </c>
       <c r="L92">
         <f t="shared" si="25"/>
-        <v>17.063737550635</v>
+        <v>17.080307454170001</v>
       </c>
       <c r="M92">
         <f t="shared" si="26"/>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="27"/>
-        <v>-0.51069405519608579</v>
+        <v>-0.51181289809942021</v>
       </c>
       <c r="O92">
         <f t="shared" si="28"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="P92" s="5">
         <f t="shared" si="32"/>
-        <v>-2.1963397589939066E-3</v>
+        <v>-1.0323429210886702E-5</v>
       </c>
       <c r="R92">
         <f t="shared" si="29"/>
@@ -5824,7 +5824,7 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="I93">
-        <v>6.9889160096799996</v>
+        <v>7.0053947367799996</v>
       </c>
       <c r="J93">
         <f t="shared" si="24"/>
@@ -5832,11 +5832,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="31"/>
-        <v>-2.3073892992247036E-3</v>
+        <v>4.5007587310117285E-5</v>
       </c>
       <c r="L93">
         <f t="shared" si="25"/>
-        <v>16.911955535979999</v>
+        <v>16.928332523664999</v>
       </c>
       <c r="M93">
         <f t="shared" si="26"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="27"/>
-        <v>-0.52062084369694195</v>
+        <v>-0.52181390744810052</v>
       </c>
       <c r="O93">
         <f t="shared" si="28"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="P93" s="5">
         <f t="shared" si="32"/>
-        <v>-2.294550406559633E-3</v>
+        <v>-8.191301551918354E-6</v>
       </c>
       <c r="R93">
         <f t="shared" si="29"/>
@@ -5869,7 +5869,7 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="I94">
-        <v>6.83499506228</v>
+        <v>6.8512703105500004</v>
       </c>
       <c r="J94">
         <f t="shared" si="24"/>
@@ -5877,11 +5877,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="31"/>
-        <v>-2.3289927008108592E-3</v>
+        <v>4.662618224935032E-5</v>
       </c>
       <c r="L94">
         <f t="shared" si="25"/>
-        <v>16.755836545685</v>
+        <v>16.771999048025002</v>
       </c>
       <c r="M94">
         <f t="shared" si="26"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="27"/>
-        <v>-0.53054686610588653</v>
+        <v>-0.53181501584201785</v>
       </c>
       <c r="O94">
         <f t="shared" si="28"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="P94" s="5">
         <f t="shared" si="32"/>
-        <v>-2.3905081769718234E-3</v>
+        <v>-5.9531175796151841E-6</v>
       </c>
       <c r="R94">
         <f t="shared" si="29"/>
@@ -5914,7 +5914,7 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="I95">
-        <v>6.6766780290899996</v>
+        <v>6.6927277854999998</v>
       </c>
       <c r="J95">
         <f t="shared" si="24"/>
@@ -5922,11 +5922,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="31"/>
-        <v>-2.3498789949584929E-3</v>
+        <v>4.8325824080905927E-5</v>
       </c>
       <c r="L95">
         <f t="shared" si="25"/>
-        <v>16.595258363319999</v>
+        <v>16.611183893395001</v>
       </c>
       <c r="M95">
         <f t="shared" si="26"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="27"/>
-        <v>-0.54047215572332419</v>
+        <v>-0.5418162348557265</v>
       </c>
       <c r="O95">
         <f t="shared" si="28"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="P95" s="5">
         <f t="shared" si="32"/>
-        <v>-2.4842763495484857E-3</v>
+        <v>-3.59338706094983E-6</v>
       </c>
       <c r="R95">
         <f t="shared" si="29"/>
@@ -5959,7 +5959,7 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="I96">
-        <v>6.5138386975499998</v>
+        <v>6.5296400012899998</v>
       </c>
       <c r="J96">
         <f t="shared" si="24"/>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="31"/>
-        <v>-2.3699443254952281E-3</v>
+        <v>5.0111844424222334E-5</v>
       </c>
       <c r="L96">
         <f t="shared" si="25"/>
-        <v>16.430090413169999</v>
+        <v>16.445755503285</v>
       </c>
       <c r="M96">
         <f t="shared" si="26"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="27"/>
-        <v>-0.55039675372450869</v>
+        <v>-0.5518175778824097</v>
       </c>
       <c r="O96">
         <f t="shared" si="28"/>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="P96" s="5">
         <f t="shared" si="32"/>
-        <v>-2.5758993460419178E-3</v>
+        <v>-1.0944470450543041E-6</v>
       </c>
       <c r="R96">
         <f t="shared" si="29"/>
@@ -6004,7 +6004,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="I97">
-        <v>6.3463421287899999</v>
+        <v>6.3618710052800003</v>
       </c>
       <c r="J97">
         <f t="shared" si="24"/>
@@ -6012,11 +6012,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="31"/>
-        <v>-2.3890662255803305E-3</v>
+        <v>5.1989844400339154E-5</v>
       </c>
       <c r="L97">
         <f t="shared" si="25"/>
-        <v>16.260192980509999</v>
+        <v>16.275573113290001</v>
       </c>
       <c r="M97">
         <f t="shared" si="26"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="27"/>
-        <v>-0.56032071045574894</v>
+        <v>-0.56181906024242045</v>
       </c>
       <c r="O97">
         <f t="shared" si="28"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="P97" s="5">
         <f t="shared" si="32"/>
-        <v>-2.6654021014028842E-3</v>
+        <v>1.5635383037365632E-6</v>
       </c>
       <c r="R97">
         <f t="shared" si="29"/>
@@ -6049,7 +6049,7 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="I98">
-        <v>6.1740438322299998</v>
+        <v>6.1892752213</v>
       </c>
       <c r="J98">
         <f t="shared" si="24"/>
@@ -6057,11 +6057,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="31"/>
-        <v>-2.4070997358356786E-3</v>
+        <v>5.3965655063113862E-5</v>
       </c>
       <c r="L98">
         <f t="shared" si="25"/>
-        <v>16.085416333360001</v>
+        <v>16.100485866690001</v>
       </c>
       <c r="M98">
         <f t="shared" si="26"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="27"/>
-        <v>-0.57024408716333574</v>
+        <v>-0.57182069960433146</v>
       </c>
       <c r="O98">
         <f t="shared" si="28"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="P98" s="5">
         <f t="shared" si="32"/>
-        <v>-2.7527887445758206E-3</v>
+        <v>4.4031236201540066E-6</v>
       </c>
       <c r="R98">
         <f t="shared" si="29"/>
@@ -6094,7 +6094,7 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="I99">
-        <v>5.9967888344900002</v>
+        <v>6.0116965120800003</v>
       </c>
       <c r="J99">
         <f t="shared" si="24"/>
@@ -6102,11 +6102,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="31"/>
-        <v>-2.4238725205495914E-3</v>
+        <v>5.6045263850641683E-5</v>
       </c>
       <c r="L99">
         <f t="shared" si="25"/>
-        <v>15.905599730024999</v>
+        <v>15.920331815145</v>
       </c>
       <c r="M99">
         <f t="shared" si="26"/>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="27"/>
-        <v>-0.5801669581438913</v>
+        <v>-0.58182251655814698</v>
       </c>
       <c r="O99">
         <f t="shared" si="28"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="P99" s="5">
         <f t="shared" si="32"/>
-        <v>-2.8380406901890661E-3</v>
+        <v>7.4503343128889785E-6</v>
       </c>
       <c r="R99">
         <f t="shared" si="29"/>
@@ -6139,7 +6139,7 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="I100">
-        <v>5.8144106255599999</v>
+        <v>5.8289671182099996</v>
       </c>
       <c r="J100">
         <f t="shared" si="24"/>
@@ -6147,11 +6147,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="31"/>
-        <v>-2.4391786705093158E-3</v>
+        <v>5.8234687222335941E-5</v>
       </c>
       <c r="L100">
         <f t="shared" si="25"/>
-        <v>15.720570293694999</v>
+        <v>15.73493678577</v>
       </c>
       <c r="M100">
         <f t="shared" si="26"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="27"/>
-        <v>-0.59008941338696008</v>
+        <v>-0.5918245347553327</v>
       </c>
       <c r="O100">
         <f t="shared" si="28"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="P100" s="5">
         <f t="shared" si="32"/>
-        <v>-2.9211140926975118E-3</v>
+        <v>1.0734609621799367E-5</v>
       </c>
       <c r="R100">
         <f t="shared" si="29"/>
@@ -6184,7 +6184,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="I101">
-        <v>5.6267299618299997</v>
+        <v>5.6409064533300004</v>
       </c>
       <c r="J101">
         <f t="shared" si="24"/>
@@ -6192,11 +6192,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="31"/>
-        <v>-2.4527707622984765E-3</v>
+        <v>6.0539795000444129E-5</v>
       </c>
       <c r="L101">
         <f t="shared" si="25"/>
-        <v>15.53014173167</v>
+        <v>15.544113091974999</v>
       </c>
       <c r="M101">
         <f t="shared" si="26"/>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="27"/>
-        <v>-0.60001156159838565</v>
+        <v>-0.60182678218180929</v>
       </c>
       <c r="O101">
         <f t="shared" si="28"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="P101" s="5">
         <f t="shared" si="32"/>
-        <v>-3.0019369211062982E-3</v>
+        <v>1.4290634431502927E-5</v>
       </c>
       <c r="R101">
         <f t="shared" si="29"/>
@@ -6229,7 +6229,7 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="I102">
-        <v>5.4335535015099996</v>
+        <v>5.4473197306200003</v>
       </c>
       <c r="J102">
         <f t="shared" si="24"/>
@@ -6237,11 +6237,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="31"/>
-        <v>-2.4643495597254212E-3</v>
+        <v>6.2966000071337718E-5</v>
       </c>
       <c r="L102">
         <f t="shared" si="25"/>
-        <v>15.334112872125001</v>
+        <v>15.347658060920001</v>
       </c>
       <c r="M102">
         <f t="shared" si="26"/>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="27"/>
-        <v>-0.60993353402589379</v>
+        <v>-0.61182929133438146</v>
       </c>
       <c r="O102">
         <f t="shared" si="28"/>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="P102" s="5">
         <f t="shared" si="32"/>
-        <v>-3.0804050096828969E-3</v>
+        <v>1.8158198840797554E-5</v>
       </c>
       <c r="R102">
         <f t="shared" si="29"/>
@@ -6274,7 +6274,7 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="I103">
-        <v>5.2346722427400003</v>
+        <v>5.2479963912200001</v>
       </c>
       <c r="J103">
         <f t="shared" si="24"/>
@@ -6282,11 +6282,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="31"/>
-        <v>-2.4735505030508676E-3</v>
+        <v>6.551783007313069E-5</v>
       </c>
       <c r="L103">
         <f t="shared" si="25"/>
-        <v>15.132265985549999</v>
+        <v>15.145352344625</v>
       </c>
       <c r="M103">
         <f t="shared" si="26"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="27"/>
-        <v>-0.61985548895348996</v>
+        <v>-0.62183210070375261</v>
       </c>
       <c r="O103">
         <f t="shared" si="28"/>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="P103" s="5">
         <f t="shared" si="32"/>
-        <v>-3.1563774139856155E-3</v>
+        <v>2.2384172694055817E-5</v>
       </c>
       <c r="R103">
         <f t="shared" si="29"/>
@@ -6319,7 +6319,7 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="I104">
-        <v>5.0298597283599999</v>
+        <v>5.04270829803</v>
       </c>
       <c r="J104">
         <f t="shared" si="24"/>
@@ -6327,11 +6327,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="31"/>
-        <v>-2.4799257317642356E-3</v>
+        <v>6.8198244575350247E-5</v>
       </c>
       <c r="L104">
         <f t="shared" si="25"/>
-        <v>14.92436485068</v>
+        <v>14.93695797442</v>
       </c>
       <c r="M104">
         <f t="shared" si="26"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="27"/>
-        <v>-0.62977761774967123</v>
+        <v>-0.63183525581755484</v>
       </c>
       <c r="O104">
         <f t="shared" si="28"/>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="P104" s="5">
         <f t="shared" si="32"/>
-        <v>-3.2296697487176227E-3</v>
+        <v>2.7023596134157058E-5</v>
       </c>
       <c r="R104">
         <f t="shared" si="29"/>
@@ -6364,7 +6364,7 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="I105">
-        <v>4.818869973</v>
+        <v>4.8312076508099997</v>
       </c>
       <c r="J105">
         <f t="shared" si="24"/>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="31"/>
-        <v>-2.482919841302853E-3</v>
+        <v>7.1007617608824617E-5</v>
       </c>
       <c r="L105">
         <f t="shared" si="25"/>
-        <v>14.710152515624999</v>
+        <v>14.722216109369999</v>
       </c>
       <c r="M105">
         <f t="shared" si="26"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="27"/>
-        <v>-0.63970015163888416</v>
+        <v>-0.64183881086921435</v>
       </c>
       <c r="O105">
         <f t="shared" si="28"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="P105" s="5">
         <f t="shared" si="32"/>
-        <v>-3.3000470215648315E-3</v>
+        <v>3.214158093263908E-5</v>
       </c>
       <c r="R105">
         <f t="shared" si="29"/>
@@ -6409,7 +6409,7 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="I106">
-        <v>4.6014350582499999</v>
+        <v>4.6132245679299997</v>
       </c>
       <c r="J106">
         <f t="shared" si="24"/>
@@ -6417,11 +6417,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="31"/>
-        <v>-2.4818365863432073E-3</v>
+        <v>7.3942185858687603E-5</v>
       </c>
       <c r="L106">
         <f t="shared" si="25"/>
-        <v>14.489348693195</v>
+        <v>14.500844417494999</v>
       </c>
       <c r="M106">
         <f t="shared" si="26"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="27"/>
-        <v>-0.64962337081385757</v>
+        <v>-0.6518428308290467</v>
       </c>
       <c r="O106">
         <f t="shared" si="28"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="P106" s="5">
         <f t="shared" si="32"/>
-        <v>-3.3672135352280832E-3</v>
+        <v>3.7815776777553083E-5</v>
       </c>
       <c r="R106">
         <f t="shared" si="29"/>
@@ -6454,7 +6454,7 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="I107">
-        <v>4.3772623281399996</v>
+        <v>4.3884642670599998</v>
       </c>
       <c r="J107">
         <f t="shared" si="24"/>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="31"/>
-        <v>-2.4757923427851242E-3</v>
+        <v>7.6991659572327577E-5</v>
       </c>
       <c r="L107">
         <f t="shared" si="25"/>
-        <v>14.261646714345</v>
+        <v>14.27253401364</v>
       </c>
       <c r="M107">
         <f t="shared" si="26"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="27"/>
-        <v>-0.65954761544257534</v>
+        <v>-0.66184739405874049</v>
       </c>
       <c r="O107">
         <f t="shared" si="28"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="P107" s="5">
         <f t="shared" si="32"/>
-        <v>-3.4308008422619294E-3</v>
+        <v>4.413937447112733E-5</v>
       </c>
       <c r="R107">
         <f t="shared" si="29"/>
@@ -6499,7 +6499,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="I108">
-        <v>4.1460311005500001</v>
+        <v>4.1566037602200003</v>
       </c>
       <c r="J108">
         <f t="shared" si="24"/>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="31"/>
-        <v>-2.4636496392231866E-3</v>
+        <v>8.0135509764117885E-5</v>
       </c>
       <c r="L108">
         <f t="shared" si="25"/>
-        <v>14.026709944255</v>
+        <v>14.03694585843</v>
       </c>
       <c r="M108">
         <f t="shared" si="26"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="27"/>
-        <v>-0.66947329982523296</v>
+        <v>-0.67185259558382637</v>
       </c>
       <c r="O108">
         <f t="shared" si="28"/>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="P108" s="5">
         <f t="shared" si="32"/>
-        <v>-3.490352086932273E-3</v>
+        <v>5.1224820310972106E-5</v>
       </c>
       <c r="R108">
         <f t="shared" si="29"/>
@@ -6544,7 +6544,7 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="I109">
-        <v>3.90738878796</v>
+        <v>3.9172879566400001</v>
       </c>
       <c r="J109">
         <f t="shared" si="24"/>
@@ -6552,11 +6552,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="31"/>
-        <v>-2.443919943932977E-3</v>
+        <v>8.3337117013411335E-5</v>
       </c>
       <c r="L109">
         <f t="shared" si="25"/>
-        <v>13.78416754004</v>
+        <v>13.793706497264999</v>
       </c>
       <c r="M109">
         <f t="shared" si="26"/>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="27"/>
-        <v>-0.67940093032883475</v>
+        <v>-0.68185855164897102</v>
       </c>
       <c r="O109">
         <f t="shared" si="28"/>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="P109" s="5">
         <f t="shared" si="32"/>
-        <v>-3.5453021843774093E-3</v>
+        <v>5.9209085155783129E-5</v>
       </c>
       <c r="R109">
         <f t="shared" si="29"/>
@@ -6589,7 +6589,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="I110">
-        <v>3.6609462921199998</v>
+        <v>3.6701250378900001</v>
       </c>
       <c r="J110">
         <f t="shared" si="24"/>
@@ -6597,11 +6597,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="31"/>
-        <v>-2.4146175196905731E-3</v>
+        <v>8.6534335326906442E-5</v>
       </c>
       <c r="L110">
         <f t="shared" si="25"/>
-        <v>13.533609395414999</v>
+        <v>13.54240298475</v>
       </c>
       <c r="M110">
         <f t="shared" si="26"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="27"/>
-        <v>-0.68933112865191049</v>
+        <v>-0.69186540546461406</v>
       </c>
       <c r="O110">
         <f t="shared" si="28"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="P110" s="5">
         <f t="shared" si="32"/>
-        <v>-3.5949520143162264E-3</v>
+        <v>6.8260198527327214E-5</v>
       </c>
       <c r="R110">
         <f t="shared" si="29"/>
@@ -6634,7 +6634,7 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="I111">
-        <v>3.4062724987099999</v>
+        <v>3.41468093161</v>
       </c>
       <c r="J111">
         <f t="shared" si="24"/>
@@ -6642,11 +6642,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="31"/>
-        <v>-2.3730326578350388E-3</v>
+        <v>8.9623931531769655E-5</v>
       </c>
       <c r="L111">
         <f t="shared" si="25"/>
-        <v>13.274580072675001</v>
+        <v>13.28257679513</v>
       </c>
       <c r="M111">
         <f t="shared" si="26"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="27"/>
-        <v>-0.69926466174657431</v>
+        <v>-0.70187333509997363</v>
       </c>
       <c r="O111">
         <f t="shared" si="28"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="P111" s="5">
         <f t="shared" si="32"/>
-        <v>-3.638435335191681E-3</v>
+        <v>7.8586282346205399E-5</v>
       </c>
       <c r="R111">
         <f t="shared" si="29"/>
@@ -6679,7 +6679,7 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="I112">
-        <v>3.1428876466400002</v>
+        <v>3.15047265865</v>
       </c>
       <c r="J112">
         <f t="shared" si="24"/>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="31"/>
-        <v>-2.3153664937216704E-3</v>
+        <v>9.2435113640151426E-5</v>
       </c>
       <c r="L112">
         <f t="shared" si="25"/>
-        <v>13.006571461515</v>
+        <v>13.01371645873</v>
       </c>
       <c r="M112">
         <f t="shared" si="26"/>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="27"/>
-        <v>-0.70920248127576868</v>
+        <v>-0.71188256389290971</v>
       </c>
       <c r="O112">
         <f t="shared" si="28"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="P112" s="5">
         <f t="shared" si="32"/>
-        <v>-3.6746750915233974E-3</v>
+        <v>9.0447359121691772E-5</v>
       </c>
       <c r="R112">
         <f t="shared" si="29"/>
@@ -6724,7 +6724,7 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="I113">
-        <v>2.87025527639</v>
+        <v>2.8769602588100001</v>
       </c>
       <c r="J113">
         <f t="shared" si="24"/>
@@ -6732,11 +6732,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="31"/>
-        <v>-2.2361165672734524E-3</v>
+        <v>9.4682840276668788E-5</v>
       </c>
       <c r="L113">
         <f t="shared" si="25"/>
-        <v>12.72901382085</v>
+        <v>12.73524858149</v>
       </c>
       <c r="M113">
         <f t="shared" si="26"/>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="27"/>
-        <v>-0.71914577585825179</v>
+        <v>-0.72189337502803941</v>
       </c>
       <c r="O113">
         <f t="shared" si="28"/>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="P113" s="5">
         <f t="shared" si="32"/>
-        <v>-3.7023256371780406E-3</v>
+        <v>1.0417195320784545E-4</v>
       </c>
       <c r="R113">
         <f t="shared" si="29"/>
@@ -6769,7 +6769,7 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="I114">
-        <v>2.5877723653100002</v>
+        <v>2.59353690417</v>
       </c>
       <c r="J114">
         <f t="shared" si="24"/>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="31"/>
-        <v>-2.1269869896913978E-3</v>
+        <v>9.5881543087741972E-5</v>
       </c>
       <c r="L114">
         <f t="shared" si="25"/>
-        <v>12.441264744025</v>
+        <v>12.446526789675</v>
       </c>
       <c r="M114">
         <f t="shared" si="26"/>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="27"/>
-        <v>-0.72909604136961514</v>
+        <v>-0.73190613136608262</v>
       </c>
       <c r="O114">
         <f t="shared" si="28"/>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="P114" s="5">
         <f t="shared" si="32"/>
-        <v>-3.7196950228782703E-3</v>
+        <v>1.2017950645620411E-4</v>
       </c>
       <c r="R114">
         <f t="shared" si="29"/>
@@ -6814,7 +6814,7 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="I115">
-        <v>2.2947571227400001</v>
+        <v>2.29951667518</v>
       </c>
       <c r="J115">
         <f t="shared" si="24"/>
@@ -6822,11 +6822,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="31"/>
-        <v>-1.9748262972700418E-3</v>
+        <v>9.5176276687053489E-5</v>
       </c>
       <c r="L115">
         <f t="shared" si="25"/>
-        <v>12.142595424555001</v>
+        <v>12.146817979714999</v>
       </c>
       <c r="M115">
         <f t="shared" si="26"/>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="27"/>
-        <v>-0.73905517606948024</v>
+        <v>-0.74192130382131505</v>
       </c>
       <c r="O115">
         <f t="shared" si="28"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="P115" s="5">
         <f t="shared" si="32"/>
-        <v>-3.7246401024223176E-3</v>
+        <v>1.3901250421772548E-4</v>
       </c>
       <c r="R115">
         <f t="shared" si="29"/>
@@ -6855,23 +6855,23 @@
         <v>4800</v>
       </c>
       <c r="H116">
-        <f t="shared" ref="H116:H147" si="33">G116/Length</f>
+        <f t="shared" ref="H116:H119" si="33">G116/Length</f>
         <v>0.96969696969696972</v>
       </c>
       <c r="I116">
-        <v>1.99043372637</v>
+        <v>1.99411928425</v>
       </c>
       <c r="J116">
-        <f t="shared" ref="J116:J147" si="34">SQRT(((I$20-Datum)^2)-$H116*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G116/K)*(Length-G116))+Datum</f>
+        <f t="shared" ref="J116:J119" si="34">SQRT(((I$20-Datum)^2)-$H116*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G116/K)*(Length-G116))+Datum</f>
         <v>1.9939378627098723</v>
       </c>
       <c r="K116">
         <f t="shared" si="31"/>
-        <v>-1.7573949546802409E-3</v>
+        <v>9.0986556562558979E-5</v>
       </c>
       <c r="L116">
         <f t="shared" si="25"/>
-        <v>11.832173365095001</v>
+        <v>11.83528502069</v>
       </c>
       <c r="M116">
         <f t="shared" si="26"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="27"/>
-        <v>-0.74902561257134681</v>
+        <v>-0.751939512113598</v>
       </c>
       <c r="O116">
         <f t="shared" si="28"/>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="P116" s="5">
         <f t="shared" si="32"/>
-        <v>-3.714421005466251E-3</v>
+        <v>1.6138249692346649E-4</v>
       </c>
       <c r="R116">
         <f t="shared" si="29"/>
@@ -6904,7 +6904,7 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="I117">
-        <v>1.6739130038200001</v>
+        <v>1.67645075713</v>
       </c>
       <c r="J117">
         <f t="shared" si="34"/>
@@ -6912,11 +6912,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="31"/>
-        <v>-1.4337101617444554E-3</v>
+        <v>8.017670185499731E-5</v>
       </c>
       <c r="L117">
         <f t="shared" si="25"/>
-        <v>11.509040329634999</v>
+        <v>11.510964717809999</v>
       </c>
       <c r="M117">
         <f t="shared" si="26"/>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="27"/>
-        <v>-0.75901050257997471</v>
+        <v>-0.76196158396105562</v>
       </c>
       <c r="O117">
         <f t="shared" si="28"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="P117" s="5">
         <f t="shared" si="32"/>
-        <v>-3.6854978067128964E-3</v>
+        <v>1.8823670305919367E-4</v>
       </c>
       <c r="R117">
         <f t="shared" si="29"/>
@@ -6949,7 +6949,7 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="I118">
-        <v>1.3441676554499999</v>
+        <v>1.3454786784899999</v>
       </c>
       <c r="J118">
         <f t="shared" si="34"/>
@@ -6957,11 +6957,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="31"/>
-        <v>-9.1860855405413386E-4</v>
+        <v>5.5837392260772394E-5</v>
       </c>
       <c r="L118">
         <f t="shared" si="25"/>
-        <v>11.172083827725</v>
+        <v>11.172739339245</v>
       </c>
       <c r="M118">
         <f t="shared" si="26"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="27"/>
-        <v>-0.76901397949579497</v>
+        <v>-0.77198864440711945</v>
       </c>
       <c r="O118">
         <f t="shared" si="28"/>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="P118" s="5">
         <f t="shared" si="32"/>
-        <v>-3.633242113812028E-3</v>
+        <v>2.208584780100218E-4</v>
       </c>
       <c r="R118">
         <f t="shared" si="29"/>

--- a/Test/WaterTableExample_simple.xlsx
+++ b/Test/WaterTableExample_simple.xlsx
@@ -1188,298 +1188,298 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0519821258</c:v>
+                  <c:v>10.051981961599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1013425878</c:v>
+                  <c:v>10.101342260999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.1481006554</c:v>
+                  <c:v>10.148100167699999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.192274408399999</c:v>
+                  <c:v>10.192273761599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.233880773899999</c:v>
+                  <c:v>10.2338799695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.272935559900001</c:v>
+                  <c:v>10.272934599699999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.309453487300001</c:v>
+                  <c:v>10.309452372899999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.343448218400001</c:v>
+                  <c:v>10.343446951400001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.374932383399999</c:v>
+                  <c:v>10.374930965500001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.4039176047</c:v>
+                  <c:v>10.4039160376</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.430414518799999</c:v>
+                  <c:v>10.430412804099999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.454432796300001</c:v>
+                  <c:v>10.4544309357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.47598116</c:v>
+                  <c:v>10.475979155199999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.4950674007</c:v>
+                  <c:v>10.4950652535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.5116983918</c:v>
+                  <c:v>10.5116961038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.5258801016</c:v>
+                  <c:v>10.5258776746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.537617604099999</c:v>
+                  <c:v>10.5376150398</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.5469150883</c:v>
+                  <c:v>10.546912388499999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.5537758654</c:v>
+                  <c:v>10.5537730318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.5582023751</c:v>
+                  <c:v>10.5581994094</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.560196189599999</c:v>
+                  <c:v>10.560193093600001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.5597580164</c:v>
+                  <c:v>10.559754792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.556887700100001</c:v>
+                  <c:v>10.556884348900001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.551584221300001</c:v>
+                  <c:v>10.551580745200001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.5438456954</c:v>
+                  <c:v>10.543842096200001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.5336693692</c:v>
+                  <c:v>10.5336656485</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.521051615399999</c:v>
+                  <c:v>10.5210477751</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.505987927</c:v>
+                  <c:v>10.505983968800001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.4884729086</c:v>
+                  <c:v>10.488468834300001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.4685002668</c:v>
+                  <c:v>10.468496077999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.4460627989</c:v>
+                  <c:v>10.446058497299999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.421152379600001</c:v>
+                  <c:v>10.421147967</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.393759946499999</c:v>
+                  <c:v>10.3937554244</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.363875482599999</c:v>
+                  <c:v>10.3638708527</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.3314879984</c:v>
+                  <c:v>10.331483262200001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.2965855106</c:v>
+                  <c:v>10.296580669700001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.2591550198</c:v>
+                  <c:v>10.259150075599999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.219182485099999</c:v>
+                  <c:v>10.219177439099999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.176652796899999</c:v>
+                  <c:v>10.1766476504</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.131549747399999</c:v>
+                  <c:v>10.131544501800001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.083855997900001</c:v>
+                  <c:v>10.083850654500001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.0335530441</c:v>
+                  <c:v>10.033547603900001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9806211775700007</c:v>
+                  <c:v>9.9806156419099992</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9250394451599995</c:v>
+                  <c:v>9.9250338150600008</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.8667856042699995</c:v>
+                  <c:v>9.8667798807199993</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.8058360749000002</c:v>
+                  <c:v>9.8058302588699995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.7421658879099997</c:v>
+                  <c:v>9.7421599802600003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.6757486290300001</c:v>
+                  <c:v>9.6757426306000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.6065563786099997</c:v>
+                  <c:v>9.6065502901599995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.53455964652</c:v>
+                  <c:v>9.5345534687600004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.4597273018999992</c:v>
+                  <c:v>9.4597210354999994</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3820264973899992</c:v>
+                  <c:v>9.3820201429800001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3014225872599994</c:v>
+                  <c:v>9.3014161454399993</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.2178790390100005</c:v>
+                  <c:v>9.2178725103700003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.1313573377899999</c:v>
+                  <c:v>9.1313507229099997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.0418168829900001</c:v>
+                  <c:v>9.0418101824899999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.9492148763700001</c:v>
+                  <c:v>8.94920809089</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.8535062007600001</c:v>
+                  <c:v>8.8534993310099992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.7546432885600005</c:v>
+                  <c:v>8.7546363353400007</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6525759789599999</c:v>
+                  <c:v>8.6525689432000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.54725136279</c:v>
+                  <c:v>8.54724424556</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4386136135700003</c:v>
+                  <c:v>8.4386064161699998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.3266038035799994</c:v>
+                  <c:v>8.3265965275199996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.2111597029900008</c:v>
+                  <c:v>8.2111523501099999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.0922155605199997</c:v>
+                  <c:v>8.0922081329999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.9697018632400001</c:v>
+                  <c:v>7.9696943636700004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8435450733399996</c:v>
+                  <c:v>7.8435375047899996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.7136673389699997</c:v>
+                  <c:v>7.7136597050900004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5799861762100003</c:v>
+                  <c:v>7.5799784812800004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.4424141183800003</c:v>
+                  <c:v>7.4424063674200003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.3008583287000004</c:v>
+                  <c:v>7.3008505275499997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1552201715599999</c:v>
+                  <c:v>7.1552123270200001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0053947367799996</c:v>
+                  <c:v>7.0053868566900004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.8512703105500004</c:v>
+                  <c:v>6.8512624039099999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.6927277854999998</c:v>
+                  <c:v>6.6927198626299997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.5296400012899998</c:v>
+                  <c:v>6.5296320739200002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.3618710052800003</c:v>
+                  <c:v>6.3618630867299997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.1892752213</c:v>
+                  <c:v>6.1892673266099996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.0116965120800003</c:v>
+                  <c:v>6.0116886581399998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.8289671182099996</c:v>
+                  <c:v>5.8289593239500004</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.6409064533300004</c:v>
+                  <c:v>5.6408987397999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4473197306200003</c:v>
+                  <c:v>5.4473121212100004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.2479963912200001</c:v>
+                  <c:v>5.2479889117300003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.04270829803</c:v>
+                  <c:v>5.04270097682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.8312076508099997</c:v>
+                  <c:v>4.8312005188700002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6132245679299997</c:v>
+                  <c:v>4.61321765896</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3884642670599998</c:v>
+                  <c:v>4.3884576174900003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.1566037602200003</c:v>
+                  <c:v>4.1565974091699998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9172879566400001</c:v>
+                  <c:v>3.9172819458500001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.6701250378900001</c:v>
+                  <c:v>3.67011941156</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.41468093161</c:v>
+                  <c:v>3.41467573609</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.15047265865</c:v>
+                  <c:v>3.1504679421300001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.8769602588100001</c:v>
+                  <c:v>2.8769560707699999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.59353690417</c:v>
+                  <c:v>2.5935332948099998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.29951667518</c:v>
+                  <c:v>2.2995136946199999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.99411928425</c:v>
+                  <c:v>1.9941169815799999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.67645075713</c:v>
+                  <c:v>1.67644917945</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3454786784899999</c:v>
+                  <c:v>1.3454778697700001</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1</c:v>
@@ -1497,11 +1497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41226240"/>
-        <c:axId val="41234432"/>
+        <c:axId val="150604416"/>
+        <c:axId val="150610304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41226240"/>
+        <c:axId val="150604416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1512,12 +1512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41234432"/>
+        <c:crossAx val="150610304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41234432"/>
+        <c:axId val="150610304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1530,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41226240"/>
+        <c:crossAx val="150604416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="L20">
         <f t="shared" ref="L20:L51" si="5">0.5*(I20+I21)-Datum</f>
-        <v>20.025991062900001</v>
+        <v>20.0259909808</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:M51" si="6">0.5*(J20+J21)-Datum</f>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="N20">
         <f t="shared" ref="N20:N51" si="7">-K*((I20-I21)/dx)*width*L20</f>
-        <v>0.20819871734027029</v>
+        <v>0.20819805883317533</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20:O51" si="8">-K*((J20-J21)/dx)*width*M20</f>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="P20" s="5">
         <f>(N20-O20)/O20</f>
-        <v>8.1174996956148907E-5</v>
+        <v>7.8011862438855258E-5</v>
       </c>
       <c r="R20">
         <f t="shared" ref="R20:R51" si="9">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G20+G21)/2)-(Length/2)))</f>
@@ -2105,7 +2105,7 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="I21">
-        <v>10.0519821258</v>
+        <v>10.051981961599999</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -2113,11 +2113,11 @@
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K84" si="12">(I21-J21)/J21</f>
-        <v>4.1920484532236236E-7</v>
+        <v>4.0286975161348463E-7</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>20.0766623568</v>
+        <v>20.076662111299999</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.19819866586992821</v>
+        <v>0.19819801055328068</v>
       </c>
       <c r="O21">
         <f t="shared" si="8"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ref="P21:P84" si="13">(N21-O21)/O21</f>
-        <v>8.50112702466212E-5</v>
+        <v>8.1704626612296504E-5</v>
       </c>
       <c r="R21">
         <f t="shared" si="9"/>
@@ -2170,7 +2170,7 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="I22">
-        <v>10.1013425878</v>
+        <v>10.101342260999999</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>8.3099705936392272E-7</v>
+        <v>7.9864489734946577E-7</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>20.124721621599999</v>
+        <v>20.12472121435</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.18819861880279404</v>
+        <v>0.1881979673808172</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="P22" s="5">
         <f t="shared" si="13"/>
-        <v>8.9278662204454284E-5</v>
+        <v>8.5816999525632773E-5</v>
       </c>
       <c r="R22">
         <f t="shared" si="9"/>
@@ -2235,7 +2235,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="I23">
-        <v>10.1481006554</v>
+        <v>10.148100167699999</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="12"/>
-        <v>1.2360931518772898E-6</v>
+        <v>1.1880348382404668E-6</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>20.170187531899998</v>
+        <v>20.17018696465</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.17819857639956213</v>
+        <v>0.17819792957270492</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" si="13"/>
-        <v>9.405122197903533E-5</v>
+        <v>9.042107124976979E-5</v>
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
@@ -2300,7 +2300,7 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="I24">
-        <v>10.192274408399999</v>
+        <v>10.192273761599999</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -2308,11 +2308,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>1.6351827492940344E-6</v>
+        <v>1.5717228156281094E-6</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>20.21307759115</v>
+        <v>20.213076865550001</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>0.1681985388274487</v>
+        <v>0.16819789567335486</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="P24" s="5">
         <f t="shared" si="13"/>
-        <v>9.9420055127947204E-5</v>
+        <v>9.5595895651040322E-5</v>
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
@@ -2365,7 +2365,7 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="I25">
-        <v>10.233880773899999</v>
+        <v>10.2338799695</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -2373,11 +2373,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>2.0289295560042185E-6</v>
+        <v>1.9503277382874015E-6</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>20.253408166900002</v>
+        <v>20.253407284600002</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>0.15819850434579136</v>
+        <v>0.15819786635800379</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="P25" s="5">
         <f t="shared" si="13"/>
-        <v>1.0548724357251172E-4</v>
+        <v>1.0145398744418438E-4</v>
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
@@ -2430,7 +2430,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="I26">
-        <v>10.272935559900001</v>
+        <v>10.272934599699999</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>2.4179285947477708E-6</v>
+        <v>2.3244594673124975E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>20.291194523600002</v>
+        <v>20.291193486299999</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>0.14819847369442155</v>
+        <v>0.14819784033800387</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="P26" s="5">
         <f t="shared" si="13"/>
-        <v>1.1239916478167742E-4</v>
+        <v>1.081249803679331E-4</v>
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
@@ -2495,7 +2495,7 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="I27">
-        <v>10.309453487300001</v>
+        <v>10.309452372899999</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="12"/>
-        <v>2.8027694929167103E-6</v>
+        <v>2.6946742261413369E-6</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>20.326450852850002</v>
+        <v>20.326449662150001</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>0.13819844619200011</v>
+        <v>0.13819781773325759</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P27" s="5">
         <f t="shared" si="13"/>
-        <v>1.2033428426737853E-4</v>
+        <v>1.1578622757809812E-4</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
@@ -2560,7 +2560,7 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="I28">
-        <v>10.343448218400001</v>
+        <v>10.343446951400001</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="12"/>
-        <v>3.1840048286340419E-6</v>
+        <v>3.0615114388660887E-6</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>20.3591903009</v>
+        <v>20.359188958450002</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.12819842133998052</v>
+        <v>0.12819779844648133</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P28" s="5">
         <f t="shared" si="13"/>
-        <v>1.2952818415279854E-4</v>
+        <v>1.2466873132218432E-4</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
@@ -2625,7 +2625,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I29">
-        <v>10.374932383399999</v>
+        <v>10.374930965500001</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="12"/>
-        <v>3.562157266051933E-6</v>
+        <v>3.425490828461158E-6</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>20.38942499405</v>
+        <v>20.389423501549999</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>0.11819839912646229</v>
+        <v>0.11819778205396954</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="P29" s="5">
         <f t="shared" si="13"/>
-        <v>1.4030030089765241E-4</v>
+        <v>1.350789182666379E-4</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
@@ -2690,7 +2690,7 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="I30">
-        <v>10.4039176047</v>
+        <v>10.4039160376</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="12"/>
-        <v>3.9377334890215716E-6</v>
+        <v>3.7871069432958932E-6</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>20.417166061749999</v>
+        <v>20.41716442085</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>0.10819837906072134</v>
+        <v>0.10819776765027128</v>
       </c>
       <c r="O30">
         <f t="shared" si="8"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="P30" s="5">
         <f t="shared" si="13"/>
-        <v>1.5308375450746902E-4</v>
+        <v>1.4743206127161682E-4</v>
       </c>
       <c r="R30">
         <f t="shared" si="9"/>
@@ -2755,7 +2755,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I31">
-        <v>10.430414518799999</v>
+        <v>10.430412804099999</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="12"/>
-        <v>4.3112150070706555E-6</v>
+        <v>4.1468200648450989E-6</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>20.442423657550002</v>
+        <v>20.442421869899999</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>9.8198360835926396E-2</v>
+        <v>9.8197755738795661E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="8"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="P31" s="5">
         <f t="shared" si="13"/>
-        <v>1.6848999552519987E-4</v>
+        <v>1.6232696919364232E-4</v>
       </c>
       <c r="R31">
         <f t="shared" si="9"/>
@@ -2820,7 +2820,7 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="I32">
-        <v>10.454432796300001</v>
+        <v>10.4544309357</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="12"/>
-        <v>4.683064579435577E-6</v>
+        <v>4.5050913932529171E-6</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>20.46520697815</v>
+        <v>20.465205045449999</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>8.8198344632187273E-2</v>
+        <v>8.8197746086371306E-2</v>
       </c>
       <c r="O32">
         <f t="shared" si="8"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="P32" s="5">
         <f t="shared" si="13"/>
-        <v>1.874133546889237E-4</v>
+        <v>1.8062572172435748E-4</v>
       </c>
       <c r="R32">
         <f t="shared" si="9"/>
@@ -2885,7 +2885,7 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="I33">
-        <v>10.47598116</v>
+        <v>10.475979155199999</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>5.0537394539362004E-6</v>
+        <v>4.862367390375371E-6</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>20.485524280349999</v>
+        <v>20.485522204349998</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>7.8198329456091245E-2</v>
+        <v>7.819773810381439E-2</v>
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="P33" s="5">
         <f t="shared" si="13"/>
-        <v>2.1119071748605637E-4</v>
+        <v>2.0362690929372857E-4</v>
       </c>
       <c r="R33">
         <f t="shared" si="9"/>
@@ -2950,7 +2950,7 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="I34">
-        <v>10.4950674007</v>
+        <v>10.4950652535</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="12"/>
-        <v>5.4236656997348702E-6</v>
+        <v>5.2190732408454482E-6</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>20.503382896249999</v>
+        <v>20.50338067865</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>6.8198315693483336E-2</v>
+        <v>6.8197730942109472E-2</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="P34" s="5">
         <f t="shared" si="13"/>
-        <v>2.4196350444655767E-4</v>
+        <v>2.3338715096322138E-4</v>
       </c>
       <c r="R34">
         <f t="shared" si="9"/>
@@ -3015,7 +3015,7 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="I35">
-        <v>10.5116983918</v>
+        <v>10.5116961038</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="12"/>
-        <v>5.7932720825087757E-6</v>
+        <v>5.575608564305937E-6</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>20.518789246699999</v>
+        <v>20.518786889200001</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="7"/>
-        <v>5.8198302908815176E-2</v>
+        <v>5.8197725799860031E-2</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P35" s="5">
         <f t="shared" si="13"/>
-        <v>2.8333124536737421E-4</v>
+        <v>2.7341218520081633E-4</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
@@ -3080,7 +3080,7 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="I36">
-        <v>10.5258801016</v>
+        <v>10.5258776746</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -3088,11 +3088,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="12"/>
-        <v>6.1629724386952051E-6</v>
+        <v>5.9323964741022071E-6</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>20.531748852850001</v>
+        <v>20.531746357199999</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="7"/>
-        <v>4.8198290697935908E-2</v>
+        <v>4.8197721037645733E-2</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="P36" s="5">
         <f t="shared" si="13"/>
-        <v>3.418824098736101E-4</v>
+        <v>3.3005927177562778E-4</v>
       </c>
       <c r="R36">
         <f t="shared" si="9"/>
@@ -3145,7 +3145,7 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="I37">
-        <v>10.537617604099999</v>
+        <v>10.5376150398</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="12"/>
-        <v>6.5331679467962634E-6</v>
+        <v>6.2898191322584177E-6</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>20.542266346200002</v>
+        <v>20.54226371415</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="7"/>
-        <v>3.8198279357201742E-2</v>
+        <v>3.8197717767556857E-2</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="P37" s="5">
         <f t="shared" si="13"/>
-        <v>4.3112602183249484E-4</v>
+        <v>4.1641772160932794E-4</v>
       </c>
       <c r="R37">
         <f t="shared" si="9"/>
@@ -3210,7 +3210,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="I38">
-        <v>10.5469150883</v>
+        <v>10.546912388499999</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="12"/>
-        <v>6.9042647453166154E-6</v>
+        <v>6.6482829137697959E-6</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>20.550345476850001</v>
+        <v>20.550342710149998</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>2.8198267928932187E-2</v>
+        <v>2.8197714205424464E-2</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" si="13"/>
-        <v>5.8370070416763353E-4</v>
+        <v>5.6405245066778835E-4</v>
       </c>
       <c r="R38">
         <f t="shared" si="9"/>
@@ -3275,7 +3275,7 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="I39">
-        <v>10.5537758654</v>
+        <v>10.5537730318</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="12"/>
-        <v>7.2766463278784942E-6</v>
+        <v>7.0081527900946451E-6</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>20.55598912025</v>
+        <v>20.555986220600001</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
-        <v>1.8198257046776321E-2</v>
+        <v>1.8197711390553487E-2</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="13"/>
-        <v>9.0413757272961759E-4</v>
+        <v>8.7412648047374014E-4</v>
       </c>
       <c r="R39">
         <f t="shared" si="9"/>
@@ -3340,7 +3340,7 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="I40">
-        <v>10.5582023751</v>
+        <v>10.5581994094</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="12"/>
-        <v>7.6507116154183078E-6</v>
+        <v>7.369818847445273E-6</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>20.559199282350001</v>
+        <v>20.559196251500001</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
-        <v>8.1982459275024254E-3</v>
+        <v>8.1977089462643756E-3</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="13"/>
-        <v>2.0078355839585602E-3</v>
+        <v>1.9422045437524546E-3</v>
       </c>
       <c r="R40">
         <f t="shared" si="9"/>
@@ -3405,7 +3405,7 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="I41">
-        <v>10.560196189599999</v>
+        <v>10.560193093600001</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="12"/>
-        <v>8.0268435702113231E-6</v>
+        <v>7.7336648456769068E-6</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>20.559977103000001</v>
+        <v>20.559973942799999</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>-1.8017661918262352E-3</v>
+        <v>-1.8022938950212602E-3</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="13"/>
-        <v>-9.0285944938990042E-3</v>
+        <v>-8.7383577366347952E-3</v>
       </c>
       <c r="R41">
         <f t="shared" si="9"/>
@@ -3470,7 +3470,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I42">
-        <v>10.5597580164</v>
+        <v>10.559754792</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="12"/>
-        <v>8.4054109755443031E-6</v>
+        <v>8.1000605027651044E-6</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>20.558322858250001</v>
+        <v>20.558319570449999</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>-1.1801777840136354E-2</v>
+        <v>-1.1802297311714787E-2</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="13"/>
-        <v>-1.388028911454535E-3</v>
+        <v>-1.344073624048623E-3</v>
       </c>
       <c r="R42">
         <f t="shared" si="9"/>
@@ -3535,7 +3535,7 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="I43">
-        <v>10.556887700100001</v>
+        <v>10.556884348900001</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="12"/>
-        <v>8.7868211402354043E-6</v>
+        <v>8.469376307841182E-6</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>20.554235960700002</v>
+        <v>20.554232547049999</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>-2.1801790933554638E-2</v>
+        <v>-2.1802300757438244E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="13"/>
-        <v>-7.512488784788985E-4</v>
+        <v>-7.2788195048026545E-4</v>
       </c>
       <c r="R43">
         <f t="shared" si="9"/>
@@ -3600,7 +3600,7 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="I44">
-        <v>10.551584221300001</v>
+        <v>10.551580745200001</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="12"/>
-        <v>9.1714431557197492E-6</v>
+        <v>8.8420014521999641E-6</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>20.547714958349999</v>
+        <v>20.547711420700001</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
-        <v>-3.1801804878204575E-2</v>
+        <v>-3.1802305287618585E-2</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="13"/>
-        <v>-5.1470382812880331E-4</v>
+        <v>-4.9897667511706039E-4</v>
       </c>
       <c r="R44">
         <f t="shared" si="9"/>
@@ -3664,7 +3664,7 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="I45">
-        <v>10.5438456954</v>
+        <v>10.543842096200001</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="12"/>
-        <v>9.5596669678127945E-6</v>
+        <v>9.2183081780028487E-6</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>20.5387575323</v>
+        <v>20.53875387235</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>-4.1801819278277808E-2</v>
+        <v>-4.1802310921032697E-2</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P45" s="5">
         <f t="shared" si="13"/>
-        <v>-3.9127812804132706E-4</v>
+        <v>-3.7952145346788668E-4</v>
       </c>
       <c r="R45">
         <f t="shared" si="9"/>
@@ -3709,7 +3709,7 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="I46">
-        <v>10.5336693692</v>
+        <v>10.5336656485</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -3717,11 +3717,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="12"/>
-        <v>9.9519001583910636E-6</v>
+        <v>9.5986768989391799E-6</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>20.527360492299998</v>
+        <v>20.5273567118</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>-5.1801836171140675E-2</v>
+        <v>-5.1802317645226449E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>-3.154423113013105E-4</v>
+        <v>-3.0615070613724675E-4</v>
       </c>
       <c r="R46">
         <f t="shared" si="9"/>
@@ -3754,7 +3754,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="I47">
-        <v>10.521051615399999</v>
+        <v>10.5210477751</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="12"/>
-        <v>1.0348513038891262E-5</v>
+        <v>9.9834982208332103E-6</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>20.513519771199999</v>
+        <v>20.513515871949998</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>-6.1801853964118067E-2</v>
+        <v>-6.1802325925401226E-2</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P47" s="5">
         <f t="shared" si="13"/>
-        <v>-2.6412705093536504E-4</v>
+        <v>-2.5649238311955489E-4</v>
       </c>
       <c r="R47">
         <f t="shared" si="9"/>
@@ -3799,7 +3799,7 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="I48">
-        <v>10.505987927</v>
+        <v>10.505983968800001</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -3807,11 +3807,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="12"/>
-        <v>1.0749923834580836E-5</v>
+        <v>1.0373163212283441E-5</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>20.497230417800001</v>
+        <v>20.497226401550002</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>-7.1801873583358267E-2</v>
+        <v>-7.1802335460019739E-2</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="P48" s="5">
         <f t="shared" si="13"/>
-        <v>-2.2707668755628019E-4</v>
+        <v>-2.2064549353577383E-4</v>
       </c>
       <c r="R48">
         <f t="shared" si="9"/>
@@ -3844,7 +3844,7 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="I49">
-        <v>10.4884729086</v>
+        <v>10.488468834300001</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="12"/>
-        <v>1.1156541891016323E-5</v>
+        <v>1.0768082532804209E-5</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>20.478486587700001</v>
+        <v>20.478482456150001</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>-8.1801895444450573E-2</v>
+        <v>-8.18023478981076E-2</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="P49" s="5">
         <f t="shared" si="13"/>
-        <v>-1.990556789582933E-4</v>
+        <v>-1.9352568981685696E-4</v>
       </c>
       <c r="R49">
         <f t="shared" si="9"/>
@@ -3889,7 +3889,7 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="I50">
-        <v>10.4685002668</v>
+        <v>10.468496077999999</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -3897,11 +3897,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="12"/>
-        <v>1.1568780830763761E-5</v>
+        <v>1.1168642477346795E-5</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>20.457281532850001</v>
+        <v>20.457277287650001</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>-9.1801919542915597E-2</v>
+        <v>-9.1802362008785318E-2</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="P50" s="5">
         <f t="shared" si="13"/>
-        <v>-1.7711388906745958E-4</v>
+        <v>-1.7229495385267572E-4</v>
       </c>
       <c r="R50">
         <f t="shared" si="9"/>
@@ -3934,7 +3934,7 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="I51">
-        <v>10.4460627989</v>
+        <v>10.446058497299999</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
@@ -3942,11 +3942,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="12"/>
-        <v>1.1987069797057354E-5</v>
+        <v>1.1575273348286528E-5</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>20.433607589250002</v>
+        <v>20.433603232149999</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>-0.10180194657197339</v>
+        <v>-0.10180237849052878</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="P51" s="5">
         <f t="shared" si="13"/>
-        <v>-1.5945331091966094E-4</v>
+        <v>-1.5521125367918789E-4</v>
       </c>
       <c r="R51">
         <f t="shared" si="9"/>
@@ -3979,7 +3979,7 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="I52">
-        <v>10.421152379600001</v>
+        <v>10.421147967</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J83" si="16">SQRT(((I$20-Datum)^2)-$H52*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G52/K)*(Length-G52))+Datum</f>
@@ -3987,11 +3987,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="12"/>
-        <v>1.2411838690124797E-5</v>
+        <v>1.1988406174344255E-5</v>
       </c>
       <c r="L52">
         <f t="shared" ref="L52:L83" si="17">0.5*(I52+I53)-Datum</f>
-        <v>20.40745616305</v>
+        <v>20.407451695700001</v>
       </c>
       <c r="M52">
         <f t="shared" ref="M52:M83" si="18">0.5*(J52+J53)-Datum</f>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="N52">
         <f t="shared" ref="N52:N83" si="19">-K*((I52-I53)/dx)*width*L52</f>
-        <v>-0.11180197553751028</v>
+        <v>-0.11180239798637868</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O83" si="20">-K*((J52-J53)/dx)*width*M52</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="P52" s="5">
         <f t="shared" si="13"/>
-        <v>-1.4493421741809077E-4</v>
+        <v>-1.411562194080033E-4</v>
       </c>
       <c r="R52">
         <f t="shared" ref="R52:R83" si="21">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G52+G53)/2)-(Length/2)))</f>
@@ -4024,7 +4024,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I53">
-        <v>10.393759946499999</v>
+        <v>10.3937554244</v>
       </c>
       <c r="J53">
         <f t="shared" si="16"/>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="12"/>
-        <v>1.2843559386082894E-5</v>
+        <v>1.2408475441246201E-5</v>
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
-        <v>20.378817714549999</v>
+        <v>20.378813138550001</v>
       </c>
       <c r="M53">
         <f t="shared" si="18"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="19"/>
-        <v>-0.12180200846303087</v>
+        <v>-0.12180242047998094</v>
       </c>
       <c r="O53">
         <f t="shared" si="20"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P53" s="5">
         <f t="shared" si="13"/>
-        <v>-1.3276634817850288E-4</v>
+        <v>-1.2938411948388553E-4</v>
       </c>
       <c r="R53">
         <f t="shared" si="21"/>
@@ -4069,7 +4069,7 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="I54">
-        <v>10.363875482599999</v>
+        <v>10.3638708527</v>
       </c>
       <c r="J54">
         <f t="shared" si="16"/>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="12"/>
-        <v>1.3282676556177688E-5</v>
+        <v>1.283593619301682E-5</v>
       </c>
       <c r="L54">
         <f t="shared" si="17"/>
-        <v>20.347681740500001</v>
+        <v>20.347677057449999</v>
       </c>
       <c r="M54">
         <f t="shared" si="18"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="19"/>
-        <v>-0.131802044175411</v>
+        <v>-0.13180244643258329</v>
       </c>
       <c r="O54">
         <f t="shared" si="20"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="P54" s="5">
         <f t="shared" si="13"/>
-        <v>-1.2242349690430986E-4</v>
+        <v>-1.193718907696664E-4</v>
       </c>
       <c r="R54">
         <f t="shared" si="21"/>
@@ -4114,7 +4114,7 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="I55">
-        <v>10.3314879984</v>
+        <v>10.331483262200001</v>
       </c>
       <c r="J55">
         <f t="shared" si="16"/>
@@ -4122,11 +4122,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="12"/>
-        <v>1.3729684659626777E-5</v>
+        <v>1.327125456450727E-5</v>
       </c>
       <c r="L55">
         <f t="shared" si="17"/>
-        <v>20.314036754500002</v>
+        <v>20.314031965950001</v>
       </c>
       <c r="M55">
         <f t="shared" si="18"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="19"/>
-        <v>-0.14180208399853822</v>
+        <v>-0.1418024759479051</v>
       </c>
       <c r="O55">
         <f t="shared" si="20"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="P55" s="5">
         <f t="shared" si="13"/>
-        <v>-1.1351026670866016E-4</v>
+        <v>-1.1074652117297389E-4</v>
       </c>
       <c r="R55">
         <f t="shared" si="21"/>
@@ -4159,7 +4159,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="I56">
-        <v>10.2965855106</v>
+        <v>10.296580669700001</v>
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="12"/>
-        <v>1.4185070912874716E-5</v>
+        <v>1.3714918097399394E-5</v>
       </c>
       <c r="L56">
         <f t="shared" si="17"/>
-        <v>20.277870265200001</v>
+        <v>20.277865372649998</v>
       </c>
       <c r="M56">
         <f t="shared" si="18"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="19"/>
-        <v>-0.15180212728103354</v>
+        <v>-0.15180250959562841</v>
       </c>
       <c r="O56">
         <f t="shared" si="20"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="P56" s="5">
         <f t="shared" si="13"/>
-        <v>-1.0574844825616312E-4</v>
+        <v>-1.032302084097064E-4</v>
       </c>
       <c r="R56">
         <f t="shared" si="21"/>
@@ -4204,7 +4204,7 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="I57">
-        <v>10.2591550198</v>
+        <v>10.259150075599999</v>
       </c>
       <c r="J57">
         <f t="shared" si="16"/>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="12"/>
-        <v>1.4649364223148127E-5</v>
+        <v>1.4167426634685227E-5</v>
       </c>
       <c r="L57">
         <f t="shared" si="17"/>
-        <v>20.239168752449999</v>
+        <v>20.239163757349999</v>
       </c>
       <c r="M57">
         <f t="shared" si="18"/>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="19"/>
-        <v>-0.16180217505129427</v>
+        <v>-0.16180254718730486</v>
       </c>
       <c r="O57">
         <f t="shared" si="20"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="P57" s="5">
         <f t="shared" si="13"/>
-        <v>-9.8918222367534424E-5</v>
+        <v>-9.6618505448157086E-5</v>
       </c>
       <c r="R57">
         <f t="shared" si="21"/>
@@ -4249,7 +4249,7 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="I58">
-        <v>10.219182485099999</v>
+        <v>10.219177439099999</v>
       </c>
       <c r="J58">
         <f t="shared" si="16"/>
@@ -4257,11 +4257,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="12"/>
-        <v>1.5123097347422421E-5</v>
+        <v>1.4629312612824456E-5</v>
       </c>
       <c r="L58">
         <f t="shared" si="17"/>
-        <v>20.197917641</v>
+        <v>20.19791254475</v>
       </c>
       <c r="M58">
         <f t="shared" si="18"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="19"/>
-        <v>-0.17180222791220245</v>
+        <v>-0.17180259054185762</v>
       </c>
       <c r="O58">
         <f t="shared" si="20"/>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="P58" s="5">
         <f t="shared" si="13"/>
-        <v>-9.285342105164788E-5</v>
+        <v>-9.0742878085078586E-5</v>
       </c>
       <c r="R58">
         <f t="shared" si="21"/>
@@ -4294,7 +4294,7 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="I59">
-        <v>10.176652796899999</v>
+        <v>10.1766476504</v>
       </c>
       <c r="J59">
         <f t="shared" si="16"/>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="12"/>
-        <v>1.5606819096291837E-5</v>
+        <v>1.510109482499117E-5</v>
       </c>
       <c r="L59">
         <f t="shared" si="17"/>
-        <v>20.154101272150001</v>
+        <v>20.1540960761</v>
       </c>
       <c r="M59">
         <f t="shared" si="18"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="19"/>
-        <v>-0.18180228546115795</v>
+        <v>-0.18180263804379937</v>
       </c>
       <c r="O59">
         <f t="shared" si="20"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="P59" s="5">
         <f t="shared" si="13"/>
-        <v>-8.7429963622127316E-5</v>
+        <v>-8.5490759094337352E-5</v>
       </c>
       <c r="R59">
         <f t="shared" si="21"/>
@@ -4339,7 +4339,7 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="I60">
-        <v>10.131549747399999</v>
+        <v>10.131544501800001</v>
       </c>
       <c r="J60">
         <f t="shared" si="16"/>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="12"/>
-        <v>1.6101121248278962E-5</v>
+        <v>1.5583363887397106E-5</v>
       </c>
       <c r="L60">
         <f t="shared" si="17"/>
-        <v>20.107702872650002</v>
+        <v>20.107697578150002</v>
       </c>
       <c r="M60">
         <f t="shared" si="18"/>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="19"/>
-        <v>-0.19180234876571478</v>
+        <v>-0.19180269156937199</v>
       </c>
       <c r="O60">
         <f t="shared" si="20"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="P60" s="5">
         <f t="shared" si="13"/>
-        <v>-8.2541979711080283E-5</v>
+        <v>-8.0754851640314063E-5</v>
       </c>
       <c r="R60">
         <f t="shared" si="21"/>
@@ -4384,7 +4384,7 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="I61">
-        <v>10.083855997900001</v>
+        <v>10.083850654500001</v>
       </c>
       <c r="J61">
         <f t="shared" si="16"/>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="12"/>
-        <v>1.6606605556781368E-5</v>
+        <v>1.6076700256998132E-5</v>
       </c>
       <c r="L61">
         <f t="shared" si="17"/>
-        <v>20.058704520999999</v>
+        <v>20.058699129200001</v>
       </c>
       <c r="M61">
         <f t="shared" si="18"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="19"/>
-        <v>-0.20180241736154703</v>
+        <v>-0.20180275145326543</v>
       </c>
       <c r="O61">
         <f t="shared" si="20"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="P61" s="5">
         <f t="shared" si="13"/>
-        <v>-7.8112172497520662E-5</v>
+        <v>-7.6456763082018338E-5</v>
       </c>
       <c r="R61">
         <f t="shared" si="21"/>
@@ -4429,7 +4429,7 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="I62">
-        <v>10.0335530441</v>
+        <v>10.033547603900001</v>
       </c>
       <c r="J62">
         <f t="shared" si="16"/>
@@ -4437,11 +4437,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="12"/>
-        <v>1.7123924151890734E-5</v>
+        <v>1.658171411596525E-5</v>
       </c>
       <c r="L62">
         <f t="shared" si="17"/>
-        <v>20.007087110835002</v>
+        <v>20.007081622904998</v>
       </c>
       <c r="M62">
         <f t="shared" si="18"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="19"/>
-        <v>-0.21180249292095601</v>
+        <v>-0.21180281679889296</v>
       </c>
       <c r="O62">
         <f t="shared" si="20"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P62" s="5">
         <f t="shared" si="13"/>
-        <v>-7.4067755157840307E-5</v>
+        <v>-7.2538717687299241E-5</v>
       </c>
       <c r="R62">
         <f t="shared" si="21"/>
@@ -4474,7 +4474,7 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="I63">
-        <v>9.9806211775700007</v>
+        <v>9.9806156419099992</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="12"/>
-        <v>1.76537299212638E-5</v>
+        <v>1.7099079301021218E-5</v>
       </c>
       <c r="L63">
         <f t="shared" si="17"/>
-        <v>19.952830311364998</v>
+        <v>19.952824728484998</v>
       </c>
       <c r="M63">
         <f t="shared" si="18"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="19"/>
-        <v>-0.22180257503768999</v>
+        <v>-0.22180288984540372</v>
       </c>
       <c r="O63">
         <f t="shared" si="20"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="P63" s="5">
         <f t="shared" si="13"/>
-        <v>-7.0358436631275589E-5</v>
+        <v>-6.89392215283922E-5</v>
       </c>
       <c r="R63">
         <f t="shared" si="21"/>
@@ -4519,7 +4519,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="I64">
-        <v>9.9250394451599995</v>
+        <v>9.9250338150600008</v>
       </c>
       <c r="J64">
         <f t="shared" si="16"/>
@@ -4527,11 +4527,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="12"/>
-        <v>1.8196731212127119E-5</v>
+        <v>1.7629458660800715E-5</v>
       </c>
       <c r="L64">
         <f t="shared" si="17"/>
-        <v>19.895912524715001</v>
+        <v>19.89590684789</v>
       </c>
       <c r="M64">
         <f t="shared" si="18"/>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="19"/>
-        <v>-0.23180266451522102</v>
+        <v>-0.23180297023035398</v>
       </c>
       <c r="O64">
         <f t="shared" si="20"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="P64" s="5">
         <f t="shared" si="13"/>
-        <v>-6.6937385330264929E-5</v>
+        <v>-6.5618614168481664E-5</v>
       </c>
       <c r="R64">
         <f t="shared" si="21"/>
@@ -4564,7 +4564,7 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="I65">
-        <v>9.8667856042699995</v>
+        <v>9.8667798807199993</v>
       </c>
       <c r="J65">
         <f t="shared" si="16"/>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="12"/>
-        <v>1.8753665534056337E-5</v>
+        <v>1.8173572120935561E-5</v>
       </c>
       <c r="L65">
         <f t="shared" si="17"/>
-        <v>19.836310839585</v>
+        <v>19.836305069794999</v>
       </c>
       <c r="M65">
         <f t="shared" si="18"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="19"/>
-        <v>-0.24180276202194431</v>
+        <v>-0.24180305858104803</v>
       </c>
       <c r="O65">
         <f t="shared" si="20"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="P65" s="5">
         <f t="shared" si="13"/>
-        <v>-6.3766074689001009E-5</v>
+        <v>-6.2539702455578642E-5</v>
       </c>
       <c r="R65">
         <f t="shared" si="21"/>
@@ -4609,7 +4609,7 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="I66">
-        <v>9.8058360749000002</v>
+        <v>9.8058302588699995</v>
       </c>
       <c r="J66">
         <f t="shared" si="16"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="12"/>
-        <v>1.9325306687013766E-5</v>
+        <v>1.8732175988840359E-5</v>
       </c>
       <c r="L66">
         <f t="shared" si="17"/>
-        <v>19.774000981404999</v>
+        <v>19.773995119565001</v>
       </c>
       <c r="M66">
         <f t="shared" si="18"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="19"/>
-        <v>-0.25180286800530188</v>
+        <v>-0.25180315569909356</v>
       </c>
       <c r="O66">
         <f t="shared" si="20"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="P66" s="5">
         <f t="shared" si="13"/>
-        <v>-6.0812975322964488E-5</v>
+        <v>-5.9670509002219615E-5</v>
       </c>
       <c r="R66">
         <f t="shared" si="21"/>
@@ -4654,7 +4654,7 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="I67">
-        <v>9.7421658879099997</v>
+        <v>9.7421599802600003</v>
       </c>
       <c r="J67">
         <f t="shared" si="16"/>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="12"/>
-        <v>1.9912474663295138E-5</v>
+        <v>1.9306062526269499E-5</v>
       </c>
       <c r="L67">
         <f t="shared" si="17"/>
-        <v>19.708957258470001</v>
+        <v>19.708951305429999</v>
       </c>
       <c r="M67">
         <f t="shared" si="18"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="19"/>
-        <v>-0.26180298329812984</v>
+        <v>-0.26180326205693161</v>
       </c>
       <c r="O67">
         <f t="shared" si="20"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="P67" s="5">
         <f t="shared" si="13"/>
-        <v>-5.8049902974251651E-5</v>
+        <v>-5.6985199217514654E-5</v>
       </c>
       <c r="R67">
         <f t="shared" si="21"/>
@@ -4699,7 +4699,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="I68">
-        <v>9.6757486290300001</v>
+        <v>9.6757426306000003</v>
       </c>
       <c r="J68">
         <f t="shared" si="16"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>2.0516030393787067E-5</v>
+        <v>1.9896072880029899E-5</v>
       </c>
       <c r="L68">
         <f t="shared" si="17"/>
-        <v>19.641152503819999</v>
+        <v>19.64114646038</v>
       </c>
       <c r="M68">
         <f t="shared" si="18"/>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="19"/>
-        <v>-0.27180310851634637</v>
+        <v>-0.27180337850370584</v>
       </c>
       <c r="O68">
         <f t="shared" si="20"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="P68" s="5">
         <f t="shared" si="13"/>
-        <v>-5.5453618793135424E-5</v>
+        <v>-5.4460354259971337E-5</v>
       </c>
       <c r="R68">
         <f t="shared" si="21"/>
@@ -4744,7 +4744,7 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="I69">
-        <v>9.6065563786099997</v>
+        <v>9.6065502901599995</v>
       </c>
       <c r="J69">
         <f t="shared" si="16"/>
@@ -4752,11 +4752,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>2.1136886354233213E-5</v>
+        <v>2.0503092260795524E-5</v>
       </c>
       <c r="L69">
         <f t="shared" si="17"/>
-        <v>19.570558012565002</v>
+        <v>19.570551879459998</v>
       </c>
       <c r="M69">
         <f t="shared" si="18"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="19"/>
-        <v>-0.2818032444164878</v>
+        <v>-0.28180350567297957</v>
       </c>
       <c r="O69">
         <f t="shared" si="20"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="P69" s="5">
         <f t="shared" si="13"/>
-        <v>-5.3003683389959165E-5</v>
+        <v>-5.207664422560096E-5</v>
       </c>
       <c r="R69">
         <f t="shared" si="21"/>
@@ -4789,7 +4789,7 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="I70">
-        <v>9.53455964652</v>
+        <v>9.5345534687600004</v>
       </c>
       <c r="J70">
         <f t="shared" si="16"/>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>2.1776008467481476E-5</v>
+        <v>2.112806092133882E-5</v>
       </c>
       <c r="L70">
         <f t="shared" si="17"/>
-        <v>19.497143474209999</v>
+        <v>19.497137252129999</v>
       </c>
       <c r="M70">
         <f t="shared" si="18"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="19"/>
-        <v>-0.29180339191353633</v>
+        <v>-0.29180364443621948</v>
       </c>
       <c r="O70">
         <f t="shared" si="20"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="P70" s="5">
         <f t="shared" si="13"/>
-        <v>-5.068191629017033E-5</v>
+        <v>-4.9816573762232094E-5</v>
       </c>
       <c r="R70">
         <f t="shared" si="21"/>
@@ -4834,7 +4834,7 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="I71">
-        <v>9.4597273018999992</v>
+        <v>9.4597210354999994</v>
       </c>
       <c r="J71">
         <f t="shared" si="16"/>
@@ -4842,11 +4842,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>2.2434417890394867E-5</v>
+        <v>2.1771973785735985E-5</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
-        <v>19.420876899644998</v>
+        <v>19.42087058924</v>
       </c>
       <c r="M71">
         <f t="shared" si="18"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="19"/>
-        <v>-0.3018035518784184</v>
+        <v>-0.3018037956598707</v>
       </c>
       <c r="O71">
         <f t="shared" si="20"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="P71" s="5">
         <f t="shared" si="13"/>
-        <v>-4.8472691974919265E-5</v>
+        <v>-4.766498234379606E-5</v>
       </c>
       <c r="R71">
         <f t="shared" si="21"/>
@@ -4879,7 +4879,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="I72">
-        <v>9.3820264973899992</v>
+        <v>9.3820201429800001</v>
       </c>
       <c r="J72">
         <f t="shared" si="16"/>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>2.3113198733081238E-5</v>
+        <v>2.2435886974093417E-5</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
-        <v>19.341724542325</v>
+        <v>19.341718144209999</v>
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="19"/>
-        <v>-0.31180372535375517</v>
+        <v>-0.31180396034305835</v>
       </c>
       <c r="O72">
         <f t="shared" si="20"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="P72" s="5">
         <f t="shared" si="13"/>
-        <v>-4.6361839284302781E-5</v>
+        <v>-4.5608229274095641E-5</v>
       </c>
       <c r="R72">
         <f t="shared" si="21"/>
@@ -4924,7 +4924,7 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="I73">
-        <v>9.3014225872599994</v>
+        <v>9.3014161454399993</v>
       </c>
       <c r="J73">
         <f t="shared" si="16"/>
@@ -4932,11 +4932,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>2.3813500615475696E-5</v>
+        <v>2.312092124474594E-5</v>
       </c>
       <c r="L73">
         <f t="shared" si="17"/>
-        <v>19.259650813135</v>
+        <v>19.259644327905001</v>
       </c>
       <c r="M73">
         <f t="shared" si="18"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="19"/>
-        <v>-0.32180391339705477</v>
+        <v>-0.32180413946169417</v>
       </c>
       <c r="O73">
         <f t="shared" si="20"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P73" s="5">
         <f t="shared" si="13"/>
-        <v>-4.4336901774826494E-5</v>
+        <v>-4.3634441030937467E-5</v>
       </c>
       <c r="R73">
         <f t="shared" si="21"/>
@@ -4969,7 +4969,7 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="I74">
-        <v>9.2178790390100005</v>
+        <v>9.2178725103700003</v>
       </c>
       <c r="J74">
         <f t="shared" si="16"/>
@@ -4977,11 +4977,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>2.453654612660921E-5</v>
+        <v>2.382827037653522E-5</v>
       </c>
       <c r="L74">
         <f t="shared" si="17"/>
-        <v>19.1746181884</v>
+        <v>19.17461161664</v>
       </c>
       <c r="M74">
         <f t="shared" si="18"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="19"/>
-        <v>-0.33180411718086672</v>
+        <v>-0.33180433418459693</v>
       </c>
       <c r="O74">
         <f t="shared" si="20"/>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="P74" s="5">
         <f t="shared" si="13"/>
-        <v>-4.2386578203944681E-5</v>
+        <v>-4.1732594359484053E-5</v>
       </c>
       <c r="R74">
         <f t="shared" si="21"/>
@@ -5014,7 +5014,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="I75">
-        <v>9.1313573377899999</v>
+        <v>9.1313507229099997</v>
       </c>
       <c r="J75">
         <f t="shared" si="16"/>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>2.5283636337094517E-5</v>
+        <v>2.4559204360148026E-5</v>
       </c>
       <c r="L75">
         <f t="shared" si="17"/>
-        <v>19.086587110389999</v>
+        <v>19.086580452699998</v>
       </c>
       <c r="M75">
         <f t="shared" si="18"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="19"/>
-        <v>-0.34180433808882704</v>
+        <v>-0.34180454570091251</v>
       </c>
       <c r="O75">
         <f t="shared" si="20"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="P75" s="5">
         <f t="shared" si="13"/>
-        <v>-4.050027202932779E-5</v>
+        <v>-3.9892896247374368E-5</v>
       </c>
       <c r="R75">
         <f t="shared" si="21"/>
@@ -5059,7 +5059,7 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="I76">
-        <v>9.0418168829900001</v>
+        <v>9.0418101824899999</v>
       </c>
       <c r="J76">
         <f t="shared" si="16"/>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>2.6056154320655188E-5</v>
+        <v>2.5315078198880786E-5</v>
       </c>
       <c r="L76">
         <f t="shared" si="17"/>
-        <v>18.995515879679999</v>
+        <v>18.99550913669</v>
       </c>
       <c r="M76">
         <f t="shared" si="18"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="19"/>
-        <v>-0.35180457744808835</v>
+        <v>-0.35180477541288036</v>
       </c>
       <c r="O76">
         <f t="shared" si="20"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="P76" s="5">
         <f t="shared" si="13"/>
-        <v>-3.8668752212615807E-5</v>
+        <v>-3.81060615893497E-5</v>
       </c>
       <c r="R76">
         <f t="shared" si="21"/>
@@ -5104,7 +5104,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="I77">
-        <v>8.9492148763700001</v>
+        <v>8.94920809089</v>
       </c>
       <c r="J77">
         <f t="shared" si="16"/>
@@ -5112,11 +5112,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>2.6855577232349128E-5</v>
+        <v>2.6097336166308373E-5</v>
       </c>
       <c r="L77">
         <f t="shared" si="17"/>
-        <v>18.901360538565001</v>
+        <v>18.901353710949998</v>
       </c>
       <c r="M77">
         <f t="shared" si="18"/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="19"/>
-        <v>-0.36180483687463477</v>
+        <v>-0.36180502474565518</v>
       </c>
       <c r="O77">
         <f t="shared" si="20"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="P77" s="5">
         <f t="shared" si="13"/>
-        <v>-3.688300980906581E-5</v>
+        <v>-3.6363768295377314E-5</v>
       </c>
       <c r="R77">
         <f t="shared" si="21"/>
@@ -5149,7 +5149,7 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="I78">
-        <v>8.8535062007600001</v>
+        <v>8.8534993310099992</v>
       </c>
       <c r="J78">
         <f t="shared" si="16"/>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>2.7683479541471212E-5</v>
+        <v>2.6907522533743185E-5</v>
       </c>
       <c r="L78">
         <f t="shared" si="17"/>
-        <v>18.804074744659999</v>
+        <v>18.804067833175001</v>
       </c>
       <c r="M78">
         <f t="shared" si="18"/>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="19"/>
-        <v>-0.37180511809671007</v>
+        <v>-0.37180529535390749</v>
       </c>
       <c r="O78">
         <f t="shared" si="20"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="P78" s="5">
         <f t="shared" si="13"/>
-        <v>-3.5134703222518973E-5</v>
+        <v>-3.4657972373711793E-5</v>
       </c>
       <c r="R78">
         <f t="shared" si="21"/>
@@ -5194,7 +5194,7 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="I79">
-        <v>8.7546432885600005</v>
+        <v>8.7546363353400007</v>
       </c>
       <c r="J79">
         <f t="shared" si="16"/>
@@ -5202,11 +5202,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>2.8541542371655963E-5</v>
+        <v>2.7747287457297326E-5</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
-        <v>18.703609633759999</v>
+        <v>18.703602639270002</v>
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="19"/>
-        <v>-0.38180542302530729</v>
+        <v>-0.38180558900262346</v>
       </c>
       <c r="O79">
         <f t="shared" si="20"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="P79" s="5">
         <f t="shared" si="13"/>
-        <v>-3.3415886108722745E-5</v>
+        <v>-3.2981183613994799E-5</v>
       </c>
       <c r="R79">
         <f t="shared" si="21"/>
@@ -5239,7 +5239,7 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="I80">
-        <v>8.6525759789599999</v>
+        <v>8.6525689432000004</v>
       </c>
       <c r="J80">
         <f t="shared" si="16"/>
@@ -5247,11 +5247,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>2.9431562032279044E-5</v>
+        <v>2.8618397595467139E-5</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
-        <v>18.599913670875001</v>
+        <v>18.599906594380002</v>
       </c>
       <c r="M80">
         <f t="shared" si="18"/>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="19"/>
-        <v>-0.39180575363600856</v>
+        <v>-0.39180590763706469</v>
       </c>
       <c r="O80">
         <f t="shared" si="20"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>-3.171925844406623E-5</v>
+        <v>-3.1326216305452362E-5</v>
       </c>
       <c r="R80">
         <f t="shared" si="21"/>
@@ -5284,7 +5284,7 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="I81">
-        <v>8.54725136279</v>
+        <v>8.54724424556</v>
       </c>
       <c r="J81">
         <f t="shared" si="16"/>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>3.0355463641423349E-5</v>
+        <v>2.9522746110987557E-5</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>18.492932488179999</v>
+        <v>18.492925330864999</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="19"/>
-        <v>-0.40180611239865671</v>
+        <v>-0.40180625340330467</v>
       </c>
       <c r="O81">
         <f t="shared" si="20"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>-3.0037016936695922E-5</v>
+        <v>-2.9686100392004714E-5</v>
       </c>
       <c r="R81">
         <f t="shared" si="21"/>
@@ -5329,7 +5329,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="I82">
-        <v>8.4386136135700003</v>
+        <v>8.4386064161699998</v>
       </c>
       <c r="J82">
         <f t="shared" si="16"/>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>3.131530295021449E-5</v>
+        <v>3.0462363626434685E-5</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>18.382608708574999</v>
+        <v>18.382601471845</v>
       </c>
       <c r="M82">
         <f t="shared" si="18"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="19"/>
-        <v>-0.41180650171360417</v>
+        <v>-0.41180662879173791</v>
       </c>
       <c r="O82">
         <f t="shared" si="20"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>-2.8362284831535111E-5</v>
+        <v>-2.8053706581839856E-5</v>
       </c>
       <c r="R82">
         <f t="shared" si="21"/>
@@ -5374,7 +5374,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="I83">
-        <v>8.3266038035799994</v>
+        <v>8.3265965275199996</v>
       </c>
       <c r="J83">
         <f t="shared" si="16"/>
@@ -5382,11 +5382,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>3.231328737357089E-5</v>
+        <v>3.1439426279071803E-5</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>18.268881753285001</v>
+        <v>18.268874438815001</v>
       </c>
       <c r="M83">
         <f t="shared" si="18"/>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="19"/>
-        <v>-0.42180692455860491</v>
+        <v>-0.42180703635911343</v>
       </c>
       <c r="O83">
         <f t="shared" si="20"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>-2.6687468832053773E-5</v>
+        <v>-2.6422424523067926E-5</v>
       </c>
       <c r="R83">
         <f t="shared" si="21"/>
@@ -5419,7 +5419,7 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="I84">
-        <v>8.2111597029900008</v>
+        <v>8.2111523501099999</v>
       </c>
       <c r="J84">
         <f t="shared" ref="J84:J115" si="24">SQRT(((I$20-Datum)^2)-$H84*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G84/K)*(Length-G84))+Datum</f>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>3.3351778474362114E-5</v>
+        <v>3.245627461151393E-5</v>
       </c>
       <c r="L84">
         <f t="shared" ref="L84:L118" si="25">0.5*(I84+I85)-Datum</f>
-        <v>18.151687631754999</v>
+        <v>18.151680241554999</v>
       </c>
       <c r="M84">
         <f t="shared" ref="M84:M118" si="26">0.5*(J84+J85)-Datum</f>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="N84">
         <f t="shared" ref="N84:N118" si="27">-K*((I84-I85)/dx)*width*L84</f>
-        <v>-0.43180738394848461</v>
+        <v>-0.43180747911256345</v>
       </c>
       <c r="O84">
         <f t="shared" ref="O84:O118" si="28">-K*((J84-J85)/dx)*width*M84</f>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>-2.5005592965401365E-5</v>
+        <v>-2.4785212993352316E-5</v>
       </c>
       <c r="R84">
         <f t="shared" ref="R84:R118" si="29">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G84+G85)/2)-(Length/2)))</f>
@@ -5464,7 +5464,7 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="I85">
-        <v>8.0922155605199997</v>
+        <v>8.0922081329999997</v>
       </c>
       <c r="J85">
         <f t="shared" si="24"/>
@@ -5472,11 +5472,11 @@
       </c>
       <c r="K85">
         <f t="shared" ref="K85:K119" si="31">(I85-J85)/J85</f>
-        <v>3.4433313801003947E-5</v>
+        <v>3.3515422316463972E-5</v>
       </c>
       <c r="L85">
         <f t="shared" si="25"/>
-        <v>18.03095871188</v>
+        <v>18.030951248335001</v>
       </c>
       <c r="M85">
         <f t="shared" si="26"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="27"/>
-        <v>-0.44180788345908761</v>
+        <v>-0.44180796040779563</v>
       </c>
       <c r="O85">
         <f t="shared" si="28"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="P85" s="5">
         <f t="shared" ref="P85:P118" si="32">(N85-O85)/O85</f>
-        <v>-2.3309043242997453E-5</v>
+        <v>-2.3134879500573155E-5</v>
       </c>
       <c r="R85">
         <f t="shared" si="29"/>
@@ -5509,7 +5509,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I86">
-        <v>7.9697018632400001</v>
+        <v>7.9696943636700004</v>
       </c>
       <c r="J86">
         <f t="shared" si="24"/>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="31"/>
-        <v>3.5560613906591698E-5</v>
+        <v>3.4619570337121865E-5</v>
       </c>
       <c r="L86">
         <f t="shared" si="25"/>
-        <v>17.90662346829</v>
+        <v>17.90661593423</v>
       </c>
       <c r="M86">
         <f t="shared" si="26"/>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
-        <v>-0.45180842694149581</v>
+        <v>-0.45180848388660566</v>
       </c>
       <c r="O86">
         <f t="shared" si="28"/>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="P86" s="5">
         <f t="shared" si="32"/>
-        <v>-2.1590270324987785E-5</v>
+        <v>-2.1464234870591912E-5</v>
       </c>
       <c r="R86">
         <f t="shared" si="29"/>
@@ -5554,7 +5554,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="I87">
-        <v>7.8435450733399996</v>
+        <v>7.8435375047899996</v>
       </c>
       <c r="J87">
         <f t="shared" si="24"/>
@@ -5562,11 +5562,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="31"/>
-        <v>3.6736601178804941E-5</v>
+        <v>3.5771625779022012E-5</v>
       </c>
       <c r="L87">
         <f t="shared" si="25"/>
-        <v>17.778606206155001</v>
+        <v>17.778598604940001</v>
       </c>
       <c r="M87">
         <f t="shared" si="26"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
-        <v>-0.46180901886236625</v>
+        <v>-0.4618090537118163</v>
       </c>
       <c r="O87">
         <f t="shared" si="28"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="P87" s="5">
         <f t="shared" si="32"/>
-        <v>-1.9841046059085089E-5</v>
+        <v>-1.9765584651500954E-5</v>
       </c>
       <c r="R87">
         <f t="shared" si="29"/>
@@ -5599,7 +5599,7 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="I88">
-        <v>7.7136673389699997</v>
+        <v>7.7136597050900004</v>
       </c>
       <c r="J88">
         <f t="shared" si="24"/>
@@ -5607,11 +5607,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="31"/>
-        <v>3.7964409563151735E-5</v>
+        <v>3.6974715623872622E-5</v>
       </c>
       <c r="L88">
         <f t="shared" si="25"/>
-        <v>17.646826757589999</v>
+        <v>17.646819093185002</v>
       </c>
       <c r="M88">
         <f t="shared" si="26"/>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
-        <v>-0.47180966399578023</v>
+        <v>-0.47180967454612921</v>
       </c>
       <c r="O88">
         <f t="shared" si="28"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P88" s="5">
         <f t="shared" si="32"/>
-        <v>-1.8053188119539374E-5</v>
+        <v>-1.8030827071597805E-5</v>
       </c>
       <c r="R88">
         <f t="shared" si="29"/>
@@ -5644,7 +5644,7 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="I89">
-        <v>7.5799861762100003</v>
+        <v>7.5799784812800004</v>
       </c>
       <c r="J89">
         <f t="shared" si="24"/>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="31"/>
-        <v>3.9247407950218608E-5</v>
+        <v>3.8232203987173658E-5</v>
       </c>
       <c r="L89">
         <f t="shared" si="25"/>
-        <v>17.511200147295</v>
+        <v>17.51119242435</v>
       </c>
       <c r="M89">
         <f t="shared" si="26"/>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
-        <v>-0.48181036786727421</v>
+        <v>-0.48181035160540991</v>
       </c>
       <c r="O89">
         <f t="shared" si="28"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="P89" s="5">
         <f t="shared" si="32"/>
-        <v>-1.6217633954442189E-5</v>
+        <v>-1.6251384993554554E-5</v>
       </c>
       <c r="R89">
         <f t="shared" si="29"/>
@@ -5689,7 +5689,7 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="I90">
-        <v>7.4424141183800003</v>
+        <v>7.4424063674200003</v>
       </c>
       <c r="J90">
         <f t="shared" si="24"/>
@@ -5697,11 +5697,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="31"/>
-        <v>4.0589210763693093E-5</v>
+        <v>3.9547710723234611E-5</v>
       </c>
       <c r="L90">
         <f t="shared" si="25"/>
-        <v>17.371636223540001</v>
+        <v>17.371628447485001</v>
       </c>
       <c r="M90">
         <f t="shared" si="26"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="27"/>
-        <v>-0.49181113673137933</v>
+        <v>-0.49181109095866654</v>
       </c>
       <c r="O90">
         <f t="shared" si="28"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="P90" s="5">
         <f t="shared" si="32"/>
-        <v>-1.4324575746797575E-5</v>
+        <v>-1.4417644109210497E-5</v>
       </c>
       <c r="R90">
         <f t="shared" si="29"/>
@@ -5734,7 +5734,7 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="I91">
-        <v>7.3008583287000004</v>
+        <v>7.3008505275499997</v>
       </c>
       <c r="J91">
         <f t="shared" si="24"/>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="31"/>
-        <v>4.1993691796070457E-5</v>
+        <v>4.0925121876137436E-5</v>
       </c>
       <c r="L91">
         <f t="shared" si="25"/>
-        <v>17.228039250129999</v>
+        <v>17.228031427285</v>
       </c>
       <c r="M91">
         <f t="shared" si="26"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="27"/>
-        <v>-0.50181197750490592</v>
+        <v>-0.50181189914881374</v>
       </c>
       <c r="O91">
         <f t="shared" si="28"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="P91" s="5">
         <f t="shared" si="32"/>
-        <v>-1.2363667766612391E-5</v>
+        <v>-1.2519812153183477E-5</v>
       </c>
       <c r="R91">
         <f t="shared" si="29"/>
@@ -5779,7 +5779,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="I92">
-        <v>7.1552201715599999</v>
+        <v>7.1552123270200001</v>
       </c>
       <c r="J92">
         <f t="shared" si="24"/>
@@ -5787,11 +5787,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="31"/>
-        <v>4.3465003675170064E-5</v>
+        <v>4.2368617991058919E-5</v>
       </c>
       <c r="L92">
         <f t="shared" si="25"/>
-        <v>17.080307454170001</v>
+        <v>17.080299591855002</v>
       </c>
       <c r="M92">
         <f t="shared" si="26"/>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="27"/>
-        <v>-0.51181289809942021</v>
+        <v>-0.51181278394539553</v>
       </c>
       <c r="O92">
         <f t="shared" si="28"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="P92" s="5">
         <f t="shared" si="32"/>
-        <v>-1.0323429210886702E-5</v>
+        <v>-1.0546465493560134E-5</v>
       </c>
       <c r="R92">
         <f t="shared" si="29"/>
@@ -5824,7 +5824,7 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="I93">
-        <v>7.0053947367799996</v>
+        <v>7.0053868566900004</v>
       </c>
       <c r="J93">
         <f t="shared" si="24"/>
@@ -5832,11 +5832,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="31"/>
-        <v>4.5007587310117285E-5</v>
+        <v>4.3882676443688184E-5</v>
       </c>
       <c r="L93">
         <f t="shared" si="25"/>
-        <v>16.928332523664999</v>
+        <v>16.928324630300001</v>
       </c>
       <c r="M93">
         <f t="shared" si="26"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="27"/>
-        <v>-0.52181390744810052</v>
+        <v>-0.5218137540254385</v>
       </c>
       <c r="O93">
         <f t="shared" si="28"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="P93" s="5">
         <f t="shared" si="32"/>
-        <v>-8.191301551918354E-6</v>
+        <v>-8.4853171063106086E-6</v>
       </c>
       <c r="R93">
         <f t="shared" si="29"/>
@@ -5869,7 +5869,7 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="I94">
-        <v>6.8512703105500004</v>
+        <v>6.8512624039099999</v>
       </c>
       <c r="J94">
         <f t="shared" si="24"/>
@@ -5877,11 +5877,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="31"/>
-        <v>4.662618224935032E-5</v>
+        <v>4.5472088439219809E-5</v>
       </c>
       <c r="L94">
         <f t="shared" si="25"/>
-        <v>16.771999048025002</v>
+        <v>16.771991133269999</v>
       </c>
       <c r="M94">
         <f t="shared" si="26"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="27"/>
-        <v>-0.53181501584201785</v>
+        <v>-0.531814819318851</v>
       </c>
       <c r="O94">
         <f t="shared" si="28"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="P94" s="5">
         <f t="shared" si="32"/>
-        <v>-5.9531175796151841E-6</v>
+        <v>-6.3226483207026022E-6</v>
       </c>
       <c r="R94">
         <f t="shared" si="29"/>
@@ -5914,7 +5914,7 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="I95">
-        <v>6.6927277854999998</v>
+        <v>6.6927198626299997</v>
       </c>
       <c r="J95">
         <f t="shared" si="24"/>
@@ -5922,11 +5922,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="31"/>
-        <v>4.8325824080905927E-5</v>
+        <v>4.7141964056529419E-5</v>
       </c>
       <c r="L95">
         <f t="shared" si="25"/>
-        <v>16.611183893395001</v>
+        <v>16.611175968274999</v>
       </c>
       <c r="M95">
         <f t="shared" si="26"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="27"/>
-        <v>-0.5418162348557265</v>
+        <v>-0.54181599130773095</v>
       </c>
       <c r="O95">
         <f t="shared" si="28"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="P95" s="5">
         <f t="shared" si="32"/>
-        <v>-3.59338706094983E-6</v>
+        <v>-4.0428883950162497E-6</v>
       </c>
       <c r="R95">
         <f t="shared" si="29"/>
@@ -5959,7 +5959,7 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="I96">
-        <v>6.5296400012899998</v>
+        <v>6.5296320739200002</v>
       </c>
       <c r="J96">
         <f t="shared" si="24"/>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="31"/>
-        <v>5.0111844424222334E-5</v>
+        <v>4.8897724311457223E-5</v>
       </c>
       <c r="L96">
         <f t="shared" si="25"/>
-        <v>16.445755503285</v>
+        <v>16.445747580324998</v>
       </c>
       <c r="M96">
         <f t="shared" si="26"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="27"/>
-        <v>-0.5518175778824097</v>
+        <v>-0.55181728302670541</v>
       </c>
       <c r="O96">
         <f t="shared" si="28"/>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="P96" s="5">
         <f t="shared" si="32"/>
-        <v>-1.0944470450543041E-6</v>
+        <v>-1.6287819292827849E-6</v>
       </c>
       <c r="R96">
         <f t="shared" si="29"/>
@@ -6004,7 +6004,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="I97">
-        <v>6.3618710052800003</v>
+        <v>6.3618630867299997</v>
       </c>
       <c r="J97">
         <f t="shared" si="24"/>
@@ -6012,11 +6012,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="31"/>
-        <v>5.1989844400339154E-5</v>
+        <v>5.0745090824196792E-5</v>
       </c>
       <c r="L97">
         <f t="shared" si="25"/>
-        <v>16.275573113290001</v>
+        <v>16.275565206669999</v>
       </c>
       <c r="M97">
         <f t="shared" si="26"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="27"/>
-        <v>-0.56181906024242045</v>
+        <v>-0.56181870964556702</v>
       </c>
       <c r="O97">
         <f t="shared" si="28"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="P97" s="5">
         <f t="shared" si="32"/>
-        <v>1.5635383037365632E-6</v>
+        <v>9.3949859697014226E-7</v>
       </c>
       <c r="R97">
         <f t="shared" si="29"/>
@@ -6049,7 +6049,7 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="I98">
-        <v>6.1892752213</v>
+        <v>6.1892673266099996</v>
       </c>
       <c r="J98">
         <f t="shared" si="24"/>
@@ -6057,11 +6057,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="31"/>
-        <v>5.3965655063113862E-5</v>
+        <v>5.2690042691677334E-5</v>
       </c>
       <c r="L98">
         <f t="shared" si="25"/>
-        <v>16.100485866690001</v>
+        <v>16.100477992374998</v>
       </c>
       <c r="M98">
         <f t="shared" si="26"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="27"/>
-        <v>-0.57182069960433146</v>
+        <v>-0.5718202887232976</v>
       </c>
       <c r="O98">
         <f t="shared" si="28"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="P98" s="5">
         <f t="shared" si="32"/>
-        <v>4.4031236201540066E-6</v>
+        <v>3.6845717326348713E-6</v>
       </c>
       <c r="R98">
         <f t="shared" si="29"/>
@@ -6094,7 +6094,7 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="I99">
-        <v>6.0116965120800003</v>
+        <v>6.0116886581399998</v>
       </c>
       <c r="J99">
         <f t="shared" si="24"/>
@@ -6102,11 +6102,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="31"/>
-        <v>5.6045263850641683E-5</v>
+        <v>5.473874743536084E-5</v>
       </c>
       <c r="L99">
         <f t="shared" si="25"/>
-        <v>15.920331815145</v>
+        <v>15.920323991045001</v>
       </c>
       <c r="M99">
         <f t="shared" si="26"/>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="27"/>
-        <v>-0.58182251655814698</v>
+        <v>-0.58182204059454534</v>
       </c>
       <c r="O99">
         <f t="shared" si="28"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="P99" s="5">
         <f t="shared" si="32"/>
-        <v>7.4503343128889785E-6</v>
+        <v>6.632271872565583E-6</v>
       </c>
       <c r="R99">
         <f t="shared" si="29"/>
@@ -6139,7 +6139,7 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="I100">
-        <v>5.8289671182099996</v>
+        <v>5.8289593239500004</v>
       </c>
       <c r="J100">
         <f t="shared" si="24"/>
@@ -6147,11 +6147,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="31"/>
-        <v>5.8234687222335941E-5</v>
+        <v>5.6897449640203022E-5</v>
       </c>
       <c r="L100">
         <f t="shared" si="25"/>
-        <v>15.73493678577</v>
+        <v>15.734929031875</v>
       </c>
       <c r="M100">
         <f t="shared" si="26"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="27"/>
-        <v>-0.5918245347553327</v>
+        <v>-0.59182398905864286</v>
       </c>
       <c r="O100">
         <f t="shared" si="28"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="P100" s="5">
         <f t="shared" si="32"/>
-        <v>1.0734609621799367E-5</v>
+        <v>9.8125414822925575E-6</v>
       </c>
       <c r="R100">
         <f t="shared" si="29"/>
@@ -6184,7 +6184,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="I101">
-        <v>5.6409064533300004</v>
+        <v>5.6408987397999999</v>
       </c>
       <c r="J101">
         <f t="shared" si="24"/>
@@ -6192,11 +6192,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="31"/>
-        <v>6.0539795000444129E-5</v>
+        <v>5.9172284824578801E-5</v>
       </c>
       <c r="L101">
         <f t="shared" si="25"/>
-        <v>15.544113091974999</v>
+        <v>15.544105430505001</v>
       </c>
       <c r="M101">
         <f t="shared" si="26"/>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="27"/>
-        <v>-0.60182678218180929</v>
+        <v>-0.60182616185958226</v>
       </c>
       <c r="O101">
         <f t="shared" si="28"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="P101" s="5">
         <f t="shared" si="32"/>
-        <v>1.4290634431502927E-5</v>
+        <v>1.32598875285837E-5</v>
       </c>
       <c r="R101">
         <f t="shared" si="29"/>
@@ -6229,7 +6229,7 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="I102">
-        <v>5.4473197306200003</v>
+        <v>5.4473121212100004</v>
       </c>
       <c r="J102">
         <f t="shared" si="24"/>
@@ -6237,11 +6237,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="31"/>
-        <v>6.2966000071337718E-5</v>
+        <v>6.1569003105798597E-5</v>
       </c>
       <c r="L102">
         <f t="shared" si="25"/>
-        <v>15.347658060920001</v>
+        <v>15.347650516470001</v>
       </c>
       <c r="M102">
         <f t="shared" si="26"/>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="27"/>
-        <v>-0.61182929133438146</v>
+        <v>-0.61182859178403648</v>
       </c>
       <c r="O102">
         <f t="shared" si="28"/>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="P102" s="5">
         <f t="shared" si="32"/>
-        <v>1.8158198840797554E-5</v>
+        <v>1.701480303175867E-5</v>
       </c>
       <c r="R102">
         <f t="shared" si="29"/>
@@ -6274,7 +6274,7 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="I103">
-        <v>5.2479963912200001</v>
+        <v>5.2479889117300003</v>
       </c>
       <c r="J103">
         <f t="shared" si="24"/>
@@ -6282,11 +6282,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="31"/>
-        <v>6.551783007313069E-5</v>
+        <v>6.4092528018376143E-5</v>
       </c>
       <c r="L103">
         <f t="shared" si="25"/>
-        <v>15.145352344625</v>
+        <v>15.145344944274999</v>
       </c>
       <c r="M103">
         <f t="shared" si="26"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="27"/>
-        <v>-0.62183210070375261</v>
+        <v>-0.62183131742196562</v>
       </c>
       <c r="O103">
         <f t="shared" si="28"/>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="P103" s="5">
         <f t="shared" si="32"/>
-        <v>2.2384172694055817E-5</v>
+        <v>2.1124509001533142E-5</v>
       </c>
       <c r="R103">
         <f t="shared" si="29"/>
@@ -6319,7 +6319,7 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="I104">
-        <v>5.04270829803</v>
+        <v>5.04270097682</v>
       </c>
       <c r="J104">
         <f t="shared" si="24"/>
@@ -6327,11 +6327,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="31"/>
-        <v>6.8198244575350247E-5</v>
+        <v>6.6746304692856463E-5</v>
       </c>
       <c r="L104">
         <f t="shared" si="25"/>
-        <v>14.93695797442</v>
+        <v>14.936950747845</v>
       </c>
       <c r="M104">
         <f t="shared" si="26"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="27"/>
-        <v>-0.63183525581755484</v>
+        <v>-0.63183438470916164</v>
       </c>
       <c r="O104">
         <f t="shared" si="28"/>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="P104" s="5">
         <f t="shared" si="32"/>
-        <v>2.7023596134157058E-5</v>
+        <v>2.5644863425500395E-5</v>
       </c>
       <c r="R104">
         <f t="shared" si="29"/>
@@ -6364,7 +6364,7 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="I105">
-        <v>4.8312076508099997</v>
+        <v>4.8312005188700002</v>
       </c>
       <c r="J105">
         <f t="shared" si="24"/>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="31"/>
-        <v>7.1007617608824617E-5</v>
+        <v>6.9531289755201273E-5</v>
       </c>
       <c r="L105">
         <f t="shared" si="25"/>
-        <v>14.722216109369999</v>
+        <v>14.722209088915001</v>
       </c>
       <c r="M105">
         <f t="shared" si="26"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="27"/>
-        <v>-0.64183881086921435</v>
+        <v>-0.64183784827893808</v>
       </c>
       <c r="O105">
         <f t="shared" si="28"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="P105" s="5">
         <f t="shared" si="32"/>
-        <v>3.214158093263908E-5</v>
+        <v>3.0641794383216827E-5</v>
       </c>
       <c r="R105">
         <f t="shared" si="29"/>
@@ -6409,7 +6409,7 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="I106">
-        <v>4.6132245679299997</v>
+        <v>4.61321765896</v>
       </c>
       <c r="J106">
         <f t="shared" si="24"/>
@@ -6417,11 +6417,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="31"/>
-        <v>7.3942185858687603E-5</v>
+        <v>7.2444430706675132E-5</v>
       </c>
       <c r="L106">
         <f t="shared" si="25"/>
-        <v>14.500844417494999</v>
+        <v>14.500837638225001</v>
       </c>
       <c r="M106">
         <f t="shared" si="26"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="27"/>
-        <v>-0.6518428308290467</v>
+        <v>-0.65184177378343677</v>
       </c>
       <c r="O106">
         <f t="shared" si="28"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="P106" s="5">
         <f t="shared" si="32"/>
-        <v>3.7815776777553083E-5</v>
+        <v>3.6194088951996078E-5</v>
       </c>
       <c r="R106">
         <f t="shared" si="29"/>
@@ -6454,7 +6454,7 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="I107">
-        <v>4.3884642670599998</v>
+        <v>4.3884576174900003</v>
       </c>
       <c r="J107">
         <f t="shared" si="24"/>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="31"/>
-        <v>7.6991659572327577E-5</v>
+        <v>7.5476304414747106E-5</v>
       </c>
       <c r="L107">
         <f t="shared" si="25"/>
-        <v>14.27253401364</v>
+        <v>14.272527513330001</v>
       </c>
       <c r="M107">
         <f t="shared" si="26"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="27"/>
-        <v>-0.66184739405874049</v>
+        <v>-0.66184624049872665</v>
       </c>
       <c r="O107">
         <f t="shared" si="28"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="P107" s="5">
         <f t="shared" si="32"/>
-        <v>4.413937447112733E-5</v>
+        <v>4.2396357966691823E-5</v>
       </c>
       <c r="R107">
         <f t="shared" si="29"/>
@@ -6499,7 +6499,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="I108">
-        <v>4.1566037602200003</v>
+        <v>4.1565974091699998</v>
       </c>
       <c r="J108">
         <f t="shared" si="24"/>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="31"/>
-        <v>8.0135509764117885E-5</v>
+        <v>7.8607445192269457E-5</v>
       </c>
       <c r="L108">
         <f t="shared" si="25"/>
-        <v>14.03694585843</v>
+        <v>14.03693967751</v>
       </c>
       <c r="M108">
         <f t="shared" si="26"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="27"/>
-        <v>-0.67185259558382637</v>
+        <v>-0.67185134450363848</v>
       </c>
       <c r="O108">
         <f t="shared" si="28"/>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="P108" s="5">
         <f t="shared" si="32"/>
-        <v>5.1224820310972106E-5</v>
+        <v>4.9362589990700181E-5</v>
       </c>
       <c r="R108">
         <f t="shared" si="29"/>
@@ -6544,7 +6544,7 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="I109">
-        <v>3.9172879566400001</v>
+        <v>3.9172819458500001</v>
       </c>
       <c r="J109">
         <f t="shared" si="24"/>
@@ -6552,11 +6552,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="31"/>
-        <v>8.3337117013411335E-5</v>
+        <v>8.1802562753320438E-5</v>
       </c>
       <c r="L109">
         <f t="shared" si="25"/>
-        <v>13.793706497264999</v>
+        <v>13.793700678705001</v>
       </c>
       <c r="M109">
         <f t="shared" si="26"/>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="27"/>
-        <v>-0.68185855164897102</v>
+        <v>-0.68185720339728462</v>
       </c>
       <c r="O109">
         <f t="shared" si="28"/>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="P109" s="5">
         <f t="shared" si="32"/>
-        <v>5.9209085155783129E-5</v>
+        <v>5.7231649349054238E-5</v>
       </c>
       <c r="R109">
         <f t="shared" si="29"/>
@@ -6589,7 +6589,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="I110">
-        <v>3.6701250378900001</v>
+        <v>3.67011941156</v>
       </c>
       <c r="J110">
         <f t="shared" si="24"/>
@@ -6597,11 +6597,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="31"/>
-        <v>8.6534335326906442E-5</v>
+        <v>8.5001194953552577E-5</v>
       </c>
       <c r="L110">
         <f t="shared" si="25"/>
-        <v>13.54240298475</v>
+        <v>13.542397573824999</v>
       </c>
       <c r="M110">
         <f t="shared" si="26"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="27"/>
-        <v>-0.69186540546461406</v>
+        <v>-0.69186396218677382</v>
       </c>
       <c r="O110">
         <f t="shared" si="28"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="P110" s="5">
         <f t="shared" si="32"/>
-        <v>6.8260198527327214E-5</v>
+        <v>6.6173988771394559E-5</v>
       </c>
       <c r="R110">
         <f t="shared" si="29"/>
@@ -6634,7 +6634,7 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="I111">
-        <v>3.41468093161</v>
+        <v>3.41467573609</v>
       </c>
       <c r="J111">
         <f t="shared" si="24"/>
@@ -6642,11 +6642,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="31"/>
-        <v>8.9623931531769655E-5</v>
+        <v>8.8102270870936024E-5</v>
       </c>
       <c r="L111">
         <f t="shared" si="25"/>
-        <v>13.28257679513</v>
+        <v>13.28257183911</v>
       </c>
       <c r="M111">
         <f t="shared" si="26"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="27"/>
-        <v>-0.70187333509997363</v>
+        <v>-0.70187180074529409</v>
       </c>
       <c r="O111">
         <f t="shared" si="28"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="P111" s="5">
         <f t="shared" si="32"/>
-        <v>7.8586282346205399E-5</v>
+        <v>7.640002567847672E-5</v>
       </c>
       <c r="R111">
         <f t="shared" si="29"/>
@@ -6679,7 +6679,7 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="I112">
-        <v>3.15047265865</v>
+        <v>3.1504679421300001</v>
       </c>
       <c r="J112">
         <f t="shared" si="24"/>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="31"/>
-        <v>9.2435113640151426E-5</v>
+        <v>9.0937891958508383E-5</v>
       </c>
       <c r="L112">
         <f t="shared" si="25"/>
-        <v>13.01371645873</v>
+        <v>13.01371200645</v>
       </c>
       <c r="M112">
         <f t="shared" si="26"/>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="27"/>
-        <v>-0.71188256389290971</v>
+        <v>-0.71188094484484843</v>
       </c>
       <c r="O112">
         <f t="shared" si="28"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="P112" s="5">
         <f t="shared" si="32"/>
-        <v>9.0447359121691772E-5</v>
+        <v>8.8172834386808055E-5</v>
       </c>
       <c r="R112">
         <f t="shared" si="29"/>
@@ -6724,7 +6724,7 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="I113">
-        <v>2.8769602588100001</v>
+        <v>2.8769560707699999</v>
       </c>
       <c r="J113">
         <f t="shared" si="24"/>
@@ -6732,11 +6732,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="31"/>
-        <v>9.4682840276668788E-5</v>
+        <v>9.3226985430281285E-5</v>
       </c>
       <c r="L113">
         <f t="shared" si="25"/>
-        <v>12.73524858149</v>
+        <v>12.73524468279</v>
       </c>
       <c r="M113">
         <f t="shared" si="26"/>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="27"/>
-        <v>-0.72189337502803941</v>
+        <v>-0.72189168010523452</v>
       </c>
       <c r="O113">
         <f t="shared" si="28"/>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="P113" s="5">
         <f t="shared" si="32"/>
-        <v>1.0417195320784545E-4</v>
+        <v>1.0182382337740078E-4</v>
       </c>
       <c r="R113">
         <f t="shared" si="29"/>
@@ -6769,7 +6769,7 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="I114">
-        <v>2.59353690417</v>
+        <v>2.5935332948099998</v>
       </c>
       <c r="J114">
         <f t="shared" si="24"/>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="31"/>
-        <v>9.5881543087741972E-5</v>
+        <v>9.4489734833379214E-5</v>
       </c>
       <c r="L114">
         <f t="shared" si="25"/>
-        <v>12.446526789675</v>
+        <v>12.446523494714999</v>
       </c>
       <c r="M114">
         <f t="shared" si="26"/>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="27"/>
-        <v>-0.73190613136608262</v>
+        <v>-0.73190437233430905</v>
       </c>
       <c r="O114">
         <f t="shared" si="28"/>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="P114" s="5">
         <f t="shared" si="32"/>
-        <v>1.2017950645620411E-4</v>
+        <v>1.1777586055442618E-4</v>
       </c>
       <c r="R114">
         <f t="shared" si="29"/>
@@ -6814,7 +6814,7 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="I115">
-        <v>2.29951667518</v>
+        <v>2.2995136946199999</v>
       </c>
       <c r="J115">
         <f t="shared" si="24"/>
@@ -6822,11 +6822,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="31"/>
-        <v>9.5176276687053489E-5</v>
+        <v>9.3879985292031083E-5</v>
       </c>
       <c r="L115">
         <f t="shared" si="25"/>
-        <v>12.146817979714999</v>
+        <v>12.1468153381</v>
       </c>
       <c r="M115">
         <f t="shared" si="26"/>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="27"/>
-        <v>-0.74192130382131505</v>
+        <v>-0.74191949563191906</v>
       </c>
       <c r="O115">
         <f t="shared" si="28"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="P115" s="5">
         <f t="shared" si="32"/>
-        <v>1.3901250421772548E-4</v>
+        <v>1.3657499400254164E-4</v>
       </c>
       <c r="R115">
         <f t="shared" si="29"/>
@@ -6859,7 +6859,7 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="I116">
-        <v>1.99411928425</v>
+        <v>1.9941169815799999</v>
       </c>
       <c r="J116">
         <f t="shared" ref="J116:J119" si="34">SQRT(((I$20-Datum)^2)-$H116*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G116/K)*(Length-G116))+Datum</f>
@@ -6867,11 +6867,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="31"/>
-        <v>9.0986556562558979E-5</v>
+        <v>8.9831721177227543E-5</v>
       </c>
       <c r="L116">
         <f t="shared" si="25"/>
-        <v>11.83528502069</v>
+        <v>11.835283080515</v>
       </c>
       <c r="M116">
         <f t="shared" si="26"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="27"/>
-        <v>-0.751939512113598</v>
+        <v>-0.75193767275471501</v>
       </c>
       <c r="O116">
         <f t="shared" si="28"/>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="P116" s="5">
         <f t="shared" si="32"/>
-        <v>1.6138249692346649E-4</v>
+        <v>1.5893594943703287E-4</v>
       </c>
       <c r="R116">
         <f t="shared" si="29"/>
@@ -6904,7 +6904,7 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="I117">
-        <v>1.67645075713</v>
+        <v>1.67644917945</v>
       </c>
       <c r="J117">
         <f t="shared" si="34"/>
@@ -6912,11 +6912,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="31"/>
-        <v>8.017670185499731E-5</v>
+        <v>7.9235542989194592E-5</v>
       </c>
       <c r="L117">
         <f t="shared" si="25"/>
-        <v>11.510964717809999</v>
+        <v>11.51096352461</v>
       </c>
       <c r="M117">
         <f t="shared" si="26"/>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="27"/>
-        <v>-0.76196158396105562</v>
+        <v>-0.7619597346837762</v>
       </c>
       <c r="O117">
         <f t="shared" si="28"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="P117" s="5">
         <f t="shared" si="32"/>
-        <v>1.8823670305919367E-4</v>
+        <v>1.8580925078310557E-4</v>
       </c>
       <c r="R117">
         <f t="shared" si="29"/>
@@ -6949,7 +6949,7 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="I118">
-        <v>1.3454786784899999</v>
+        <v>1.3454778697700001</v>
       </c>
       <c r="J118">
         <f t="shared" si="34"/>
@@ -6957,11 +6957,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="31"/>
-        <v>5.5837392260772394E-5</v>
+        <v>5.5236293804437259E-5</v>
       </c>
       <c r="L118">
         <f t="shared" si="25"/>
-        <v>11.172739339245</v>
+        <v>11.172738934885</v>
       </c>
       <c r="M118">
         <f t="shared" si="26"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="27"/>
-        <v>-0.77198864440711945</v>
+        <v>-0.77198680934408181</v>
       </c>
       <c r="O118">
         <f t="shared" si="28"/>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="P118" s="5">
         <f t="shared" si="32"/>
-        <v>2.208584780100218E-4</v>
+        <v>2.1848089339117623E-4</v>
       </c>
       <c r="R118">
         <f t="shared" si="29"/>

--- a/Test/WaterTableExample_simple.xlsx
+++ b/Test/WaterTableExample_simple.xlsx
@@ -1188,298 +1188,298 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.051981961599999</c:v>
+                  <c:v>10.0519818892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.101342260999999</c:v>
+                  <c:v>10.101342113399999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.148100167699999</c:v>
+                  <c:v>10.1480999424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.192273761599999</c:v>
+                  <c:v>10.192273456300001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.2338799695</c:v>
+                  <c:v>10.2338795822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.272934599699999</c:v>
+                  <c:v>10.272934128599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.309452372899999</c:v>
+                  <c:v>10.309451816499999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.343446951400001</c:v>
+                  <c:v>10.343446308500001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.374930965500001</c:v>
+                  <c:v>10.374930235100001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.4039160376</c:v>
+                  <c:v>10.4039152188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.430412804099999</c:v>
+                  <c:v>10.430411896400001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.4544309357</c:v>
+                  <c:v>10.454429938700001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.475979155199999</c:v>
+                  <c:v>10.4759780686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.4950652535</c:v>
+                  <c:v>10.4950640774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.5116961038</c:v>
+                  <c:v>10.5116948385</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.5258776746</c:v>
+                  <c:v>10.5258763204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.5376150398</c:v>
+                  <c:v>10.5376135975</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.546912388499999</c:v>
+                  <c:v>10.5469108588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.5537730318</c:v>
+                  <c:v>10.5537714158</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.5581994094</c:v>
+                  <c:v>10.5581977083</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.560193093600001</c:v>
+                  <c:v>10.5601913088</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.559754792</c:v>
+                  <c:v>10.5597529252</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.556884348900001</c:v>
+                  <c:v>10.556882401999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.551580745200001</c:v>
+                  <c:v>10.5515787202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.543842096200001</c:v>
+                  <c:v>10.543839995500001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.5336656485</c:v>
+                  <c:v>10.533663474600001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.5210477751</c:v>
+                  <c:v>10.5210455309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.505983968800001</c:v>
+                  <c:v>10.5059816573</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.488468834300001</c:v>
+                  <c:v>10.4884664587</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.468496077999999</c:v>
+                  <c:v>10.468493642</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.446058497299999</c:v>
+                  <c:v>10.446056004800001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.421147967</c:v>
+                  <c:v>10.4211454222</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.3937554244</c:v>
+                  <c:v>10.393752831700001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.3638708527</c:v>
+                  <c:v>10.3638682169</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.331483262200001</c:v>
+                  <c:v>10.3314805884</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.296580669700001</c:v>
+                  <c:v>10.296577963400001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.259150075599999</c:v>
+                  <c:v>10.2591473426</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.219177439099999</c:v>
+                  <c:v>10.219174685500001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.1766476504</c:v>
+                  <c:v>10.176644883</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.131544501800001</c:v>
+                  <c:v>10.1315417275</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.083850654500001</c:v>
+                  <c:v>10.0838478806</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.033547603900001</c:v>
+                  <c:v>10.033544838399999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9806156419099992</c:v>
+                  <c:v>9.9806128929700009</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9250338150600008</c:v>
+                  <c:v>9.9250310913799993</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.8667798807199993</c:v>
+                  <c:v>9.8667771914800007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.8058302588699995</c:v>
+                  <c:v>9.8058276136700009</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.7421599802600003</c:v>
+                  <c:v>9.74215738921</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.6757426306000003</c:v>
+                  <c:v>9.6757401042600009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.6065502901599995</c:v>
+                  <c:v>9.6065478395799992</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.5345534687600004</c:v>
+                  <c:v>9.5345511054499994</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.4597210354999994</c:v>
+                  <c:v>9.4597187714499995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3820201429800001</c:v>
+                  <c:v>9.3820179906300005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3014161454399993</c:v>
+                  <c:v>9.3014141176899994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.2178725103700003</c:v>
+                  <c:v>9.2178706205300003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.1313507229099997</c:v>
+                  <c:v>9.1313489847099998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.0418101824899999</c:v>
+                  <c:v>9.0418086100200004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.94920809089</c:v>
+                  <c:v>8.9492066985599994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.8534993310099992</c:v>
+                  <c:v>8.8534981335299996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.7546363353400007</c:v>
+                  <c:v>8.7546353476200007</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6525689432000004</c:v>
+                  <c:v>8.6525681803199994</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.54724424556</c:v>
+                  <c:v>8.5472437226599993</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4386064161699998</c:v>
+                  <c:v>8.4386061483500008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.3265965275199996</c:v>
+                  <c:v>8.3265965297700006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.2111523501099999</c:v>
+                  <c:v>8.2111526371199997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.0922081329999997</c:v>
+                  <c:v>8.0922087190600003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.9696943636700004</c:v>
+                  <c:v>7.9696952624800002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8435375047899996</c:v>
+                  <c:v>7.8435387292999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.7136597050900004</c:v>
+                  <c:v>7.71366126726</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5799784812800004</c:v>
+                  <c:v>7.5799803918500004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.4424063674200003</c:v>
+                  <c:v>7.4424086356399997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.3008505275499997</c:v>
+                  <c:v>7.30085316093</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1552123270200001</c:v>
+                  <c:v>7.15521533094</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0053868566900004</c:v>
+                  <c:v>7.0053902341200001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.8512624039099999</c:v>
+                  <c:v>6.8512661549800002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.6927198626299997</c:v>
+                  <c:v>6.6927239842499997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.5296320739200002</c:v>
+                  <c:v>6.5296365593400001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.3618630867299997</c:v>
+                  <c:v>6.3618679250700003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.1892673266099996</c:v>
+                  <c:v>6.1892725023999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.0116886581399998</c:v>
+                  <c:v>6.0116941508100004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.8289593239500004</c:v>
+                  <c:v>5.8289651073600002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.6408987397999999</c:v>
+                  <c:v>5.6409047817699998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4473121212100004</c:v>
+                  <c:v>5.4473183830499998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.2479889117300003</c:v>
+                  <c:v>5.2479953478799999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.04270097682</c:v>
+                  <c:v>5.0427075345599999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.8312005188700002</c:v>
+                  <c:v>4.8312071381599999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.61321765896</c:v>
+                  <c:v>4.6132242724600001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3884576174900003</c:v>
+                  <c:v>4.38846415085</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.1565974091699998</c:v>
+                  <c:v>4.1566037816400003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9172819458500001</c:v>
+                  <c:v>3.9172880713199998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.67011941156</c:v>
+                  <c:v>3.6701252001300002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.41467573609</c:v>
+                  <c:v>3.4146810963699998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1504679421300001</c:v>
+                  <c:v>3.1504727843000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.8769560707699999</c:v>
+                  <c:v>2.8769603106799999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.5935332948099998</c:v>
+                  <c:v>2.5935368592399999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.2995136946199999</c:v>
+                  <c:v>2.2995165277699998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9941169815799999</c:v>
+                  <c:v>1.9941190530299999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.67644917945</c:v>
+                  <c:v>1.67645049331</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3454778697700001</c:v>
+                  <c:v>1.3454784748099999</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1</c:v>
@@ -1497,11 +1497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150604416"/>
-        <c:axId val="150610304"/>
+        <c:axId val="224070272"/>
+        <c:axId val="224076160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150604416"/>
+        <c:axId val="224070272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1512,12 +1512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150610304"/>
+        <c:crossAx val="224076160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150610304"/>
+        <c:axId val="224076160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1530,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150604416"/>
+        <c:crossAx val="224070272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I20" sqref="I20:I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="L20">
         <f t="shared" ref="L20:L51" si="5">0.5*(I20+I21)-Datum</f>
-        <v>20.0259909808</v>
+        <v>20.0259909446</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:M51" si="6">0.5*(J20+J21)-Datum</f>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="N20">
         <f t="shared" ref="N20:N51" si="7">-K*((I20-I21)/dx)*width*L20</f>
-        <v>0.20819805883317533</v>
+        <v>0.20819776848048149</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20:O51" si="8">-K*((J20-J21)/dx)*width*M20</f>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="P20" s="5">
         <f>(N20-O20)/O20</f>
-        <v>7.8011862438855258E-5</v>
+        <v>7.6617155175904409E-5</v>
       </c>
       <c r="R20">
         <f t="shared" ref="R20:R51" si="9">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G20+G21)/2)-(Length/2)))</f>
@@ -2105,7 +2105,7 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="I21">
-        <v>10.051981961599999</v>
+        <v>10.0519818892</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -2113,11 +2113,11 @@
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K84" si="12">(I21-J21)/J21</f>
-        <v>4.0286975161348463E-7</v>
+        <v>3.956671891407978E-7</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>20.076662111299999</v>
+        <v>20.076662001300001</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.19819801055328068</v>
+        <v>0.19819770751435406</v>
       </c>
       <c r="O21">
         <f t="shared" si="8"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ref="P21:P84" si="13">(N21-O21)/O21</f>
-        <v>8.1704626612296504E-5</v>
+        <v>8.0175531111008116E-5</v>
       </c>
       <c r="R21">
         <f t="shared" si="9"/>
@@ -2170,7 +2170,7 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="I22">
-        <v>10.101342260999999</v>
+        <v>10.101342113399999</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>7.9864489734946577E-7</v>
+        <v>7.8403296619771843E-7</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>20.12472121435</v>
+        <v>20.124721027900002</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.1881979673808172</v>
+        <v>0.18819765289905285</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="P22" s="5">
         <f t="shared" si="13"/>
-        <v>8.5816999525632773E-5</v>
+        <v>8.4145840391395635E-5</v>
       </c>
       <c r="R22">
         <f t="shared" si="9"/>
@@ -2235,7 +2235,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="I23">
-        <v>10.148100167699999</v>
+        <v>10.1480999424</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="12"/>
-        <v>1.1880348382404668E-6</v>
+        <v>1.1658336120954169E-6</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>20.17018696465</v>
+        <v>20.170186699350001</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.17819792957270492</v>
+        <v>0.17819760450586875</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" si="13"/>
-        <v>9.042107124976979E-5</v>
+        <v>8.859671655697374E-5</v>
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
@@ -2300,7 +2300,7 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="I24">
-        <v>10.192273761599999</v>
+        <v>10.192273456300001</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -2308,11 +2308,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>1.5717228156281094E-6</v>
+        <v>1.5417687067017486E-6</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>20.213076865550001</v>
+        <v>20.213076519250002</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>0.16819789567335486</v>
+        <v>0.16819756129724814</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="P24" s="5">
         <f t="shared" si="13"/>
-        <v>9.5595895651040322E-5</v>
+        <v>9.3607713394868339E-5</v>
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
@@ -2365,7 +2365,7 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="I25">
-        <v>10.2338799695</v>
+        <v>10.2338795822</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -2373,11 +2373,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>1.9503277382874015E-6</v>
+        <v>1.9124827805013881E-6</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>20.253407284600002</v>
+        <v>20.253406855400002</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>0.15819786635800379</v>
+        <v>0.15819752355845612</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="P25" s="5">
         <f t="shared" si="13"/>
-        <v>1.0145398744418438E-4</v>
+        <v>9.9286863866994348E-5</v>
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
@@ -2430,7 +2430,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="I26">
-        <v>10.272934599699999</v>
+        <v>10.272934128599999</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>2.3244594673124975E-6</v>
+        <v>2.278600994217015E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>20.291193486299999</v>
+        <v>20.29119297255</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>0.14819784033800387</v>
+        <v>0.14819749041805078</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="P26" s="5">
         <f t="shared" si="13"/>
-        <v>1.081249803679331E-4</v>
+        <v>1.0576355737157627E-4</v>
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
@@ -2495,7 +2495,7 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="I27">
-        <v>10.309452372899999</v>
+        <v>10.309451816499999</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="12"/>
-        <v>2.6946742261413369E-6</v>
+        <v>2.6407041917454471E-6</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>20.326449662150001</v>
+        <v>20.3264490625</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>0.13819781773325759</v>
+        <v>0.1381974620087188</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P27" s="5">
         <f t="shared" si="13"/>
-        <v>1.1578622757809812E-4</v>
+        <v>1.1321190525785286E-4</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
@@ -2560,7 +2560,7 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="I28">
-        <v>10.343446951400001</v>
+        <v>10.343446308500001</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="12"/>
-        <v>3.0615114388660887E-6</v>
+        <v>2.9993559532557754E-6</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>20.359188958450002</v>
+        <v>20.359188271800001</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.12819779844648133</v>
+        <v>0.12819743783698637</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P28" s="5">
         <f t="shared" si="13"/>
-        <v>1.2466873132218432E-4</v>
+        <v>1.2185546575867224E-4</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
@@ -2625,7 +2625,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I29">
-        <v>10.374930965500001</v>
+        <v>10.374930235100001</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="12"/>
-        <v>3.425490828461158E-6</v>
+        <v>3.3550901188617631E-6</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>20.389423501549999</v>
+        <v>20.389422726950002</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>0.11819778205396954</v>
+        <v>0.11819741707860755</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="P29" s="5">
         <f t="shared" si="13"/>
-        <v>1.350789182666379E-4</v>
+        <v>1.3199066520365964E-4</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
@@ -2690,7 +2690,7 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="I30">
-        <v>10.4039160376</v>
+        <v>10.4039152188</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="12"/>
-        <v>3.7871069432958932E-6</v>
+        <v>3.7084055102806472E-6</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>20.41716442085</v>
+        <v>20.417163557599999</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>0.10819776765027128</v>
+        <v>0.10819740005844271</v>
       </c>
       <c r="O30">
         <f t="shared" si="8"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="P30" s="5">
         <f t="shared" si="13"/>
-        <v>1.4743206127161682E-4</v>
+        <v>1.4403415361253537E-4</v>
       </c>
       <c r="R30">
         <f t="shared" si="9"/>
@@ -2755,7 +2755,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I31">
-        <v>10.430412804099999</v>
+        <v>10.430411896400001</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="12"/>
-        <v>4.1468200648450989E-6</v>
+        <v>4.0597953439796065E-6</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>20.442421869899999</v>
+        <v>20.442420917550002</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>9.8197755738795661E-2</v>
+        <v>9.8197386062423425E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="8"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="P31" s="5">
         <f t="shared" si="13"/>
-        <v>1.6232696919364232E-4</v>
+        <v>1.5856174688383068E-4</v>
       </c>
       <c r="R31">
         <f t="shared" si="9"/>
@@ -2820,7 +2820,7 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="I32">
-        <v>10.4544309357</v>
+        <v>10.454429938700001</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="12"/>
-        <v>4.5050913932529171E-6</v>
+        <v>4.4097247016834218E-6</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>20.465205045449999</v>
+        <v>20.465204003650001</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>8.8197746086371306E-2</v>
+        <v>8.8197374860127298E-2</v>
       </c>
       <c r="O32">
         <f t="shared" si="8"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="P32" s="5">
         <f t="shared" si="13"/>
-        <v>1.8062572172435748E-4</v>
+        <v>1.7641593957580585E-4</v>
       </c>
       <c r="R32">
         <f t="shared" si="9"/>
@@ -2885,7 +2885,7 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="I33">
-        <v>10.475979155199999</v>
+        <v>10.4759780686</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>4.862367390375371E-6</v>
+        <v>4.7586438847572322E-6</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>20.485522204349998</v>
+        <v>20.485521073000001</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>7.819773810381439E-2</v>
+        <v>7.8197367094374498E-2</v>
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="P33" s="5">
         <f t="shared" si="13"/>
-        <v>2.0362690929372857E-4</v>
+        <v>1.988814397137103E-4</v>
       </c>
       <c r="R33">
         <f t="shared" si="9"/>
@@ -2950,7 +2950,7 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="I34">
-        <v>10.4950652535</v>
+        <v>10.4950640774</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="12"/>
-        <v>5.2190732408454482E-6</v>
+        <v>5.1070104656882242E-6</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>20.50338067865</v>
+        <v>20.50337945795</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>6.8197730942109472E-2</v>
+        <v>6.819736110156302E-2</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="P34" s="5">
         <f t="shared" si="13"/>
-        <v>2.3338715096322138E-4</v>
+        <v>2.2796282294859266E-4</v>
       </c>
       <c r="R34">
         <f t="shared" si="9"/>
@@ -3015,7 +3015,7 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="I35">
-        <v>10.5116961038</v>
+        <v>10.5116948385</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="12"/>
-        <v>5.575608564305937E-6</v>
+        <v>5.45523721393495E-6</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>20.518786889200001</v>
+        <v>20.51878557945</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="7"/>
-        <v>5.8197725799860031E-2</v>
+        <v>5.819735726098893E-2</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P35" s="5">
         <f t="shared" si="13"/>
-        <v>2.7341218520081633E-4</v>
+        <v>2.6707792335376536E-4</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
@@ -3080,7 +3080,7 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="I36">
-        <v>10.5258776746</v>
+        <v>10.5258763204</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -3088,11 +3088,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="12"/>
-        <v>5.9323964741022071E-6</v>
+        <v>5.8037413561488911E-6</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>20.531746357199999</v>
+        <v>20.53174495895</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="7"/>
-        <v>4.8197721037645733E-2</v>
+        <v>4.8197355985944615E-2</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="P36" s="5">
         <f t="shared" si="13"/>
-        <v>3.3005927177562778E-4</v>
+        <v>3.2248272703544836E-4</v>
       </c>
       <c r="R36">
         <f t="shared" si="9"/>
@@ -3145,7 +3145,7 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="I37">
-        <v>10.5376150398</v>
+        <v>10.5376135975</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="12"/>
-        <v>6.2898191322584177E-6</v>
+        <v>6.1529466932217726E-6</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>20.54226371415</v>
+        <v>20.542262228150001</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="7"/>
-        <v>3.8197717767556857E-2</v>
+        <v>3.8197355925647859E-2</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="P37" s="5">
         <f t="shared" si="13"/>
-        <v>4.1641772160932794E-4</v>
+        <v>4.0694090970699566E-4</v>
       </c>
       <c r="R37">
         <f t="shared" si="9"/>
@@ -3210,7 +3210,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="I38">
-        <v>10.546912388499999</v>
+        <v>10.5469108588</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="12"/>
-        <v>6.6482829137697959E-6</v>
+        <v>6.5032442415782488E-6</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>20.550342710149998</v>
+        <v>20.550341137300002</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>2.8197714205424464E-2</v>
+        <v>2.8197357348376431E-2</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" si="13"/>
-        <v>5.6405245066778835E-4</v>
+        <v>5.5138978122144734E-4</v>
       </c>
       <c r="R38">
         <f t="shared" si="9"/>
@@ -3275,7 +3275,7 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="I39">
-        <v>10.5537730318</v>
+        <v>10.5537714158</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="12"/>
-        <v>7.0081527900946451E-6</v>
+        <v>6.8550311225367661E-6</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>20.555986220600001</v>
+        <v>20.55598456205</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
-        <v>1.8197711390553487E-2</v>
+        <v>1.8197360059422792E-2</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="13"/>
-        <v>8.7412648047374014E-4</v>
+        <v>8.5480326828551957E-4</v>
       </c>
       <c r="R39">
         <f t="shared" si="9"/>
@@ -3340,7 +3340,7 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="I40">
-        <v>10.5581994094</v>
+        <v>10.5581977083</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="12"/>
-        <v>7.369818847445273E-6</v>
+        <v>7.2087011728063768E-6</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>20.559196251500001</v>
+        <v>20.55919450855</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
-        <v>8.1977089462643756E-3</v>
+        <v>8.1973640903706662E-3</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="13"/>
-        <v>1.9422045437524546E-3</v>
+        <v>1.9000554900768453E-3</v>
       </c>
       <c r="R40">
         <f t="shared" si="9"/>
@@ -3405,7 +3405,7 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="I41">
-        <v>10.560193093600001</v>
+        <v>10.5601913088</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="12"/>
-        <v>7.7336648456769068E-6</v>
+        <v>7.564651477506196E-6</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>20.559973942799999</v>
+        <v>20.559972117000001</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>-1.8022938950212602E-3</v>
+        <v>-1.8026309185124483E-3</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="13"/>
-        <v>-8.7383577366347952E-3</v>
+        <v>-8.5529948164809969E-3</v>
       </c>
       <c r="R41">
         <f t="shared" si="9"/>
@@ -3470,7 +3470,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I42">
-        <v>10.559754792</v>
+        <v>10.5597529252</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="12"/>
-        <v>8.1000605027651044E-6</v>
+        <v>7.9232746627639786E-6</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>20.558319570449999</v>
+        <v>20.5583176636</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>-1.1802297311714787E-2</v>
+        <v>-1.1802625561268213E-2</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="13"/>
-        <v>-1.344073624048623E-3</v>
+        <v>-1.3162986618356831E-3</v>
       </c>
       <c r="R42">
         <f t="shared" si="9"/>
@@ -3535,7 +3535,7 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="I43">
-        <v>10.556884348900001</v>
+        <v>10.556882401999999</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="12"/>
-        <v>8.469376307841182E-6</v>
+        <v>8.2849548037402381E-6</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>20.554232547049999</v>
+        <v>20.554230561099999</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>-2.1802300757438244E-2</v>
+        <v>-2.1802619707978609E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="13"/>
-        <v>-7.2788195048026545E-4</v>
+        <v>-7.1326338404689683E-4</v>
       </c>
       <c r="R43">
         <f t="shared" si="9"/>
@@ -3600,7 +3600,7 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="I44">
-        <v>10.551580745200001</v>
+        <v>10.5515787202</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="12"/>
-        <v>8.8420014521999641E-6</v>
+        <v>8.6500853825109897E-6</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>20.547711420700001</v>
+        <v>20.54770935785</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
-        <v>-3.1802305287618585E-2</v>
+        <v>-3.1802613187200381E-2</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="13"/>
-        <v>-4.9897667511706039E-4</v>
+        <v>-4.8929983111776186E-4</v>
       </c>
       <c r="R44">
         <f t="shared" si="9"/>
@@ -3664,7 +3664,7 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="I45">
-        <v>10.543842096200001</v>
+        <v>10.543839995500001</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="12"/>
-        <v>9.2183081780028487E-6</v>
+        <v>9.0190715671485557E-6</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>20.53875387235</v>
+        <v>20.538751735049999</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>-4.1802310921032697E-2</v>
+        <v>-4.1802607258329454E-2</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P45" s="5">
         <f t="shared" si="13"/>
-        <v>-3.7952145346788668E-4</v>
+        <v>-3.7243512680630982E-4</v>
       </c>
       <c r="R45">
         <f t="shared" si="9"/>
@@ -3709,7 +3709,7 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="I46">
-        <v>10.5336656485</v>
+        <v>10.533663474600001</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -3717,11 +3717,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="12"/>
-        <v>9.5986768989391799E-6</v>
+        <v>9.3922985176817339E-6</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>20.5273567118</v>
+        <v>20.527354502750001</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>-5.1802317645226449E-2</v>
+        <v>-5.1802600685130124E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>-3.0615070613724675E-4</v>
+        <v>-3.0068853255756637E-4</v>
       </c>
       <c r="R46">
         <f t="shared" si="9"/>
@@ -3754,7 +3754,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="I47">
-        <v>10.5210477751</v>
+        <v>10.5210455309</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="12"/>
-        <v>9.9834982208332103E-6</v>
+        <v>9.7701903400870989E-6</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>20.513515871949998</v>
+        <v>20.513513594100001</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>-6.1802325925401226E-2</v>
+        <v>-6.1802595174684241E-2</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P47" s="5">
         <f t="shared" si="13"/>
-        <v>-2.5649238311955489E-4</v>
+        <v>-2.5213688001195846E-4</v>
       </c>
       <c r="R47">
         <f t="shared" si="9"/>
@@ -3799,7 +3799,7 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="I48">
-        <v>10.505983968800001</v>
+        <v>10.5059816573</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -3807,11 +3807,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="12"/>
-        <v>1.0373163212283441E-5</v>
+        <v>1.0153143461100156E-5</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>20.497226401550002</v>
+        <v>20.497224058</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>-7.1802335460019739E-2</v>
+        <v>-7.1802590024913376E-2</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="P48" s="5">
         <f t="shared" si="13"/>
-        <v>-2.2064549353577383E-4</v>
+        <v>-2.1710091906741166E-4</v>
       </c>
       <c r="R48">
         <f t="shared" si="9"/>
@@ -3844,7 +3844,7 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="I49">
-        <v>10.488468834300001</v>
+        <v>10.4884664587</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="12"/>
-        <v>1.0768082532804209E-5</v>
+        <v>1.0541583734996205E-5</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>20.478482456150001</v>
+        <v>20.478480050350001</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>-8.18023478981076E-2</v>
+        <v>-8.180258566804656E-2</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="P49" s="5">
         <f t="shared" si="13"/>
-        <v>-1.9352568981685696E-4</v>
+        <v>-1.9061961278512413E-4</v>
       </c>
       <c r="R49">
         <f t="shared" si="9"/>
@@ -3889,7 +3889,7 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="I50">
-        <v>10.468496077999999</v>
+        <v>10.468493642</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -3897,11 +3897,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="12"/>
-        <v>1.1168642477346795E-5</v>
+        <v>1.0935941697051968E-5</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>20.457277287650001</v>
+        <v>20.457274823399999</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>-9.1802362008785318E-2</v>
+        <v>-9.1802582117626499E-2</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="P50" s="5">
         <f t="shared" si="13"/>
-        <v>-1.7229495385267572E-4</v>
+        <v>-1.6989772884971126E-4</v>
       </c>
       <c r="R50">
         <f t="shared" si="9"/>
@@ -3934,7 +3934,7 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="I51">
-        <v>10.446058497299999</v>
+        <v>10.446056004800001</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
@@ -3942,11 +3942,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="12"/>
-        <v>1.1575273348286528E-5</v>
+        <v>1.1336663843044941E-5</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>20.433603232149999</v>
+        <v>20.433600713499999</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>-0.10180237849052878</v>
+        <v>-0.10180257967781396</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="P51" s="5">
         <f t="shared" si="13"/>
-        <v>-1.5521125367918789E-4</v>
+        <v>-1.5323530712832548E-4</v>
       </c>
       <c r="R51">
         <f t="shared" si="9"/>
@@ -3979,7 +3979,7 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="I52">
-        <v>10.421147967</v>
+        <v>10.4211454222</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J83" si="16">SQRT(((I$20-Datum)^2)-$H52*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G52/K)*(Length-G52))+Datum</f>
@@ -3987,11 +3987,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="12"/>
-        <v>1.1988406174344255E-5</v>
+        <v>1.1744207501095797E-5</v>
       </c>
       <c r="L52">
         <f t="shared" ref="L52:L83" si="17">0.5*(I52+I53)-Datum</f>
-        <v>20.407451695700001</v>
+        <v>20.407449126949999</v>
       </c>
       <c r="M52">
         <f t="shared" ref="M52:M83" si="18">0.5*(J52+J53)-Datum</f>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="N52">
         <f t="shared" ref="N52:N83" si="19">-K*((I52-I53)/dx)*width*L52</f>
-        <v>-0.11180239798637868</v>
+        <v>-0.11180257941682424</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O83" si="20">-K*((J52-J53)/dx)*width*M52</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="P52" s="5">
         <f t="shared" si="13"/>
-        <v>-1.411562194080033E-4</v>
+        <v>-1.3953367070790835E-4</v>
       </c>
       <c r="R52">
         <f t="shared" ref="R52:R83" si="21">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G52+G53)/2)-(Length/2)))</f>
@@ -4024,7 +4024,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I53">
-        <v>10.3937554244</v>
+        <v>10.393752831700001</v>
       </c>
       <c r="J53">
         <f t="shared" si="16"/>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="12"/>
-        <v>1.2408475441246201E-5</v>
+        <v>1.2159024490635082E-5</v>
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
-        <v>20.378813138550001</v>
+        <v>20.3788105243</v>
       </c>
       <c r="M53">
         <f t="shared" si="18"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="19"/>
-        <v>-0.12180242047998094</v>
+        <v>-0.12180258052017938</v>
       </c>
       <c r="O53">
         <f t="shared" si="20"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P53" s="5">
         <f t="shared" si="13"/>
-        <v>-1.2938411948388553E-4</v>
+        <v>-1.2807035666086353E-4</v>
       </c>
       <c r="R53">
         <f t="shared" si="21"/>
@@ -4069,7 +4069,7 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="I54">
-        <v>10.3638708527</v>
+        <v>10.3638682169</v>
       </c>
       <c r="J54">
         <f t="shared" si="16"/>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="12"/>
-        <v>1.283593619301682E-5</v>
+        <v>1.2581607104009589E-5</v>
       </c>
       <c r="L54">
         <f t="shared" si="17"/>
-        <v>20.347677057449999</v>
+        <v>20.34767440265</v>
       </c>
       <c r="M54">
         <f t="shared" si="18"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="19"/>
-        <v>-0.13180244643258329</v>
+        <v>-0.13180258387839927</v>
       </c>
       <c r="O54">
         <f t="shared" si="20"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="P54" s="5">
         <f t="shared" si="13"/>
-        <v>-1.193718907696664E-4</v>
+        <v>-1.1832919837258715E-4</v>
       </c>
       <c r="R54">
         <f t="shared" si="21"/>
@@ -4114,7 +4114,7 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="I55">
-        <v>10.331483262200001</v>
+        <v>10.3314805884</v>
       </c>
       <c r="J55">
         <f t="shared" si="16"/>
@@ -4122,11 +4122,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="12"/>
-        <v>1.327125456450727E-5</v>
+        <v>1.3012449955547951E-5</v>
       </c>
       <c r="L55">
         <f t="shared" si="17"/>
-        <v>20.314031965950001</v>
+        <v>20.314029275900001</v>
       </c>
       <c r="M55">
         <f t="shared" si="18"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="19"/>
-        <v>-0.1418024759479051</v>
+        <v>-0.14180258921114811</v>
       </c>
       <c r="O55">
         <f t="shared" si="20"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="P55" s="5">
         <f t="shared" si="13"/>
-        <v>-1.1074652117297389E-4</v>
+        <v>-1.0994787010049035E-4</v>
       </c>
       <c r="R55">
         <f t="shared" si="21"/>
@@ -4159,7 +4159,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="I56">
-        <v>10.296580669700001</v>
+        <v>10.296577963400001</v>
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="12"/>
-        <v>1.3714918097399394E-5</v>
+        <v>1.3452079665535683E-5</v>
       </c>
       <c r="L56">
         <f t="shared" si="17"/>
-        <v>20.277865372649998</v>
+        <v>20.277862653</v>
       </c>
       <c r="M56">
         <f t="shared" si="18"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="19"/>
-        <v>-0.15180250959562841</v>
+        <v>-0.1518025975197865</v>
       </c>
       <c r="O56">
         <f t="shared" si="20"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="P56" s="5">
         <f t="shared" si="13"/>
-        <v>-1.032302084097064E-4</v>
+        <v>-1.0265106724861404E-4</v>
       </c>
       <c r="R56">
         <f t="shared" si="21"/>
@@ -4204,7 +4204,7 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="I57">
-        <v>10.259150075599999</v>
+        <v>10.2591473426</v>
       </c>
       <c r="J57">
         <f t="shared" si="16"/>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="12"/>
-        <v>1.4167426634685227E-5</v>
+        <v>1.3901026523741057E-5</v>
       </c>
       <c r="L57">
         <f t="shared" si="17"/>
-        <v>20.239163757349999</v>
+        <v>20.239161014050001</v>
       </c>
       <c r="M57">
         <f t="shared" si="18"/>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="19"/>
-        <v>-0.16180254718730486</v>
+        <v>-0.16180260864126125</v>
       </c>
       <c r="O57">
         <f t="shared" si="20"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="P57" s="5">
         <f t="shared" si="13"/>
-        <v>-9.6618505448157086E-5</v>
+        <v>-9.6238733807508297E-5</v>
       </c>
       <c r="R57">
         <f t="shared" si="21"/>
@@ -4249,7 +4249,7 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="I58">
-        <v>10.219177439099999</v>
+        <v>10.219174685500001</v>
       </c>
       <c r="J58">
         <f t="shared" si="16"/>
@@ -4257,11 +4257,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="12"/>
-        <v>1.4629312612824456E-5</v>
+        <v>1.4359854498571225E-5</v>
       </c>
       <c r="L58">
         <f t="shared" si="17"/>
-        <v>20.19791254475</v>
+        <v>20.197909784250001</v>
       </c>
       <c r="M58">
         <f t="shared" si="18"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="19"/>
-        <v>-0.17180259054185762</v>
+        <v>-0.17180262280739689</v>
       </c>
       <c r="O58">
         <f t="shared" si="20"/>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="P58" s="5">
         <f t="shared" si="13"/>
-        <v>-9.0742878085078586E-5</v>
+        <v>-9.0555089232195109E-5</v>
       </c>
       <c r="R58">
         <f t="shared" si="21"/>
@@ -4294,7 +4294,7 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="I59">
-        <v>10.1766476504</v>
+        <v>10.176644883</v>
       </c>
       <c r="J59">
         <f t="shared" si="16"/>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="12"/>
-        <v>1.510109482499117E-5</v>
+        <v>1.4829154409476567E-5</v>
       </c>
       <c r="L59">
         <f t="shared" si="17"/>
-        <v>20.1540960761</v>
+        <v>20.154093305250001</v>
       </c>
       <c r="M59">
         <f t="shared" si="18"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="19"/>
-        <v>-0.18180263804379937</v>
+        <v>-0.18180264086163858</v>
       </c>
       <c r="O59">
         <f t="shared" si="20"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="P59" s="5">
         <f t="shared" si="13"/>
-        <v>-8.5490759094337352E-5</v>
+        <v>-8.5475260978671539E-5</v>
       </c>
       <c r="R59">
         <f t="shared" si="21"/>
@@ -4339,7 +4339,7 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="I60">
-        <v>10.131544501800001</v>
+        <v>10.1315417275</v>
       </c>
       <c r="J60">
         <f t="shared" si="16"/>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="12"/>
-        <v>1.5583363887397106E-5</v>
+        <v>1.5309531676244093E-5</v>
       </c>
       <c r="L60">
         <f t="shared" si="17"/>
-        <v>20.107697578150002</v>
+        <v>20.107694804049999</v>
       </c>
       <c r="M60">
         <f t="shared" si="18"/>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="19"/>
-        <v>-0.19180269156937199</v>
+        <v>-0.1918026634992559</v>
       </c>
       <c r="O60">
         <f t="shared" si="20"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="P60" s="5">
         <f t="shared" si="13"/>
-        <v>-8.0754851640314063E-5</v>
+        <v>-8.0901188738427275E-5</v>
       </c>
       <c r="R60">
         <f t="shared" si="21"/>
@@ -4384,7 +4384,7 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="I61">
-        <v>10.083850654500001</v>
+        <v>10.0838478806</v>
       </c>
       <c r="J61">
         <f t="shared" si="16"/>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="12"/>
-        <v>1.6076700256998132E-5</v>
+        <v>1.5801612426905721E-5</v>
       </c>
       <c r="L61">
         <f t="shared" si="17"/>
-        <v>20.058699129200001</v>
+        <v>20.058696359500001</v>
       </c>
       <c r="M61">
         <f t="shared" si="18"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="19"/>
-        <v>-0.20180275145326543</v>
+        <v>-0.201802689889788</v>
       </c>
       <c r="O61">
         <f t="shared" si="20"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="P61" s="5">
         <f t="shared" si="13"/>
-        <v>-7.6456763082018338E-5</v>
+        <v>-7.6761807339539655E-5</v>
       </c>
       <c r="R61">
         <f t="shared" si="21"/>
@@ -4429,7 +4429,7 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="I62">
-        <v>10.033547603900001</v>
+        <v>10.033544838399999</v>
       </c>
       <c r="J62">
         <f t="shared" si="16"/>
@@ -4437,11 +4437,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="12"/>
-        <v>1.658171411596525E-5</v>
+        <v>1.6306084202463842E-5</v>
       </c>
       <c r="L62">
         <f t="shared" si="17"/>
-        <v>20.007081622904998</v>
+        <v>20.007078865684999</v>
       </c>
       <c r="M62">
         <f t="shared" si="18"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="19"/>
-        <v>-0.21180281679889296</v>
+        <v>-0.21180272134642231</v>
       </c>
       <c r="O62">
         <f t="shared" si="20"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P62" s="5">
         <f t="shared" si="13"/>
-        <v>-7.2538717687299241E-5</v>
+        <v>-7.2989351668907701E-5</v>
       </c>
       <c r="R62">
         <f t="shared" si="21"/>
@@ -4474,7 +4474,7 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="I63">
-        <v>9.9806156419099992</v>
+        <v>9.9806128929700009</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="12"/>
-        <v>1.7099079301021218E-5</v>
+        <v>1.6823646692325427E-5</v>
       </c>
       <c r="L63">
         <f t="shared" si="17"/>
-        <v>19.952824728484998</v>
+        <v>19.952821992175</v>
       </c>
       <c r="M63">
         <f t="shared" si="18"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="19"/>
-        <v>-0.22180288984540372</v>
+        <v>-0.22180275862593823</v>
       </c>
       <c r="O63">
         <f t="shared" si="20"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="P63" s="5">
         <f t="shared" si="13"/>
-        <v>-6.89392215283922E-5</v>
+        <v>-6.9530784692476937E-5</v>
       </c>
       <c r="R63">
         <f t="shared" si="21"/>
@@ -4519,7 +4519,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="I64">
-        <v>9.9250338150600008</v>
+        <v>9.9250310913799993</v>
       </c>
       <c r="J64">
         <f t="shared" si="16"/>
@@ -4527,11 +4527,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="12"/>
-        <v>1.7629458660800715E-5</v>
+        <v>1.7355028561186506E-5</v>
       </c>
       <c r="L64">
         <f t="shared" si="17"/>
-        <v>19.89590684789</v>
+        <v>19.895904141430002</v>
       </c>
       <c r="M64">
         <f t="shared" si="18"/>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="19"/>
-        <v>-0.23180297023035398</v>
+        <v>-0.23180280165496633</v>
       </c>
       <c r="O64">
         <f t="shared" si="20"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="P64" s="5">
         <f t="shared" si="13"/>
-        <v>-6.5618614168481664E-5</v>
+        <v>-6.6345802115202955E-5</v>
       </c>
       <c r="R64">
         <f t="shared" si="21"/>
@@ -4564,7 +4564,7 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="I65">
-        <v>9.8667798807199993</v>
+        <v>9.8667771914800007</v>
       </c>
       <c r="J65">
         <f t="shared" si="16"/>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="12"/>
-        <v>1.8173572120935561E-5</v>
+        <v>1.7901012187066986E-5</v>
       </c>
       <c r="L65">
         <f t="shared" si="17"/>
-        <v>19.836305069794999</v>
+        <v>19.836302402575001</v>
       </c>
       <c r="M65">
         <f t="shared" si="18"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="19"/>
-        <v>-0.24180305858104803</v>
+        <v>-0.24180285134968604</v>
       </c>
       <c r="O65">
         <f t="shared" si="20"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="P65" s="5">
         <f t="shared" si="13"/>
-        <v>-6.2539702455578642E-5</v>
+        <v>-6.3396674253270012E-5</v>
       </c>
       <c r="R65">
         <f t="shared" si="21"/>
@@ -4609,7 +4609,7 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="I66">
-        <v>9.8058302588699995</v>
+        <v>9.8058276136700009</v>
       </c>
       <c r="J66">
         <f t="shared" si="16"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="12"/>
-        <v>1.8732175988840359E-5</v>
+        <v>1.8462413054023524E-5</v>
       </c>
       <c r="L66">
         <f t="shared" si="17"/>
-        <v>19.773995119565001</v>
+        <v>19.773992501439999</v>
       </c>
       <c r="M66">
         <f t="shared" si="18"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="19"/>
-        <v>-0.25180315569909356</v>
+        <v>-0.25180290820741197</v>
       </c>
       <c r="O66">
         <f t="shared" si="20"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="P66" s="5">
         <f t="shared" si="13"/>
-        <v>-5.9670509002219615E-5</v>
+        <v>-6.0653327954394405E-5</v>
       </c>
       <c r="R66">
         <f t="shared" si="21"/>
@@ -4654,7 +4654,7 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="I67">
-        <v>9.7421599802600003</v>
+        <v>9.74215738921</v>
       </c>
       <c r="J67">
         <f t="shared" si="16"/>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="12"/>
-        <v>1.9306062526269499E-5</v>
+        <v>1.9040094811865614E-5</v>
       </c>
       <c r="L67">
         <f t="shared" si="17"/>
-        <v>19.708951305429999</v>
+        <v>19.708948746735</v>
       </c>
       <c r="M67">
         <f t="shared" si="18"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="19"/>
-        <v>-0.26180326205693161</v>
+        <v>-0.2618029729953652</v>
       </c>
       <c r="O67">
         <f t="shared" si="20"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="P67" s="5">
         <f t="shared" si="13"/>
-        <v>-5.6985199217514654E-5</v>
+        <v>-5.8089253811423754E-5</v>
       </c>
       <c r="R67">
         <f t="shared" si="21"/>
@@ -4699,7 +4699,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="I68">
-        <v>9.6757426306000003</v>
+        <v>9.6757401042600009</v>
       </c>
       <c r="J68">
         <f t="shared" si="16"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>1.9896072880029899E-5</v>
+        <v>1.963496731324114E-5</v>
       </c>
       <c r="L68">
         <f t="shared" si="17"/>
-        <v>19.64114646038</v>
+        <v>19.641143971920002</v>
       </c>
       <c r="M68">
         <f t="shared" si="18"/>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="19"/>
-        <v>-0.27180337850370584</v>
+        <v>-0.27180304646462139</v>
       </c>
       <c r="O68">
         <f t="shared" si="20"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="P68" s="5">
         <f t="shared" si="13"/>
-        <v>-5.4460354259971337E-5</v>
+        <v>-5.5681902731190877E-5</v>
       </c>
       <c r="R68">
         <f t="shared" si="21"/>
@@ -4744,7 +4744,7 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="I69">
-        <v>9.6065502901599995</v>
+        <v>9.6065478395799992</v>
       </c>
       <c r="J69">
         <f t="shared" si="16"/>
@@ -4752,11 +4752,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>2.0503092260795524E-5</v>
+        <v>2.0247992337232407E-5</v>
       </c>
       <c r="L69">
         <f t="shared" si="17"/>
-        <v>19.570551879459998</v>
+        <v>19.570549472514998</v>
       </c>
       <c r="M69">
         <f t="shared" si="18"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="19"/>
-        <v>-0.28180350567297957</v>
+        <v>-0.28180312943013425</v>
       </c>
       <c r="O69">
         <f t="shared" si="20"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="P69" s="5">
         <f t="shared" si="13"/>
-        <v>-5.207664422560096E-5</v>
+        <v>-5.3411699483200746E-5</v>
       </c>
       <c r="R69">
         <f t="shared" si="21"/>
@@ -4789,7 +4789,7 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="I70">
-        <v>9.5345534687600004</v>
+        <v>9.5345511054499994</v>
       </c>
       <c r="J70">
         <f t="shared" si="16"/>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>2.112806092133882E-5</v>
+        <v>2.0880187757594831E-5</v>
       </c>
       <c r="L70">
         <f t="shared" si="17"/>
-        <v>19.497137252129999</v>
+        <v>19.497134938449999</v>
       </c>
       <c r="M70">
         <f t="shared" si="18"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="19"/>
-        <v>-0.29180364443621948</v>
+        <v>-0.29180322275143156</v>
       </c>
       <c r="O70">
         <f t="shared" si="20"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="P70" s="5">
         <f t="shared" si="13"/>
-        <v>-4.9816573762232094E-5</v>
+        <v>-5.1261599515233216E-5</v>
       </c>
       <c r="R70">
         <f t="shared" si="21"/>
@@ -4834,7 +4834,7 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="I71">
-        <v>9.4597210354999994</v>
+        <v>9.4597187714499995</v>
       </c>
       <c r="J71">
         <f t="shared" si="16"/>
@@ -4842,11 +4842,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>2.1771973785735985E-5</v>
+        <v>2.1532632764551181E-5</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
-        <v>19.42087058924</v>
+        <v>19.420868381040002</v>
       </c>
       <c r="M71">
         <f t="shared" si="18"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="19"/>
-        <v>-0.3018037956598707</v>
+        <v>-0.30180332748184752</v>
       </c>
       <c r="O71">
         <f t="shared" si="20"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="P71" s="5">
         <f t="shared" si="13"/>
-        <v>-4.766498234379606E-5</v>
+        <v>-4.9216174589281913E-5</v>
       </c>
       <c r="R71">
         <f t="shared" si="21"/>
@@ -4879,7 +4879,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="I72">
-        <v>9.3820201429800001</v>
+        <v>9.3820179906300005</v>
       </c>
       <c r="J72">
         <f t="shared" si="16"/>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>2.2435886974093417E-5</v>
+        <v>2.2206469614437222E-5</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
-        <v>19.341718144209999</v>
+        <v>19.341716054159999</v>
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="19"/>
-        <v>-0.31180396034305835</v>
+        <v>-0.31180344465421855</v>
       </c>
       <c r="O72">
         <f t="shared" si="20"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="P72" s="5">
         <f t="shared" si="13"/>
-        <v>-4.5608229274095641E-5</v>
+        <v>-4.7262041879859378E-5</v>
       </c>
       <c r="R72">
         <f t="shared" si="21"/>
@@ -4924,7 +4924,7 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="I73">
-        <v>9.3014161454399993</v>
+        <v>9.3014141176899994</v>
       </c>
       <c r="J73">
         <f t="shared" si="16"/>
@@ -4932,11 +4932,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>2.312092124474594E-5</v>
+        <v>2.290291176622656E-5</v>
       </c>
       <c r="L73">
         <f t="shared" si="17"/>
-        <v>19.259644327905001</v>
+        <v>19.259642369110001</v>
       </c>
       <c r="M73">
         <f t="shared" si="18"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="19"/>
-        <v>-0.32180413946169417</v>
+        <v>-0.32180357551326788</v>
       </c>
       <c r="O73">
         <f t="shared" si="20"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P73" s="5">
         <f t="shared" si="13"/>
-        <v>-4.3634441030937467E-5</v>
+        <v>-4.5386823146530805E-5</v>
       </c>
       <c r="R73">
         <f t="shared" si="21"/>
@@ -4969,7 +4969,7 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="I74">
-        <v>9.2178725103700003</v>
+        <v>9.2178706205300003</v>
       </c>
       <c r="J74">
         <f t="shared" si="16"/>
@@ -4977,11 +4977,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>2.382827037653522E-5</v>
+        <v>2.3623246383250537E-5</v>
       </c>
       <c r="L74">
         <f t="shared" si="17"/>
-        <v>19.17461161664</v>
+        <v>19.174609802620001</v>
       </c>
       <c r="M74">
         <f t="shared" si="18"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="19"/>
-        <v>-0.33180433418459693</v>
+        <v>-0.33180372126657987</v>
       </c>
       <c r="O74">
         <f t="shared" si="20"/>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="P74" s="5">
         <f t="shared" si="13"/>
-        <v>-4.1732594359484053E-5</v>
+        <v>-4.3579744547890705E-5</v>
       </c>
       <c r="R74">
         <f t="shared" si="21"/>
@@ -5014,7 +5014,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="I75">
-        <v>9.1313507229099997</v>
+        <v>9.1313489847099998</v>
       </c>
       <c r="J75">
         <f t="shared" si="16"/>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>2.4559204360148026E-5</v>
+        <v>2.4368844495382093E-5</v>
       </c>
       <c r="L75">
         <f t="shared" si="17"/>
-        <v>19.086580452699998</v>
+        <v>19.086578797365</v>
       </c>
       <c r="M75">
         <f t="shared" si="18"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="19"/>
-        <v>-0.34180454570091251</v>
+        <v>-0.34180388341325213</v>
       </c>
       <c r="O75">
         <f t="shared" si="20"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="P75" s="5">
         <f t="shared" si="13"/>
-        <v>-3.9892896247374368E-5</v>
+        <v>-4.1830439934656675E-5</v>
       </c>
       <c r="R75">
         <f t="shared" si="21"/>
@@ -5059,7 +5059,7 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="I76">
-        <v>9.0418101824899999</v>
+        <v>9.0418086100200004</v>
       </c>
       <c r="J76">
         <f t="shared" si="16"/>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>2.5315078198880786E-5</v>
+        <v>2.5141162824082188E-5</v>
       </c>
       <c r="L76">
         <f t="shared" si="17"/>
-        <v>18.99550913669</v>
+        <v>18.995507654290002</v>
       </c>
       <c r="M76">
         <f t="shared" si="18"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="19"/>
-        <v>-0.35180477541288036</v>
+        <v>-0.35180406358806665</v>
       </c>
       <c r="O76">
         <f t="shared" si="20"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="P76" s="5">
         <f t="shared" si="13"/>
-        <v>-3.81060615893497E-5</v>
+        <v>-4.0129336253624359E-5</v>
       </c>
       <c r="R76">
         <f t="shared" si="21"/>
@@ -5104,7 +5104,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="I77">
-        <v>8.94920809089</v>
+        <v>8.9492066985599994</v>
       </c>
       <c r="J77">
         <f t="shared" si="16"/>
@@ -5112,11 +5112,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>2.6097336166308373E-5</v>
+        <v>2.5941750742146839E-5</v>
       </c>
       <c r="L77">
         <f t="shared" si="17"/>
-        <v>18.901353710949998</v>
+        <v>18.901352416045</v>
       </c>
       <c r="M77">
         <f t="shared" si="18"/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="19"/>
-        <v>-0.36180502474565518</v>
+        <v>-0.36180426337319738</v>
       </c>
       <c r="O77">
         <f t="shared" si="20"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="P77" s="5">
         <f t="shared" si="13"/>
-        <v>-3.6363768295377314E-5</v>
+        <v>-3.8468064033022711E-5</v>
       </c>
       <c r="R77">
         <f t="shared" si="21"/>
@@ -5149,7 +5149,7 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="I78">
-        <v>8.8534993310099992</v>
+        <v>8.8534981335299996</v>
       </c>
       <c r="J78">
         <f t="shared" si="16"/>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>2.6907522533743185E-5</v>
+        <v>2.6772263900286281E-5</v>
       </c>
       <c r="L78">
         <f t="shared" si="17"/>
-        <v>18.804067833175001</v>
+        <v>18.804066740574999</v>
       </c>
       <c r="M78">
         <f t="shared" si="18"/>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="19"/>
-        <v>-0.37180529535390749</v>
+        <v>-0.37180448488215928</v>
       </c>
       <c r="O78">
         <f t="shared" si="20"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="P78" s="5">
         <f t="shared" si="13"/>
-        <v>-3.4657972373711793E-5</v>
+        <v>-3.6837725241768482E-5</v>
       </c>
       <c r="R78">
         <f t="shared" si="21"/>
@@ -5194,7 +5194,7 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="I79">
-        <v>8.7546363353400007</v>
+        <v>8.7546353476200007</v>
       </c>
       <c r="J79">
         <f t="shared" si="16"/>
@@ -5202,11 +5202,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>2.7747287457297326E-5</v>
+        <v>2.7634461821973628E-5</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
-        <v>18.703602639270002</v>
+        <v>18.703601763969999</v>
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="19"/>
-        <v>-0.38180558900262346</v>
+        <v>-0.38180473007114518</v>
       </c>
       <c r="O79">
         <f t="shared" si="20"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="P79" s="5">
         <f t="shared" si="13"/>
-        <v>-3.2981183613994799E-5</v>
+        <v>-3.5230766057098249E-5</v>
       </c>
       <c r="R79">
         <f t="shared" si="21"/>
@@ -5239,7 +5239,7 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="I80">
-        <v>8.6525689432000004</v>
+        <v>8.6525681803199994</v>
       </c>
       <c r="J80">
         <f t="shared" si="16"/>
@@ -5247,11 +5247,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>2.8618397595467139E-5</v>
+        <v>2.8530227037294211E-5</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
-        <v>18.599906594380002</v>
+        <v>18.599905951490001</v>
       </c>
       <c r="M80">
         <f t="shared" si="18"/>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="19"/>
-        <v>-0.39180590763706469</v>
+        <v>-0.39180500137353841</v>
       </c>
       <c r="O80">
         <f t="shared" si="20"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>-3.1326216305452362E-5</v>
+        <v>-3.3639185862081145E-5</v>
       </c>
       <c r="R80">
         <f t="shared" si="21"/>
@@ -5284,7 +5284,7 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="I81">
-        <v>8.54724424556</v>
+        <v>8.5472437226599993</v>
       </c>
       <c r="J81">
         <f t="shared" si="16"/>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>2.9522746110987557E-5</v>
+        <v>2.946156669186098E-5</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>18.492925330864999</v>
+        <v>18.492924935505002</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="19"/>
-        <v>-0.40180625340330467</v>
+        <v>-0.40180530137803</v>
       </c>
       <c r="O81">
         <f t="shared" si="20"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>-2.9686100392004714E-5</v>
+        <v>-3.205539406199727E-5</v>
       </c>
       <c r="R81">
         <f t="shared" si="21"/>
@@ -5329,7 +5329,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="I82">
-        <v>8.4386064161699998</v>
+        <v>8.4386061483500008</v>
       </c>
       <c r="J82">
         <f t="shared" si="16"/>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>3.0462363626434685E-5</v>
+        <v>3.0430625191877071E-5</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>18.382601471845</v>
+        <v>18.382601339060002</v>
       </c>
       <c r="M82">
         <f t="shared" si="18"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="19"/>
-        <v>-0.41180662879173791</v>
+        <v>-0.41180563289926214</v>
       </c>
       <c r="O82">
         <f t="shared" si="20"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>-2.8053706581839856E-5</v>
+        <v>-3.0471988531817713E-5</v>
       </c>
       <c r="R82">
         <f t="shared" si="21"/>
@@ -5374,7 +5374,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="I83">
-        <v>8.3265965275199996</v>
+        <v>8.3265965297700006</v>
       </c>
       <c r="J83">
         <f t="shared" si="16"/>
@@ -5382,11 +5382,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>3.1439426279071803E-5</v>
+        <v>3.1439696506145451E-5</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>18.268874438815001</v>
+        <v>18.268874583445001</v>
       </c>
       <c r="M83">
         <f t="shared" si="18"/>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="19"/>
-        <v>-0.42180703635911343</v>
+        <v>-0.42180599924951129</v>
       </c>
       <c r="O83">
         <f t="shared" si="20"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>-2.6422424523067926E-5</v>
+        <v>-2.8881089528146412E-5</v>
       </c>
       <c r="R83">
         <f t="shared" si="21"/>
@@ -5419,7 +5419,7 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="I84">
-        <v>8.2111523501099999</v>
+        <v>8.2111526371199997</v>
       </c>
       <c r="J84">
         <f t="shared" ref="J84:J115" si="24">SQRT(((I$20-Datum)^2)-$H84*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G84/K)*(Length-G84))+Datum</f>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>3.245627461151393E-5</v>
+        <v>3.2491229426965386E-5</v>
       </c>
       <c r="L84">
         <f t="shared" ref="L84:L118" si="25">0.5*(I84+I85)-Datum</f>
-        <v>18.151680241554999</v>
+        <v>18.151680678089999</v>
       </c>
       <c r="M84">
         <f t="shared" ref="M84:M118" si="26">0.5*(J84+J85)-Datum</f>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="N84">
         <f t="shared" ref="N84:N118" si="27">-K*((I84-I85)/dx)*width*L84</f>
-        <v>-0.43180747911256345</v>
+        <v>-0.43180640384520214</v>
       </c>
       <c r="O84">
         <f t="shared" ref="O84:O118" si="28">-K*((J84-J85)/dx)*width*M84</f>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>-2.4785212993352316E-5</v>
+        <v>-2.7275305830086003E-5</v>
       </c>
       <c r="R84">
         <f t="shared" ref="R84:R118" si="29">-1*((K/(2*Length))*((J$20-Datum)^2-(J$119-Datum)^2)+Rech*(((G84+G85)/2)-(Length/2)))</f>
@@ -5464,7 +5464,7 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="I85">
-        <v>8.0922081329999997</v>
+        <v>8.0922087190600003</v>
       </c>
       <c r="J85">
         <f t="shared" si="24"/>
@@ -5472,11 +5472,11 @@
       </c>
       <c r="K85">
         <f t="shared" ref="K85:K119" si="31">(I85-J85)/J85</f>
-        <v>3.3515422316463972E-5</v>
+        <v>3.3587847497940406E-5</v>
       </c>
       <c r="L85">
         <f t="shared" si="25"/>
-        <v>18.030951248335001</v>
+        <v>18.030951990769999</v>
       </c>
       <c r="M85">
         <f t="shared" si="26"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="27"/>
-        <v>-0.44180796040779563</v>
+        <v>-0.44180685076345344</v>
       </c>
       <c r="O85">
         <f t="shared" si="28"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="P85" s="5">
         <f t="shared" ref="P85:P118" si="32">(N85-O85)/O85</f>
-        <v>-2.3134879500573155E-5</v>
+        <v>-2.5646420192772346E-5</v>
       </c>
       <c r="R85">
         <f t="shared" si="29"/>
@@ -5509,7 +5509,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I86">
-        <v>7.9696943636700004</v>
+        <v>7.9696952624800002</v>
       </c>
       <c r="J86">
         <f t="shared" si="24"/>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="31"/>
-        <v>3.4619570337121865E-5</v>
+        <v>3.4732352719376607E-5</v>
       </c>
       <c r="L86">
         <f t="shared" si="25"/>
-        <v>17.90661593423</v>
+        <v>17.906616995889998</v>
       </c>
       <c r="M86">
         <f t="shared" si="26"/>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
-        <v>-0.45180848388660566</v>
+        <v>-0.45180734423671159</v>
       </c>
       <c r="O86">
         <f t="shared" si="28"/>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="P86" s="5">
         <f t="shared" si="32"/>
-        <v>-2.1464234870591912E-5</v>
+        <v>-2.3986598821241776E-5</v>
       </c>
       <c r="R86">
         <f t="shared" si="29"/>
@@ -5554,7 +5554,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="I87">
-        <v>7.8435375047899996</v>
+        <v>7.8435387292999996</v>
       </c>
       <c r="J87">
         <f t="shared" si="24"/>
@@ -5562,11 +5562,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="31"/>
-        <v>3.5771625779022012E-5</v>
+        <v>3.592774842164719E-5</v>
       </c>
       <c r="L87">
         <f t="shared" si="25"/>
-        <v>17.778598604940001</v>
+        <v>17.778599998280001</v>
       </c>
       <c r="M87">
         <f t="shared" si="26"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
-        <v>-0.4618090537118163</v>
+        <v>-0.46180788928018957</v>
       </c>
       <c r="O87">
         <f t="shared" si="28"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="P87" s="5">
         <f t="shared" si="32"/>
-        <v>-1.9765584651500954E-5</v>
+        <v>-2.2286991717259864E-5</v>
       </c>
       <c r="R87">
         <f t="shared" si="29"/>
@@ -5599,7 +5599,7 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="I88">
-        <v>7.7136597050900004</v>
+        <v>7.71366126726</v>
       </c>
       <c r="J88">
         <f t="shared" si="24"/>
@@ -5607,11 +5607,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="31"/>
-        <v>3.6974715623872622E-5</v>
+        <v>3.7177243064814966E-5</v>
       </c>
       <c r="L88">
         <f t="shared" si="25"/>
-        <v>17.646819093185002</v>
+        <v>17.646820829555001</v>
       </c>
       <c r="M88">
         <f t="shared" si="26"/>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
-        <v>-0.47180967454612921</v>
+        <v>-0.47180849133966568</v>
       </c>
       <c r="O88">
         <f t="shared" si="28"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P88" s="5">
         <f t="shared" si="32"/>
-        <v>-1.8030827071597805E-5</v>
+        <v>-2.0538586435531401E-5</v>
       </c>
       <c r="R88">
         <f t="shared" si="29"/>
@@ -5644,7 +5644,7 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="I89">
-        <v>7.5799784812800004</v>
+        <v>7.5799803918500004</v>
       </c>
       <c r="J89">
         <f t="shared" si="24"/>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="31"/>
-        <v>3.8232203987173658E-5</v>
+        <v>3.8484268429045904E-5</v>
       </c>
       <c r="L89">
         <f t="shared" si="25"/>
-        <v>17.51119242435</v>
+        <v>17.511194513745</v>
       </c>
       <c r="M89">
         <f t="shared" si="26"/>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
-        <v>-0.48181035160540991</v>
+        <v>-0.48180915651816586</v>
       </c>
       <c r="O89">
         <f t="shared" si="28"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="P89" s="5">
         <f t="shared" si="32"/>
-        <v>-1.6251384993554554E-5</v>
+        <v>-1.8731754745366219E-5</v>
       </c>
       <c r="R89">
         <f t="shared" si="29"/>
@@ -5689,7 +5689,7 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="I90">
-        <v>7.4424063674200003</v>
+        <v>7.4424086356399997</v>
       </c>
       <c r="J90">
         <f t="shared" si="24"/>
@@ -5697,11 +5697,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="31"/>
-        <v>3.9547710723234611E-5</v>
+        <v>3.9852492482024044E-5</v>
       </c>
       <c r="L90">
         <f t="shared" si="25"/>
-        <v>17.371628447485001</v>
+        <v>17.371630898284998</v>
       </c>
       <c r="M90">
         <f t="shared" si="26"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="27"/>
-        <v>-0.49181109095866654</v>
+        <v>-0.49180989165872602</v>
       </c>
       <c r="O90">
         <f t="shared" si="28"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="P90" s="5">
         <f t="shared" si="32"/>
-        <v>-1.4417644109210497E-5</v>
+        <v>-1.6856146760923194E-5</v>
       </c>
       <c r="R90">
         <f t="shared" si="29"/>
@@ -5734,7 +5734,7 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="I91">
-        <v>7.3008505275499997</v>
+        <v>7.30085316093</v>
       </c>
       <c r="J91">
         <f t="shared" si="24"/>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="31"/>
-        <v>4.0925121876137436E-5</v>
+        <v>4.1285831599168063E-5</v>
       </c>
       <c r="L91">
         <f t="shared" si="25"/>
-        <v>17.228031427285</v>
+        <v>17.228034245935</v>
       </c>
       <c r="M91">
         <f t="shared" si="26"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="27"/>
-        <v>-0.50181189914881374</v>
+        <v>-0.50181070451427612</v>
       </c>
       <c r="O91">
         <f t="shared" si="28"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="P91" s="5">
         <f t="shared" si="32"/>
-        <v>-1.2519812153183477E-5</v>
+        <v>-1.490042445642528E-5</v>
       </c>
       <c r="R91">
         <f t="shared" si="29"/>
@@ -5779,7 +5779,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="I92">
-        <v>7.1552123270200001</v>
+        <v>7.15521533094</v>
       </c>
       <c r="J92">
         <f t="shared" si="24"/>
@@ -5787,11 +5787,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="31"/>
-        <v>4.2368617991058919E-5</v>
+        <v>4.2788458400329567E-5</v>
       </c>
       <c r="L92">
         <f t="shared" si="25"/>
-        <v>17.080299591855002</v>
+        <v>17.080302782529998</v>
       </c>
       <c r="M92">
         <f t="shared" si="26"/>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="27"/>
-        <v>-0.51181278394539553</v>
+        <v>-0.51181160362149414</v>
       </c>
       <c r="O92">
         <f t="shared" si="28"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="P92" s="5">
         <f t="shared" si="32"/>
-        <v>-1.0546465493560134E-5</v>
+        <v>-1.2852604554900673E-5</v>
       </c>
       <c r="R92">
         <f t="shared" si="29"/>
@@ -5824,7 +5824,7 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="I93">
-        <v>7.0053868566900004</v>
+        <v>7.0053902341200001</v>
       </c>
       <c r="J93">
         <f t="shared" si="24"/>
@@ -5832,11 +5832,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="31"/>
-        <v>4.3882676443688184E-5</v>
+        <v>4.4364816585187433E-5</v>
       </c>
       <c r="L93">
         <f t="shared" si="25"/>
-        <v>16.928324630300001</v>
+        <v>16.928328194549998</v>
       </c>
       <c r="M93">
         <f t="shared" si="26"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="27"/>
-        <v>-0.5218137540254385</v>
+        <v>-0.52181259887294285</v>
       </c>
       <c r="O93">
         <f t="shared" si="28"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="P93" s="5">
         <f t="shared" si="32"/>
-        <v>-8.4853171063106086E-6</v>
+        <v>-1.0699023979522175E-5</v>
       </c>
       <c r="R93">
         <f t="shared" si="29"/>
@@ -5869,7 +5869,7 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="I94">
-        <v>6.8512624039099999</v>
+        <v>6.8512661549800002</v>
       </c>
       <c r="J94">
         <f t="shared" si="24"/>
@@ -5877,11 +5877,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="31"/>
-        <v>4.5472088439219809E-5</v>
+        <v>4.6019613894855056E-5</v>
       </c>
       <c r="L94">
         <f t="shared" si="25"/>
-        <v>16.771991133269999</v>
+        <v>16.771995069615002</v>
       </c>
       <c r="M94">
         <f t="shared" si="26"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="27"/>
-        <v>-0.531814819318851</v>
+        <v>-0.53181370116192583</v>
       </c>
       <c r="O94">
         <f t="shared" si="28"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="P94" s="5">
         <f t="shared" si="32"/>
-        <v>-6.3226483207026022E-6</v>
+        <v>-8.4251656158784466E-6</v>
       </c>
       <c r="R94">
         <f t="shared" si="29"/>
@@ -5914,7 +5914,7 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="I95">
-        <v>6.6927198626299997</v>
+        <v>6.6927239842499997</v>
       </c>
       <c r="J95">
         <f t="shared" si="24"/>
@@ -5922,11 +5922,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="31"/>
-        <v>4.7141964056529419E-5</v>
+        <v>4.7757829412592003E-5</v>
       </c>
       <c r="L95">
         <f t="shared" si="25"/>
-        <v>16.611175968274999</v>
+        <v>16.611180271795</v>
       </c>
       <c r="M95">
         <f t="shared" si="26"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="27"/>
-        <v>-0.54181599130773095</v>
+        <v>-0.54181492304856682</v>
       </c>
       <c r="O95">
         <f t="shared" si="28"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="P95" s="5">
         <f t="shared" si="32"/>
-        <v>-4.0428883950162497E-6</v>
+        <v>-6.0145076576678295E-6</v>
       </c>
       <c r="R95">
         <f t="shared" si="29"/>
@@ -5959,7 +5959,7 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="I96">
-        <v>6.5296320739200002</v>
+        <v>6.5296365593400001</v>
       </c>
       <c r="J96">
         <f t="shared" si="24"/>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="31"/>
-        <v>4.8897724311457223E-5</v>
+        <v>4.9584690939272808E-5</v>
       </c>
       <c r="L96">
         <f t="shared" si="25"/>
-        <v>16.445747580324998</v>
+        <v>16.445752242205</v>
       </c>
       <c r="M96">
         <f t="shared" si="26"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="27"/>
-        <v>-0.55181728302670541</v>
+        <v>-0.5518162786435038</v>
       </c>
       <c r="O96">
         <f t="shared" si="28"/>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="P96" s="5">
         <f t="shared" si="32"/>
-        <v>-1.6287819292827849E-6</v>
+        <v>-3.4489162320324352E-6</v>
       </c>
       <c r="R96">
         <f t="shared" si="29"/>
@@ -6004,7 +6004,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="I97">
-        <v>6.3618630867299997</v>
+        <v>6.3618679250700003</v>
       </c>
       <c r="J97">
         <f t="shared" si="24"/>
@@ -6012,11 +6012,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="31"/>
-        <v>5.0745090824196792E-5</v>
+        <v>5.1505651914035581E-5</v>
       </c>
       <c r="L97">
         <f t="shared" si="25"/>
-        <v>16.275565206669999</v>
+        <v>16.275570213735001</v>
       </c>
       <c r="M97">
         <f t="shared" si="26"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="27"/>
-        <v>-0.56181870964556702</v>
+        <v>-0.56181778404697291</v>
       </c>
       <c r="O97">
         <f t="shared" si="28"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="P97" s="5">
         <f t="shared" si="32"/>
-        <v>9.3949859697014226E-7</v>
+        <v>-7.080069912403206E-7</v>
       </c>
       <c r="R97">
         <f t="shared" si="29"/>
@@ -6049,7 +6049,7 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="I98">
-        <v>6.1892673266099996</v>
+        <v>6.1892725023999997</v>
       </c>
       <c r="J98">
         <f t="shared" si="24"/>
@@ -6057,11 +6057,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="31"/>
-        <v>5.2690042691677334E-5</v>
+        <v>5.3526339209439138E-5</v>
       </c>
       <c r="L98">
         <f t="shared" si="25"/>
-        <v>16.100477992374998</v>
+        <v>16.100483326605001</v>
       </c>
       <c r="M98">
         <f t="shared" si="26"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="27"/>
-        <v>-0.5718202887232976</v>
+        <v>-0.57181945778815702</v>
       </c>
       <c r="O98">
         <f t="shared" si="28"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="P98" s="5">
         <f t="shared" si="32"/>
-        <v>3.6845717326348713E-6</v>
+        <v>2.2314260177833307E-6</v>
       </c>
       <c r="R98">
         <f t="shared" si="29"/>
@@ -6094,7 +6094,7 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="I99">
-        <v>6.0116886581399998</v>
+        <v>6.0116941508100004</v>
       </c>
       <c r="J99">
         <f t="shared" si="24"/>
@@ -6102,11 +6102,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="31"/>
-        <v>5.473874743536084E-5</v>
+        <v>5.5652462528547623E-5</v>
       </c>
       <c r="L99">
         <f t="shared" si="25"/>
-        <v>15.920323991045001</v>
+        <v>15.920329629085</v>
       </c>
       <c r="M99">
         <f t="shared" si="26"/>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="27"/>
-        <v>-0.58182204059454534</v>
+        <v>-0.58182132090627958</v>
       </c>
       <c r="O99">
         <f t="shared" si="28"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="P99" s="5">
         <f t="shared" si="32"/>
-        <v>6.632271872565583E-6</v>
+        <v>5.3953076657904545E-6</v>
       </c>
       <c r="R99">
         <f t="shared" si="29"/>
@@ -6139,7 +6139,7 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="I100">
-        <v>5.8289593239500004</v>
+        <v>5.8289651073600002</v>
       </c>
       <c r="J100">
         <f t="shared" si="24"/>
@@ -6147,11 +6147,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="31"/>
-        <v>5.6897449640203022E-5</v>
+        <v>5.7889691778059147E-5</v>
       </c>
       <c r="L100">
         <f t="shared" si="25"/>
-        <v>15.734929031875</v>
+        <v>15.734934944565</v>
       </c>
       <c r="M100">
         <f t="shared" si="26"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="27"/>
-        <v>-0.59182398905864286</v>
+        <v>-0.59182339776247372</v>
       </c>
       <c r="O100">
         <f t="shared" si="28"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="P100" s="5">
         <f t="shared" si="32"/>
-        <v>9.8125414822925575E-6</v>
+        <v>8.8134235313664486E-6</v>
       </c>
       <c r="R100">
         <f t="shared" si="29"/>
@@ -6184,7 +6184,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="I101">
-        <v>5.6408987397999999</v>
+        <v>5.6409047817699998</v>
       </c>
       <c r="J101">
         <f t="shared" si="24"/>
@@ -6192,11 +6192,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="31"/>
-        <v>5.9172284824578801E-5</v>
+        <v>6.024344879963969E-5</v>
       </c>
       <c r="L101">
         <f t="shared" si="25"/>
-        <v>15.544105430505001</v>
+        <v>15.54411158241</v>
       </c>
       <c r="M101">
         <f t="shared" si="26"/>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="27"/>
-        <v>-0.60182616185958226</v>
+        <v>-0.60182571650811834</v>
       </c>
       <c r="O101">
         <f t="shared" si="28"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="P101" s="5">
         <f t="shared" si="32"/>
-        <v>1.32598875285837E-5</v>
+        <v>1.2519877543203016E-5</v>
       </c>
       <c r="R101">
         <f t="shared" si="29"/>
@@ -6229,7 +6229,7 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="I102">
-        <v>5.4473121212100004</v>
+        <v>5.4473183830499998</v>
       </c>
       <c r="J102">
         <f t="shared" si="24"/>
@@ -6237,11 +6237,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="31"/>
-        <v>6.1569003105798597E-5</v>
+        <v>6.2718602283395593E-5</v>
       </c>
       <c r="L102">
         <f t="shared" si="25"/>
-        <v>15.347650516470001</v>
+        <v>15.347656865465</v>
       </c>
       <c r="M102">
         <f t="shared" si="26"/>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="27"/>
-        <v>-0.61182859178403648</v>
+        <v>-0.61182830983443426</v>
       </c>
       <c r="O102">
         <f t="shared" si="28"/>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="P102" s="5">
         <f t="shared" si="32"/>
-        <v>1.701480303175867E-5</v>
+        <v>1.6553964157400334E-5</v>
       </c>
       <c r="R102">
         <f t="shared" si="29"/>
@@ -6274,7 +6274,7 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="I103">
-        <v>5.2479889117300003</v>
+        <v>5.2479953478799999</v>
       </c>
       <c r="J103">
         <f t="shared" si="24"/>
@@ -6282,11 +6282,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="31"/>
-        <v>6.4092528018376143E-5</v>
+        <v>6.531900974633101E-5</v>
       </c>
       <c r="L103">
         <f t="shared" si="25"/>
-        <v>15.145344944274999</v>
+        <v>15.145351441220001</v>
       </c>
       <c r="M103">
         <f t="shared" si="26"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="27"/>
-        <v>-0.62183131742196562</v>
+        <v>-0.62183121586619294</v>
       </c>
       <c r="O103">
         <f t="shared" si="28"/>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="P103" s="5">
         <f t="shared" si="32"/>
-        <v>2.1124509001533142E-5</v>
+        <v>2.0961188314474296E-5</v>
       </c>
       <c r="R103">
         <f t="shared" si="29"/>
@@ -6319,7 +6319,7 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="I104">
-        <v>5.04270097682</v>
+        <v>5.0427075345599999</v>
       </c>
       <c r="J104">
         <f t="shared" si="24"/>
@@ -6327,11 +6327,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="31"/>
-        <v>6.6746304692856463E-5</v>
+        <v>6.8046833464039042E-5</v>
       </c>
       <c r="L104">
         <f t="shared" si="25"/>
-        <v>14.936950747845</v>
+        <v>14.936957336359999</v>
       </c>
       <c r="M104">
         <f t="shared" si="26"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="27"/>
-        <v>-0.63183438470916164</v>
+        <v>-0.63183447953000538</v>
       </c>
       <c r="O104">
         <f t="shared" si="28"/>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="P104" s="5">
         <f t="shared" si="32"/>
-        <v>2.5644863425500395E-5</v>
+        <v>2.5794939581048013E-5</v>
       </c>
       <c r="R104">
         <f t="shared" si="29"/>
@@ -6364,7 +6364,7 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="I105">
-        <v>4.8312005188700002</v>
+        <v>4.8312071381599999</v>
       </c>
       <c r="J105">
         <f t="shared" si="24"/>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="31"/>
-        <v>6.9531289755201273E-5</v>
+        <v>7.0901497889099162E-5</v>
       </c>
       <c r="L105">
         <f t="shared" si="25"/>
-        <v>14.722209088915001</v>
+        <v>14.722215705309999</v>
       </c>
       <c r="M105">
         <f t="shared" si="26"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="27"/>
-        <v>-0.64183784827893808</v>
+        <v>-0.64183815377940356</v>
       </c>
       <c r="O105">
         <f t="shared" si="28"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="P105" s="5">
         <f t="shared" si="32"/>
-        <v>3.0641794383216827E-5</v>
+        <v>3.1117786609886338E-5</v>
       </c>
       <c r="R105">
         <f t="shared" si="29"/>
@@ -6409,7 +6409,7 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="I106">
-        <v>4.61321765896</v>
+        <v>4.6132242724600001</v>
       </c>
       <c r="J106">
         <f t="shared" si="24"/>
@@ -6417,11 +6417,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="31"/>
-        <v>7.2444430706675132E-5</v>
+        <v>7.387813264754975E-5</v>
       </c>
       <c r="L106">
         <f t="shared" si="25"/>
-        <v>14.500837638225001</v>
+        <v>14.500844211655</v>
       </c>
       <c r="M106">
         <f t="shared" si="26"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="27"/>
-        <v>-0.65184177378343677</v>
+        <v>-0.65184230169184887</v>
       </c>
       <c r="O106">
         <f t="shared" si="28"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="P106" s="5">
         <f t="shared" si="32"/>
-        <v>3.6194088951996078E-5</v>
+        <v>3.7003990281571085E-5</v>
       </c>
       <c r="R106">
         <f t="shared" si="29"/>
@@ -6454,7 +6454,7 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="I107">
-        <v>4.3884576174900003</v>
+        <v>4.38846415085</v>
       </c>
       <c r="J107">
         <f t="shared" si="24"/>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="31"/>
-        <v>7.5476304414747106E-5</v>
+        <v>7.6965176743717487E-5</v>
       </c>
       <c r="L107">
         <f t="shared" si="25"/>
-        <v>14.272527513330001</v>
+        <v>14.272533966245</v>
       </c>
       <c r="M107">
         <f t="shared" si="26"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="27"/>
-        <v>-0.66184624049872665</v>
+        <v>-0.66184699899516519</v>
       </c>
       <c r="O107">
         <f t="shared" si="28"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="P107" s="5">
         <f t="shared" si="32"/>
-        <v>4.2396357966691823E-5</v>
+        <v>4.3542437750209932E-5</v>
       </c>
       <c r="R107">
         <f t="shared" si="29"/>
@@ -6499,7 +6499,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="I108">
-        <v>4.1565974091699998</v>
+        <v>4.1566037816400003</v>
       </c>
       <c r="J108">
         <f t="shared" si="24"/>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="31"/>
-        <v>7.8607445192269457E-5</v>
+        <v>8.0140663422665655E-5</v>
       </c>
       <c r="L108">
         <f t="shared" si="25"/>
-        <v>14.03693967751</v>
+        <v>14.03694592648</v>
       </c>
       <c r="M108">
         <f t="shared" si="26"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="27"/>
-        <v>-0.67185134450363848</v>
+        <v>-0.67185233702379987</v>
       </c>
       <c r="O108">
         <f t="shared" si="28"/>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="P108" s="5">
         <f t="shared" si="32"/>
-        <v>4.9362589990700181E-5</v>
+        <v>5.0839954236343668E-5</v>
       </c>
       <c r="R108">
         <f t="shared" si="29"/>
@@ -6544,7 +6544,7 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="I109">
-        <v>3.9172819458500001</v>
+        <v>3.9172880713199998</v>
       </c>
       <c r="J109">
         <f t="shared" si="24"/>
@@ -6552,11 +6552,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="31"/>
-        <v>8.1802562753320438E-5</v>
+        <v>8.3366394809194724E-5</v>
       </c>
       <c r="L109">
         <f t="shared" si="25"/>
-        <v>13.793700678705001</v>
+        <v>13.793706635725</v>
       </c>
       <c r="M109">
         <f t="shared" si="26"/>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="27"/>
-        <v>-0.68185720339728462</v>
+        <v>-0.6818584272876681</v>
       </c>
       <c r="O109">
         <f t="shared" si="28"/>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="P109" s="5">
         <f t="shared" si="32"/>
-        <v>5.7231649349054238E-5</v>
+        <v>5.9026688578163815E-5</v>
       </c>
       <c r="R109">
         <f t="shared" si="29"/>
@@ -6589,7 +6589,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="I110">
-        <v>3.67011941156</v>
+        <v>3.6701252001300002</v>
       </c>
       <c r="J110">
         <f t="shared" si="24"/>
@@ -6597,11 +6597,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="31"/>
-        <v>8.5001194953552577E-5</v>
+        <v>8.6578544730607027E-5</v>
       </c>
       <c r="L110">
         <f t="shared" si="25"/>
-        <v>13.542397573824999</v>
+        <v>13.542403148249999</v>
       </c>
       <c r="M110">
         <f t="shared" si="26"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="27"/>
-        <v>-0.69186396218677382</v>
+        <v>-0.69186540699226573</v>
       </c>
       <c r="O110">
         <f t="shared" si="28"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="P110" s="5">
         <f t="shared" si="32"/>
-        <v>6.6173988771394559E-5</v>
+        <v>6.8262406696629463E-5</v>
       </c>
       <c r="R110">
         <f t="shared" si="29"/>
@@ -6634,7 +6634,7 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="I111">
-        <v>3.41467573609</v>
+        <v>3.4146810963699998</v>
       </c>
       <c r="J111">
         <f t="shared" si="24"/>
@@ -6642,11 +6642,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="31"/>
-        <v>8.8102270870936024E-5</v>
+        <v>8.9672186337886125E-5</v>
       </c>
       <c r="L111">
         <f t="shared" si="25"/>
-        <v>13.28257183911</v>
+        <v>13.282576940335</v>
       </c>
       <c r="M111">
         <f t="shared" si="26"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="27"/>
-        <v>-0.70187180074529409</v>
+        <v>-0.70187344666916218</v>
       </c>
       <c r="O111">
         <f t="shared" si="28"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="P111" s="5">
         <f t="shared" si="32"/>
-        <v>7.640002567847672E-5</v>
+        <v>7.8745253987928107E-5</v>
       </c>
       <c r="R111">
         <f t="shared" si="29"/>
@@ -6679,7 +6679,7 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="I112">
-        <v>3.1504679421300001</v>
+        <v>3.1504727843000002</v>
       </c>
       <c r="J112">
         <f t="shared" si="24"/>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="31"/>
-        <v>9.0937891958508383E-5</v>
+        <v>9.2475000231234599E-5</v>
       </c>
       <c r="L112">
         <f t="shared" si="25"/>
-        <v>13.01371200645</v>
+        <v>13.013716547490001</v>
       </c>
       <c r="M112">
         <f t="shared" si="26"/>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="27"/>
-        <v>-0.71188094484484843</v>
+        <v>-0.71188276077870405</v>
       </c>
       <c r="O112">
         <f t="shared" si="28"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="P112" s="5">
         <f t="shared" si="32"/>
-        <v>8.8172834386808055E-5</v>
+        <v>9.0723954745916676E-5</v>
       </c>
       <c r="R112">
         <f t="shared" si="29"/>
@@ -6724,7 +6724,7 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="I113">
-        <v>2.8769560707699999</v>
+        <v>2.8769603106799999</v>
       </c>
       <c r="J113">
         <f t="shared" si="24"/>
@@ -6732,11 +6732,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="31"/>
-        <v>9.3226985430281285E-5</v>
+        <v>9.4700871429824593E-5</v>
       </c>
       <c r="L113">
         <f t="shared" si="25"/>
-        <v>12.73524468279</v>
+        <v>12.735248584960001</v>
       </c>
       <c r="M113">
         <f t="shared" si="26"/>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="27"/>
-        <v>-0.72189168010523452</v>
+        <v>-0.72189362177914795</v>
       </c>
       <c r="O113">
         <f t="shared" si="28"/>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="P113" s="5">
         <f t="shared" si="32"/>
-        <v>1.0182382337740078E-4</v>
+        <v>1.0451379983177536E-4</v>
       </c>
       <c r="R113">
         <f t="shared" si="29"/>
@@ -6769,7 +6769,7 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="I114">
-        <v>2.5935332948099998</v>
+        <v>2.5935368592399999</v>
       </c>
       <c r="J114">
         <f t="shared" si="24"/>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="31"/>
-        <v>9.4489734833379214E-5</v>
+        <v>9.5864217593722462E-5</v>
       </c>
       <c r="L114">
         <f t="shared" si="25"/>
-        <v>12.446523494714999</v>
+        <v>12.446526693505</v>
       </c>
       <c r="M114">
         <f t="shared" si="26"/>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="27"/>
-        <v>-0.73190437233430905</v>
+        <v>-0.73190638081490877</v>
       </c>
       <c r="O114">
         <f t="shared" si="28"/>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="P114" s="5">
         <f t="shared" si="32"/>
-        <v>1.1777586055442618E-4</v>
+        <v>1.2052036820622361E-4</v>
       </c>
       <c r="R114">
         <f t="shared" si="29"/>
@@ -6814,7 +6814,7 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="I115">
-        <v>2.2995136946199999</v>
+        <v>2.2995165277699998</v>
       </c>
       <c r="J115">
         <f t="shared" si="24"/>
@@ -6822,11 +6822,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="31"/>
-        <v>9.3879985292031083E-5</v>
+        <v>9.5112165810305976E-5</v>
       </c>
       <c r="L115">
         <f t="shared" si="25"/>
-        <v>12.1468153381</v>
+        <v>12.1468177904</v>
       </c>
       <c r="M115">
         <f t="shared" si="26"/>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="27"/>
-        <v>-0.74191949563191906</v>
+        <v>-0.74192149586301304</v>
       </c>
       <c r="O115">
         <f t="shared" si="28"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="P115" s="5">
         <f t="shared" si="32"/>
-        <v>1.3657499400254164E-4</v>
+        <v>1.3927138395766075E-4</v>
       </c>
       <c r="R115">
         <f t="shared" si="29"/>
@@ -6859,7 +6859,7 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="I116">
-        <v>1.9941169815799999</v>
+        <v>1.9941190530299999</v>
       </c>
       <c r="J116">
         <f t="shared" ref="J116:J119" si="34">SQRT(((I$20-Datum)^2)-$H116*((I$20-Datum)^2-(I$119-Datum)^2)+(Rech*G116/K)*(Length-G116))+Datum</f>
@@ -6867,11 +6867,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="31"/>
-        <v>8.9831721177227543E-5</v>
+        <v>9.087059507531326E-5</v>
       </c>
       <c r="L116">
         <f t="shared" si="25"/>
-        <v>11.835283080515</v>
+        <v>11.835284773170001</v>
       </c>
       <c r="M116">
         <f t="shared" si="26"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="27"/>
-        <v>-0.75193767275471501</v>
+        <v>-0.75193957355379215</v>
       </c>
       <c r="O116">
         <f t="shared" si="28"/>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="P116" s="5">
         <f t="shared" si="32"/>
-        <v>1.5893594943703287E-4</v>
+        <v>1.6146421906804932E-4</v>
       </c>
       <c r="R116">
         <f t="shared" si="29"/>
@@ -6904,7 +6904,7 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="I117">
-        <v>1.67644917945</v>
+        <v>1.67645049331</v>
       </c>
       <c r="J117">
         <f t="shared" si="34"/>
@@ -6912,11 +6912,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="31"/>
-        <v>7.9235542989194592E-5</v>
+        <v>8.001932106038491E-5</v>
       </c>
       <c r="L117">
         <f t="shared" si="25"/>
-        <v>11.51096352461</v>
+        <v>11.510964484060001</v>
       </c>
       <c r="M117">
         <f t="shared" si="26"/>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="27"/>
-        <v>-0.7619597346837762</v>
+        <v>-0.76196143003422989</v>
       </c>
       <c r="O117">
         <f t="shared" si="28"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="P117" s="5">
         <f t="shared" si="32"/>
-        <v>1.8580925078310557E-4</v>
+        <v>1.8803465113997767E-4</v>
       </c>
       <c r="R117">
         <f t="shared" si="29"/>
@@ -6949,7 +6949,7 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="I118">
-        <v>1.3454778697700001</v>
+        <v>1.3454784748099999</v>
       </c>
       <c r="J118">
         <f t="shared" si="34"/>
@@ -6957,11 +6957,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="31"/>
-        <v>5.5236293804437259E-5</v>
+        <v>5.5686002739560642E-5</v>
       </c>
       <c r="L118">
         <f t="shared" si="25"/>
-        <v>11.172738934885</v>
+        <v>11.172739237405001</v>
       </c>
       <c r="M118">
         <f t="shared" si="26"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="27"/>
-        <v>-0.77198680934408181</v>
+        <v>-0.77198818223770438</v>
       </c>
       <c r="O118">
         <f t="shared" si="28"/>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="P118" s="5">
         <f t="shared" si="32"/>
-        <v>2.1848089339117623E-4</v>
+        <v>2.2025967193631257E-4</v>
       </c>
       <c r="R118">
         <f t="shared" si="29"/>
